--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A67E4C4-3C8C-4953-B35A-403962E17703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B4A1F-B570-4196-AF08-0CFFE33F21CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="1995">
   <si>
     <t>query</t>
   </si>
@@ -6021,6 +6021,9 @@
   </si>
   <si>
     <t>tag_simbolo</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -21293,9 +21296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C64F4A-F779-45CC-BC31-2E27DBD5B45E}">
   <dimension ref="A1:Q571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21318,7 +21321,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>1994</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>1412</v>
       </c>
@@ -21381,9 +21386,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f>IF(ISBLANK(D2),"","Não")</f>
-        <v>Não</v>
+      <c r="E2" t="s">
+        <v>1327</v>
       </c>
       <c r="Q2" t="s">
         <v>988</v>
@@ -21402,9 +21406,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(ISBLANK(D3),"","Não")</f>
-        <v>Não</v>
+      <c r="E3" t="s">
+        <v>1327</v>
       </c>
       <c r="Q3" t="s">
         <v>989</v>
@@ -21423,9 +21426,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E4" t="s">
+        <v>1327</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -21447,9 +21449,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E5" t="s">
+        <v>1327</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -21471,9 +21472,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E6" t="s">
+        <v>1327</v>
       </c>
       <c r="Q6" t="s">
         <v>990</v>
@@ -21492,9 +21492,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E7" t="s">
+        <v>1327</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -21516,9 +21515,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E8" t="s">
+        <v>1327</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -21540,9 +21538,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E9" t="s">
+        <v>1327</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -21564,9 +21561,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E10" t="s">
+        <v>1327</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -21588,9 +21584,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E11" t="s">
+        <v>1327</v>
       </c>
       <c r="Q11" t="s">
         <v>994</v>
@@ -21609,9 +21604,8 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E12" t="s">
+        <v>1327</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -21633,9 +21627,8 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E13" t="s">
+        <v>1327</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -21657,9 +21650,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E14" t="s">
+        <v>1327</v>
       </c>
       <c r="Q14" t="s">
         <v>996</v>
@@ -21678,9 +21670,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E15" t="s">
+        <v>1327</v>
       </c>
       <c r="Q15" t="s">
         <v>997</v>
@@ -21699,9 +21690,8 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E16" t="s">
+        <v>1327</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -21723,9 +21713,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E17" t="s">
+        <v>1327</v>
       </c>
       <c r="Q17" t="s">
         <v>990</v>
@@ -21744,9 +21733,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E18" t="s">
+        <v>1327</v>
       </c>
       <c r="F18">
         <v>12067</v>
@@ -21771,9 +21759,8 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E19" t="s">
+        <v>1327</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -21795,9 +21782,8 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E20" t="s">
+        <v>1327</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -21819,9 +21805,8 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E21" t="s">
+        <v>1327</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -21843,9 +21828,8 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E22" t="s">
+        <v>1327</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -21867,9 +21851,8 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E23" t="s">
+        <v>1327</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -21891,9 +21874,8 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E24" t="s">
+        <v>1327</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -21915,9 +21897,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E25" t="s">
+        <v>1327</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -21942,9 +21923,8 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E26" t="s">
+        <v>1327</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -21969,9 +21949,8 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E27" t="s">
+        <v>1327</v>
       </c>
       <c r="Q27" t="s">
         <v>1004</v>
@@ -21990,9 +21969,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E28" t="s">
+        <v>1327</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -22014,9 +21992,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E29" t="s">
+        <v>1327</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -22038,9 +22015,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E30" t="s">
+        <v>1327</v>
       </c>
       <c r="F30">
         <v>23736</v>
@@ -22065,9 +22041,8 @@
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E31" t="s">
+        <v>1327</v>
       </c>
       <c r="Q31" t="s">
         <v>1006</v>
@@ -22086,9 +22061,8 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E32" t="s">
+        <v>1327</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -22110,9 +22084,8 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E33" t="s">
+        <v>1327</v>
       </c>
       <c r="Q33" t="s">
         <v>1007</v>
@@ -22131,9 +22104,8 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E34" t="s">
+        <v>1327</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -22155,9 +22127,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E35" t="s">
+        <v>1327</v>
       </c>
       <c r="Q35" t="s">
         <v>1008</v>
@@ -22176,9 +22147,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E36" t="s">
+        <v>1327</v>
       </c>
       <c r="Q36" t="s">
         <v>1009</v>
@@ -22197,9 +22167,8 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E37" t="s">
+        <v>1327</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -22221,9 +22190,8 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E38" t="s">
+        <v>1327</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -22245,9 +22213,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E39" t="s">
+        <v>1327</v>
       </c>
       <c r="Q39" t="s">
         <v>990</v>
@@ -22266,9 +22233,8 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E40" t="s">
+        <v>1327</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -22290,9 +22256,8 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E41" t="s">
+        <v>1327</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -22314,9 +22279,8 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E42" t="s">
+        <v>1327</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -22338,9 +22302,8 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E43" t="s">
+        <v>1327</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -22362,9 +22325,8 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E44" t="s">
+        <v>1327</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -22386,9 +22348,8 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E45" t="s">
+        <v>1327</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -22410,9 +22371,8 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>Não</v>
+      <c r="E46" t="s">
+        <v>1327</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -22431,9 +22391,8 @@
       <c r="C47" t="s">
         <v>1459</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E47" t="s">
+        <v>1327</v>
       </c>
       <c r="Q47" t="s">
         <v>1015</v>
@@ -22449,9 +22408,8 @@
       <c r="C48" t="s">
         <v>1460</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E48" t="s">
+        <v>1327</v>
       </c>
       <c r="Q48" t="s">
         <v>1016</v>
@@ -22467,9 +22425,8 @@
       <c r="C49" t="s">
         <v>1461</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E49" t="s">
+        <v>1327</v>
       </c>
       <c r="Q49" t="s">
         <v>1017</v>
@@ -22485,9 +22442,8 @@
       <c r="C50" t="s">
         <v>1462</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E50" t="s">
+        <v>1327</v>
       </c>
       <c r="Q50" t="s">
         <v>1018</v>
@@ -22503,9 +22459,8 @@
       <c r="C51" t="s">
         <v>1463</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E51" t="s">
+        <v>1327</v>
       </c>
       <c r="Q51" t="s">
         <v>1019</v>
@@ -22521,9 +22476,8 @@
       <c r="C52" t="s">
         <v>1464</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E52" t="s">
+        <v>1327</v>
       </c>
       <c r="Q52" t="s">
         <v>1020</v>
@@ -22539,9 +22493,8 @@
       <c r="C53" t="s">
         <v>1465</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E53" t="s">
+        <v>1327</v>
       </c>
       <c r="Q53" t="s">
         <v>1021</v>
@@ -22557,9 +22510,8 @@
       <c r="C54" t="s">
         <v>1466</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E54" t="s">
+        <v>1327</v>
       </c>
       <c r="Q54" t="s">
         <v>990</v>
@@ -22575,9 +22527,8 @@
       <c r="C55" t="s">
         <v>1467</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E55" t="s">
+        <v>1327</v>
       </c>
       <c r="Q55" t="s">
         <v>1022</v>
@@ -22593,9 +22544,8 @@
       <c r="C56" t="s">
         <v>1468</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E56" t="s">
+        <v>1327</v>
       </c>
       <c r="Q56" t="s">
         <v>1023</v>
@@ -22611,9 +22561,8 @@
       <c r="C57" t="s">
         <v>1469</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E57" t="s">
+        <v>1327</v>
       </c>
       <c r="Q57" t="s">
         <v>1024</v>
@@ -22629,9 +22578,8 @@
       <c r="C58" t="s">
         <v>1470</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E58" t="s">
+        <v>1327</v>
       </c>
       <c r="Q58" t="s">
         <v>990</v>
@@ -22647,9 +22595,8 @@
       <c r="C59" t="s">
         <v>1471</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E59" t="s">
+        <v>1327</v>
       </c>
       <c r="Q59" t="s">
         <v>990</v>
@@ -22665,9 +22612,8 @@
       <c r="C60" t="s">
         <v>1472</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E60" t="s">
+        <v>1327</v>
       </c>
       <c r="Q60" t="s">
         <v>1025</v>
@@ -22683,9 +22629,8 @@
       <c r="C61" t="s">
         <v>1473</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E61" t="s">
+        <v>1327</v>
       </c>
       <c r="Q61" t="s">
         <v>1026</v>
@@ -22701,9 +22646,8 @@
       <c r="C62" t="s">
         <v>1474</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E62" t="s">
+        <v>1327</v>
       </c>
       <c r="Q62" t="s">
         <v>1027</v>
@@ -22719,9 +22663,8 @@
       <c r="C63" t="s">
         <v>1475</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E63" t="s">
+        <v>1327</v>
       </c>
       <c r="Q63" t="s">
         <v>1028</v>
@@ -22737,9 +22680,8 @@
       <c r="C64" t="s">
         <v>1476</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E64" t="s">
+        <v>1327</v>
       </c>
       <c r="Q64" t="s">
         <v>1029</v>
@@ -22755,9 +22697,8 @@
       <c r="C65" t="s">
         <v>1477</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E65" t="s">
+        <v>1327</v>
       </c>
       <c r="Q65" t="s">
         <v>1030</v>
@@ -22773,9 +22714,8 @@
       <c r="C66" t="s">
         <v>1478</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E66" t="s">
+        <v>1327</v>
       </c>
       <c r="Q66" t="s">
         <v>1031</v>
@@ -22791,9 +22731,8 @@
       <c r="C67" t="s">
         <v>1479</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">IF(ISBLANK(D67),"","Não")</f>
-        <v/>
+      <c r="E67" t="s">
+        <v>1327</v>
       </c>
       <c r="Q67" t="s">
         <v>1032</v>
@@ -22809,9 +22748,8 @@
       <c r="C68" t="s">
         <v>1480</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E68" t="s">
+        <v>1327</v>
       </c>
       <c r="Q68" t="s">
         <v>1033</v>
@@ -22827,9 +22765,8 @@
       <c r="C69" t="s">
         <v>1481</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E69" t="s">
+        <v>1327</v>
       </c>
       <c r="Q69" t="s">
         <v>1034</v>
@@ -22845,9 +22782,8 @@
       <c r="C70" t="s">
         <v>1482</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E70" t="s">
+        <v>1327</v>
       </c>
       <c r="Q70" t="s">
         <v>990</v>
@@ -22863,9 +22799,8 @@
       <c r="C71" t="s">
         <v>1483</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E71" t="s">
+        <v>1327</v>
       </c>
       <c r="Q71" t="s">
         <v>990</v>
@@ -22881,9 +22816,8 @@
       <c r="C72" t="s">
         <v>1484</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E72" t="s">
+        <v>1327</v>
       </c>
       <c r="Q72" t="s">
         <v>1035</v>
@@ -22899,9 +22833,8 @@
       <c r="C73" t="s">
         <v>1485</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E73" t="s">
+        <v>1327</v>
       </c>
       <c r="Q73" t="s">
         <v>1036</v>
@@ -22917,9 +22850,8 @@
       <c r="C74" t="s">
         <v>1486</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E74" t="s">
+        <v>1327</v>
       </c>
       <c r="Q74" t="s">
         <v>1037</v>
@@ -22935,9 +22867,8 @@
       <c r="C75" t="s">
         <v>1487</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E75" t="s">
+        <v>1327</v>
       </c>
       <c r="Q75" t="s">
         <v>1038</v>
@@ -22953,9 +22884,8 @@
       <c r="C76" t="s">
         <v>1488</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E76" t="s">
+        <v>1327</v>
       </c>
       <c r="Q76" t="s">
         <v>1039</v>
@@ -22971,9 +22901,8 @@
       <c r="C77" t="s">
         <v>1489</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E77" t="s">
+        <v>1327</v>
       </c>
       <c r="Q77" t="s">
         <v>1040</v>
@@ -22989,9 +22918,8 @@
       <c r="C78" t="s">
         <v>1490</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E78" t="s">
+        <v>1327</v>
       </c>
       <c r="Q78" t="s">
         <v>1041</v>
@@ -23007,9 +22935,8 @@
       <c r="C79" t="s">
         <v>1491</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E79" t="s">
+        <v>1327</v>
       </c>
       <c r="Q79" t="s">
         <v>990</v>
@@ -23025,9 +22952,8 @@
       <c r="C80" t="s">
         <v>1492</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E80" t="s">
+        <v>1327</v>
       </c>
       <c r="Q80" t="s">
         <v>1042</v>
@@ -23043,9 +22969,8 @@
       <c r="C81" t="s">
         <v>1493</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E81" t="s">
+        <v>1327</v>
       </c>
       <c r="Q81" t="s">
         <v>1043</v>
@@ -23061,9 +22986,8 @@
       <c r="C82" t="s">
         <v>1494</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E82" t="s">
+        <v>1327</v>
       </c>
       <c r="Q82" t="s">
         <v>990</v>
@@ -23079,9 +23003,8 @@
       <c r="C83" t="s">
         <v>1495</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E83" t="s">
+        <v>1327</v>
       </c>
       <c r="Q83" t="s">
         <v>1044</v>
@@ -23097,9 +23020,8 @@
       <c r="C84" t="s">
         <v>1496</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E84" t="s">
+        <v>1327</v>
       </c>
       <c r="Q84" t="s">
         <v>1045</v>
@@ -23115,9 +23037,8 @@
       <c r="C85" t="s">
         <v>1497</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E85" t="s">
+        <v>1327</v>
       </c>
       <c r="Q85" t="s">
         <v>1046</v>
@@ -23133,9 +23054,8 @@
       <c r="C86" t="s">
         <v>1498</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E86" t="s">
+        <v>1327</v>
       </c>
       <c r="Q86" t="s">
         <v>990</v>
@@ -23151,9 +23071,8 @@
       <c r="C87" t="s">
         <v>1499</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E87" t="s">
+        <v>1327</v>
       </c>
       <c r="Q87" t="s">
         <v>1047</v>
@@ -23169,9 +23088,8 @@
       <c r="C88" t="s">
         <v>1500</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E88" t="s">
+        <v>1327</v>
       </c>
       <c r="Q88" t="s">
         <v>1048</v>
@@ -23187,9 +23105,8 @@
       <c r="C89" t="s">
         <v>1501</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E89" t="s">
+        <v>1327</v>
       </c>
       <c r="Q89" t="s">
         <v>1049</v>
@@ -23205,9 +23122,8 @@
       <c r="C90" t="s">
         <v>1502</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E90" t="s">
+        <v>1327</v>
       </c>
       <c r="Q90" t="s">
         <v>1050</v>
@@ -23223,9 +23139,8 @@
       <c r="C91" t="s">
         <v>1503</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E91" t="s">
+        <v>1327</v>
       </c>
       <c r="Q91" t="s">
         <v>1051</v>
@@ -23241,9 +23156,8 @@
       <c r="C92" t="s">
         <v>1504</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E92" t="s">
+        <v>1327</v>
       </c>
       <c r="Q92" t="s">
         <v>1052</v>
@@ -23259,9 +23173,8 @@
       <c r="C93" t="s">
         <v>1505</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E93" t="s">
+        <v>1327</v>
       </c>
       <c r="Q93" t="s">
         <v>1053</v>
@@ -23277,9 +23190,8 @@
       <c r="C94" t="s">
         <v>1506</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E94" t="s">
+        <v>1327</v>
       </c>
       <c r="Q94" t="s">
         <v>1054</v>
@@ -23295,9 +23207,8 @@
       <c r="C95" t="s">
         <v>1507</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E95" t="s">
+        <v>1327</v>
       </c>
       <c r="Q95" t="s">
         <v>1055</v>
@@ -23313,9 +23224,8 @@
       <c r="C96" t="s">
         <v>1508</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E96" t="s">
+        <v>1327</v>
       </c>
       <c r="Q96" t="s">
         <v>990</v>
@@ -23331,9 +23241,8 @@
       <c r="C97" t="s">
         <v>1509</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E97" t="s">
+        <v>1327</v>
       </c>
       <c r="Q97" t="s">
         <v>1056</v>
@@ -23349,9 +23258,8 @@
       <c r="C98" t="s">
         <v>1510</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E98" t="s">
+        <v>1327</v>
       </c>
       <c r="Q98" t="s">
         <v>1057</v>
@@ -23367,9 +23275,8 @@
       <c r="C99" t="s">
         <v>1511</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E99" t="s">
+        <v>1327</v>
       </c>
       <c r="Q99" t="s">
         <v>1058</v>
@@ -23385,9 +23292,8 @@
       <c r="C100" t="s">
         <v>1512</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E100" t="s">
+        <v>1327</v>
       </c>
       <c r="Q100" t="s">
         <v>990</v>
@@ -23403,9 +23309,8 @@
       <c r="C101" t="s">
         <v>1513</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E101" t="s">
+        <v>1327</v>
       </c>
       <c r="Q101" t="s">
         <v>1059</v>
@@ -23421,9 +23326,8 @@
       <c r="C102" t="s">
         <v>1514</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E102" t="s">
+        <v>1327</v>
       </c>
       <c r="Q102" t="s">
         <v>990</v>
@@ -23439,9 +23343,8 @@
       <c r="C103" t="s">
         <v>1515</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E103" t="s">
+        <v>1327</v>
       </c>
       <c r="Q103" t="s">
         <v>1060</v>
@@ -23457,9 +23360,8 @@
       <c r="C104" t="s">
         <v>1516</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E104" t="s">
+        <v>1327</v>
       </c>
       <c r="Q104" t="s">
         <v>1061</v>
@@ -23475,9 +23377,8 @@
       <c r="C105" t="s">
         <v>1517</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E105" t="s">
+        <v>1327</v>
       </c>
       <c r="Q105" t="s">
         <v>1062</v>
@@ -23493,9 +23394,8 @@
       <c r="C106" t="s">
         <v>1518</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E106" t="s">
+        <v>1327</v>
       </c>
       <c r="Q106" t="s">
         <v>1063</v>
@@ -23511,9 +23411,8 @@
       <c r="C107" t="s">
         <v>1519</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E107" t="s">
+        <v>1327</v>
       </c>
       <c r="Q107" t="s">
         <v>990</v>
@@ -23529,9 +23428,8 @@
       <c r="C108" t="s">
         <v>1520</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E108" t="s">
+        <v>1327</v>
       </c>
       <c r="Q108" t="s">
         <v>990</v>
@@ -23547,9 +23445,8 @@
       <c r="C109" t="s">
         <v>1521</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E109" t="s">
+        <v>1327</v>
       </c>
       <c r="Q109" t="s">
         <v>1064</v>
@@ -23565,9 +23462,8 @@
       <c r="C110" t="s">
         <v>1522</v>
       </c>
-      <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E110" t="s">
+        <v>1327</v>
       </c>
       <c r="Q110" t="s">
         <v>1065</v>
@@ -23583,9 +23479,8 @@
       <c r="C111" t="s">
         <v>1523</v>
       </c>
-      <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E111" t="s">
+        <v>1327</v>
       </c>
       <c r="Q111" t="s">
         <v>1066</v>
@@ -23601,9 +23496,8 @@
       <c r="C112" t="s">
         <v>1524</v>
       </c>
-      <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E112" t="s">
+        <v>1327</v>
       </c>
       <c r="Q112" t="s">
         <v>1067</v>
@@ -23619,9 +23513,8 @@
       <c r="C113" t="s">
         <v>1525</v>
       </c>
-      <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E113" t="s">
+        <v>1327</v>
       </c>
       <c r="Q113" t="s">
         <v>1068</v>
@@ -23637,9 +23530,8 @@
       <c r="C114" t="s">
         <v>1526</v>
       </c>
-      <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E114" t="s">
+        <v>1327</v>
       </c>
       <c r="Q114" t="s">
         <v>1069</v>
@@ -23655,9 +23547,8 @@
       <c r="C115" t="s">
         <v>1527</v>
       </c>
-      <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E115" t="s">
+        <v>1327</v>
       </c>
       <c r="Q115" t="s">
         <v>990</v>
@@ -23673,9 +23564,8 @@
       <c r="C116" t="s">
         <v>1528</v>
       </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E116" t="s">
+        <v>1327</v>
       </c>
       <c r="Q116" t="s">
         <v>990</v>
@@ -23691,9 +23581,8 @@
       <c r="C117" t="s">
         <v>1529</v>
       </c>
-      <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E117" t="s">
+        <v>1327</v>
       </c>
       <c r="Q117" t="s">
         <v>1070</v>
@@ -23709,9 +23598,8 @@
       <c r="C118" t="s">
         <v>1530</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E118" t="s">
+        <v>1327</v>
       </c>
       <c r="Q118" t="s">
         <v>1071</v>
@@ -23727,9 +23615,8 @@
       <c r="C119" t="s">
         <v>1531</v>
       </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E119" t="s">
+        <v>1327</v>
       </c>
       <c r="Q119" t="s">
         <v>1072</v>
@@ -23745,9 +23632,8 @@
       <c r="C120" t="s">
         <v>1532</v>
       </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E120" t="s">
+        <v>1327</v>
       </c>
       <c r="Q120" t="s">
         <v>1073</v>
@@ -23763,9 +23649,8 @@
       <c r="C121" t="s">
         <v>1533</v>
       </c>
-      <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E121" t="s">
+        <v>1327</v>
       </c>
       <c r="Q121" t="s">
         <v>990</v>
@@ -23781,9 +23666,8 @@
       <c r="C122" t="s">
         <v>1534</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E122" t="s">
+        <v>1327</v>
       </c>
       <c r="Q122" t="s">
         <v>1074</v>
@@ -23799,9 +23683,8 @@
       <c r="C123" t="s">
         <v>1535</v>
       </c>
-      <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E123" t="s">
+        <v>1327</v>
       </c>
       <c r="Q123" t="s">
         <v>1075</v>
@@ -23817,9 +23700,8 @@
       <c r="C124" t="s">
         <v>1536</v>
       </c>
-      <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E124" t="s">
+        <v>1327</v>
       </c>
       <c r="Q124" t="s">
         <v>1076</v>
@@ -23835,9 +23717,8 @@
       <c r="C125" t="s">
         <v>1537</v>
       </c>
-      <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E125" t="s">
+        <v>1327</v>
       </c>
       <c r="Q125" t="s">
         <v>1077</v>
@@ -23853,9 +23734,8 @@
       <c r="C126" t="s">
         <v>1538</v>
       </c>
-      <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E126" t="s">
+        <v>1327</v>
       </c>
       <c r="Q126" t="s">
         <v>1078</v>
@@ -23871,9 +23751,8 @@
       <c r="C127" t="s">
         <v>1539</v>
       </c>
-      <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E127" t="s">
+        <v>1327</v>
       </c>
       <c r="Q127" t="s">
         <v>1079</v>
@@ -23889,9 +23768,8 @@
       <c r="C128" t="s">
         <v>1540</v>
       </c>
-      <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E128" t="s">
+        <v>1327</v>
       </c>
       <c r="Q128" t="s">
         <v>1080</v>
@@ -23907,9 +23785,8 @@
       <c r="C129" t="s">
         <v>1541</v>
       </c>
-      <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E129" t="s">
+        <v>1327</v>
       </c>
       <c r="Q129" t="s">
         <v>990</v>
@@ -23925,9 +23802,8 @@
       <c r="C130" t="s">
         <v>1542</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E130" t="s">
+        <v>1327</v>
       </c>
       <c r="Q130" t="s">
         <v>1081</v>
@@ -23943,9 +23819,8 @@
       <c r="C131" t="s">
         <v>1543</v>
       </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">IF(ISBLANK(D131),"","Não")</f>
-        <v/>
+      <c r="E131" t="s">
+        <v>1327</v>
       </c>
       <c r="Q131" t="s">
         <v>1082</v>
@@ -23961,9 +23836,8 @@
       <c r="C132" t="s">
         <v>1544</v>
       </c>
-      <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E132" t="s">
+        <v>1327</v>
       </c>
       <c r="Q132" t="s">
         <v>1083</v>
@@ -23979,9 +23853,8 @@
       <c r="C133" t="s">
         <v>1545</v>
       </c>
-      <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E133" t="s">
+        <v>1327</v>
       </c>
       <c r="Q133" t="s">
         <v>1084</v>
@@ -23997,9 +23870,8 @@
       <c r="C134" t="s">
         <v>1546</v>
       </c>
-      <c r="E134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E134" t="s">
+        <v>1327</v>
       </c>
       <c r="Q134" t="s">
         <v>1085</v>
@@ -24015,9 +23887,8 @@
       <c r="C135" t="s">
         <v>1547</v>
       </c>
-      <c r="E135" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E135" t="s">
+        <v>1327</v>
       </c>
       <c r="Q135" t="s">
         <v>1086</v>
@@ -24033,9 +23904,8 @@
       <c r="C136" t="s">
         <v>1548</v>
       </c>
-      <c r="E136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E136" t="s">
+        <v>1327</v>
       </c>
       <c r="Q136" t="s">
         <v>1087</v>
@@ -24051,9 +23921,8 @@
       <c r="C137" t="s">
         <v>1549</v>
       </c>
-      <c r="E137" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E137" t="s">
+        <v>1327</v>
       </c>
       <c r="Q137" t="s">
         <v>1088</v>
@@ -24069,9 +23938,8 @@
       <c r="C138" t="s">
         <v>1530</v>
       </c>
-      <c r="E138" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E138" t="s">
+        <v>1327</v>
       </c>
       <c r="Q138" t="s">
         <v>1089</v>
@@ -24087,9 +23955,8 @@
       <c r="C139" t="s">
         <v>1550</v>
       </c>
-      <c r="E139" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E139" t="s">
+        <v>1327</v>
       </c>
       <c r="Q139" t="s">
         <v>1090</v>
@@ -24105,9 +23972,8 @@
       <c r="C140" t="s">
         <v>1551</v>
       </c>
-      <c r="E140" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E140" t="s">
+        <v>1327</v>
       </c>
       <c r="Q140" t="s">
         <v>990</v>
@@ -24123,9 +23989,8 @@
       <c r="C141" t="s">
         <v>1552</v>
       </c>
-      <c r="E141" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E141" t="s">
+        <v>1327</v>
       </c>
       <c r="Q141" t="s">
         <v>990</v>
@@ -24141,9 +24006,8 @@
       <c r="C142" t="s">
         <v>1553</v>
       </c>
-      <c r="E142" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E142" t="s">
+        <v>1327</v>
       </c>
       <c r="Q142" t="s">
         <v>1091</v>
@@ -24159,9 +24023,8 @@
       <c r="C143" t="s">
         <v>1554</v>
       </c>
-      <c r="E143" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E143" t="s">
+        <v>1327</v>
       </c>
       <c r="Q143" t="s">
         <v>1092</v>
@@ -24177,9 +24040,8 @@
       <c r="C144" t="s">
         <v>1555</v>
       </c>
-      <c r="E144" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E144" t="s">
+        <v>1327</v>
       </c>
       <c r="Q144" t="s">
         <v>990</v>
@@ -24195,9 +24057,8 @@
       <c r="C145" t="s">
         <v>1556</v>
       </c>
-      <c r="E145" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E145" t="s">
+        <v>1327</v>
       </c>
       <c r="Q145" t="s">
         <v>1093</v>
@@ -24213,9 +24074,8 @@
       <c r="C146" t="s">
         <v>1557</v>
       </c>
-      <c r="E146" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E146" t="s">
+        <v>1327</v>
       </c>
       <c r="Q146" t="s">
         <v>1094</v>
@@ -24231,9 +24091,8 @@
       <c r="C147" t="s">
         <v>1558</v>
       </c>
-      <c r="E147" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E147" t="s">
+        <v>1327</v>
       </c>
       <c r="Q147" t="s">
         <v>1095</v>
@@ -24249,9 +24108,8 @@
       <c r="C148" t="s">
         <v>1559</v>
       </c>
-      <c r="E148" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E148" t="s">
+        <v>1327</v>
       </c>
       <c r="Q148" t="s">
         <v>1096</v>
@@ -24267,9 +24125,8 @@
       <c r="C149" t="s">
         <v>1560</v>
       </c>
-      <c r="E149" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E149" t="s">
+        <v>1327</v>
       </c>
       <c r="Q149" t="s">
         <v>1097</v>
@@ -24285,9 +24142,8 @@
       <c r="C150" t="s">
         <v>1561</v>
       </c>
-      <c r="E150" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E150" t="s">
+        <v>1327</v>
       </c>
       <c r="Q150" t="s">
         <v>990</v>
@@ -24303,9 +24159,8 @@
       <c r="C151" t="s">
         <v>1562</v>
       </c>
-      <c r="E151" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E151" t="s">
+        <v>1327</v>
       </c>
       <c r="Q151" t="s">
         <v>1098</v>
@@ -24321,9 +24176,8 @@
       <c r="C152" t="s">
         <v>1563</v>
       </c>
-      <c r="E152" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E152" t="s">
+        <v>1327</v>
       </c>
       <c r="Q152" t="s">
         <v>990</v>
@@ -24339,9 +24193,8 @@
       <c r="C153" t="s">
         <v>1564</v>
       </c>
-      <c r="E153" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E153" t="s">
+        <v>1327</v>
       </c>
       <c r="Q153" t="s">
         <v>1099</v>
@@ -24357,9 +24210,8 @@
       <c r="C154" t="s">
         <v>1565</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E154" t="s">
+        <v>1327</v>
       </c>
       <c r="Q154" t="s">
         <v>990</v>
@@ -24375,9 +24227,8 @@
       <c r="C155" t="s">
         <v>1566</v>
       </c>
-      <c r="E155" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E155" t="s">
+        <v>1327</v>
       </c>
       <c r="Q155" t="s">
         <v>1100</v>
@@ -24393,9 +24244,8 @@
       <c r="C156" t="s">
         <v>1567</v>
       </c>
-      <c r="E156" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E156" t="s">
+        <v>1327</v>
       </c>
       <c r="Q156" t="s">
         <v>1101</v>
@@ -24411,9 +24261,8 @@
       <c r="C157" t="s">
         <v>1568</v>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E157" t="s">
+        <v>1327</v>
       </c>
       <c r="Q157" t="s">
         <v>990</v>
@@ -24429,9 +24278,8 @@
       <c r="C158" t="s">
         <v>1569</v>
       </c>
-      <c r="E158" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E158" t="s">
+        <v>1327</v>
       </c>
       <c r="Q158" t="s">
         <v>1102</v>
@@ -24447,9 +24295,8 @@
       <c r="C159" t="s">
         <v>1570</v>
       </c>
-      <c r="E159" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E159" t="s">
+        <v>1327</v>
       </c>
       <c r="Q159" t="s">
         <v>1103</v>
@@ -24465,9 +24312,8 @@
       <c r="C160" t="s">
         <v>1571</v>
       </c>
-      <c r="E160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E160" t="s">
+        <v>1327</v>
       </c>
       <c r="Q160" t="s">
         <v>1104</v>
@@ -24483,9 +24329,8 @@
       <c r="C161" t="s">
         <v>1572</v>
       </c>
-      <c r="E161" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E161" t="s">
+        <v>1327</v>
       </c>
       <c r="Q161" t="s">
         <v>1105</v>
@@ -24501,9 +24346,8 @@
       <c r="C162" t="s">
         <v>1573</v>
       </c>
-      <c r="E162" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E162" t="s">
+        <v>1327</v>
       </c>
       <c r="Q162" t="s">
         <v>1106</v>
@@ -24519,9 +24363,8 @@
       <c r="C163" t="s">
         <v>1574</v>
       </c>
-      <c r="E163" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E163" t="s">
+        <v>1327</v>
       </c>
       <c r="Q163" t="s">
         <v>1107</v>
@@ -24537,9 +24380,8 @@
       <c r="C164" t="s">
         <v>1575</v>
       </c>
-      <c r="E164" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E164" t="s">
+        <v>1327</v>
       </c>
       <c r="Q164" t="s">
         <v>990</v>
@@ -24555,9 +24397,8 @@
       <c r="C165" t="s">
         <v>1576</v>
       </c>
-      <c r="E165" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E165" t="s">
+        <v>1327</v>
       </c>
       <c r="Q165" t="s">
         <v>1108</v>
@@ -24573,9 +24414,8 @@
       <c r="C166" t="s">
         <v>1577</v>
       </c>
-      <c r="E166" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E166" t="s">
+        <v>1327</v>
       </c>
       <c r="Q166" t="s">
         <v>1109</v>
@@ -24591,9 +24431,8 @@
       <c r="C167" t="s">
         <v>1578</v>
       </c>
-      <c r="E167" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E167" t="s">
+        <v>1327</v>
       </c>
       <c r="Q167" t="s">
         <v>990</v>
@@ -24609,9 +24448,8 @@
       <c r="C168" t="s">
         <v>1579</v>
       </c>
-      <c r="E168" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E168" t="s">
+        <v>1327</v>
       </c>
       <c r="Q168" t="s">
         <v>1110</v>
@@ -24627,9 +24465,8 @@
       <c r="C169" t="s">
         <v>1580</v>
       </c>
-      <c r="E169" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E169" t="s">
+        <v>1327</v>
       </c>
       <c r="Q169" t="s">
         <v>1111</v>
@@ -24645,9 +24482,8 @@
       <c r="C170" t="s">
         <v>1581</v>
       </c>
-      <c r="E170" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E170" t="s">
+        <v>1327</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>1112</v>
@@ -24663,9 +24499,8 @@
       <c r="C171" t="s">
         <v>1582</v>
       </c>
-      <c r="E171" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E171" t="s">
+        <v>1327</v>
       </c>
       <c r="Q171" t="s">
         <v>1113</v>
@@ -24681,9 +24516,8 @@
       <c r="C172" t="s">
         <v>1583</v>
       </c>
-      <c r="E172" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E172" t="s">
+        <v>1327</v>
       </c>
       <c r="Q172" t="s">
         <v>1114</v>
@@ -24699,9 +24533,8 @@
       <c r="C173" t="s">
         <v>1584</v>
       </c>
-      <c r="E173" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E173" t="s">
+        <v>1327</v>
       </c>
       <c r="Q173" t="s">
         <v>1115</v>
@@ -24717,9 +24550,8 @@
       <c r="C174" t="s">
         <v>1585</v>
       </c>
-      <c r="E174" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E174" t="s">
+        <v>1327</v>
       </c>
       <c r="Q174" t="s">
         <v>1116</v>
@@ -24735,9 +24567,8 @@
       <c r="C175" t="s">
         <v>1586</v>
       </c>
-      <c r="E175" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E175" t="s">
+        <v>1327</v>
       </c>
       <c r="Q175" t="s">
         <v>1117</v>
@@ -24753,9 +24584,8 @@
       <c r="C176" t="s">
         <v>1587</v>
       </c>
-      <c r="E176" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E176" t="s">
+        <v>1327</v>
       </c>
       <c r="Q176" t="s">
         <v>1118</v>
@@ -24771,9 +24601,8 @@
       <c r="C177" t="s">
         <v>1588</v>
       </c>
-      <c r="E177" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E177" t="s">
+        <v>1327</v>
       </c>
       <c r="Q177" t="s">
         <v>1119</v>
@@ -24789,9 +24618,8 @@
       <c r="C178" t="s">
         <v>1589</v>
       </c>
-      <c r="E178" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E178" t="s">
+        <v>1327</v>
       </c>
       <c r="Q178" t="s">
         <v>1120</v>
@@ -24807,9 +24635,8 @@
       <c r="C179" t="s">
         <v>1590</v>
       </c>
-      <c r="E179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E179" t="s">
+        <v>1327</v>
       </c>
       <c r="Q179" t="s">
         <v>1121</v>
@@ -24825,9 +24652,8 @@
       <c r="C180" t="s">
         <v>1591</v>
       </c>
-      <c r="E180" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E180" t="s">
+        <v>1327</v>
       </c>
       <c r="Q180" t="s">
         <v>1122</v>
@@ -24843,9 +24669,8 @@
       <c r="C181" t="s">
         <v>1592</v>
       </c>
-      <c r="E181" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E181" t="s">
+        <v>1327</v>
       </c>
       <c r="Q181" t="s">
         <v>1123</v>
@@ -24861,9 +24686,8 @@
       <c r="C182" t="s">
         <v>1593</v>
       </c>
-      <c r="E182" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E182" t="s">
+        <v>1327</v>
       </c>
       <c r="Q182" t="s">
         <v>990</v>
@@ -24879,9 +24703,8 @@
       <c r="C183" t="s">
         <v>1594</v>
       </c>
-      <c r="E183" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E183" t="s">
+        <v>1327</v>
       </c>
       <c r="Q183" t="s">
         <v>1124</v>
@@ -24897,9 +24720,8 @@
       <c r="C184" t="s">
         <v>1566</v>
       </c>
-      <c r="E184" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E184" t="s">
+        <v>1327</v>
       </c>
       <c r="Q184" t="s">
         <v>1125</v>
@@ -24915,9 +24737,8 @@
       <c r="C185" t="s">
         <v>1595</v>
       </c>
-      <c r="E185" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E185" t="s">
+        <v>1327</v>
       </c>
       <c r="Q185" t="s">
         <v>990</v>
@@ -24933,9 +24754,8 @@
       <c r="C186" t="s">
         <v>1596</v>
       </c>
-      <c r="E186" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E186" t="s">
+        <v>1327</v>
       </c>
       <c r="Q186" t="s">
         <v>1126</v>
@@ -24951,9 +24771,8 @@
       <c r="C187" t="s">
         <v>1597</v>
       </c>
-      <c r="E187" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E187" t="s">
+        <v>1327</v>
       </c>
       <c r="Q187" t="s">
         <v>1127</v>
@@ -24969,9 +24788,8 @@
       <c r="C188" t="s">
         <v>1598</v>
       </c>
-      <c r="E188" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E188" t="s">
+        <v>1327</v>
       </c>
       <c r="Q188" t="s">
         <v>990</v>
@@ -24987,9 +24805,8 @@
       <c r="C189" t="s">
         <v>1599</v>
       </c>
-      <c r="E189" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E189" t="s">
+        <v>1327</v>
       </c>
       <c r="Q189" t="s">
         <v>1128</v>
@@ -25005,9 +24822,8 @@
       <c r="C190" t="s">
         <v>1600</v>
       </c>
-      <c r="E190" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E190" t="s">
+        <v>1327</v>
       </c>
       <c r="Q190" t="s">
         <v>990</v>
@@ -25023,9 +24839,8 @@
       <c r="C191" t="s">
         <v>1601</v>
       </c>
-      <c r="E191" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E191" t="s">
+        <v>1327</v>
       </c>
       <c r="Q191" t="s">
         <v>990</v>
@@ -25041,9 +24856,8 @@
       <c r="C192" t="s">
         <v>1602</v>
       </c>
-      <c r="E192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E192" t="s">
+        <v>1327</v>
       </c>
       <c r="Q192" t="s">
         <v>990</v>
@@ -25059,9 +24873,8 @@
       <c r="C193" t="s">
         <v>1603</v>
       </c>
-      <c r="E193" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E193" t="s">
+        <v>1327</v>
       </c>
       <c r="Q193" t="s">
         <v>1129</v>
@@ -25077,9 +24890,8 @@
       <c r="C194" t="s">
         <v>1604</v>
       </c>
-      <c r="E194" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="E194" t="s">
+        <v>1327</v>
       </c>
       <c r="Q194" t="s">
         <v>1130</v>
@@ -25095,9 +24907,8 @@
       <c r="C195" t="s">
         <v>1487</v>
       </c>
-      <c r="E195" t="str">
-        <f t="shared" ref="E195:E258" si="3">IF(ISBLANK(D195),"","Não")</f>
-        <v/>
+      <c r="E195" t="s">
+        <v>1327</v>
       </c>
       <c r="Q195" t="s">
         <v>1131</v>
@@ -25113,9 +24924,8 @@
       <c r="C196" t="s">
         <v>1605</v>
       </c>
-      <c r="E196" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E196" t="s">
+        <v>1327</v>
       </c>
       <c r="Q196" t="s">
         <v>990</v>
@@ -25131,9 +24941,8 @@
       <c r="C197" t="s">
         <v>1606</v>
       </c>
-      <c r="E197" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E197" t="s">
+        <v>1327</v>
       </c>
       <c r="Q197" t="s">
         <v>990</v>
@@ -25149,9 +24958,8 @@
       <c r="C198" t="s">
         <v>1607</v>
       </c>
-      <c r="E198" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E198" t="s">
+        <v>1327</v>
       </c>
       <c r="Q198" t="s">
         <v>1132</v>
@@ -25167,9 +24975,8 @@
       <c r="C199" t="s">
         <v>1608</v>
       </c>
-      <c r="E199" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E199" t="s">
+        <v>1327</v>
       </c>
       <c r="Q199" t="s">
         <v>1133</v>
@@ -25185,9 +24992,8 @@
       <c r="C200" t="s">
         <v>1609</v>
       </c>
-      <c r="E200" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E200" t="s">
+        <v>1327</v>
       </c>
       <c r="Q200" t="s">
         <v>1134</v>
@@ -25203,9 +25009,8 @@
       <c r="C201" t="s">
         <v>1610</v>
       </c>
-      <c r="E201" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E201" t="s">
+        <v>1327</v>
       </c>
       <c r="Q201" t="s">
         <v>990</v>
@@ -25221,9 +25026,8 @@
       <c r="C202" t="s">
         <v>1611</v>
       </c>
-      <c r="E202" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E202" t="s">
+        <v>1327</v>
       </c>
       <c r="Q202" t="s">
         <v>990</v>
@@ -25239,9 +25043,8 @@
       <c r="C203" t="s">
         <v>1612</v>
       </c>
-      <c r="E203" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E203" t="s">
+        <v>1327</v>
       </c>
       <c r="Q203" t="s">
         <v>1135</v>
@@ -25257,9 +25060,8 @@
       <c r="C204" t="s">
         <v>1613</v>
       </c>
-      <c r="E204" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E204" t="s">
+        <v>1327</v>
       </c>
       <c r="Q204" t="s">
         <v>1136</v>
@@ -25275,9 +25077,8 @@
       <c r="C205" t="s">
         <v>1614</v>
       </c>
-      <c r="E205" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E205" t="s">
+        <v>1327</v>
       </c>
       <c r="Q205" t="s">
         <v>1137</v>
@@ -25293,9 +25094,8 @@
       <c r="C206" t="s">
         <v>1615</v>
       </c>
-      <c r="E206" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E206" t="s">
+        <v>1327</v>
       </c>
       <c r="Q206" t="s">
         <v>1138</v>
@@ -25311,9 +25111,8 @@
       <c r="C207" t="s">
         <v>1616</v>
       </c>
-      <c r="E207" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E207" t="s">
+        <v>1327</v>
       </c>
       <c r="Q207" t="s">
         <v>1139</v>
@@ -25329,9 +25128,8 @@
       <c r="C208" t="s">
         <v>1617</v>
       </c>
-      <c r="E208" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E208" t="s">
+        <v>1327</v>
       </c>
       <c r="Q208" t="s">
         <v>990</v>
@@ -25347,9 +25145,8 @@
       <c r="C209" t="s">
         <v>1618</v>
       </c>
-      <c r="E209" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E209" t="s">
+        <v>1327</v>
       </c>
       <c r="Q209" t="s">
         <v>990</v>
@@ -25365,9 +25162,8 @@
       <c r="C210" t="s">
         <v>1619</v>
       </c>
-      <c r="E210" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E210" t="s">
+        <v>1327</v>
       </c>
       <c r="Q210" t="s">
         <v>1140</v>
@@ -25383,9 +25179,8 @@
       <c r="C211" t="s">
         <v>1620</v>
       </c>
-      <c r="E211" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E211" t="s">
+        <v>1327</v>
       </c>
       <c r="Q211" t="s">
         <v>990</v>
@@ -25401,9 +25196,8 @@
       <c r="C212" t="s">
         <v>1621</v>
       </c>
-      <c r="E212" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E212" t="s">
+        <v>1327</v>
       </c>
       <c r="Q212" t="s">
         <v>990</v>
@@ -25419,9 +25213,8 @@
       <c r="C213" t="s">
         <v>1622</v>
       </c>
-      <c r="E213" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E213" t="s">
+        <v>1327</v>
       </c>
       <c r="Q213" t="s">
         <v>1141</v>
@@ -25437,9 +25230,8 @@
       <c r="C214" t="s">
         <v>1623</v>
       </c>
-      <c r="E214" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E214" t="s">
+        <v>1327</v>
       </c>
       <c r="Q214" t="s">
         <v>1142</v>
@@ -25455,9 +25247,8 @@
       <c r="C215" t="s">
         <v>1624</v>
       </c>
-      <c r="E215" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E215" t="s">
+        <v>1327</v>
       </c>
       <c r="Q215" t="s">
         <v>1143</v>
@@ -25473,9 +25264,8 @@
       <c r="C216" t="s">
         <v>1625</v>
       </c>
-      <c r="E216" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E216" t="s">
+        <v>1327</v>
       </c>
       <c r="Q216" t="s">
         <v>1144</v>
@@ -25491,9 +25281,8 @@
       <c r="C217" t="s">
         <v>1626</v>
       </c>
-      <c r="E217" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E217" t="s">
+        <v>1327</v>
       </c>
       <c r="Q217" t="s">
         <v>1145</v>
@@ -25509,9 +25298,8 @@
       <c r="C218" t="s">
         <v>1627</v>
       </c>
-      <c r="E218" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E218" t="s">
+        <v>1327</v>
       </c>
       <c r="Q218" t="s">
         <v>1146</v>
@@ -25527,9 +25315,8 @@
       <c r="C219" t="s">
         <v>1628</v>
       </c>
-      <c r="E219" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E219" t="s">
+        <v>1327</v>
       </c>
       <c r="Q219" t="s">
         <v>1147</v>
@@ -25545,9 +25332,8 @@
       <c r="C220" t="s">
         <v>1629</v>
       </c>
-      <c r="E220" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E220" t="s">
+        <v>1327</v>
       </c>
       <c r="Q220" t="s">
         <v>1148</v>
@@ -25563,9 +25349,8 @@
       <c r="C221" t="s">
         <v>1630</v>
       </c>
-      <c r="E221" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E221" t="s">
+        <v>1327</v>
       </c>
       <c r="Q221" t="s">
         <v>1149</v>
@@ -25581,9 +25366,8 @@
       <c r="C222" t="s">
         <v>1631</v>
       </c>
-      <c r="E222" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E222" t="s">
+        <v>1327</v>
       </c>
       <c r="Q222" t="s">
         <v>990</v>
@@ -25599,9 +25383,8 @@
       <c r="C223" t="s">
         <v>1632</v>
       </c>
-      <c r="E223" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E223" t="s">
+        <v>1327</v>
       </c>
       <c r="Q223" t="s">
         <v>1150</v>
@@ -25617,9 +25400,8 @@
       <c r="C224" t="s">
         <v>1633</v>
       </c>
-      <c r="E224" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E224" t="s">
+        <v>1327</v>
       </c>
       <c r="Q224" t="s">
         <v>1151</v>
@@ -25635,9 +25417,8 @@
       <c r="C225" t="s">
         <v>1634</v>
       </c>
-      <c r="E225" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E225" t="s">
+        <v>1327</v>
       </c>
       <c r="Q225" t="s">
         <v>990</v>
@@ -25653,9 +25434,8 @@
       <c r="C226" t="s">
         <v>1635</v>
       </c>
-      <c r="E226" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E226" t="s">
+        <v>1327</v>
       </c>
       <c r="Q226" t="s">
         <v>990</v>
@@ -25671,9 +25451,8 @@
       <c r="C227" t="s">
         <v>1636</v>
       </c>
-      <c r="E227" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E227" t="s">
+        <v>1327</v>
       </c>
       <c r="Q227" t="s">
         <v>1152</v>
@@ -25689,9 +25468,8 @@
       <c r="C228" t="s">
         <v>1637</v>
       </c>
-      <c r="E228" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E228" t="s">
+        <v>1327</v>
       </c>
       <c r="Q228" t="s">
         <v>1153</v>
@@ -25707,9 +25485,8 @@
       <c r="C229" t="s">
         <v>1539</v>
       </c>
-      <c r="E229" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E229" t="s">
+        <v>1327</v>
       </c>
       <c r="Q229" t="s">
         <v>1154</v>
@@ -25725,9 +25502,8 @@
       <c r="C230" t="s">
         <v>1638</v>
       </c>
-      <c r="E230" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E230" t="s">
+        <v>1327</v>
       </c>
       <c r="Q230" t="s">
         <v>1155</v>
@@ -25743,9 +25519,8 @@
       <c r="C231" t="s">
         <v>1639</v>
       </c>
-      <c r="E231" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E231" t="s">
+        <v>1327</v>
       </c>
       <c r="Q231" t="s">
         <v>1156</v>
@@ -25761,9 +25536,8 @@
       <c r="C232" t="s">
         <v>1640</v>
       </c>
-      <c r="E232" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E232" t="s">
+        <v>1327</v>
       </c>
       <c r="Q232" t="s">
         <v>990</v>
@@ -25779,9 +25553,8 @@
       <c r="C233" t="s">
         <v>1641</v>
       </c>
-      <c r="E233" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E233" t="s">
+        <v>1327</v>
       </c>
       <c r="Q233" t="s">
         <v>1157</v>
@@ -25797,9 +25570,8 @@
       <c r="C234" t="s">
         <v>1642</v>
       </c>
-      <c r="E234" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E234" t="s">
+        <v>1327</v>
       </c>
       <c r="Q234" t="s">
         <v>990</v>
@@ -25815,9 +25587,8 @@
       <c r="C235" t="s">
         <v>1643</v>
       </c>
-      <c r="E235" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E235" t="s">
+        <v>1327</v>
       </c>
       <c r="Q235" t="s">
         <v>1158</v>
@@ -25833,9 +25604,8 @@
       <c r="C236" t="s">
         <v>1644</v>
       </c>
-      <c r="E236" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E236" t="s">
+        <v>1327</v>
       </c>
       <c r="Q236" t="s">
         <v>1159</v>
@@ -25851,9 +25621,8 @@
       <c r="C237" t="s">
         <v>1645</v>
       </c>
-      <c r="E237" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E237" t="s">
+        <v>1327</v>
       </c>
       <c r="Q237" t="s">
         <v>990</v>
@@ -25869,9 +25638,8 @@
       <c r="C238" t="s">
         <v>1646</v>
       </c>
-      <c r="E238" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E238" t="s">
+        <v>1327</v>
       </c>
       <c r="Q238" t="s">
         <v>990</v>
@@ -25887,9 +25655,8 @@
       <c r="C239" t="s">
         <v>1647</v>
       </c>
-      <c r="E239" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E239" t="s">
+        <v>1327</v>
       </c>
       <c r="Q239" t="s">
         <v>990</v>
@@ -25905,9 +25672,8 @@
       <c r="C240" t="s">
         <v>1648</v>
       </c>
-      <c r="E240" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E240" t="s">
+        <v>1327</v>
       </c>
       <c r="Q240" t="s">
         <v>1160</v>
@@ -25923,9 +25689,8 @@
       <c r="C241" t="s">
         <v>1649</v>
       </c>
-      <c r="E241" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E241" t="s">
+        <v>1327</v>
       </c>
       <c r="Q241" t="s">
         <v>1161</v>
@@ -25941,9 +25706,8 @@
       <c r="C242" t="s">
         <v>1650</v>
       </c>
-      <c r="E242" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E242" t="s">
+        <v>1327</v>
       </c>
       <c r="Q242" t="s">
         <v>1162</v>
@@ -25959,9 +25723,8 @@
       <c r="C243" t="s">
         <v>1651</v>
       </c>
-      <c r="E243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E243" t="s">
+        <v>1327</v>
       </c>
       <c r="Q243" t="s">
         <v>990</v>
@@ -25977,9 +25740,8 @@
       <c r="C244" t="s">
         <v>1652</v>
       </c>
-      <c r="E244" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E244" t="s">
+        <v>1327</v>
       </c>
       <c r="Q244" t="s">
         <v>1163</v>
@@ -25995,9 +25757,8 @@
       <c r="C245" t="s">
         <v>1653</v>
       </c>
-      <c r="E245" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E245" t="s">
+        <v>1327</v>
       </c>
       <c r="Q245" t="s">
         <v>1164</v>
@@ -26013,9 +25774,8 @@
       <c r="C246" t="s">
         <v>1654</v>
       </c>
-      <c r="E246" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E246" t="s">
+        <v>1327</v>
       </c>
       <c r="Q246" t="s">
         <v>1165</v>
@@ -26031,9 +25791,8 @@
       <c r="C247" t="s">
         <v>1655</v>
       </c>
-      <c r="E247" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E247" t="s">
+        <v>1327</v>
       </c>
       <c r="Q247" t="s">
         <v>1021</v>
@@ -26049,9 +25808,8 @@
       <c r="C248" t="s">
         <v>1656</v>
       </c>
-      <c r="E248" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E248" t="s">
+        <v>1327</v>
       </c>
       <c r="Q248" t="s">
         <v>1166</v>
@@ -26067,9 +25825,8 @@
       <c r="C249" t="s">
         <v>1657</v>
       </c>
-      <c r="E249" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E249" t="s">
+        <v>1327</v>
       </c>
       <c r="Q249" t="s">
         <v>990</v>
@@ -26085,9 +25842,8 @@
       <c r="C250" t="s">
         <v>1658</v>
       </c>
-      <c r="E250" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E250" t="s">
+        <v>1327</v>
       </c>
       <c r="Q250" t="s">
         <v>990</v>
@@ -26103,9 +25859,8 @@
       <c r="C251" t="s">
         <v>1659</v>
       </c>
-      <c r="E251" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E251" t="s">
+        <v>1327</v>
       </c>
       <c r="Q251" t="s">
         <v>1167</v>
@@ -26121,9 +25876,8 @@
       <c r="C252" t="s">
         <v>1660</v>
       </c>
-      <c r="E252" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E252" t="s">
+        <v>1327</v>
       </c>
       <c r="Q252" t="s">
         <v>1168</v>
@@ -26139,9 +25893,8 @@
       <c r="C253" t="s">
         <v>1661</v>
       </c>
-      <c r="E253" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E253" t="s">
+        <v>1327</v>
       </c>
       <c r="Q253" t="s">
         <v>1169</v>
@@ -26157,9 +25910,8 @@
       <c r="C254" t="s">
         <v>1662</v>
       </c>
-      <c r="E254" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E254" t="s">
+        <v>1327</v>
       </c>
       <c r="Q254" t="s">
         <v>1170</v>
@@ -26175,9 +25927,8 @@
       <c r="C255" t="s">
         <v>1663</v>
       </c>
-      <c r="E255" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E255" t="s">
+        <v>1327</v>
       </c>
       <c r="Q255" t="s">
         <v>1171</v>
@@ -26193,9 +25944,8 @@
       <c r="C256" t="s">
         <v>1664</v>
       </c>
-      <c r="E256" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E256" t="s">
+        <v>1327</v>
       </c>
       <c r="Q256" t="s">
         <v>990</v>
@@ -26211,9 +25961,8 @@
       <c r="C257" t="s">
         <v>1665</v>
       </c>
-      <c r="E257" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E257" t="s">
+        <v>1327</v>
       </c>
       <c r="Q257" t="s">
         <v>1172</v>
@@ -26229,9 +25978,8 @@
       <c r="C258" t="s">
         <v>1666</v>
       </c>
-      <c r="E258" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E258" t="s">
+        <v>1327</v>
       </c>
       <c r="Q258" t="s">
         <v>990</v>
@@ -26247,9 +25995,8 @@
       <c r="C259" t="s">
         <v>1667</v>
       </c>
-      <c r="E259" t="str">
-        <f t="shared" ref="E259:E322" si="4">IF(ISBLANK(D259),"","Não")</f>
-        <v/>
+      <c r="E259" t="s">
+        <v>1327</v>
       </c>
       <c r="Q259" t="s">
         <v>990</v>
@@ -26265,9 +26012,8 @@
       <c r="C260" t="s">
         <v>1668</v>
       </c>
-      <c r="E260" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E260" t="s">
+        <v>1327</v>
       </c>
       <c r="Q260" t="s">
         <v>1173</v>
@@ -26283,9 +26029,8 @@
       <c r="C261" t="s">
         <v>1669</v>
       </c>
-      <c r="E261" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E261" t="s">
+        <v>1327</v>
       </c>
       <c r="Q261" t="s">
         <v>1174</v>
@@ -26301,9 +26046,8 @@
       <c r="C262" t="s">
         <v>1670</v>
       </c>
-      <c r="E262" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E262" t="s">
+        <v>1327</v>
       </c>
       <c r="Q262" t="s">
         <v>1175</v>
@@ -26319,9 +26063,8 @@
       <c r="C263" t="s">
         <v>1671</v>
       </c>
-      <c r="E263" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E263" t="s">
+        <v>1327</v>
       </c>
       <c r="Q263" t="s">
         <v>1176</v>
@@ -26337,9 +26080,8 @@
       <c r="C264" t="s">
         <v>1672</v>
       </c>
-      <c r="E264" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E264" t="s">
+        <v>1327</v>
       </c>
       <c r="Q264" t="s">
         <v>1177</v>
@@ -26355,9 +26097,8 @@
       <c r="C265" t="s">
         <v>1673</v>
       </c>
-      <c r="E265" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E265" t="s">
+        <v>1327</v>
       </c>
       <c r="Q265" t="s">
         <v>990</v>
@@ -26373,9 +26114,8 @@
       <c r="C266" t="s">
         <v>1674</v>
       </c>
-      <c r="E266" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E266" t="s">
+        <v>1327</v>
       </c>
       <c r="Q266" t="s">
         <v>1178</v>
@@ -26391,9 +26131,8 @@
       <c r="C267" t="s">
         <v>1675</v>
       </c>
-      <c r="E267" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E267" t="s">
+        <v>1327</v>
       </c>
       <c r="Q267" t="s">
         <v>1179</v>
@@ -26409,9 +26148,8 @@
       <c r="C268" t="s">
         <v>1676</v>
       </c>
-      <c r="E268" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E268" t="s">
+        <v>1327</v>
       </c>
       <c r="Q268" t="s">
         <v>1180</v>
@@ -26427,9 +26165,8 @@
       <c r="C269" t="s">
         <v>1677</v>
       </c>
-      <c r="E269" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E269" t="s">
+        <v>1327</v>
       </c>
       <c r="Q269" t="s">
         <v>990</v>
@@ -26445,9 +26182,8 @@
       <c r="C270" t="s">
         <v>1678</v>
       </c>
-      <c r="E270" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E270" t="s">
+        <v>1327</v>
       </c>
       <c r="Q270" t="s">
         <v>990</v>
@@ -26463,9 +26199,8 @@
       <c r="C271" t="s">
         <v>1679</v>
       </c>
-      <c r="E271" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E271" t="s">
+        <v>1327</v>
       </c>
       <c r="Q271" t="s">
         <v>1181</v>
@@ -26481,9 +26216,8 @@
       <c r="C272" t="s">
         <v>1680</v>
       </c>
-      <c r="E272" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E272" t="s">
+        <v>1327</v>
       </c>
       <c r="Q272" t="s">
         <v>1182</v>
@@ -26499,9 +26233,8 @@
       <c r="C273" t="s">
         <v>1681</v>
       </c>
-      <c r="E273" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E273" t="s">
+        <v>1327</v>
       </c>
       <c r="Q273" t="s">
         <v>1183</v>
@@ -26517,9 +26250,8 @@
       <c r="C274" t="s">
         <v>1682</v>
       </c>
-      <c r="E274" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E274" t="s">
+        <v>1327</v>
       </c>
       <c r="Q274" t="s">
         <v>1184</v>
@@ -26535,9 +26267,8 @@
       <c r="C275" t="s">
         <v>1683</v>
       </c>
-      <c r="E275" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E275" t="s">
+        <v>1327</v>
       </c>
       <c r="Q275" t="s">
         <v>1185</v>
@@ -26553,9 +26284,8 @@
       <c r="C276" t="s">
         <v>1684</v>
       </c>
-      <c r="E276" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E276" t="s">
+        <v>1327</v>
       </c>
       <c r="Q276" t="s">
         <v>990</v>
@@ -26571,9 +26301,8 @@
       <c r="C277" t="s">
         <v>1685</v>
       </c>
-      <c r="E277" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E277" t="s">
+        <v>1327</v>
       </c>
       <c r="Q277" t="s">
         <v>1186</v>
@@ -26589,9 +26318,8 @@
       <c r="C278" t="s">
         <v>1686</v>
       </c>
-      <c r="E278" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E278" t="s">
+        <v>1327</v>
       </c>
       <c r="Q278" t="s">
         <v>990</v>
@@ -26607,9 +26335,8 @@
       <c r="C279" t="s">
         <v>1687</v>
       </c>
-      <c r="E279" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E279" t="s">
+        <v>1327</v>
       </c>
       <c r="Q279" t="s">
         <v>990</v>
@@ -26625,9 +26352,8 @@
       <c r="C280" t="s">
         <v>1688</v>
       </c>
-      <c r="E280" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E280" t="s">
+        <v>1327</v>
       </c>
       <c r="Q280" t="s">
         <v>1187</v>
@@ -26643,9 +26369,8 @@
       <c r="C281" t="s">
         <v>1689</v>
       </c>
-      <c r="E281" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E281" t="s">
+        <v>1327</v>
       </c>
       <c r="Q281" t="s">
         <v>990</v>
@@ -26661,9 +26386,8 @@
       <c r="C282" t="s">
         <v>1690</v>
       </c>
-      <c r="E282" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E282" t="s">
+        <v>1327</v>
       </c>
       <c r="Q282" t="s">
         <v>990</v>
@@ -26679,9 +26403,8 @@
       <c r="C283" t="s">
         <v>1691</v>
       </c>
-      <c r="E283" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E283" t="s">
+        <v>1327</v>
       </c>
       <c r="Q283" t="s">
         <v>1188</v>
@@ -26697,9 +26420,8 @@
       <c r="C284" t="s">
         <v>1692</v>
       </c>
-      <c r="E284" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E284" t="s">
+        <v>1327</v>
       </c>
       <c r="Q284" t="s">
         <v>1189</v>
@@ -26715,9 +26437,8 @@
       <c r="C285" t="s">
         <v>1693</v>
       </c>
-      <c r="E285" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E285" t="s">
+        <v>1327</v>
       </c>
       <c r="Q285" t="s">
         <v>1190</v>
@@ -26733,9 +26454,8 @@
       <c r="C286" t="s">
         <v>1694</v>
       </c>
-      <c r="E286" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E286" t="s">
+        <v>1327</v>
       </c>
       <c r="Q286" t="s">
         <v>1191</v>
@@ -26751,9 +26471,8 @@
       <c r="C287" t="s">
         <v>1695</v>
       </c>
-      <c r="E287" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E287" t="s">
+        <v>1327</v>
       </c>
       <c r="Q287" t="s">
         <v>1192</v>
@@ -26769,9 +26488,8 @@
       <c r="C288" t="s">
         <v>1696</v>
       </c>
-      <c r="E288" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E288" t="s">
+        <v>1327</v>
       </c>
       <c r="Q288" t="s">
         <v>990</v>
@@ -26787,9 +26505,8 @@
       <c r="C289" t="s">
         <v>1697</v>
       </c>
-      <c r="E289" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E289" t="s">
+        <v>1327</v>
       </c>
       <c r="Q289" t="s">
         <v>1193</v>
@@ -26805,9 +26522,8 @@
       <c r="C290" t="s">
         <v>1698</v>
       </c>
-      <c r="E290" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E290" t="s">
+        <v>1327</v>
       </c>
       <c r="Q290" t="s">
         <v>990</v>
@@ -26823,9 +26539,8 @@
       <c r="C291" t="s">
         <v>1699</v>
       </c>
-      <c r="E291" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E291" t="s">
+        <v>1327</v>
       </c>
       <c r="Q291" t="s">
         <v>1194</v>
@@ -26841,9 +26556,8 @@
       <c r="C292" t="s">
         <v>1700</v>
       </c>
-      <c r="E292" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E292" t="s">
+        <v>1327</v>
       </c>
       <c r="Q292" t="s">
         <v>1195</v>
@@ -26859,9 +26573,8 @@
       <c r="C293" t="s">
         <v>1701</v>
       </c>
-      <c r="E293" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E293" t="s">
+        <v>1327</v>
       </c>
       <c r="Q293" t="s">
         <v>990</v>
@@ -26877,9 +26590,8 @@
       <c r="C294" t="s">
         <v>1702</v>
       </c>
-      <c r="E294" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E294" t="s">
+        <v>1327</v>
       </c>
       <c r="Q294" t="s">
         <v>1196</v>
@@ -26895,9 +26607,8 @@
       <c r="C295" t="s">
         <v>1703</v>
       </c>
-      <c r="E295" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E295" t="s">
+        <v>1327</v>
       </c>
       <c r="Q295" t="s">
         <v>1197</v>
@@ -26913,9 +26624,8 @@
       <c r="C296" t="s">
         <v>1704</v>
       </c>
-      <c r="E296" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E296" t="s">
+        <v>1327</v>
       </c>
       <c r="Q296" t="s">
         <v>1198</v>
@@ -26931,9 +26641,8 @@
       <c r="C297" t="s">
         <v>1705</v>
       </c>
-      <c r="E297" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E297" t="s">
+        <v>1327</v>
       </c>
       <c r="Q297" t="s">
         <v>1199</v>
@@ -26949,9 +26658,8 @@
       <c r="C298" t="s">
         <v>1706</v>
       </c>
-      <c r="E298" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E298" t="s">
+        <v>1327</v>
       </c>
       <c r="Q298" t="s">
         <v>990</v>
@@ -26967,9 +26675,8 @@
       <c r="C299" t="s">
         <v>1707</v>
       </c>
-      <c r="E299" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E299" t="s">
+        <v>1327</v>
       </c>
       <c r="Q299" t="s">
         <v>1200</v>
@@ -26985,9 +26692,8 @@
       <c r="C300" t="s">
         <v>1708</v>
       </c>
-      <c r="E300" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E300" t="s">
+        <v>1327</v>
       </c>
       <c r="Q300" t="s">
         <v>1201</v>
@@ -27003,9 +26709,8 @@
       <c r="C301" t="s">
         <v>1709</v>
       </c>
-      <c r="E301" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E301" t="s">
+        <v>1327</v>
       </c>
       <c r="Q301" t="s">
         <v>990</v>
@@ -27021,9 +26726,8 @@
       <c r="C302" t="s">
         <v>1710</v>
       </c>
-      <c r="E302" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E302" t="s">
+        <v>1327</v>
       </c>
       <c r="Q302" t="s">
         <v>1202</v>
@@ -27039,9 +26743,8 @@
       <c r="C303" t="s">
         <v>1711</v>
       </c>
-      <c r="E303" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E303" t="s">
+        <v>1327</v>
       </c>
       <c r="Q303" t="s">
         <v>1203</v>
@@ -27057,9 +26760,8 @@
       <c r="C304" t="s">
         <v>1712</v>
       </c>
-      <c r="E304" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E304" t="s">
+        <v>1327</v>
       </c>
       <c r="Q304" t="s">
         <v>1204</v>
@@ -27075,9 +26777,8 @@
       <c r="C305" t="s">
         <v>1713</v>
       </c>
-      <c r="E305" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E305" t="s">
+        <v>1327</v>
       </c>
       <c r="Q305" t="s">
         <v>990</v>
@@ -27093,9 +26794,8 @@
       <c r="C306" t="s">
         <v>1714</v>
       </c>
-      <c r="E306" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E306" t="s">
+        <v>1327</v>
       </c>
       <c r="Q306" t="s">
         <v>1205</v>
@@ -27111,9 +26811,8 @@
       <c r="C307" t="s">
         <v>1715</v>
       </c>
-      <c r="E307" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E307" t="s">
+        <v>1327</v>
       </c>
       <c r="Q307" t="s">
         <v>1206</v>
@@ -27129,9 +26828,8 @@
       <c r="C308" t="s">
         <v>1716</v>
       </c>
-      <c r="E308" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E308" t="s">
+        <v>1327</v>
       </c>
       <c r="Q308" t="s">
         <v>1207</v>
@@ -27147,9 +26845,8 @@
       <c r="C309" t="s">
         <v>1717</v>
       </c>
-      <c r="E309" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E309" t="s">
+        <v>1327</v>
       </c>
       <c r="Q309" t="s">
         <v>990</v>
@@ -27165,9 +26862,8 @@
       <c r="C310" t="s">
         <v>1718</v>
       </c>
-      <c r="E310" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E310" t="s">
+        <v>1327</v>
       </c>
       <c r="Q310" t="s">
         <v>990</v>
@@ -27183,9 +26879,8 @@
       <c r="C311" t="s">
         <v>1719</v>
       </c>
-      <c r="E311" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E311" t="s">
+        <v>1327</v>
       </c>
       <c r="Q311" t="s">
         <v>1208</v>
@@ -27201,9 +26896,8 @@
       <c r="C312" t="s">
         <v>1720</v>
       </c>
-      <c r="E312" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E312" t="s">
+        <v>1327</v>
       </c>
       <c r="Q312" t="s">
         <v>1209</v>
@@ -27219,9 +26913,8 @@
       <c r="C313" t="s">
         <v>1721</v>
       </c>
-      <c r="E313" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E313" t="s">
+        <v>1327</v>
       </c>
       <c r="Q313" t="s">
         <v>990</v>
@@ -27237,9 +26930,8 @@
       <c r="C314" t="s">
         <v>1722</v>
       </c>
-      <c r="E314" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E314" t="s">
+        <v>1327</v>
       </c>
       <c r="Q314" t="s">
         <v>1210</v>
@@ -27255,9 +26947,8 @@
       <c r="C315" t="s">
         <v>1723</v>
       </c>
-      <c r="E315" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E315" t="s">
+        <v>1327</v>
       </c>
       <c r="Q315" t="s">
         <v>1211</v>
@@ -27273,9 +26964,8 @@
       <c r="C316" t="s">
         <v>1724</v>
       </c>
-      <c r="E316" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E316" t="s">
+        <v>1327</v>
       </c>
       <c r="Q316" t="s">
         <v>1212</v>
@@ -27291,9 +26981,8 @@
       <c r="C317" t="s">
         <v>1725</v>
       </c>
-      <c r="E317" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E317" t="s">
+        <v>1327</v>
       </c>
       <c r="Q317" t="s">
         <v>990</v>
@@ -27309,9 +26998,8 @@
       <c r="C318" t="s">
         <v>1726</v>
       </c>
-      <c r="E318" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E318" t="s">
+        <v>1327</v>
       </c>
       <c r="Q318" t="s">
         <v>1213</v>
@@ -27327,9 +27015,8 @@
       <c r="C319" t="s">
         <v>1727</v>
       </c>
-      <c r="E319" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E319" t="s">
+        <v>1327</v>
       </c>
       <c r="Q319" t="s">
         <v>1214</v>
@@ -27345,9 +27032,8 @@
       <c r="C320" t="s">
         <v>1728</v>
       </c>
-      <c r="E320" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E320" t="s">
+        <v>1327</v>
       </c>
       <c r="Q320" t="s">
         <v>1215</v>
@@ -27363,9 +27049,8 @@
       <c r="C321" t="s">
         <v>1729</v>
       </c>
-      <c r="E321" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E321" t="s">
+        <v>1327</v>
       </c>
       <c r="Q321" t="s">
         <v>990</v>
@@ -27381,9 +27066,8 @@
       <c r="C322" t="s">
         <v>1730</v>
       </c>
-      <c r="E322" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E322" t="s">
+        <v>1327</v>
       </c>
       <c r="Q322" t="s">
         <v>990</v>
@@ -27399,9 +27083,8 @@
       <c r="C323" t="s">
         <v>1731</v>
       </c>
-      <c r="E323" t="str">
-        <f t="shared" ref="E323:E386" si="5">IF(ISBLANK(D323),"","Não")</f>
-        <v/>
+      <c r="E323" t="s">
+        <v>1327</v>
       </c>
       <c r="Q323" t="s">
         <v>1216</v>
@@ -27417,9 +27100,8 @@
       <c r="C324" t="s">
         <v>1732</v>
       </c>
-      <c r="E324" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E324" t="s">
+        <v>1327</v>
       </c>
       <c r="Q324" t="s">
         <v>1217</v>
@@ -27435,9 +27117,8 @@
       <c r="C325" t="s">
         <v>1733</v>
       </c>
-      <c r="E325" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E325" t="s">
+        <v>1327</v>
       </c>
       <c r="Q325" t="s">
         <v>990</v>
@@ -27453,9 +27134,8 @@
       <c r="C326" t="s">
         <v>1734</v>
       </c>
-      <c r="E326" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E326" t="s">
+        <v>1327</v>
       </c>
       <c r="Q326" t="s">
         <v>1218</v>
@@ -27471,9 +27151,8 @@
       <c r="C327" t="s">
         <v>1735</v>
       </c>
-      <c r="E327" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E327" t="s">
+        <v>1327</v>
       </c>
       <c r="Q327" t="s">
         <v>1219</v>
@@ -27489,9 +27168,8 @@
       <c r="C328" t="s">
         <v>1736</v>
       </c>
-      <c r="E328" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E328" t="s">
+        <v>1327</v>
       </c>
       <c r="Q328" t="s">
         <v>1220</v>
@@ -27507,9 +27185,8 @@
       <c r="C329" t="s">
         <v>1737</v>
       </c>
-      <c r="E329" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E329" t="s">
+        <v>1327</v>
       </c>
       <c r="Q329" t="s">
         <v>1221</v>
@@ -27525,9 +27202,8 @@
       <c r="C330" t="s">
         <v>1738</v>
       </c>
-      <c r="E330" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E330" t="s">
+        <v>1327</v>
       </c>
       <c r="Q330" t="s">
         <v>1222</v>
@@ -27543,9 +27219,8 @@
       <c r="C331" t="s">
         <v>1739</v>
       </c>
-      <c r="E331" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E331" t="s">
+        <v>1327</v>
       </c>
       <c r="Q331" t="s">
         <v>1223</v>
@@ -27561,9 +27236,8 @@
       <c r="C332" t="s">
         <v>1740</v>
       </c>
-      <c r="E332" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E332" t="s">
+        <v>1327</v>
       </c>
       <c r="Q332">
         <v>270</v>
@@ -27579,9 +27253,8 @@
       <c r="C333" t="s">
         <v>1741</v>
       </c>
-      <c r="E333" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E333" t="s">
+        <v>1327</v>
       </c>
       <c r="Q333" t="s">
         <v>1224</v>
@@ -27597,9 +27270,8 @@
       <c r="C334" t="s">
         <v>1742</v>
       </c>
-      <c r="E334" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E334" t="s">
+        <v>1327</v>
       </c>
       <c r="Q334" t="s">
         <v>990</v>
@@ -27615,9 +27287,8 @@
       <c r="C335" t="s">
         <v>1743</v>
       </c>
-      <c r="E335" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E335" t="s">
+        <v>1327</v>
       </c>
       <c r="Q335" t="s">
         <v>1225</v>
@@ -27633,9 +27304,8 @@
       <c r="C336" t="s">
         <v>1744</v>
       </c>
-      <c r="E336" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E336" t="s">
+        <v>1327</v>
       </c>
       <c r="Q336" t="s">
         <v>1226</v>
@@ -27651,9 +27321,8 @@
       <c r="C337" t="s">
         <v>1745</v>
       </c>
-      <c r="E337" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E337" t="s">
+        <v>1327</v>
       </c>
       <c r="Q337" t="s">
         <v>1227</v>
@@ -27669,9 +27338,8 @@
       <c r="C338" t="s">
         <v>1746</v>
       </c>
-      <c r="E338" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E338" t="s">
+        <v>1327</v>
       </c>
       <c r="Q338" t="s">
         <v>990</v>
@@ -27687,9 +27355,8 @@
       <c r="C339" t="s">
         <v>1747</v>
       </c>
-      <c r="E339" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E339" t="s">
+        <v>1327</v>
       </c>
       <c r="Q339" t="s">
         <v>1228</v>
@@ -27705,9 +27372,8 @@
       <c r="C340" t="s">
         <v>1748</v>
       </c>
-      <c r="E340" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E340" t="s">
+        <v>1327</v>
       </c>
       <c r="Q340" t="s">
         <v>1229</v>
@@ -27723,9 +27389,8 @@
       <c r="C341" t="s">
         <v>1749</v>
       </c>
-      <c r="E341" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E341" t="s">
+        <v>1327</v>
       </c>
       <c r="Q341" t="s">
         <v>1230</v>
@@ -27741,9 +27406,8 @@
       <c r="C342" t="s">
         <v>1750</v>
       </c>
-      <c r="E342" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E342" t="s">
+        <v>1327</v>
       </c>
       <c r="Q342" t="s">
         <v>1231</v>
@@ -27759,9 +27423,8 @@
       <c r="C343" t="s">
         <v>1751</v>
       </c>
-      <c r="E343" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E343" t="s">
+        <v>1327</v>
       </c>
       <c r="Q343" t="s">
         <v>1232</v>
@@ -27777,9 +27440,8 @@
       <c r="C344" t="s">
         <v>1752</v>
       </c>
-      <c r="E344" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E344" t="s">
+        <v>1327</v>
       </c>
       <c r="Q344" t="s">
         <v>1233</v>
@@ -27795,9 +27457,8 @@
       <c r="C345" t="s">
         <v>1753</v>
       </c>
-      <c r="E345" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E345" t="s">
+        <v>1327</v>
       </c>
       <c r="Q345" t="s">
         <v>1234</v>
@@ -27813,9 +27474,8 @@
       <c r="C346" t="s">
         <v>1754</v>
       </c>
-      <c r="E346" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E346" t="s">
+        <v>1327</v>
       </c>
       <c r="Q346" t="s">
         <v>1235</v>
@@ -27831,9 +27491,8 @@
       <c r="C347" t="s">
         <v>1755</v>
       </c>
-      <c r="E347" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E347" t="s">
+        <v>1327</v>
       </c>
       <c r="Q347" t="s">
         <v>1236</v>
@@ -27849,9 +27508,8 @@
       <c r="C348" t="s">
         <v>1756</v>
       </c>
-      <c r="E348" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E348" t="s">
+        <v>1327</v>
       </c>
       <c r="Q348" t="s">
         <v>1237</v>
@@ -27867,9 +27525,8 @@
       <c r="C349" t="s">
         <v>1757</v>
       </c>
-      <c r="E349" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E349" t="s">
+        <v>1327</v>
       </c>
       <c r="Q349" t="s">
         <v>990</v>
@@ -27885,9 +27542,8 @@
       <c r="C350" t="s">
         <v>1758</v>
       </c>
-      <c r="E350" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E350" t="s">
+        <v>1327</v>
       </c>
       <c r="Q350" t="s">
         <v>1238</v>
@@ -27903,9 +27559,8 @@
       <c r="C351" t="s">
         <v>1759</v>
       </c>
-      <c r="E351" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E351" t="s">
+        <v>1327</v>
       </c>
       <c r="Q351" t="s">
         <v>1239</v>
@@ -27921,9 +27576,8 @@
       <c r="C352" t="s">
         <v>1760</v>
       </c>
-      <c r="E352" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E352" t="s">
+        <v>1327</v>
       </c>
       <c r="Q352" t="s">
         <v>1240</v>
@@ -27939,9 +27593,8 @@
       <c r="C353" t="s">
         <v>1761</v>
       </c>
-      <c r="E353" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E353" t="s">
+        <v>1327</v>
       </c>
       <c r="Q353" t="s">
         <v>1241</v>
@@ -27957,9 +27610,8 @@
       <c r="C354" t="s">
         <v>1762</v>
       </c>
-      <c r="E354" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E354" t="s">
+        <v>1327</v>
       </c>
       <c r="Q354" t="s">
         <v>1242</v>
@@ -27975,9 +27627,8 @@
       <c r="C355" t="s">
         <v>1763</v>
       </c>
-      <c r="E355" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E355" t="s">
+        <v>1327</v>
       </c>
       <c r="Q355" t="s">
         <v>990</v>
@@ -27993,9 +27644,8 @@
       <c r="C356" t="s">
         <v>1764</v>
       </c>
-      <c r="E356" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E356" t="s">
+        <v>1327</v>
       </c>
       <c r="Q356" t="s">
         <v>1243</v>
@@ -28011,9 +27661,8 @@
       <c r="C357" t="s">
         <v>1765</v>
       </c>
-      <c r="E357" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E357" t="s">
+        <v>1327</v>
       </c>
       <c r="Q357" t="s">
         <v>1244</v>
@@ -28029,9 +27678,8 @@
       <c r="C358" t="s">
         <v>1766</v>
       </c>
-      <c r="E358" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E358" t="s">
+        <v>1327</v>
       </c>
       <c r="Q358" t="s">
         <v>1245</v>
@@ -28047,9 +27695,8 @@
       <c r="C359" t="s">
         <v>1767</v>
       </c>
-      <c r="E359" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E359" t="s">
+        <v>1327</v>
       </c>
       <c r="Q359" t="s">
         <v>990</v>
@@ -28065,9 +27712,8 @@
       <c r="C360" t="s">
         <v>1633</v>
       </c>
-      <c r="E360" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E360" t="s">
+        <v>1327</v>
       </c>
       <c r="Q360" t="s">
         <v>1246</v>
@@ -28083,9 +27729,8 @@
       <c r="C361" t="s">
         <v>1768</v>
       </c>
-      <c r="E361" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E361" t="s">
+        <v>1327</v>
       </c>
       <c r="Q361" t="s">
         <v>1247</v>
@@ -28101,9 +27746,8 @@
       <c r="C362" t="s">
         <v>1769</v>
       </c>
-      <c r="E362" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E362" t="s">
+        <v>1327</v>
       </c>
       <c r="Q362" t="s">
         <v>990</v>
@@ -28119,9 +27763,8 @@
       <c r="C363" t="s">
         <v>1770</v>
       </c>
-      <c r="E363" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E363" t="s">
+        <v>1327</v>
       </c>
       <c r="Q363" t="s">
         <v>990</v>
@@ -28137,9 +27780,8 @@
       <c r="C364" t="s">
         <v>1771</v>
       </c>
-      <c r="E364" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E364" t="s">
+        <v>1327</v>
       </c>
       <c r="Q364" t="s">
         <v>1248</v>
@@ -28155,9 +27797,8 @@
       <c r="C365" t="s">
         <v>1772</v>
       </c>
-      <c r="E365" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E365" t="s">
+        <v>1327</v>
       </c>
       <c r="Q365" t="s">
         <v>1249</v>
@@ -28173,9 +27814,8 @@
       <c r="C366" t="s">
         <v>1773</v>
       </c>
-      <c r="E366" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E366" t="s">
+        <v>1327</v>
       </c>
       <c r="Q366" t="s">
         <v>1250</v>
@@ -28191,9 +27831,8 @@
       <c r="C367" t="s">
         <v>1774</v>
       </c>
-      <c r="E367" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E367" t="s">
+        <v>1327</v>
       </c>
       <c r="Q367" t="s">
         <v>1251</v>
@@ -28209,9 +27848,8 @@
       <c r="C368" t="s">
         <v>1775</v>
       </c>
-      <c r="E368" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E368" t="s">
+        <v>1327</v>
       </c>
       <c r="Q368" t="s">
         <v>1252</v>
@@ -28227,9 +27865,8 @@
       <c r="C369" t="s">
         <v>1776</v>
       </c>
-      <c r="E369" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E369" t="s">
+        <v>1327</v>
       </c>
       <c r="Q369" t="s">
         <v>1253</v>
@@ -28245,9 +27882,8 @@
       <c r="C370" t="s">
         <v>1777</v>
       </c>
-      <c r="E370" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E370" t="s">
+        <v>1327</v>
       </c>
       <c r="Q370" t="s">
         <v>1254</v>
@@ -28263,9 +27899,8 @@
       <c r="C371" t="s">
         <v>1778</v>
       </c>
-      <c r="E371" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E371" t="s">
+        <v>1327</v>
       </c>
       <c r="Q371" t="s">
         <v>1255</v>
@@ -28281,9 +27916,8 @@
       <c r="C372" t="s">
         <v>1779</v>
       </c>
-      <c r="E372" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E372" t="s">
+        <v>1327</v>
       </c>
       <c r="Q372" t="s">
         <v>1256</v>
@@ -28299,9 +27933,8 @@
       <c r="C373" t="s">
         <v>1780</v>
       </c>
-      <c r="E373" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E373" t="s">
+        <v>1327</v>
       </c>
       <c r="Q373" t="s">
         <v>1021</v>
@@ -28317,9 +27950,8 @@
       <c r="C374" t="s">
         <v>1781</v>
       </c>
-      <c r="E374" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E374" t="s">
+        <v>1327</v>
       </c>
       <c r="Q374" t="s">
         <v>990</v>
@@ -28335,9 +27967,8 @@
       <c r="C375" t="s">
         <v>1782</v>
       </c>
-      <c r="E375" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E375" t="s">
+        <v>1327</v>
       </c>
       <c r="Q375" t="s">
         <v>1257</v>
@@ -28353,9 +27984,8 @@
       <c r="C376" t="s">
         <v>1783</v>
       </c>
-      <c r="E376" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E376" t="s">
+        <v>1327</v>
       </c>
       <c r="Q376" t="s">
         <v>1258</v>
@@ -28371,9 +28001,8 @@
       <c r="C377" t="s">
         <v>1784</v>
       </c>
-      <c r="E377" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E377" t="s">
+        <v>1327</v>
       </c>
       <c r="Q377" t="s">
         <v>649</v>
@@ -28389,9 +28018,8 @@
       <c r="C378" t="s">
         <v>1785</v>
       </c>
-      <c r="E378" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E378" t="s">
+        <v>1327</v>
       </c>
       <c r="Q378" t="s">
         <v>1259</v>
@@ -28407,9 +28035,8 @@
       <c r="C379" t="s">
         <v>1786</v>
       </c>
-      <c r="E379" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E379" t="s">
+        <v>1327</v>
       </c>
       <c r="Q379" t="s">
         <v>1260</v>
@@ -28425,9 +28052,8 @@
       <c r="C380" t="s">
         <v>1787</v>
       </c>
-      <c r="E380" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E380" t="s">
+        <v>1327</v>
       </c>
       <c r="Q380" t="s">
         <v>990</v>
@@ -28443,9 +28069,8 @@
       <c r="C381" t="s">
         <v>1788</v>
       </c>
-      <c r="E381" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E381" t="s">
+        <v>1327</v>
       </c>
       <c r="Q381" t="s">
         <v>1261</v>
@@ -28461,9 +28086,8 @@
       <c r="C382" t="s">
         <v>1789</v>
       </c>
-      <c r="E382" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E382" t="s">
+        <v>1327</v>
       </c>
       <c r="Q382" t="s">
         <v>1262</v>
@@ -28479,9 +28103,8 @@
       <c r="C383" t="s">
         <v>1790</v>
       </c>
-      <c r="E383" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E383" t="s">
+        <v>1327</v>
       </c>
       <c r="Q383" t="s">
         <v>990</v>
@@ -28497,9 +28120,8 @@
       <c r="C384" t="s">
         <v>1791</v>
       </c>
-      <c r="E384" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E384" t="s">
+        <v>1327</v>
       </c>
       <c r="Q384" t="s">
         <v>1263</v>
@@ -28515,9 +28137,8 @@
       <c r="C385" t="s">
         <v>1792</v>
       </c>
-      <c r="E385" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E385" t="s">
+        <v>1327</v>
       </c>
       <c r="Q385" t="s">
         <v>990</v>
@@ -28533,9 +28154,8 @@
       <c r="C386" t="s">
         <v>1793</v>
       </c>
-      <c r="E386" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="E386" t="s">
+        <v>1327</v>
       </c>
       <c r="Q386" t="s">
         <v>990</v>
@@ -28551,9 +28171,8 @@
       <c r="C387" t="s">
         <v>1794</v>
       </c>
-      <c r="E387" t="str">
-        <f t="shared" ref="E387:E450" si="6">IF(ISBLANK(D387),"","Não")</f>
-        <v/>
+      <c r="E387" t="s">
+        <v>1327</v>
       </c>
       <c r="Q387" t="s">
         <v>1264</v>
@@ -28569,9 +28188,8 @@
       <c r="C388" t="s">
         <v>1795</v>
       </c>
-      <c r="E388" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E388" t="s">
+        <v>1327</v>
       </c>
       <c r="Q388" t="s">
         <v>990</v>
@@ -28587,9 +28205,8 @@
       <c r="C389" t="s">
         <v>1796</v>
       </c>
-      <c r="E389" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E389" t="s">
+        <v>1327</v>
       </c>
       <c r="Q389" t="s">
         <v>1265</v>
@@ -28605,9 +28222,8 @@
       <c r="C390" t="s">
         <v>1797</v>
       </c>
-      <c r="E390" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E390" t="s">
+        <v>1327</v>
       </c>
       <c r="Q390" t="s">
         <v>1266</v>
@@ -28623,9 +28239,8 @@
       <c r="C391" t="s">
         <v>1798</v>
       </c>
-      <c r="E391" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E391" t="s">
+        <v>1327</v>
       </c>
       <c r="Q391" t="s">
         <v>990</v>
@@ -28641,9 +28256,8 @@
       <c r="C392" t="s">
         <v>1799</v>
       </c>
-      <c r="E392" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E392" t="s">
+        <v>1327</v>
       </c>
       <c r="Q392" t="s">
         <v>1267</v>
@@ -28659,9 +28273,8 @@
       <c r="C393" t="s">
         <v>1800</v>
       </c>
-      <c r="E393" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E393" t="s">
+        <v>1327</v>
       </c>
       <c r="Q393" t="s">
         <v>1268</v>
@@ -28677,9 +28290,8 @@
       <c r="C394" t="s">
         <v>1801</v>
       </c>
-      <c r="E394" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E394" t="s">
+        <v>1327</v>
       </c>
       <c r="Q394" t="s">
         <v>1269</v>
@@ -28695,9 +28307,8 @@
       <c r="C395" t="s">
         <v>1802</v>
       </c>
-      <c r="E395" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E395" t="s">
+        <v>1327</v>
       </c>
       <c r="Q395" t="s">
         <v>990</v>
@@ -28713,9 +28324,8 @@
       <c r="C396" t="s">
         <v>1803</v>
       </c>
-      <c r="E396" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E396" t="s">
+        <v>1327</v>
       </c>
       <c r="Q396" t="s">
         <v>1270</v>
@@ -28731,9 +28341,8 @@
       <c r="C397" t="s">
         <v>1804</v>
       </c>
-      <c r="E397" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E397" t="s">
+        <v>1327</v>
       </c>
       <c r="Q397" t="s">
         <v>990</v>
@@ -28749,9 +28358,8 @@
       <c r="C398" t="s">
         <v>1805</v>
       </c>
-      <c r="E398" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E398" t="s">
+        <v>1327</v>
       </c>
       <c r="Q398" t="s">
         <v>1271</v>
@@ -28767,9 +28375,8 @@
       <c r="C399" t="s">
         <v>1806</v>
       </c>
-      <c r="E399" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E399" t="s">
+        <v>1327</v>
       </c>
       <c r="Q399" t="s">
         <v>990</v>
@@ -28785,9 +28392,8 @@
       <c r="C400" t="s">
         <v>1807</v>
       </c>
-      <c r="E400" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E400" t="s">
+        <v>1327</v>
       </c>
       <c r="Q400" t="s">
         <v>1272</v>
@@ -28803,9 +28409,8 @@
       <c r="C401" t="s">
         <v>1808</v>
       </c>
-      <c r="E401" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E401" t="s">
+        <v>1327</v>
       </c>
       <c r="Q401" t="s">
         <v>1273</v>
@@ -28821,9 +28426,8 @@
       <c r="C402" t="s">
         <v>1809</v>
       </c>
-      <c r="E402" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E402" t="s">
+        <v>1327</v>
       </c>
       <c r="Q402" t="s">
         <v>1274</v>
@@ -28839,9 +28443,8 @@
       <c r="C403" t="s">
         <v>1810</v>
       </c>
-      <c r="E403" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E403" t="s">
+        <v>1327</v>
       </c>
       <c r="Q403" t="s">
         <v>1275</v>
@@ -28857,9 +28460,8 @@
       <c r="C404" t="s">
         <v>1811</v>
       </c>
-      <c r="E404" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E404" t="s">
+        <v>1327</v>
       </c>
       <c r="Q404" t="s">
         <v>990</v>
@@ -28875,9 +28477,8 @@
       <c r="C405" t="s">
         <v>1812</v>
       </c>
-      <c r="E405" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E405" t="s">
+        <v>1327</v>
       </c>
       <c r="Q405" t="s">
         <v>990</v>
@@ -28893,9 +28494,8 @@
       <c r="C406" t="s">
         <v>1813</v>
       </c>
-      <c r="E406" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E406" t="s">
+        <v>1327</v>
       </c>
       <c r="Q406" t="s">
         <v>1276</v>
@@ -28911,9 +28511,8 @@
       <c r="C407" t="s">
         <v>1814</v>
       </c>
-      <c r="E407" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E407" t="s">
+        <v>1327</v>
       </c>
       <c r="Q407" t="s">
         <v>1277</v>
@@ -28929,9 +28528,8 @@
       <c r="C408" t="s">
         <v>1815</v>
       </c>
-      <c r="E408" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E408" t="s">
+        <v>1327</v>
       </c>
       <c r="Q408" t="s">
         <v>1278</v>
@@ -28947,9 +28545,8 @@
       <c r="C409" t="s">
         <v>1816</v>
       </c>
-      <c r="E409" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E409" t="s">
+        <v>1327</v>
       </c>
       <c r="Q409" t="s">
         <v>1279</v>
@@ -28965,9 +28562,8 @@
       <c r="C410" t="s">
         <v>1817</v>
       </c>
-      <c r="E410" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E410" t="s">
+        <v>1327</v>
       </c>
       <c r="Q410" t="s">
         <v>1280</v>
@@ -28983,9 +28579,8 @@
       <c r="C411" t="s">
         <v>1818</v>
       </c>
-      <c r="E411" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E411" t="s">
+        <v>1327</v>
       </c>
       <c r="Q411" t="s">
         <v>990</v>
@@ -29001,9 +28596,8 @@
       <c r="C412" t="s">
         <v>1819</v>
       </c>
-      <c r="E412" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E412" t="s">
+        <v>1327</v>
       </c>
       <c r="Q412" t="s">
         <v>1281</v>
@@ -29019,9 +28613,8 @@
       <c r="C413" t="s">
         <v>1820</v>
       </c>
-      <c r="E413" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E413" t="s">
+        <v>1327</v>
       </c>
       <c r="Q413" t="s">
         <v>1282</v>
@@ -29037,9 +28630,8 @@
       <c r="C414" t="s">
         <v>1821</v>
       </c>
-      <c r="E414" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E414" t="s">
+        <v>1327</v>
       </c>
       <c r="Q414" t="s">
         <v>990</v>
@@ -29055,9 +28647,8 @@
       <c r="C415" t="s">
         <v>1822</v>
       </c>
-      <c r="E415" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E415" t="s">
+        <v>1327</v>
       </c>
       <c r="Q415" t="s">
         <v>1283</v>
@@ -29073,9 +28664,8 @@
       <c r="C416" t="s">
         <v>1823</v>
       </c>
-      <c r="E416" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E416" t="s">
+        <v>1327</v>
       </c>
       <c r="Q416" t="s">
         <v>990</v>
@@ -29091,9 +28681,8 @@
       <c r="C417" t="s">
         <v>1824</v>
       </c>
-      <c r="E417" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E417" t="s">
+        <v>1327</v>
       </c>
       <c r="Q417" t="s">
         <v>1284</v>
@@ -29109,9 +28698,8 @@
       <c r="C418" t="s">
         <v>1825</v>
       </c>
-      <c r="E418" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E418" t="s">
+        <v>1327</v>
       </c>
       <c r="Q418" t="s">
         <v>990</v>
@@ -29127,9 +28715,8 @@
       <c r="C419" t="s">
         <v>1826</v>
       </c>
-      <c r="E419" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E419" t="s">
+        <v>1327</v>
       </c>
       <c r="Q419" t="s">
         <v>1285</v>
@@ -29145,9 +28732,8 @@
       <c r="C420" t="s">
         <v>1827</v>
       </c>
-      <c r="E420" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E420" t="s">
+        <v>1327</v>
       </c>
       <c r="Q420" t="s">
         <v>1286</v>
@@ -29163,9 +28749,8 @@
       <c r="C421" t="s">
         <v>1828</v>
       </c>
-      <c r="E421" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E421" t="s">
+        <v>1327</v>
       </c>
       <c r="Q421" t="s">
         <v>990</v>
@@ -29181,9 +28766,8 @@
       <c r="C422" t="s">
         <v>1829</v>
       </c>
-      <c r="E422" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E422" t="s">
+        <v>1327</v>
       </c>
       <c r="Q422" t="s">
         <v>1287</v>
@@ -29199,9 +28783,8 @@
       <c r="C423" t="s">
         <v>1830</v>
       </c>
-      <c r="E423" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E423" t="s">
+        <v>1327</v>
       </c>
       <c r="Q423" t="s">
         <v>1288</v>
@@ -29217,9 +28800,8 @@
       <c r="C424" t="s">
         <v>1831</v>
       </c>
-      <c r="E424" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E424" t="s">
+        <v>1327</v>
       </c>
       <c r="Q424" t="s">
         <v>1289</v>
@@ -29235,9 +28817,8 @@
       <c r="C425" t="s">
         <v>1832</v>
       </c>
-      <c r="E425" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E425" t="s">
+        <v>1327</v>
       </c>
       <c r="Q425" t="s">
         <v>1290</v>
@@ -29253,9 +28834,8 @@
       <c r="C426" t="s">
         <v>1833</v>
       </c>
-      <c r="E426" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E426" t="s">
+        <v>1327</v>
       </c>
       <c r="Q426" t="s">
         <v>1291</v>
@@ -29271,9 +28851,8 @@
       <c r="C427" t="s">
         <v>1834</v>
       </c>
-      <c r="E427" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E427" t="s">
+        <v>1327</v>
       </c>
       <c r="Q427" t="s">
         <v>1292</v>
@@ -29289,9 +28868,8 @@
       <c r="C428" t="s">
         <v>1835</v>
       </c>
-      <c r="E428" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E428" t="s">
+        <v>1327</v>
       </c>
       <c r="Q428" t="s">
         <v>1293</v>
@@ -29307,9 +28885,8 @@
       <c r="C429" t="s">
         <v>1836</v>
       </c>
-      <c r="E429" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E429" t="s">
+        <v>1327</v>
       </c>
       <c r="Q429" t="s">
         <v>1294</v>
@@ -29325,9 +28902,8 @@
       <c r="C430" t="s">
         <v>1837</v>
       </c>
-      <c r="E430" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E430" t="s">
+        <v>1327</v>
       </c>
       <c r="Q430" t="s">
         <v>1295</v>
@@ -29343,9 +28919,8 @@
       <c r="C431" t="s">
         <v>1838</v>
       </c>
-      <c r="E431" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E431" t="s">
+        <v>1327</v>
       </c>
       <c r="Q431" t="s">
         <v>990</v>
@@ -29361,9 +28936,8 @@
       <c r="C432" t="s">
         <v>1839</v>
       </c>
-      <c r="E432" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E432" t="s">
+        <v>1327</v>
       </c>
       <c r="Q432" t="s">
         <v>1296</v>
@@ -29379,9 +28953,8 @@
       <c r="C433" t="s">
         <v>1840</v>
       </c>
-      <c r="E433" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E433" t="s">
+        <v>1327</v>
       </c>
       <c r="Q433" t="s">
         <v>1297</v>
@@ -29397,9 +28970,8 @@
       <c r="C434" t="s">
         <v>1841</v>
       </c>
-      <c r="E434" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E434" t="s">
+        <v>1327</v>
       </c>
       <c r="Q434" t="s">
         <v>1298</v>
@@ -29415,9 +28987,8 @@
       <c r="C435" t="s">
         <v>1842</v>
       </c>
-      <c r="E435" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E435" t="s">
+        <v>1327</v>
       </c>
       <c r="Q435" t="s">
         <v>1299</v>
@@ -29433,9 +29004,8 @@
       <c r="C436" t="s">
         <v>1843</v>
       </c>
-      <c r="E436" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E436" t="s">
+        <v>1327</v>
       </c>
       <c r="Q436" t="s">
         <v>990</v>
@@ -29451,9 +29021,8 @@
       <c r="C437" t="s">
         <v>1844</v>
       </c>
-      <c r="E437" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E437" t="s">
+        <v>1327</v>
       </c>
       <c r="Q437" t="s">
         <v>990</v>
@@ -29469,9 +29038,8 @@
       <c r="C438" t="s">
         <v>1845</v>
       </c>
-      <c r="E438" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E438" t="s">
+        <v>1327</v>
       </c>
       <c r="Q438" t="s">
         <v>990</v>
@@ -29487,9 +29055,8 @@
       <c r="C439" t="s">
         <v>1846</v>
       </c>
-      <c r="E439" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E439" t="s">
+        <v>1327</v>
       </c>
       <c r="Q439" t="s">
         <v>1300</v>
@@ -29505,9 +29072,8 @@
       <c r="C440" t="s">
         <v>1847</v>
       </c>
-      <c r="E440" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E440" t="s">
+        <v>1327</v>
       </c>
       <c r="Q440" t="s">
         <v>1301</v>
@@ -29523,9 +29089,8 @@
       <c r="C441" t="s">
         <v>1848</v>
       </c>
-      <c r="E441" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E441" t="s">
+        <v>1327</v>
       </c>
       <c r="Q441" t="s">
         <v>1302</v>
@@ -29541,9 +29106,8 @@
       <c r="C442" t="s">
         <v>1849</v>
       </c>
-      <c r="E442" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E442" t="s">
+        <v>1327</v>
       </c>
       <c r="Q442" t="s">
         <v>1303</v>
@@ -29559,9 +29123,8 @@
       <c r="C443" t="s">
         <v>1850</v>
       </c>
-      <c r="E443" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E443" t="s">
+        <v>1327</v>
       </c>
       <c r="Q443" t="s">
         <v>1304</v>
@@ -29577,9 +29140,8 @@
       <c r="C444" t="s">
         <v>1851</v>
       </c>
-      <c r="E444" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E444" t="s">
+        <v>1327</v>
       </c>
       <c r="Q444" t="s">
         <v>990</v>
@@ -29595,9 +29157,8 @@
       <c r="C445" t="s">
         <v>1852</v>
       </c>
-      <c r="E445" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E445" t="s">
+        <v>1327</v>
       </c>
       <c r="Q445" t="s">
         <v>1305</v>
@@ -29613,9 +29174,8 @@
       <c r="C446" t="s">
         <v>1853</v>
       </c>
-      <c r="E446" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E446" t="s">
+        <v>1327</v>
       </c>
       <c r="Q446" t="s">
         <v>990</v>
@@ -29631,9 +29191,8 @@
       <c r="C447" t="s">
         <v>1854</v>
       </c>
-      <c r="E447" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E447" t="s">
+        <v>1327</v>
       </c>
       <c r="Q447" t="s">
         <v>1306</v>
@@ -29649,9 +29208,8 @@
       <c r="C448" t="s">
         <v>1855</v>
       </c>
-      <c r="E448" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E448" t="s">
+        <v>1327</v>
       </c>
       <c r="Q448" t="s">
         <v>1307</v>
@@ -29667,9 +29225,8 @@
       <c r="C449" t="s">
         <v>1856</v>
       </c>
-      <c r="E449" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E449" t="s">
+        <v>1327</v>
       </c>
       <c r="Q449" t="s">
         <v>1308</v>
@@ -29685,9 +29242,8 @@
       <c r="C450" t="s">
         <v>1857</v>
       </c>
-      <c r="E450" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="E450" t="s">
+        <v>1327</v>
       </c>
       <c r="Q450" t="s">
         <v>1063</v>
@@ -29703,9 +29259,8 @@
       <c r="C451" t="s">
         <v>1858</v>
       </c>
-      <c r="E451" t="str">
-        <f t="shared" ref="E451:E514" si="7">IF(ISBLANK(D451),"","Não")</f>
-        <v/>
+      <c r="E451" t="s">
+        <v>1327</v>
       </c>
       <c r="Q451" t="s">
         <v>1309</v>
@@ -29721,9 +29276,8 @@
       <c r="C452" t="s">
         <v>1859</v>
       </c>
-      <c r="E452" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E452" t="s">
+        <v>1327</v>
       </c>
       <c r="Q452" t="s">
         <v>1310</v>
@@ -29739,9 +29293,8 @@
       <c r="C453" t="s">
         <v>1860</v>
       </c>
-      <c r="E453" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E453" t="s">
+        <v>1327</v>
       </c>
       <c r="Q453" t="s">
         <v>1311</v>
@@ -29757,9 +29310,8 @@
       <c r="C454" t="s">
         <v>1861</v>
       </c>
-      <c r="E454" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E454" t="s">
+        <v>1327</v>
       </c>
       <c r="Q454" t="s">
         <v>1312</v>
@@ -29775,9 +29327,8 @@
       <c r="C455" t="s">
         <v>1862</v>
       </c>
-      <c r="E455" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E455" t="s">
+        <v>1327</v>
       </c>
       <c r="Q455" t="s">
         <v>990</v>
@@ -29793,9 +29344,8 @@
       <c r="C456" t="s">
         <v>1863</v>
       </c>
-      <c r="E456" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E456" t="s">
+        <v>1327</v>
       </c>
       <c r="Q456" t="s">
         <v>990</v>
@@ -29811,9 +29361,8 @@
       <c r="C457" t="s">
         <v>1864</v>
       </c>
-      <c r="E457" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E457" t="s">
+        <v>1327</v>
       </c>
       <c r="Q457" t="s">
         <v>1313</v>
@@ -29829,9 +29378,8 @@
       <c r="C458" t="s">
         <v>1865</v>
       </c>
-      <c r="E458" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E458" t="s">
+        <v>1327</v>
       </c>
       <c r="Q458" t="s">
         <v>1314</v>
@@ -29847,9 +29395,8 @@
       <c r="C459" t="s">
         <v>1866</v>
       </c>
-      <c r="E459" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E459" t="s">
+        <v>1327</v>
       </c>
       <c r="Q459" t="s">
         <v>990</v>
@@ -29865,9 +29412,8 @@
       <c r="C460" t="s">
         <v>1867</v>
       </c>
-      <c r="E460" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E460" t="s">
+        <v>1327</v>
       </c>
       <c r="Q460" t="s">
         <v>1315</v>
@@ -29883,9 +29429,8 @@
       <c r="C461" t="s">
         <v>1868</v>
       </c>
-      <c r="E461" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E461" t="s">
+        <v>1327</v>
       </c>
       <c r="Q461" t="s">
         <v>1316</v>
@@ -29901,9 +29446,8 @@
       <c r="C462" t="s">
         <v>1869</v>
       </c>
-      <c r="E462" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E462" t="s">
+        <v>1327</v>
       </c>
       <c r="Q462" t="s">
         <v>990</v>
@@ -29919,9 +29463,8 @@
       <c r="C463" t="s">
         <v>1870</v>
       </c>
-      <c r="E463" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E463" t="s">
+        <v>1327</v>
       </c>
       <c r="Q463" t="s">
         <v>1317</v>
@@ -29937,9 +29480,8 @@
       <c r="C464" t="s">
         <v>1871</v>
       </c>
-      <c r="E464" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E464" t="s">
+        <v>1327</v>
       </c>
       <c r="Q464" t="s">
         <v>990</v>
@@ -29955,9 +29497,8 @@
       <c r="C465" t="s">
         <v>1872</v>
       </c>
-      <c r="E465" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E465" t="s">
+        <v>1327</v>
       </c>
       <c r="Q465" t="s">
         <v>1318</v>
@@ -29973,9 +29514,8 @@
       <c r="C466" t="s">
         <v>1873</v>
       </c>
-      <c r="E466" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E466" t="s">
+        <v>1327</v>
       </c>
       <c r="Q466" t="s">
         <v>1319</v>
@@ -29991,9 +29531,8 @@
       <c r="C467" t="s">
         <v>1874</v>
       </c>
-      <c r="E467" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E467" t="s">
+        <v>1327</v>
       </c>
       <c r="Q467" t="s">
         <v>990</v>
@@ -30009,9 +29548,8 @@
       <c r="C468" t="s">
         <v>1875</v>
       </c>
-      <c r="E468" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E468" t="s">
+        <v>1327</v>
       </c>
       <c r="Q468" t="s">
         <v>1320</v>
@@ -30027,9 +29565,8 @@
       <c r="C469" t="s">
         <v>1876</v>
       </c>
-      <c r="E469" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E469" t="s">
+        <v>1327</v>
       </c>
       <c r="Q469" t="s">
         <v>990</v>
@@ -30045,9 +29582,8 @@
       <c r="C470" t="s">
         <v>1877</v>
       </c>
-      <c r="E470" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E470" t="s">
+        <v>1327</v>
       </c>
       <c r="Q470" t="s">
         <v>990</v>
@@ -30063,9 +29599,8 @@
       <c r="C471" t="s">
         <v>1878</v>
       </c>
-      <c r="E471" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E471" t="s">
+        <v>1327</v>
       </c>
       <c r="Q471" t="s">
         <v>990</v>
@@ -30081,9 +29616,8 @@
       <c r="C472" t="s">
         <v>1879</v>
       </c>
-      <c r="E472" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E472" t="s">
+        <v>1327</v>
       </c>
       <c r="Q472" t="s">
         <v>990</v>
@@ -30099,9 +29633,8 @@
       <c r="C473" t="s">
         <v>1880</v>
       </c>
-      <c r="E473" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E473" t="s">
+        <v>1327</v>
       </c>
       <c r="Q473" t="s">
         <v>1321</v>
@@ -30117,9 +29650,8 @@
       <c r="C474" t="s">
         <v>1881</v>
       </c>
-      <c r="E474" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E474" t="s">
+        <v>1327</v>
       </c>
       <c r="Q474" t="s">
         <v>1322</v>
@@ -30135,9 +29667,8 @@
       <c r="C475" t="s">
         <v>1882</v>
       </c>
-      <c r="E475" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E475" t="s">
+        <v>1327</v>
       </c>
       <c r="Q475" t="s">
         <v>1323</v>
@@ -30153,9 +29684,8 @@
       <c r="C476" t="s">
         <v>1883</v>
       </c>
-      <c r="E476" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E476" t="s">
+        <v>1327</v>
       </c>
       <c r="Q476" t="s">
         <v>1324</v>
@@ -30171,9 +29701,8 @@
       <c r="C477" t="s">
         <v>1884</v>
       </c>
-      <c r="E477" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E477" t="s">
+        <v>1327</v>
       </c>
       <c r="Q477" t="s">
         <v>990</v>
@@ -30189,9 +29718,8 @@
       <c r="C478" t="s">
         <v>1885</v>
       </c>
-      <c r="E478" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E478" t="s">
+        <v>1327</v>
       </c>
       <c r="Q478" t="s">
         <v>990</v>
@@ -30207,9 +29735,8 @@
       <c r="C479" t="s">
         <v>1886</v>
       </c>
-      <c r="E479" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E479" t="s">
+        <v>1327</v>
       </c>
       <c r="Q479" t="s">
         <v>1325</v>
@@ -30225,9 +29752,8 @@
       <c r="C480" t="s">
         <v>1887</v>
       </c>
-      <c r="E480" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E480" t="s">
+        <v>1327</v>
       </c>
       <c r="Q480" t="s">
         <v>1326</v>
@@ -30243,9 +29769,8 @@
       <c r="C481" t="s">
         <v>1888</v>
       </c>
-      <c r="E481" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E481" t="s">
+        <v>1327</v>
       </c>
       <c r="Q481" t="s">
         <v>822</v>
@@ -30261,9 +29786,8 @@
       <c r="C482" t="s">
         <v>1889</v>
       </c>
-      <c r="E482" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E482" t="s">
+        <v>1327</v>
       </c>
       <c r="Q482" t="s">
         <v>1327</v>
@@ -30279,9 +29803,8 @@
       <c r="C483" t="s">
         <v>1890</v>
       </c>
-      <c r="E483" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E483" t="s">
+        <v>1327</v>
       </c>
       <c r="Q483" t="s">
         <v>1328</v>
@@ -30297,9 +29820,8 @@
       <c r="C484" t="s">
         <v>1891</v>
       </c>
-      <c r="E484" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E484" t="s">
+        <v>1327</v>
       </c>
       <c r="Q484" t="s">
         <v>1329</v>
@@ -30315,9 +29837,8 @@
       <c r="C485" t="s">
         <v>1892</v>
       </c>
-      <c r="E485" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E485" t="s">
+        <v>1327</v>
       </c>
       <c r="Q485" t="s">
         <v>1330</v>
@@ -30333,9 +29854,8 @@
       <c r="C486" t="s">
         <v>1893</v>
       </c>
-      <c r="E486" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E486" t="s">
+        <v>1327</v>
       </c>
       <c r="Q486" t="s">
         <v>990</v>
@@ -30351,9 +29871,8 @@
       <c r="C487" t="s">
         <v>1894</v>
       </c>
-      <c r="E487" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E487" t="s">
+        <v>1327</v>
       </c>
       <c r="Q487" t="s">
         <v>1331</v>
@@ -30369,9 +29888,8 @@
       <c r="C488" t="s">
         <v>1895</v>
       </c>
-      <c r="E488" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E488" t="s">
+        <v>1327</v>
       </c>
       <c r="Q488" t="s">
         <v>1332</v>
@@ -30387,9 +29905,8 @@
       <c r="C489" t="s">
         <v>1896</v>
       </c>
-      <c r="E489" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E489" t="s">
+        <v>1327</v>
       </c>
       <c r="Q489" t="s">
         <v>1333</v>
@@ -30405,9 +29922,8 @@
       <c r="C490" t="s">
         <v>1897</v>
       </c>
-      <c r="E490" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E490" t="s">
+        <v>1327</v>
       </c>
       <c r="Q490" t="s">
         <v>1334</v>
@@ -30423,9 +29939,8 @@
       <c r="C491" t="s">
         <v>1898</v>
       </c>
-      <c r="E491" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E491" t="s">
+        <v>1327</v>
       </c>
       <c r="Q491" t="s">
         <v>1335</v>
@@ -30441,9 +29956,8 @@
       <c r="C492" t="s">
         <v>1899</v>
       </c>
-      <c r="E492" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E492" t="s">
+        <v>1327</v>
       </c>
       <c r="Q492" t="s">
         <v>1336</v>
@@ -30459,9 +29973,8 @@
       <c r="C493" t="s">
         <v>1900</v>
       </c>
-      <c r="E493" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E493" t="s">
+        <v>1327</v>
       </c>
       <c r="Q493" t="s">
         <v>1337</v>
@@ -30477,9 +29990,8 @@
       <c r="C494" t="s">
         <v>1901</v>
       </c>
-      <c r="E494" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E494" t="s">
+        <v>1327</v>
       </c>
       <c r="Q494" t="s">
         <v>990</v>
@@ -30495,9 +30007,8 @@
       <c r="C495" t="s">
         <v>1902</v>
       </c>
-      <c r="E495" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E495" t="s">
+        <v>1327</v>
       </c>
       <c r="Q495" t="s">
         <v>990</v>
@@ -30513,9 +30024,8 @@
       <c r="C496" t="s">
         <v>1903</v>
       </c>
-      <c r="E496" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E496" t="s">
+        <v>1327</v>
       </c>
       <c r="Q496" t="s">
         <v>990</v>
@@ -30531,9 +30041,8 @@
       <c r="C497" t="s">
         <v>1904</v>
       </c>
-      <c r="E497" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E497" t="s">
+        <v>1327</v>
       </c>
       <c r="Q497" t="s">
         <v>990</v>
@@ -30549,9 +30058,8 @@
       <c r="C498" t="s">
         <v>1905</v>
       </c>
-      <c r="E498" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E498" t="s">
+        <v>1327</v>
       </c>
       <c r="Q498" t="s">
         <v>1338</v>
@@ -30567,9 +30075,8 @@
       <c r="C499" t="s">
         <v>1906</v>
       </c>
-      <c r="E499" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E499" t="s">
+        <v>1327</v>
       </c>
       <c r="Q499" t="s">
         <v>1339</v>
@@ -30585,9 +30092,8 @@
       <c r="C500" t="s">
         <v>1907</v>
       </c>
-      <c r="E500" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E500" t="s">
+        <v>1327</v>
       </c>
       <c r="Q500" t="s">
         <v>1340</v>
@@ -30603,9 +30109,8 @@
       <c r="C501" t="s">
         <v>1908</v>
       </c>
-      <c r="E501" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E501" t="s">
+        <v>1327</v>
       </c>
       <c r="Q501" t="s">
         <v>1341</v>
@@ -30621,9 +30126,8 @@
       <c r="C502" t="s">
         <v>1909</v>
       </c>
-      <c r="E502" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E502" t="s">
+        <v>1327</v>
       </c>
       <c r="Q502" t="s">
         <v>1342</v>
@@ -30639,9 +30143,8 @@
       <c r="C503" t="s">
         <v>1910</v>
       </c>
-      <c r="E503" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E503" t="s">
+        <v>1327</v>
       </c>
       <c r="Q503" t="s">
         <v>1284</v>
@@ -30657,9 +30160,8 @@
       <c r="C504" t="s">
         <v>1343</v>
       </c>
-      <c r="E504" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E504" t="s">
+        <v>1327</v>
       </c>
       <c r="Q504" t="s">
         <v>1344</v>
@@ -30675,9 +30177,8 @@
       <c r="C505" t="s">
         <v>1911</v>
       </c>
-      <c r="E505" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E505" t="s">
+        <v>1327</v>
       </c>
       <c r="Q505" t="s">
         <v>1345</v>
@@ -30693,9 +30194,8 @@
       <c r="C506" t="s">
         <v>1912</v>
       </c>
-      <c r="E506" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E506" t="s">
+        <v>1327</v>
       </c>
       <c r="Q506" t="s">
         <v>1346</v>
@@ -30711,9 +30211,8 @@
       <c r="C507" t="s">
         <v>1913</v>
       </c>
-      <c r="E507" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E507" t="s">
+        <v>1327</v>
       </c>
       <c r="Q507" t="s">
         <v>1347</v>
@@ -30729,9 +30228,8 @@
       <c r="C508" t="s">
         <v>1914</v>
       </c>
-      <c r="E508" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E508" t="s">
+        <v>1327</v>
       </c>
       <c r="Q508" t="s">
         <v>1348</v>
@@ -30747,9 +30245,8 @@
       <c r="C509" t="s">
         <v>1915</v>
       </c>
-      <c r="E509" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E509" t="s">
+        <v>1327</v>
       </c>
       <c r="Q509" t="s">
         <v>1349</v>
@@ -30765,9 +30262,8 @@
       <c r="C510" t="s">
         <v>1916</v>
       </c>
-      <c r="E510" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E510" t="s">
+        <v>1327</v>
       </c>
       <c r="Q510" t="s">
         <v>1350</v>
@@ -30783,9 +30279,8 @@
       <c r="C511" t="s">
         <v>1917</v>
       </c>
-      <c r="E511" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E511" t="s">
+        <v>1327</v>
       </c>
       <c r="Q511" t="s">
         <v>1351</v>
@@ -30801,9 +30296,8 @@
       <c r="C512" t="s">
         <v>1918</v>
       </c>
-      <c r="E512" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E512" t="s">
+        <v>1327</v>
       </c>
       <c r="Q512" t="s">
         <v>1352</v>
@@ -30819,9 +30313,8 @@
       <c r="C513" t="s">
         <v>1919</v>
       </c>
-      <c r="E513" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E513" t="s">
+        <v>1327</v>
       </c>
       <c r="Q513" t="s">
         <v>1353</v>
@@ -30837,9 +30330,8 @@
       <c r="C514" t="s">
         <v>1920</v>
       </c>
-      <c r="E514" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E514" t="s">
+        <v>1327</v>
       </c>
       <c r="Q514" t="s">
         <v>1354</v>
@@ -30855,9 +30347,8 @@
       <c r="C515" t="s">
         <v>1921</v>
       </c>
-      <c r="E515" t="str">
-        <f t="shared" ref="E515:E571" si="8">IF(ISBLANK(D515),"","Não")</f>
-        <v/>
+      <c r="E515" t="s">
+        <v>1327</v>
       </c>
       <c r="Q515" t="s">
         <v>990</v>
@@ -30873,9 +30364,8 @@
       <c r="C516" t="s">
         <v>1922</v>
       </c>
-      <c r="E516" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E516" t="s">
+        <v>1327</v>
       </c>
       <c r="Q516" t="s">
         <v>1355</v>
@@ -30891,9 +30381,8 @@
       <c r="C517" t="s">
         <v>1923</v>
       </c>
-      <c r="E517" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E517" t="s">
+        <v>1327</v>
       </c>
       <c r="Q517" t="s">
         <v>1356</v>
@@ -30909,9 +30398,8 @@
       <c r="C518" t="s">
         <v>1924</v>
       </c>
-      <c r="E518" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E518" t="s">
+        <v>1327</v>
       </c>
       <c r="Q518" t="s">
         <v>1357</v>
@@ -30927,9 +30415,8 @@
       <c r="C519" t="s">
         <v>1925</v>
       </c>
-      <c r="E519" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E519" t="s">
+        <v>1327</v>
       </c>
       <c r="Q519" t="s">
         <v>1358</v>
@@ -30945,9 +30432,8 @@
       <c r="C520" t="s">
         <v>1926</v>
       </c>
-      <c r="E520" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E520" t="s">
+        <v>1327</v>
       </c>
       <c r="Q520" t="s">
         <v>1359</v>
@@ -30963,9 +30449,8 @@
       <c r="C521" t="s">
         <v>1927</v>
       </c>
-      <c r="E521" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E521" t="s">
+        <v>1327</v>
       </c>
       <c r="Q521" t="s">
         <v>1360</v>
@@ -30981,9 +30466,8 @@
       <c r="C522" t="s">
         <v>1928</v>
       </c>
-      <c r="E522" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E522" t="s">
+        <v>1327</v>
       </c>
       <c r="Q522" t="s">
         <v>1361</v>
@@ -30999,9 +30483,8 @@
       <c r="C523" t="s">
         <v>1929</v>
       </c>
-      <c r="E523" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E523" t="s">
+        <v>1327</v>
       </c>
       <c r="Q523" t="s">
         <v>1362</v>
@@ -31017,9 +30500,8 @@
       <c r="C524" t="s">
         <v>1930</v>
       </c>
-      <c r="E524" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E524" t="s">
+        <v>1327</v>
       </c>
       <c r="Q524" t="s">
         <v>1363</v>
@@ -31035,9 +30517,8 @@
       <c r="C525" t="s">
         <v>1931</v>
       </c>
-      <c r="E525" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E525" t="s">
+        <v>1327</v>
       </c>
       <c r="Q525" t="s">
         <v>1364</v>
@@ -31053,9 +30534,8 @@
       <c r="C526" t="s">
         <v>1530</v>
       </c>
-      <c r="E526" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E526" t="s">
+        <v>1327</v>
       </c>
       <c r="Q526" t="s">
         <v>1365</v>
@@ -31071,9 +30551,8 @@
       <c r="C527" t="s">
         <v>1932</v>
       </c>
-      <c r="E527" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E527" t="s">
+        <v>1327</v>
       </c>
       <c r="Q527" t="s">
         <v>1366</v>
@@ -31089,9 +30568,8 @@
       <c r="C528" t="s">
         <v>1933</v>
       </c>
-      <c r="E528" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E528" t="s">
+        <v>1327</v>
       </c>
       <c r="Q528" t="s">
         <v>1367</v>
@@ -31107,9 +30585,8 @@
       <c r="C529" t="s">
         <v>1934</v>
       </c>
-      <c r="E529" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E529" t="s">
+        <v>1327</v>
       </c>
       <c r="Q529" t="s">
         <v>1368</v>
@@ -31125,9 +30602,8 @@
       <c r="C530" t="s">
         <v>1935</v>
       </c>
-      <c r="E530" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E530" t="s">
+        <v>1327</v>
       </c>
       <c r="Q530" t="s">
         <v>1369</v>
@@ -31143,9 +30619,8 @@
       <c r="C531" t="s">
         <v>1936</v>
       </c>
-      <c r="E531" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E531" t="s">
+        <v>1327</v>
       </c>
       <c r="Q531" t="s">
         <v>1370</v>
@@ -31161,9 +30636,8 @@
       <c r="C532" t="s">
         <v>1937</v>
       </c>
-      <c r="E532" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E532" t="s">
+        <v>1327</v>
       </c>
       <c r="Q532" t="s">
         <v>1371</v>
@@ -31179,9 +30653,8 @@
       <c r="C533" t="s">
         <v>1938</v>
       </c>
-      <c r="E533" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E533" t="s">
+        <v>1327</v>
       </c>
       <c r="Q533" t="s">
         <v>1372</v>
@@ -31197,9 +30670,8 @@
       <c r="C534" t="s">
         <v>1939</v>
       </c>
-      <c r="E534" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E534" t="s">
+        <v>1327</v>
       </c>
       <c r="Q534" t="s">
         <v>1373</v>
@@ -31215,9 +30687,8 @@
       <c r="C535" t="s">
         <v>1940</v>
       </c>
-      <c r="E535" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E535" t="s">
+        <v>1327</v>
       </c>
       <c r="Q535" t="s">
         <v>1374</v>
@@ -31233,9 +30704,8 @@
       <c r="C536" t="s">
         <v>1941</v>
       </c>
-      <c r="E536" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E536" t="s">
+        <v>1327</v>
       </c>
       <c r="Q536" t="s">
         <v>990</v>
@@ -31251,9 +30721,8 @@
       <c r="C537" t="s">
         <v>1942</v>
       </c>
-      <c r="E537" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E537" t="s">
+        <v>1327</v>
       </c>
       <c r="Q537" t="s">
         <v>1375</v>
@@ -31269,9 +30738,8 @@
       <c r="C538" t="s">
         <v>1943</v>
       </c>
-      <c r="E538" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E538" t="s">
+        <v>1327</v>
       </c>
       <c r="Q538" t="s">
         <v>1376</v>
@@ -31287,9 +30755,8 @@
       <c r="C539" t="s">
         <v>1944</v>
       </c>
-      <c r="E539" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E539" t="s">
+        <v>1327</v>
       </c>
       <c r="Q539" t="s">
         <v>1377</v>
@@ -31305,9 +30772,8 @@
       <c r="C540" t="s">
         <v>1945</v>
       </c>
-      <c r="E540" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E540" t="s">
+        <v>1327</v>
       </c>
       <c r="Q540" t="s">
         <v>1378</v>
@@ -31323,9 +30789,8 @@
       <c r="C541" t="s">
         <v>1946</v>
       </c>
-      <c r="E541" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E541" t="s">
+        <v>1327</v>
       </c>
       <c r="Q541" t="s">
         <v>1379</v>
@@ -31341,9 +30806,8 @@
       <c r="C542" t="s">
         <v>1947</v>
       </c>
-      <c r="E542" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E542" t="s">
+        <v>1327</v>
       </c>
       <c r="Q542" t="s">
         <v>1380</v>
@@ -31359,9 +30823,8 @@
       <c r="C543" t="s">
         <v>1948</v>
       </c>
-      <c r="E543" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E543" t="s">
+        <v>1327</v>
       </c>
       <c r="Q543" t="s">
         <v>1381</v>
@@ -31377,9 +30840,8 @@
       <c r="C544" t="s">
         <v>1949</v>
       </c>
-      <c r="E544" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E544" t="s">
+        <v>1327</v>
       </c>
       <c r="Q544" t="s">
         <v>990</v>
@@ -31395,9 +30857,8 @@
       <c r="C545" t="s">
         <v>1950</v>
       </c>
-      <c r="E545" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E545" t="s">
+        <v>1327</v>
       </c>
       <c r="Q545" t="s">
         <v>1382</v>
@@ -31413,9 +30874,8 @@
       <c r="C546" t="s">
         <v>1951</v>
       </c>
-      <c r="E546" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E546" t="s">
+        <v>1327</v>
       </c>
       <c r="Q546" t="s">
         <v>1383</v>
@@ -31431,9 +30891,8 @@
       <c r="C547" t="s">
         <v>1952</v>
       </c>
-      <c r="E547" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E547" t="s">
+        <v>1327</v>
       </c>
       <c r="Q547" t="s">
         <v>1384</v>
@@ -31449,9 +30908,8 @@
       <c r="C548" t="s">
         <v>1953</v>
       </c>
-      <c r="E548" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E548" t="s">
+        <v>1327</v>
       </c>
       <c r="Q548" t="s">
         <v>1385</v>
@@ -31467,9 +30925,8 @@
       <c r="C549" t="s">
         <v>1954</v>
       </c>
-      <c r="E549" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E549" t="s">
+        <v>1327</v>
       </c>
       <c r="Q549" t="s">
         <v>1386</v>
@@ -31485,9 +30942,8 @@
       <c r="C550" t="s">
         <v>1955</v>
       </c>
-      <c r="E550" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E550" t="s">
+        <v>1327</v>
       </c>
       <c r="Q550" t="s">
         <v>1387</v>
@@ -31503,9 +30959,8 @@
       <c r="C551" t="s">
         <v>1956</v>
       </c>
-      <c r="E551" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E551" t="s">
+        <v>1327</v>
       </c>
       <c r="Q551" t="s">
         <v>1388</v>
@@ -31521,9 +30976,8 @@
       <c r="C552" t="s">
         <v>1957</v>
       </c>
-      <c r="E552" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E552" t="s">
+        <v>1327</v>
       </c>
       <c r="Q552" t="s">
         <v>990</v>
@@ -31539,9 +30993,8 @@
       <c r="C553" t="s">
         <v>1958</v>
       </c>
-      <c r="E553" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E553" t="s">
+        <v>1327</v>
       </c>
       <c r="Q553" t="s">
         <v>1389</v>
@@ -31557,9 +31010,8 @@
       <c r="C554" t="s">
         <v>1959</v>
       </c>
-      <c r="E554" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E554" t="s">
+        <v>1327</v>
       </c>
       <c r="Q554" t="s">
         <v>1390</v>
@@ -31575,9 +31027,8 @@
       <c r="C555" t="s">
         <v>1960</v>
       </c>
-      <c r="E555" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E555" t="s">
+        <v>1327</v>
       </c>
       <c r="Q555" t="s">
         <v>1391</v>
@@ -31593,9 +31044,8 @@
       <c r="C556" t="s">
         <v>1961</v>
       </c>
-      <c r="E556" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E556" t="s">
+        <v>1327</v>
       </c>
       <c r="Q556" t="s">
         <v>1392</v>
@@ -31611,9 +31061,8 @@
       <c r="C557" t="s">
         <v>1962</v>
       </c>
-      <c r="E557" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E557" t="s">
+        <v>1327</v>
       </c>
       <c r="Q557" t="s">
         <v>1393</v>
@@ -31629,9 +31078,8 @@
       <c r="C558" t="s">
         <v>1963</v>
       </c>
-      <c r="E558" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E558" t="s">
+        <v>1327</v>
       </c>
       <c r="Q558" t="s">
         <v>1394</v>
@@ -31647,9 +31095,8 @@
       <c r="C559" t="s">
         <v>1964</v>
       </c>
-      <c r="E559" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E559" t="s">
+        <v>1327</v>
       </c>
       <c r="Q559" t="s">
         <v>1395</v>
@@ -31665,9 +31112,8 @@
       <c r="C560" t="s">
         <v>1965</v>
       </c>
-      <c r="E560" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E560" t="s">
+        <v>1327</v>
       </c>
       <c r="Q560" t="s">
         <v>1396</v>
@@ -31683,9 +31129,8 @@
       <c r="C561" t="s">
         <v>1966</v>
       </c>
-      <c r="E561" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E561" t="s">
+        <v>1327</v>
       </c>
       <c r="Q561" t="s">
         <v>990</v>
@@ -31701,9 +31146,8 @@
       <c r="C562" t="s">
         <v>1967</v>
       </c>
-      <c r="E562" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E562" t="s">
+        <v>1327</v>
       </c>
       <c r="Q562" t="s">
         <v>1397</v>
@@ -31719,9 +31163,8 @@
       <c r="C563" t="s">
         <v>1968</v>
       </c>
-      <c r="E563" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E563" t="s">
+        <v>1327</v>
       </c>
       <c r="Q563" t="s">
         <v>990</v>
@@ -31737,9 +31180,8 @@
       <c r="C564" t="s">
         <v>1969</v>
       </c>
-      <c r="E564" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E564" t="s">
+        <v>1327</v>
       </c>
       <c r="Q564" t="s">
         <v>1398</v>
@@ -31755,9 +31197,8 @@
       <c r="C565" t="s">
         <v>1970</v>
       </c>
-      <c r="E565" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E565" t="s">
+        <v>1327</v>
       </c>
       <c r="Q565" t="s">
         <v>990</v>
@@ -31773,9 +31214,8 @@
       <c r="C566" t="s">
         <v>1971</v>
       </c>
-      <c r="E566" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E566" t="s">
+        <v>1327</v>
       </c>
       <c r="Q566" t="s">
         <v>1399</v>
@@ -31791,9 +31231,8 @@
       <c r="C567" t="s">
         <v>1972</v>
       </c>
-      <c r="E567" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E567" t="s">
+        <v>1327</v>
       </c>
       <c r="Q567" t="s">
         <v>990</v>
@@ -31809,9 +31248,8 @@
       <c r="C568" t="s">
         <v>1973</v>
       </c>
-      <c r="E568" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E568" t="s">
+        <v>1327</v>
       </c>
       <c r="Q568" t="s">
         <v>1400</v>
@@ -31827,9 +31265,8 @@
       <c r="C569" t="s">
         <v>1974</v>
       </c>
-      <c r="E569" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E569" t="s">
+        <v>1327</v>
       </c>
       <c r="Q569" t="s">
         <v>990</v>
@@ -31845,9 +31282,8 @@
       <c r="C570" t="s">
         <v>1975</v>
       </c>
-      <c r="E570" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E570" t="s">
+        <v>1327</v>
       </c>
       <c r="Q570" t="s">
         <v>1401</v>
@@ -31863,9 +31299,8 @@
       <c r="C571" t="s">
         <v>1976</v>
       </c>
-      <c r="E571" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="E571" t="s">
+        <v>1327</v>
       </c>
       <c r="Q571" t="s">
         <v>1402</v>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1F5BF-2B1E-4C92-8837-29FFCEAB5132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8044406-296F-477A-82BA-FC9D207FEA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8643" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8636" uniqueCount="2739">
   <si>
     <t>query</t>
   </si>
@@ -7818,9 +7818,6 @@
     <t>Qual é a idade reprodutiva de uma tartaruga?</t>
   </si>
   <si>
-    <t>Qua é o habitat de uma tartaruga?</t>
-  </si>
-  <si>
     <t>Qual é o peso de uma tartaruga?</t>
   </si>
   <si>
@@ -7962,9 +7959,6 @@
     <t>Quem definiu a ZEE?</t>
   </si>
   <si>
-    <t>tag_extra</t>
-  </si>
-  <si>
     <t>O que é ZEE?</t>
   </si>
   <si>
@@ -8143,6 +8137,123 @@
   </si>
   <si>
     <t>Quais são os usos do petróleo no Brasil?</t>
+  </si>
+  <si>
+    <t>Varia muito com a espécie. As menores tartarugas marinhas, quando adultas, pesam em torno de 50 kg, já as maiores (tartarugas-de-couro) chegam a até 500 kg! Meia tonelada de tartaruga!</t>
+  </si>
+  <si>
+    <t>Qual é o habitat de uma tartaruga?</t>
+  </si>
+  <si>
+    <t>Algumas espécies de tartarugas marinhas são carnívoras, outras herbívoras, e algumas outras mudam de dieta ao longo da vida. Suas principais fontes de alimentos são corais, crustáceos, animais gelatinosos como águas-vivas e tunicados, algas, peixes e moluscos.</t>
+  </si>
+  <si>
+    <t>O que é Amazônia Azul?</t>
+  </si>
+  <si>
+    <t>http://tamar.org.br/</t>
+  </si>
+  <si>
+    <t>O que são crustáceos?</t>
+  </si>
+  <si>
+    <t>Exemplos de crustáceos</t>
+  </si>
+  <si>
+    <t>O que são tunicados?</t>
+  </si>
+  <si>
+    <t>O que são moluscos?</t>
+  </si>
+  <si>
+    <t>O que são algas?</t>
+  </si>
+  <si>
+    <t>O que é uma água-viva?</t>
+  </si>
+  <si>
+    <t>Exemplos de tunicados</t>
+  </si>
+  <si>
+    <t>Exemplos de moluscos</t>
+  </si>
+  <si>
+    <t>Exemplos de algas</t>
+  </si>
+  <si>
+    <t>O que é uma caravela?</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>energia_de_mare</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>tartaruga</t>
+  </si>
+  <si>
+    <t>fisica</t>
+  </si>
+  <si>
+    <t>oceano</t>
+  </si>
+  <si>
+    <t>onda</t>
+  </si>
+  <si>
+    <t>mare</t>
+  </si>
+  <si>
+    <t>simbolo</t>
+  </si>
+  <si>
+    <t>corrente</t>
+  </si>
+  <si>
+    <t>navio</t>
+  </si>
+  <si>
+    <t>flora</t>
+  </si>
+  <si>
+    <t>fauna</t>
+  </si>
+  <si>
+    <t>oceanografia</t>
+  </si>
+  <si>
+    <t>turismo</t>
+  </si>
+  <si>
+    <t>engenharia</t>
+  </si>
+  <si>
+    <t>saude</t>
+  </si>
+  <si>
+    <t>litoral</t>
+  </si>
+  <si>
+    <t>protecao_ambiental</t>
+  </si>
+  <si>
+    <t>geologia</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>Qual é a importância da Amazônia Azul?</t>
+  </si>
+  <si>
+    <t>Por que a Amazônia Azul é chamada assim?</t>
+  </si>
+  <si>
+    <t>Quantas espécies existem na Amazônia Azul?</t>
   </si>
 </sst>
 </file>
@@ -8170,7 +8281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8181,12 +8292,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -8252,7 +8357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8266,18 +8371,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -8323,6 +8475,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF96F6F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8335,7 +8492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:AB571" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{8C3B9576-1382-4D59-B98B-98BDB5F95A2F}" name="id"/>
@@ -41493,23 +41650,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:Z169"/>
+  <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F158" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O168" sqref="O168"/>
+      <selection pane="bottomRight" activeCell="T185" sqref="T185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2569</v>
       </c>
@@ -41526,78 +41684,88 @@
         <v>2573</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1967</v>
+        <v>2715</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1968</v>
+        <v>2716</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1969</v>
+        <v>2717</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1970</v>
+        <v>2718</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1971</v>
+        <v>2719</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1972</v>
+        <v>2720</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>1973</v>
+        <v>2721</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1974</v>
+        <v>2722</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>1975</v>
+        <v>2723</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>1976</v>
+        <v>2724</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>1977</v>
+        <v>2725</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>1978</v>
+        <v>2726</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>1979</v>
+        <v>2727</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>1980</v>
+        <v>2728</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>1981</v>
+        <v>2729</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>1982</v>
+        <v>2730</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>1983</v>
+        <v>2731</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>1984</v>
+        <v>2732</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>1985</v>
+        <v>2733</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>1987</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2734</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2574</v>
       </c>
+      <c r="B2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2704</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <f t="shared" ref="AA2:AA66" si="0">SUM(F2:Z2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2575</v>
       </c>
@@ -41607,256 +41775,390 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2576</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2577</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2578</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2579</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2580</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2581</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2576</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2582</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2583</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2584</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2585</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2586</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2587</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2588</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2589</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2590</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2591</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2592</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2593</v>
+        <v>2701</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2594</v>
+        <v>2593</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2704</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1027</v>
       </c>
@@ -41866,178 +42168,266 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>997</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1048</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1275</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1363</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1380</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2039</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1626</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1559</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -42045,202 +42435,302 @@
       <c r="U57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>2701</v>
+      <c r="AA60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>2699</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>2626</v>
+      <c r="AA61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>2625</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>2623</v>
+      <c r="AA62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>2622</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>2624</v>
+      <c r="AA63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>2623</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>2625</v>
+      <c r="AA64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>2624</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>2627</v>
+      <c r="AA65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>2626</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>2628</v>
+      <c r="AA66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>2627</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>2629</v>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA130" si="1">SUM(F67:Z67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>2628</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>2631</v>
+      <c r="AA68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>2630</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>2630</v>
+      <c r="AA69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>2629</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>2632</v>
+      <c r="AA70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>2631</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="AA71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>1329</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="AA72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
         <v>1385</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="AA73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
         <v>1389</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="AA74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>1431</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="AA75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
         <v>1446</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>2633</v>
+      <c r="AA76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>2632</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="AA77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
         <v>1577</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="AA78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
         <v>1582</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>2634</v>
+      <c r="AA79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>2633</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>2635</v>
+      <c r="AA80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>2634</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>2636</v>
+      <c r="AA81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>2635</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -42248,129 +42738,193 @@
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>2637</v>
+      <c r="AA82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>2636</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="AA83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
         <v>2041</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="AA84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
         <v>1095</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="AA85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
         <v>1802</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>2638</v>
+      <c r="AA86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>2637</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="AA87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
         <v>1171</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="AA88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
         <v>1177</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="AA89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
         <v>1189</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="AA90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
         <v>1224</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="AA91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="AA92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
         <v>1245</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="AA93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
         <v>1252</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="AA94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>1325</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="AA95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
         <v>1335</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="AA96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
         <v>1341</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="AA97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
         <v>1404</v>
       </c>
       <c r="I98">
@@ -42379,162 +42933,242 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="AA98">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
         <v>1431</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="AA99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>1438</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="AA100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
         <v>1446</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="AA101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
         <v>1461</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="AA102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
         <v>1480</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="AA103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
         <v>1561</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="AA104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>1580</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="AA105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>1597</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="AA106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
         <v>1667</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+      <c r="AA107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>1861</v>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="AA108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
         <v>1903</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>2639</v>
+      <c r="AA109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>2638</v>
       </c>
       <c r="Z110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
-        <v>2640</v>
+      <c r="AA110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>2639</v>
       </c>
       <c r="Z111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>2642</v>
+      <c r="AA111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>2640</v>
       </c>
       <c r="Z112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>2643</v>
+      <c r="AA112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>2641</v>
       </c>
       <c r="Z113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>2646</v>
+      <c r="AA113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>2644</v>
       </c>
       <c r="Z114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>2647</v>
+      <c r="AA114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>2645</v>
       </c>
       <c r="Z115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>2644</v>
+      <c r="AA115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>2642</v>
       </c>
       <c r="Z116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
-        <v>2645</v>
+      <c r="AA116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>2643</v>
       </c>
       <c r="Z117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>2648</v>
+      <c r="AA117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>2646</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -42542,425 +43176,2714 @@
       <c r="Z118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
-        <v>2649</v>
+      <c r="AA118">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>2647</v>
       </c>
       <c r="Z119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>2670</v>
-      </c>
-      <c r="L120" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>2671</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>1989</v>
+      <c r="AA119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>2669</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
       </c>
       <c r="M121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="AA121">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>2670</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>2671</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
         <v>2672</v>
       </c>
-      <c r="L122" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L123" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L124" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="AA128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
         <v>2673</v>
       </c>
-      <c r="L125" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" ref="AA131:AA168" si="2">SUM(F131:Z131)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="AA132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
         <v>2674</v>
       </c>
-      <c r="M127" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>1833</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M129" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>2675</v>
-      </c>
-      <c r="M131" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>1552</v>
-      </c>
-      <c r="M133" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
-        <v>2676</v>
-      </c>
-      <c r="M134" s="5"/>
       <c r="O134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
-        <v>2677</v>
+      <c r="AA134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>2675</v>
       </c>
       <c r="P135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
-        <v>2678</v>
+      <c r="AA135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>2676</v>
       </c>
       <c r="P136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="AA136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="AA137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="AA138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
         <v>2679</v>
       </c>
-      <c r="Q137" s="6" t="s">
-        <v>1989</v>
-      </c>
-      <c r="R137" s="6"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="AA139">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="AA140">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>2680</v>
-      </c>
-      <c r="Q138" s="5" t="s">
-        <v>1989</v>
-      </c>
-      <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>2681</v>
-      </c>
-      <c r="Q139" s="6" t="s">
-        <v>1989</v>
-      </c>
-      <c r="R139" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Q140" s="5" t="s">
-        <v>1989</v>
-      </c>
-      <c r="R140" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
-        <v>2682</v>
       </c>
       <c r="R141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
-        <v>2683</v>
+      <c r="AA141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>2681</v>
       </c>
       <c r="R142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
-        <v>2684</v>
+      <c r="AA142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>2682</v>
       </c>
       <c r="R143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
-        <v>2685</v>
+      <c r="AA143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>2683</v>
       </c>
       <c r="R144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
-        <v>2686</v>
+      <c r="AA144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>2684</v>
       </c>
       <c r="R145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
-        <v>2687</v>
+      <c r="AA145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>2685</v>
       </c>
       <c r="R146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
-        <v>2688</v>
+      <c r="AA146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>2686</v>
       </c>
       <c r="R147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
-        <v>2689</v>
+      <c r="AA147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>2687</v>
       </c>
       <c r="R148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+      <c r="AA148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="S149" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>2690</v>
-      </c>
-      <c r="S150" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>2688</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+      <c r="AA150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="S151" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+      <c r="S151">
+        <v>1</v>
+      </c>
+      <c r="AA151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="S152" s="5" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="AA152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
         <v>1783</v>
       </c>
-      <c r="S153" s="6" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
-        <v>2691</v>
+      <c r="S153">
+        <v>1</v>
+      </c>
+      <c r="AA153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>2689</v>
       </c>
       <c r="T154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
-        <v>2692</v>
+      <c r="AA154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>2690</v>
       </c>
       <c r="T155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
-        <v>2693</v>
+      <c r="AA155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>2691</v>
       </c>
       <c r="T156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
-        <v>2694</v>
+      <c r="AA156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>2692</v>
       </c>
       <c r="U157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>2695</v>
+      <c r="AA157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>2693</v>
       </c>
       <c r="U158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>2696</v>
+      <c r="AA158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>2694</v>
       </c>
       <c r="U159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+      <c r="AA159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
         <v>1387</v>
       </c>
       <c r="V160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="AA160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
         <v>1619</v>
       </c>
       <c r="V161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>2697</v>
+      <c r="AA161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>2695</v>
       </c>
       <c r="V162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
+      <c r="AA162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
         <v>1427</v>
       </c>
       <c r="W163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
-        <v>2698</v>
+      <c r="AA163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>2696</v>
       </c>
       <c r="X164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+      <c r="AA164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
         <v>1571</v>
       </c>
       <c r="X165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
-        <v>2699</v>
+      <c r="AA165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>2697</v>
       </c>
       <c r="X166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+      <c r="AA166">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
         <v>1669</v>
       </c>
       <c r="X167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
-        <v>2700</v>
+      <c r="AA167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>2698</v>
       </c>
       <c r="X168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+      <c r="AA168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
         <v>1846</v>
       </c>
+      <c r="Y169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <f t="shared" ref="AA169:AA179" si="3">SUM(F169:Z169)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>2703</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>2706</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="AA172">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>2707</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="AA173">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="AA174">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>2709</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="AA175">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="AA176">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="AA177">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>2712</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+      <c r="AA178">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>2713</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="AA179">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>2714</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="AA180">
+        <f>SUM(F180:Z180)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="Z181">
+        <v>1</v>
+      </c>
+      <c r="AA181">
+        <f t="shared" ref="AA181:AA244" si="4">SUM(F181:Z181)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>2737</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>2738</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="AA183">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA186">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA188">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA189">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA190">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA191">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA192">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA193">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA194">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA195">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA196">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA197">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA198">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA201">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA202">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA203">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA207">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA208">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA209">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA210">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA211">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA212">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA213">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA214">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA215">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA216">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA217">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA218">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA219">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA220">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA221">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA222">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA223">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA224">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA225">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA226">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA227">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA228">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA229">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA230">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA232">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA233">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA234">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA235">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA237">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA239">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA240">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA242">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA243">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA244">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA245">
+        <f t="shared" ref="AA245:AA308" si="5">SUM(F245:Z245)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA246">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA247">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA250">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA251">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA252">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA258">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA259">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA260">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA261">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA263">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA264">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA265">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA266">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA267">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA268">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA269">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA271">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA272">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA273">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA274">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA275">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA276">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA277">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA278">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA279">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA280">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA281">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA282">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA283">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA284">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA285">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA286">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA287">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA288">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA289">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA290">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA291">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA293">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA294">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA295">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA296">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA297">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA298">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA299">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA300">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA301">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA302">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA303">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA304">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA305">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA306">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA307">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA308">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA309">
+        <f t="shared" ref="AA309:AA372" si="6">SUM(F309:Z309)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA310">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA311">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA312">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA313">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA314">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA315">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA316">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA317">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA318">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA319">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA320">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA321">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA322">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA323">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA324">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA325">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA326">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA327">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA328">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA329">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA330">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA331">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA332">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA333">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA334">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA335">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA336">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA337">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA338">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA339">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA340">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA341">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA342">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA343">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA344">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA345">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA346">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA347">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA348">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA349">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA350">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA351">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA352">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA353">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA354">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA355">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA356">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA357">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA358">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA359">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA360">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA361">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA362">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA363">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA364">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA365">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA366">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA367">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA368">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA369">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA370">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA371">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA372">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA373">
+        <f t="shared" ref="AA373:AA436" si="7">SUM(F373:Z373)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA374">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA375">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA376">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA377">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA378">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA379">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA380">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA381">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA382">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA383">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA384">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA385">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA386">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA387">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA388">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA389">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA390">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA391">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA392">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA393">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA394">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA395">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA396">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA397">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA398">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA399">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA400">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA401">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA402">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA403">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA404">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA405">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA406">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA407">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA408">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA409">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA410">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA411">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA412">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA413">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA414">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA415">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA416">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA417">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA418">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA419">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA420">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA421">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA422">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA423">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA424">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA425">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA426">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA427">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA428">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA429">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA430">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA431">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA432">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA433">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA434">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA435">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA436">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA437">
+        <f t="shared" ref="AA437:AA500" si="8">SUM(F437:Z437)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA438">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA439">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA440">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA441">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA442">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA443">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA444">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA445">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA446">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA447">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA448">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA449">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA450">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA451">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA452">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA453">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA454">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA455">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA456">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA457">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA458">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA459">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA460">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA461">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA462">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA463">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA464">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA465">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA466">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA467">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA468">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA469">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA470">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA471">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA472">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA473">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA474">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA475">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA476">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA477">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA478">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA479">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA480">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA481">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA482">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA483">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA484">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA485">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA486">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA487">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA488">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA489">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA490">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA491">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA492">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA493">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA494">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA495">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA496">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA497">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA498">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA499">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA500">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:Z500">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($AA2=0, NOT(ISBLANK($A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -42970,7 +45893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16073544-1E06-452F-B66A-4E8CA4FFD654}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -42982,82 +45905,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
     </row>
   </sheetData>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8044406-296F-477A-82BA-FC9D207FEA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE306DD-A8CD-4891-8512-2F294F70D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="9972" yWindow="960" windowWidth="11820" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8636" uniqueCount="2739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8743" uniqueCount="2843">
   <si>
     <t>query</t>
   </si>
@@ -7866,9 +7866,6 @@
     <t>Quais são os impactos econômicos de derramamentos de petróleo?</t>
   </si>
   <si>
-    <t>Qual é o consumo diário de petróleo do Brasil?</t>
-  </si>
-  <si>
     <t>Quanto custa extrair petróleo?</t>
   </si>
   <si>
@@ -8097,9 +8094,6 @@
     <t>O que é uma anêmona?</t>
   </si>
   <si>
-    <t>Qual é o animal mais rápido no oceano?</t>
-  </si>
-  <si>
     <t>Há tubarões no Brasil?</t>
   </si>
   <si>
@@ -8145,9 +8139,6 @@
     <t>Qual é o habitat de uma tartaruga?</t>
   </si>
   <si>
-    <t>Algumas espécies de tartarugas marinhas são carnívoras, outras herbívoras, e algumas outras mudam de dieta ao longo da vida. Suas principais fontes de alimentos são corais, crustáceos, animais gelatinosos como águas-vivas e tunicados, algas, peixes e moluscos.</t>
-  </si>
-  <si>
     <t>O que é Amazônia Azul?</t>
   </si>
   <si>
@@ -8169,21 +8160,9 @@
     <t>O que são algas?</t>
   </si>
   <si>
-    <t>O que é uma água-viva?</t>
-  </si>
-  <si>
-    <t>Exemplos de tunicados</t>
-  </si>
-  <si>
     <t>Exemplos de moluscos</t>
   </si>
   <si>
-    <t>Exemplos de algas</t>
-  </si>
-  <si>
-    <t>O que é uma caravela?</t>
-  </si>
-  <si>
     <t>coral</t>
   </si>
   <si>
@@ -8254,13 +8233,346 @@
   </si>
   <si>
     <t>Quantas espécies existem na Amazônia Azul?</t>
+  </si>
+  <si>
+    <t>Castro etl al., 2017</t>
+  </si>
+  <si>
+    <t>A AAz possui importância tanto econômica quanto científica. Nós realizamos pesca, turismo, transporte marítimo, extração de petróleo e gás e geração de energia renovável nela! Mais de 95% de nosso comércio exterior passa pelo mar e de lá tiramos 85% do nosso petróleo, 75% do gás natural e 45% do pescado.</t>
+  </si>
+  <si>
+    <t>Pereira, 2019</t>
+  </si>
+  <si>
+    <t>Crustáceos são animais invertebrados do grupo dos artrópodes. Eles possuem um exoesqueleto resistente e são normalmente encontrados em ambientes aquáticos.</t>
+  </si>
+  <si>
+    <t>O que são características de crustáceos?</t>
+  </si>
+  <si>
+    <t>É difícil encontrar características que se apliquem a todos, porém com frequência eles possuem dois pares de antenas, um par de mandíbulas, dois pares de maxilas e uma carapaça revestindo o tórax.</t>
+  </si>
+  <si>
+    <t>Camarões, lagostas, cracas, carangueijos e tatus-bola são todos crustáceos!</t>
+  </si>
+  <si>
+    <t>Tunicados (também conhecidos como urocordados) são animais do filo Chordata que vivem fixos no solo marinho em grandes profundidades. O nome vem do fato de possuírem um tecido de celulose em volta do corpo, chamado túnica.</t>
+  </si>
+  <si>
+    <t>O que é um filo?</t>
+  </si>
+  <si>
+    <t>O que é Chordata?</t>
+  </si>
+  <si>
+    <t>Chordata, um dos filos do reino Animalia, é caracterizado pela presença de simetria bilateral, notocorda, sistema digestivo completo, um tubo nervoso dorsal, fendas branquiais e uma cauda pós-anal, em pelo menos uma fase da vida. E sabe o que? Você é um desses! Vertebrados são um dos subfilos de cordados.</t>
+  </si>
+  <si>
+    <t>Filo é a primeira divisão dos reinos biológicos. Por exemplo, dentre os filos do reino Animalia estão os cordados, artrópodes, anelídeos e nemátodes (entre muitos outros!)</t>
+  </si>
+  <si>
+    <t>A AAz se espelha na Amazônia por possuir uma enorme riqueza de recursos vivos, minerais e energéticos. Ela é lar de uma biodiversidade incrivel e de belezas naturais sem fim, assim como sua versão continental.</t>
+  </si>
+  <si>
+    <t>https://www.infoescola.com/biologia/urocordados-ou-tunicados/</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Cordados</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Filo</t>
+  </si>
+  <si>
+    <t>https://www.todamateria.com.br/crustaceos/</t>
+  </si>
+  <si>
+    <t>Qual é a produção brasileira de petróleo?</t>
+  </si>
+  <si>
+    <t>No ano de 2020, a produção média foi de 2,94 milhões de barris por dia, sendo 68,6% provenientes de campos de pré-sal, 25,4% de pós-sal e apenas 6% terrestres.</t>
+  </si>
+  <si>
+    <t>As maiores reservas conhecidas de petróleo no Brasil são os campos: Tupi, Búzios, Sapinhoá, Jubarte e Roncador.</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/anp/pt-br/centrais-de-conteudo/publicacoes/boletins-anp/boletim-mensal-da-producao-de-petroleo-e-gas-natural</t>
+  </si>
+  <si>
+    <t>Que estados produzem mais petróleo?</t>
+  </si>
+  <si>
+    <t>Quanto petróleo há no Brasil?</t>
+  </si>
+  <si>
+    <t>Existe grande divergência entre as reservas provadas e as estimativas. A reserva provada tem oscilado entre 11 e 12 bilhões de barris de petróleo, porém estimativas variam entre 100 e 200 bilhões, número esse que colocaria o Brasil em 3o lugar no mundo.</t>
+  </si>
+  <si>
+    <t>https://www.fup.org.br/ultimas-noticias/item/25839-as-reservas-de-petroleo-do-brasil-e-a-petrobras-uma-questao-de-soberania-nacional</t>
+  </si>
+  <si>
+    <t>O Rio de Janeiro tem liderado o ranking, seguido de São Paulo e Espírito Santo em disputa nos últimos anos. O RJ representou 79,3% da produção em 2020, SP foi 9,1% e ES, 8,4%. Outros estados contabilizam menos de 5% do total.</t>
+  </si>
+  <si>
+    <t>Que estados produzem mais gás?</t>
+  </si>
+  <si>
+    <t>O Rio de Janeiro tem liderado o ranking, seguido de São Paulo e Amazonas. O RJ representou 55,8% da produção em 2020, SP foi 15,0% e AM, 12,5%. Outros estados contabilizam cerca de 17% do total.</t>
+  </si>
+  <si>
+    <t>Qual é o consumo de gás brasileiro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre 2016 e 2020, o consumo médio foi de 3885 milhões de metros cúbicos por dia. </t>
+  </si>
+  <si>
+    <t>A produção tem aumentado nos últimos anos. Ela foi de 104 milhões de metros cúbicos por dia em 2016 e cresceu para 172 em 2020.</t>
+  </si>
+  <si>
+    <t>Qual é o consumo de petróleo do Brasil?</t>
+  </si>
+  <si>
+    <t>https://www.ecycle.com.br/plancton/</t>
+  </si>
+  <si>
+    <t>Anêmonas-do-mar são um grupo de animais sésseis (imóveis, fixos a algo) que usam tentáculos para capturar alimentos. Sendo cnidários, são próximas a corais, águas-vivas e hidras.</t>
+  </si>
+  <si>
+    <t>O que são cnidários?</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/An%C3%AAmona-do-mar</t>
+  </si>
+  <si>
+    <t>O que é uma cnida?</t>
+  </si>
+  <si>
+    <t>Cnida é uma cápsula que contém toxinas paralizantes que são ejetadas ao contato, tais como tetramina, histamina e serotonina.</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Nematocisto</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Cnid%C3%A1rios</t>
+  </si>
+  <si>
+    <t>Exemplos de cnidários</t>
+  </si>
+  <si>
+    <t>Corais são cnidários que possuem um exoesqueleto calcário ou de matéria orgânica, o que os diferencia de anêmonas.</t>
+  </si>
+  <si>
+    <t>Um coral pode ser constituído de um ou mais pólipos adultos. É comum que possuam um exoesqueleto calcário, ou seja, sejam bem duros por fora.</t>
+  </si>
+  <si>
+    <t>Do que um coral se alimenta?</t>
+  </si>
+  <si>
+    <t>Corais se alimentam de pequenos seres vivos, como zooplâncton e pequenos peixes.</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Coral</t>
+  </si>
+  <si>
+    <t>O que é fitoplâncton?</t>
+  </si>
+  <si>
+    <t>O que é zooplâncton?</t>
+  </si>
+  <si>
+    <t>https://www.ecycle.com.br/fitoplancton/</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Zoopl%C3%A2ncton</t>
+  </si>
+  <si>
+    <t>O que é salpa?</t>
+  </si>
+  <si>
+    <t>Salpas são um conjunto de espécies de tunicados que possuem corpos gelatinosos de forma cilíndrica. Elas também são considerados um tipo de zooplâncton.</t>
+  </si>
+  <si>
+    <t>O que é um pólipo?</t>
+  </si>
+  <si>
+    <t>Pólipos são uma divisão do filo Cnidaria, sendo a outra divisão as medusas. Enquanto pólipos são presos em sua grande maioria ao substrato (sésseis), medusas são livres. Todos pólipos, em algum estágio de seu desenvolvimento, passam pela forma de medusa (exceto os Anthozoa, um filo exclusivo de pólipos).</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/P%C3%B3lipo</t>
+  </si>
+  <si>
+    <t>Cnidários são animais do filo Cnidaria, de estrutura simples e caracterizados pela presença da estrutura celular chamada cnida (ou nematocisto) e pelo corpo em formato de saco com simetria radial.</t>
+  </si>
+  <si>
+    <t>O que é uma medusa?</t>
+  </si>
+  <si>
+    <t>Moluscos são um subfilo dos vertebrados, em sua maior parte aquáticos. Eles são o segundo filo com maior diversidade de espécies, atrás apenas dos artrópodes, possuindo cerca de 93.000 espécies vivas confirmadas, 200.000 espécies vivas estimadas e 70.000 espécies fósseis. Há também uma grande variedade de formas e hábitos. As características principais são o corpo mole, não-segmentado e de simetria bilateral.</t>
+  </si>
+  <si>
+    <t>Ostras, lulas, polvos e caramujos.</t>
+  </si>
+  <si>
+    <t>O que é uma hidra?</t>
+  </si>
+  <si>
+    <t>Hidras são cnidários em forma de pólipo que vivem em água doce e presas a rochas ou vegetação. Elas se locomovem de uma superfície para outra, não ficando presas a um único local sua vida inteira como outros cnidários.</t>
+  </si>
+  <si>
+    <t>Águas-vivas, medusas ou caravelas são cnidários, ou seja, sacos gelatinosos com simetria radial e que usam tentáculos para caçar. 95-99% de seu corpo é composto de água.</t>
+  </si>
+  <si>
+    <t>Os principais exemplos de cnidários são águas-vivas, anêmonas e hidras. Ou seja, animais aquáticos com tentáculos que machucam!</t>
+  </si>
+  <si>
+    <t>Onde os oceanógrafos trabalham?</t>
+  </si>
+  <si>
+    <t>Algumas espécies de tartarugas marinhas são carnívoras, outras herbívoras, e algumas outras mudam de dieta ao longo da vida. Suas principais fontes de alimentos são corais, crustáceos, cnidários, algas, peixes e moluscos.</t>
+  </si>
+  <si>
+    <t>Jabuti é um tipo de tartaruga?</t>
+  </si>
+  <si>
+    <t>Não, ambos são quelônios, mas tartarugas se diferenciam por ser aquáticas, enquanto jabutis são terrestres.</t>
+  </si>
+  <si>
+    <t>O que é um quelônio?</t>
+  </si>
+  <si>
+    <t>Quelônios são répteis da ordem Chelonia, divididos entre tartarugas, cágados e jabutis e famosos pela carapaça de queratina que envolve seus corpos.</t>
+  </si>
+  <si>
+    <t>O petróleo fica em bolsões profundos na terra, nas chamadas bacias sedimentares. Ele fica retido em pedras porosas, que, por sua vez, precisam ser cercadas de pedras impermeáveis para que ele não escape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Animais marinhos são aqueles que vivem no mar. É importante distinguí-los de animais de água doce, que vivem, por exemplo, em rios. Ambos são aquáticos.</t>
+  </si>
+  <si>
+    <t>Exemplos de animais marinhos</t>
+  </si>
+  <si>
+    <t>O que são animais marinhos?</t>
+  </si>
+  <si>
+    <t>Há muitos! O mar é incrivelmente diverso e belo. Para nomear alguns, existem peixes, tubarões, águas-vivas, tartarugas, anêmonas... Pergunte mais sobre algum deles!</t>
+  </si>
+  <si>
+    <t>O que define um peixe?</t>
+  </si>
+  <si>
+    <t>O que é um actinoperígeo?</t>
+  </si>
+  <si>
+    <t>Actinoperígeos são uma classe de peixes cujas nadadeiras são compostas de redes de pele apoiadas em espinhos ósseos ou queratinosos (também chamados de raios).</t>
+  </si>
+  <si>
+    <t>O que é um tubarão?</t>
+  </si>
+  <si>
+    <t>Sim, no Brasil são conhecidas 88 espécies de tubarões.</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Tubar%C3%A3o</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Actinopterygii</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fish</t>
+  </si>
+  <si>
+    <t>Peixes são animais aquáticos que possuem crânio, brânquias (guelras) e membros transformados em barbatanas ou nadadeiras. Essa definição inclui muitos seres vivos. Normalmente, quando falamos de peixes estamos nos referindo aos actinoperígeos, grupo ao qual pertencem cerca de 99% dos peixes vivos hoje.</t>
+  </si>
+  <si>
+    <t>Tubarões são peixes de esqueleto cartilaginoso, corpo hidrodinâmico (salvo exceções), com 5 a 7 fendas branquiais, que geralmente vivem em água salgada. Eles são conhecidos por serem exímios caçadores, capazes de farejar e detectar presas através de impulsos elétricos.</t>
+  </si>
+  <si>
+    <t>Considerando o volume ocupado, a baleia-azul ganha de longe a competição, alcançando até 35 metros de comprimento e 160 toneladas de peso. Ela habita a maioria dos oceanos do planeta, sendo raras vezes avistada no Brasil, longe da costa.</t>
+  </si>
+  <si>
+    <t>Há baleias no brasil?</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Baleia-azul</t>
+  </si>
+  <si>
+    <t>Sim! É comum avistar baleias em certos locais, especialmente as francas e jubarte.</t>
+  </si>
+  <si>
+    <t>Onde dá para ver baleias no brasil?</t>
+  </si>
+  <si>
+    <t>https://desviantes.com.br/blog/post/onde-e-quando-ver-baleias-no-brasil/</t>
+  </si>
+  <si>
+    <t>Os principais locais para avistar baleias no Brasil são o arquipélago de Abrolhos, as cidades de Porto Seguro e Praia do Forte, na Bahia; a Rota da Baleia, situada em Santa Catarina; e o Arraial do Cabo, no Rio de Janeiro.</t>
+  </si>
+  <si>
+    <t>O que é um líquen?</t>
+  </si>
+  <si>
+    <t>O que significa polifilético?</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Polifilia</t>
+  </si>
+  <si>
+    <t>Polifilético é um grupo de seres vivos que não inclui o ancestral comum de todos eles. Por exemplo, o grupo "animais de sangue quente" é polifilético, pois inclui tanto mamíferos quanto aves, cada um com ancestrais evolutivos diferentes.</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Alga</t>
+  </si>
+  <si>
+    <t>Líquens são seres vivos complexos, constituídos pela simbiose entre um micobionte (fungo) e um fotobiente (alga ou cianobactéria). De maneira simplificada, o fotobionte realiza fotossíntese e disponibiliza carboidratos ao micobionte, que, por sua vez, oferece proteção e um ambiente interno húmido. Eles são capazes de sobreviver em locais inóspitos e com poucos recursos, como rochas.</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/L%C3%ADquen</t>
+  </si>
+  <si>
+    <t>Alga é o nome dado a um diversificado e polifilético grupo de organismos fotossintéticos e aquáticos. Algumas espécies habitam o solo, na forma de líquens.</t>
+  </si>
+  <si>
+    <t>O jabuti é um integrante do grupo dos quelônios. Ele é um animal terrestre, capaz de nadar curtas distâncias. O seu casco é alto, pesado e grosso, suas patas, similares às de elefantes, auxiliam no deslocamento na terra. Por serem ectotérmicos, eles dependem do calor do ambiente, sendo sensíveis a baixas temperaturas. Quando precisam se esconder, esses animais retrair o pescoço para dentro do casco. Eles possuem hábitos diurnos e passam a maior parte da vida buscando alimentos em sua dieta vegetal.</t>
+  </si>
+  <si>
+    <t>Os cágados são geralmente menores que outros quelônios e costumam viver tanto em ambientes terrestres (onde saem pra tomar sol e colocar os ovos) e aquáticos de água doce (onde acasalam). O seu casco é achatado e eles possuem patas cilíndricas, com nadadeiras e membranas entre os dedos e pequenas unhas que auxiliam a locomoção na terra. Esses animais costumam dobrar lateralmente o longo pescoço para dentro do casco quando precisam se esconder e costumam ser carnivoros, comendo pequenos peixes e crustáceos.</t>
+  </si>
+  <si>
+    <t>As tartugas são animais aquáticos (vivem tanto em água doce quanto salgada), possuem o casco alto e achatado e as suas patas são em formato de remo, o que facilita seu deslocamento aquático. Há especies carnívoras e outras herbívoras.</t>
+  </si>
+  <si>
+    <t>A principal diferença reside no habitat. Tartarugas são aquáticas, jabutis são terrestres e cágados são semi-aquáticos. Os seus corpos são adaptados para esses ambientes, por exemplo, as patas de tartarugas parecem nadadeiras com seu formato de remo, enquanto as de jabutis são similares às de elefante.</t>
+  </si>
+  <si>
+    <t>As tartarugas são animais aquáticos. Há espécies marinhas e também espécies de água doce (rios e lagos).</t>
+  </si>
+  <si>
+    <t>As 5 espécies de tartarugas marinhas que ocorrem no Brasil são: tartaruga-verde, tartaruga-cabeçuda ou mestiça, tartaruga-de-couro ou gigante, tartaruga-de-pente ou legítima e tartaruga-oliva.</t>
+  </si>
+  <si>
+    <t>Todas as espécies marinhas encontradas no Brasil estão em risco de extinção, segundo critérios internacionais. Dentre elas, a tartaruga-verde está menos exposta, pois desova preferencialmente nas ilhas oceânicas (como Fernando de Noronha), onde as ações humanas têm menos impacto. Além dos predadores naturais, a principal ameaça às tartarugas é a ação do homem, devido à pesca, à fotopoluição, ao trânsito de veículos e destruição dos locais de desova, à poluição do oceano e à mudança climática. De cada mil filhotes que nascem, apenas 1 ou 2 viram adultos.</t>
+  </si>
+  <si>
+    <t>https://www.tamar.org.br/interna.php?cod=100</t>
+  </si>
+  <si>
+    <t>Plânctons são um grupo de organismos com pouca capacidade de locomoção e que são transportados por correntes d'água. É um grupo diversificado, que inclui desde vírus até plantas e animais. Eles podem ser divididos entre fitoplânctons e zooplânctons.</t>
+  </si>
+  <si>
+    <t>Fitoplânctons são plânctons que geram seu próprio alimento através da fotossíntese, sendo um grupo composto de algas microscópicas e cianobactérias. Eles são a base da cadeia alimentar no mar.</t>
+  </si>
+  <si>
+    <t>Zooplânctons são plânctons que não realizam fotossíntese. Muitos animais pertencem a esse grupo, tais como crustáceos, e nem todos são microscópicos - salpas, por exemplo, podem formar colônias com vários metros de comprimento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8279,6 +8591,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8357,7 +8676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8376,53 +8695,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -8492,7 +8772,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:AB571" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{8C3B9576-1382-4D59-B98B-98BDB5F95A2F}" name="id"/>
@@ -41650,18 +41930,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:AA500"/>
+  <dimension ref="A1:AA516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T185" sqref="T185"/>
+      <selection pane="bottomRight" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
+    <col min="1" max="1" width="55.77734375" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="5" width="8.88671875" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" customWidth="1"/>
@@ -41684,179 +41964,170 @@
         <v>2573</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2710</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2711</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2714</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>2717</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>2718</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>2720</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>2721</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>2722</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>2723</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>2724</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>2725</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>2726</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>2727</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>2728</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>2729</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>2730</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>2731</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>2732</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>2733</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>2734</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>2735</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2704</v>
-      </c>
-      <c r="I2">
+        <v>2594</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA66" si="0">SUM(F2:Z2)</f>
+        <f>SUM(F2:Z2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I3">
+        <v>2595</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="AA3">
+        <f>SUM(F3:Z3)</f>
         <v>1</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2576</v>
-      </c>
-      <c r="I4">
+        <v>2596</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:Z4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2577</v>
-      </c>
-      <c r="I5">
+        <v>2597</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2774</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:Z5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2578</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2784</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2786</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2579</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2775</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2777</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2580</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2788</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2793</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I9">
+        <v>2598</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA9:AA33" si="0">SUM(F9:Z9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2576</v>
-      </c>
-      <c r="I10">
+        <v>2599</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="AA10">
@@ -41866,9 +42137,9 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2582</v>
-      </c>
-      <c r="I11">
+        <v>2600</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="AA11">
@@ -41878,9 +42149,9 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2583</v>
-      </c>
-      <c r="I12">
+        <v>2601</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="AA12">
@@ -41890,9 +42161,9 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2584</v>
-      </c>
-      <c r="I13">
+        <v>2602</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="AA13">
@@ -41902,9 +42173,9 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2585</v>
-      </c>
-      <c r="I14">
+        <v>2603</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="AA14">
@@ -41914,9 +42185,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I15">
+        <v>2604</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="AA15">
@@ -41926,21 +42197,24 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2587</v>
-      </c>
-      <c r="I16">
+        <v>1027</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
       <c r="AA16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2588</v>
-      </c>
-      <c r="I17">
+        <v>997</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
       <c r="AA17">
@@ -41950,9 +42224,9 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2589</v>
-      </c>
-      <c r="I18">
+        <v>1048</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
       <c r="AA18">
@@ -41962,9 +42236,9 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2590</v>
-      </c>
-      <c r="I19">
+        <v>1275</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
       <c r="AA19">
@@ -41974,9 +42248,9 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2591</v>
-      </c>
-      <c r="I20">
+        <v>1363</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
       <c r="AA20">
@@ -41986,9 +42260,9 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2592</v>
-      </c>
-      <c r="I21">
+        <v>1380</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
       <c r="AA21">
@@ -41998,9 +42272,9 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2701</v>
-      </c>
-      <c r="I22">
+        <v>2605</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
       <c r="AA22">
@@ -42009,28 +42283,25 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2700</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2704</v>
-      </c>
-      <c r="I23">
+      <c r="A23" s="5" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
       <c r="AA23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2594</v>
-      </c>
-      <c r="F24">
+        <v>2606</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="AA24">
@@ -42040,9 +42311,9 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2595</v>
-      </c>
-      <c r="F25">
+        <v>2607</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="AA25">
@@ -42052,9 +42323,9 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F26">
+        <v>2608</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
       <c r="AA26">
@@ -42064,9 +42335,9 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2597</v>
-      </c>
-      <c r="F27">
+        <v>2039</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
       <c r="AA27">
@@ -42076,9 +42347,9 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2598</v>
-      </c>
-      <c r="F28">
+        <v>2763</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
       <c r="AA28">
@@ -42088,9 +42359,9 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2599</v>
-      </c>
-      <c r="F29">
+        <v>2609</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="AA29">
@@ -42100,9 +42371,15 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2600</v>
-      </c>
-      <c r="F30">
+        <v>2610</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
       <c r="AA30">
@@ -42111,10 +42388,16 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2601</v>
-      </c>
-      <c r="F31">
+      <c r="A31" s="10" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
       <c r="AA31">
@@ -42123,10 +42406,16 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>2602</v>
-      </c>
-      <c r="F32">
+      <c r="A32" s="10" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
       <c r="AA32">
@@ -42136,9 +42425,15 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2603</v>
-      </c>
-      <c r="F33">
+        <v>2754</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>2756</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="AA33">
@@ -42148,1303 +42443,1359 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="0"/>
+        <v>2760</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>2761</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F35">
+        <v>2611</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="N35">
+      <c r="AA35">
+        <f t="shared" ref="AA35:AA67" si="1">SUM(F35:Z35)</f>
         <v>1</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>997</v>
-      </c>
-      <c r="G36">
+        <v>2612</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G37">
+        <v>2613</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G38">
+        <v>1626</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G39">
+        <v>2614</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G40">
+        <v>2615</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2605</v>
-      </c>
-      <c r="G41">
+        <v>1559</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2606</v>
+        <v>2616</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2802</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
       <c r="AA43">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2039</v>
+        <v>2619</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>2609</v>
+      <c r="A46" s="9" t="s">
+        <v>2620</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>2610</v>
+      <c r="A47" s="5" t="s">
+        <v>2697</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2611</v>
-      </c>
-      <c r="H48">
+        <v>2574</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2701</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2612</v>
-      </c>
-      <c r="H49">
+        <v>2575</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
       <c r="AA49">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2613</v>
-      </c>
-      <c r="H50">
+        <v>2576</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2614</v>
-      </c>
-      <c r="H51">
+        <v>2577</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2835</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H52">
+        <v>2797</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2615</v>
-      </c>
-      <c r="H53">
+        <v>2799</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2800</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2616</v>
-      </c>
-      <c r="H54">
+        <v>2578</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2832</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1559</v>
-      </c>
-      <c r="H55">
+        <v>2579</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2833</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2617</v>
-      </c>
-      <c r="H56">
+        <v>2580</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2834</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2618</v>
-      </c>
-      <c r="H57">
+        <v>2581</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="U57">
+      <c r="AA57">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2619</v>
-      </c>
-      <c r="H58">
+        <v>2582</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2620</v>
-      </c>
-      <c r="H59">
+        <v>2583</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2621</v>
-      </c>
-      <c r="H60">
+        <v>2584</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>2699</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>2625</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>2622</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>2623</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>2624</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="AA65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>2626</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>2627</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" ref="AA67:AA130" si="1">SUM(F67:Z67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>2628</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="AA68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>2630</v>
-      </c>
-      <c r="J69">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="AA69">
+      <c r="AA61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>2629</v>
-      </c>
-      <c r="J70">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="AA70">
+      <c r="AA62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2589</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2836</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" ref="AA68:AA99" si="2">SUM(F68:Z68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2701</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>2631</v>
-      </c>
-      <c r="J71">
+        <v>1404</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="AA71">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>1329</v>
+        <v>2624</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>1385</v>
+        <v>2621</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>1389</v>
+        <v>2622</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>1431</v>
+        <v>2623</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>1446</v>
+        <v>2625</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>1577</v>
+        <v>2627</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>1582</v>
+        <v>2629</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>2635</v>
-      </c>
-      <c r="K82">
+        <v>1329</v>
+      </c>
+      <c r="J82">
         <v>1</v>
       </c>
-      <c r="N82">
+      <c r="AA82">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="AA82">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>2636</v>
-      </c>
-      <c r="K83">
+        <v>1385</v>
+      </c>
+      <c r="J83">
         <v>1</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>2041</v>
-      </c>
-      <c r="K84">
+        <v>1389</v>
+      </c>
+      <c r="J84">
         <v>1</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K85">
+        <v>1431</v>
+      </c>
+      <c r="J85">
         <v>1</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>1802</v>
-      </c>
-      <c r="K86">
+        <v>1446</v>
+      </c>
+      <c r="J86">
         <v>1</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>2637</v>
-      </c>
-      <c r="K87">
+        <v>2631</v>
+      </c>
+      <c r="J87">
         <v>1</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="K88">
+        <v>1577</v>
+      </c>
+      <c r="J88">
         <v>1</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K89">
+        <v>1582</v>
+      </c>
+      <c r="J89">
         <v>1</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K90">
+        <v>2632</v>
+      </c>
+      <c r="J90">
         <v>1</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K91">
+        <v>2633</v>
+      </c>
+      <c r="J91">
         <v>1</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>1228</v>
+        <v>2634</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
       <c r="AA92">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>1245</v>
+        <v>2635</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>1252</v>
+        <v>2041</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>1325</v>
+        <v>1095</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>1335</v>
+        <v>1802</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>1341</v>
+        <v>2636</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
+        <v>1171</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="AA98">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>1431</v>
+        <v>1177</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="AA99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>1438</v>
+        <v>1189</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA100:AA131" si="3">SUM(F100:Z100)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>1446</v>
+        <v>1224</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="AA101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>1461</v>
+        <v>1228</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="AA102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>1480</v>
+        <v>1245</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="AA103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>1561</v>
+        <v>1252</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="AA104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>1580</v>
+        <v>1325</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="AA105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>1597</v>
+        <v>1335</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="AA106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>1667</v>
+        <v>1341</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
       <c r="AA107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>1861</v>
+        <v>1431</v>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
       <c r="AA108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>1903</v>
+        <v>1438</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>2638</v>
-      </c>
-      <c r="Z110">
+      <c r="A110" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K110">
         <v>1</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>2639</v>
-      </c>
-      <c r="Z111">
+      <c r="A111" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K111">
         <v>1</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>2640</v>
-      </c>
-      <c r="Z112">
+      <c r="A112" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K112">
         <v>1</v>
       </c>
       <c r="AA112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>2641</v>
-      </c>
-      <c r="Z113">
+      <c r="A113" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K113">
         <v>1</v>
       </c>
       <c r="AA113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>2644</v>
-      </c>
-      <c r="Z114">
+      <c r="A114" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K114">
         <v>1</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>2645</v>
-      </c>
-      <c r="Z115">
+      <c r="A115" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K115">
         <v>1</v>
       </c>
       <c r="AA115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>2642</v>
-      </c>
-      <c r="Z116">
+      <c r="A116" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K116">
         <v>1</v>
       </c>
       <c r="AA116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>2643</v>
-      </c>
-      <c r="Z117">
+      <c r="A117" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K117">
         <v>1</v>
       </c>
       <c r="AA117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>2646</v>
-      </c>
-      <c r="G118">
+        <v>1903</v>
+      </c>
+      <c r="K118">
         <v>1</v>
       </c>
-      <c r="Z118">
+      <c r="AA118">
+        <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="AA118">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>2647</v>
-      </c>
-      <c r="Z119">
+        <v>2667</v>
+      </c>
+      <c r="L119">
         <v>1</v>
       </c>
       <c r="AA119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="5" t="s">
         <v>2668</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
       <c r="AA120">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
         <v>2669</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
-      <c r="M121">
+      <c r="AA121">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AA121">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
-        <v>2670</v>
+      <c r="A122" s="5" t="s">
+        <v>1314</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="AA122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>1253</v>
+      <c r="A123" s="5" t="s">
+        <v>2670</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
-      <c r="W123">
+      <c r="AA123">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AA123">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L124">
+      <c r="A124" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M124">
         <v>1</v>
       </c>
       <c r="AA124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="5" t="s">
         <v>2671</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>1</v>
       </c>
       <c r="AA125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
-        <v>1054</v>
+      <c r="A126" s="5" t="s">
+        <v>1833</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
       <c r="AA126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>2672</v>
+        <v>1140</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
       <c r="AA127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>1833</v>
+        <v>1279</v>
       </c>
       <c r="M128">
         <v>1</v>
       </c>
       <c r="AA128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>1140</v>
+        <v>2672</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
       <c r="AA129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>1279</v>
+        <v>1488</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="AA130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>2673</v>
+        <v>1552</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
       <c r="AA131">
-        <f t="shared" ref="AA131:AA168" si="2">SUM(F131:Z131)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M132">
+        <v>2673</v>
+      </c>
+      <c r="O132">
         <v>1</v>
       </c>
       <c r="AA132">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA132:AA158" si="4">SUM(F132:Z132)</f>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>1552</v>
-      </c>
-      <c r="M133">
+        <v>2674</v>
+      </c>
+      <c r="P133">
         <v>1</v>
       </c>
       <c r="AA133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>2674</v>
-      </c>
-      <c r="O134">
+        <v>2675</v>
+      </c>
+      <c r="P134">
         <v>1</v>
       </c>
       <c r="AA134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>2675</v>
-      </c>
-      <c r="P135">
+      <c r="A135" s="7" t="s">
+        <v>2676</v>
+      </c>
+      <c r="Q135">
         <v>1</v>
       </c>
       <c r="AA135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>2676</v>
-      </c>
-      <c r="P136">
+      <c r="A136" s="7" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Q136">
         <v>1</v>
       </c>
       <c r="AA136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="Q137">
         <v>1</v>
       </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
       <c r="AA137">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>2678</v>
+        <v>1561</v>
       </c>
       <c r="Q138">
         <v>1</v>
       </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
       <c r="AA138">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>2679</v>
+        <v>2706</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2828</v>
       </c>
       <c r="Q139">
         <v>1</v>
       </c>
-      <c r="R139">
+      <c r="AA139">
+        <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="AA139">
-        <f t="shared" si="2"/>
-        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>1561</v>
+        <v>2824</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2830</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -43453,2434 +43804,2839 @@
         <v>1</v>
       </c>
       <c r="AA140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>2680</v>
+      <c r="A141" s="7" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2826</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
       </c>
       <c r="R141">
         <v>1</v>
       </c>
       <c r="AA141">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>2681</v>
+      <c r="A142" s="7" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2803</v>
       </c>
       <c r="R142">
         <v>1</v>
       </c>
       <c r="AA142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>2682</v>
+      <c r="A143" s="7" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2806</v>
       </c>
       <c r="R143">
         <v>1</v>
       </c>
       <c r="AA143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
-        <v>2683</v>
+      <c r="A144" s="7" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2814</v>
       </c>
       <c r="R144">
         <v>1</v>
       </c>
       <c r="AA144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>2684</v>
+      <c r="A145" s="7" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2813</v>
       </c>
       <c r="R145">
         <v>1</v>
       </c>
       <c r="AA145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
-        <v>2685</v>
+      <c r="A146" s="7" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2812</v>
       </c>
       <c r="R146">
         <v>1</v>
       </c>
       <c r="AA146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>2686</v>
+      <c r="A147" s="7" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2819</v>
       </c>
       <c r="R147">
         <v>1</v>
       </c>
       <c r="AA147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>2687</v>
+        <v>2818</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2820</v>
       </c>
       <c r="R148">
         <v>1</v>
       </c>
       <c r="AA148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
-        <v>1192</v>
-      </c>
-      <c r="S149">
+      <c r="A149" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2822</v>
+      </c>
+      <c r="R149">
         <v>1</v>
       </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
       <c r="AA149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>2680</v>
+      </c>
+      <c r="R150">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A150" s="7" t="s">
-        <v>2688</v>
-      </c>
-      <c r="S150">
+      <c r="AA150">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AA150">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>2681</v>
+      </c>
+      <c r="R151">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
-        <v>1496</v>
-      </c>
-      <c r="S151">
-        <v>1</v>
-      </c>
       <c r="AA151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="S152">
+        <v>2682</v>
+      </c>
+      <c r="R152">
         <v>1</v>
       </c>
       <c r="AA152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>1783</v>
-      </c>
-      <c r="S153">
+        <v>2683</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2764</v>
+      </c>
+      <c r="R153">
         <v>1</v>
       </c>
       <c r="AA153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>2689</v>
-      </c>
-      <c r="T154">
+      <c r="A154" s="7" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2780</v>
+      </c>
+      <c r="R154">
         <v>1</v>
       </c>
       <c r="AA154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
-        <v>2690</v>
-      </c>
-      <c r="T155">
+      <c r="A155" s="7" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2783</v>
+      </c>
+      <c r="R155">
         <v>1</v>
       </c>
       <c r="AA155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>2691</v>
-      </c>
-      <c r="T156">
+      <c r="A156" s="7" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2781</v>
+      </c>
+      <c r="R156">
         <v>1</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>2692</v>
-      </c>
-      <c r="U157">
+        <v>2684</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2767</v>
+      </c>
+      <c r="R157">
         <v>1</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>2693</v>
-      </c>
-      <c r="U158">
+        <v>2791</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2792</v>
+      </c>
+      <c r="R158">
         <v>1</v>
       </c>
       <c r="AA158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
-        <v>2694</v>
-      </c>
-      <c r="U159">
+      <c r="A159" s="5" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2812</v>
+      </c>
+      <c r="R159">
         <v>1</v>
       </c>
+      <c r="T159">
+        <v>1</v>
+      </c>
       <c r="AA159">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA159:AA199" si="5">SUM(F159:Z159)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="R160">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A160" s="7" t="s">
-        <v>1387</v>
-      </c>
-      <c r="V160">
+      <c r="Z160">
         <v>1</v>
       </c>
       <c r="AA160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2738</v>
+      </c>
+      <c r="R161">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
-        <v>1619</v>
-      </c>
-      <c r="V161">
-        <v>1</v>
-      </c>
       <c r="AA161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>2695</v>
-      </c>
-      <c r="V162">
+        <v>2704</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2745</v>
+      </c>
+      <c r="R162">
         <v>1</v>
       </c>
       <c r="AA162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>1427</v>
-      </c>
-      <c r="W163">
+        <v>2705</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2789</v>
+      </c>
+      <c r="R163">
         <v>1</v>
       </c>
       <c r="AA163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
-        <v>2696</v>
-      </c>
-      <c r="X164">
+      <c r="A164" s="5" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2790</v>
+      </c>
+      <c r="R164">
         <v>1</v>
       </c>
       <c r="AA164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>1571</v>
-      </c>
-      <c r="X165">
+        <v>2731</v>
+      </c>
+      <c r="R165">
         <v>1</v>
       </c>
       <c r="AA165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>2697</v>
-      </c>
-      <c r="X166">
+        <v>1192</v>
+      </c>
+      <c r="S166">
         <v>1</v>
       </c>
       <c r="AA166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="X167">
+        <v>2686</v>
+      </c>
+      <c r="S167">
         <v>1</v>
       </c>
       <c r="AA167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
-        <v>2698</v>
-      </c>
-      <c r="X168">
+      <c r="A168" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="S168">
         <v>1</v>
       </c>
       <c r="AA168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
-        <v>1846</v>
-      </c>
-      <c r="Y169">
+      <c r="A169" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="S169">
         <v>1</v>
       </c>
       <c r="AA169">
-        <f t="shared" ref="AA169:AA179" si="3">SUM(F169:Z169)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>2703</v>
-      </c>
-      <c r="R170">
+        <v>1783</v>
+      </c>
+      <c r="S170">
         <v>1</v>
       </c>
-      <c r="Z170">
+      <c r="AA170">
+        <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="AA170">
-        <f t="shared" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>2705</v>
-      </c>
-      <c r="Z171">
+        <v>2687</v>
+      </c>
+      <c r="T171">
         <v>1</v>
       </c>
       <c r="AA171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>2706</v>
-      </c>
-      <c r="R172">
+      <c r="A172" s="7" t="s">
+        <v>2688</v>
+      </c>
+      <c r="T172">
         <v>1</v>
       </c>
       <c r="AA172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
-        <v>2707</v>
-      </c>
-      <c r="R173">
+      <c r="A173" s="7" t="s">
+        <v>2689</v>
+      </c>
+      <c r="T173">
         <v>1</v>
       </c>
       <c r="AA173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>2708</v>
-      </c>
-      <c r="R174">
+      <c r="A174" s="7" t="s">
+        <v>2690</v>
+      </c>
+      <c r="U174">
         <v>1</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>2709</v>
-      </c>
-      <c r="Q175">
+      <c r="A175" s="7" t="s">
+        <v>2691</v>
+      </c>
+      <c r="U175">
         <v>1</v>
       </c>
       <c r="AA175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>2710</v>
-      </c>
-      <c r="R176">
+      <c r="A176" s="7" t="s">
+        <v>2692</v>
+      </c>
+      <c r="U176">
         <v>1</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>2711</v>
-      </c>
-      <c r="R177">
+        <v>1387</v>
+      </c>
+      <c r="V177">
         <v>1</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>2712</v>
-      </c>
-      <c r="R178">
+        <v>1619</v>
+      </c>
+      <c r="V178">
         <v>1</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>2713</v>
-      </c>
-      <c r="Q179">
+      <c r="A179" s="7" t="s">
+        <v>2693</v>
+      </c>
+      <c r="V179">
         <v>1</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>2714</v>
-      </c>
-      <c r="R180">
+        <v>1253</v>
+      </c>
+      <c r="L180">
         <v>1</v>
       </c>
+      <c r="W180">
+        <v>1</v>
+      </c>
       <c r="AA180">
-        <f>SUM(F180:Z180)</f>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W181">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
+      <c r="AA181">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>2694</v>
+      </c>
+      <c r="X182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="X183">
+        <v>1</v>
+      </c>
+      <c r="AA183">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>2695</v>
+      </c>
+      <c r="X184">
+        <v>1</v>
+      </c>
+      <c r="AA184">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="X185">
+        <v>1</v>
+      </c>
+      <c r="AA185">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>2696</v>
+      </c>
+      <c r="X186">
+        <v>1</v>
+      </c>
+      <c r="AA186">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="Y187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>2637</v>
+      </c>
+      <c r="Z188">
+        <v>1</v>
+      </c>
+      <c r="AA188">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="Z189">
+        <v>1</v>
+      </c>
+      <c r="AA189">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>2639</v>
+      </c>
+      <c r="Z190">
+        <v>1</v>
+      </c>
+      <c r="AA190">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>2640</v>
+      </c>
+      <c r="Z191">
+        <v>1</v>
+      </c>
+      <c r="AA191">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>2643</v>
+      </c>
+      <c r="Z192">
+        <v>1</v>
+      </c>
+      <c r="AA192">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>2644</v>
+      </c>
+      <c r="Z193">
+        <v>1</v>
+      </c>
+      <c r="AA193">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>2641</v>
+      </c>
+      <c r="Z194">
+        <v>1</v>
+      </c>
+      <c r="AA194">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
+      </c>
+      <c r="AA195">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>2646</v>
+      </c>
+      <c r="Z196">
+        <v>1</v>
+      </c>
+      <c r="AA196">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2748</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="AA197">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2734</v>
+      </c>
+      <c r="Z198">
+        <v>1</v>
+      </c>
+      <c r="AA198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Z199">
+        <v>1</v>
+      </c>
+      <c r="AA199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
         <v>2736</v>
       </c>
-      <c r="Z181">
+      <c r="B200" t="s">
+        <v>2737</v>
+      </c>
+      <c r="R200">
         <v>1</v>
       </c>
-      <c r="AA181">
-        <f t="shared" ref="AA181:AA244" si="4">SUM(F181:Z181)</f>
+      <c r="AA200">
+        <f t="shared" ref="AA200:AA260" si="6">SUM(F200:Z200)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>2737</v>
-      </c>
-      <c r="Z182">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2747</v>
+      </c>
+      <c r="R201">
         <v>1</v>
       </c>
-      <c r="AA182">
-        <f t="shared" si="4"/>
+      <c r="AA201">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
-        <v>2738</v>
-      </c>
-      <c r="R183">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2746</v>
+      </c>
+      <c r="R202">
         <v>1</v>
       </c>
-      <c r="AA183">
-        <f t="shared" si="4"/>
+      <c r="AA202">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA184">
-        <f t="shared" si="4"/>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="AA203">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2771</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="AA204">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2770</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="AA205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2794</v>
+      </c>
+      <c r="R206">
+        <v>1</v>
+      </c>
+      <c r="AA206">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA207">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA185">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA186">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA187">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA188">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA189">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA190">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA191">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA192">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA193">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA194">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA195">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA196">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA197">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA198">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA199">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA200">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA201">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA202">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA203">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA204">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA205">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA207">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="27:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="AA208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA245">
-        <f t="shared" ref="AA245:AA308" si="5">SUM(F245:Z245)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA246">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA248">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA249">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA250">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA251">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA252">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA253">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA255">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA256">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA257">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA258">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA260">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA261">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA261:AA324" si="7">SUM(F261:Z261)</f>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA263">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA273">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA274">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA275">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA276">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA277">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA278">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA279">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA280">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA282">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA283">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA284">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA285">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA286">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA287">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA288">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA289">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA290">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA291">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA292">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA294">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA296">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA297">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA298">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA299">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA300">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA302">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA303">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA304">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA305">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA306">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA307">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA308">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA309">
-        <f t="shared" ref="AA309:AA372" si="6">SUM(F309:Z309)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA310">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA311">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA313">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA314">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA315">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA316">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA317">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA318">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA319">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA320">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA321">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA322">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA324">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA325">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AA325:AA388" si="8">SUM(F325:Z325)</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA326">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA327">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA328">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA329">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA330">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA331">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA332">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA333">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA334">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA335">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA336">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA337">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA338">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA339">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA340">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA341">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA343">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA344">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA345">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA346">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA347">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA348">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA349">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA350">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA351">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA352">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA353">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA354">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA355">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA356">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA357">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA358">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA359">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA360">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA361">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA362">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA363">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA364">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA365">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA366">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA367">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA368">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA369">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA371">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA373">
-        <f t="shared" ref="AA373:AA436" si="7">SUM(F373:Z373)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA374">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA375">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA376">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA377">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA378">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA379">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA380">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA382">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA383">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA384">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA385">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA386">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA387">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA388">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA389">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AA389:AA452" si="9">SUM(F389:Z389)</f>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA390">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA391">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA392">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA393">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA394">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA395">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA396">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA398">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA399">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA400">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA401">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA402">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA403">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA404">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA405">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA406">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA407">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA408">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA409">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA410">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA411">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA412">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA413">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA414">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA415">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA416">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA417">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA418">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA419">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA420">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA421">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA422">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA423">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA424">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA425">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA426">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA427">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA428">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA429">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA430">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA431">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA432">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA433">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA434">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA435">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA436">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA437">
-        <f t="shared" ref="AA437:AA500" si="8">SUM(F437:Z437)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA438">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA439">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA440">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA441">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA442">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA443">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA444">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA445">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA446">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA447">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA448">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA449">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA450">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA451">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA452">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA453">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AA453:AA516" si="10">SUM(F453:Z453)</f>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA454">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA455">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA456">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA457">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA458">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA459">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA460">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA461">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA462">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA463">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA464">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA465">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA466">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA467">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA468">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA469">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA470">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA471">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA472">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA473">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA474">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA475">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA476">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA477">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA478">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA479">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA480">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA481">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA482">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA483">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA484">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA485">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA486">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA487">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA488">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA489">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA490">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA491">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA492">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA493">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA494">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA495">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA496">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA497">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA498">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA499">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA500">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
+    <row r="501" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA501">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA502">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA503">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA504">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA505">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA506">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA507">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA508">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA509">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA510">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA511">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA512">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA513">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA514">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA515">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA516">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:Z500">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A187:Z199">
+    <sortCondition descending="1" ref="Y187:Y199"/>
+  </sortState>
+  <conditionalFormatting sqref="F2:Z516">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($AA2=0, NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45893,7 +46649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16073544-1E06-452F-B66A-4E8CA4FFD654}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -45905,82 +46661,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2652</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2656</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2660</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2662</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2664</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2666</v>
       </c>
     </row>
   </sheetData>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE306DD-A8CD-4891-8512-2F294F70D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD07FE-42CA-46D1-A2F5-769C0F9E7FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="960" windowWidth="11820" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="finais" sheetId="6" r:id="rId4"/>
     <sheet name="programas" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$89:$Z$208</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8743" uniqueCount="2843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8747" uniqueCount="2847">
   <si>
     <t>query</t>
   </si>
@@ -8553,9 +8556,6 @@
     <t>As 5 espécies de tartarugas marinhas que ocorrem no Brasil são: tartaruga-verde, tartaruga-cabeçuda ou mestiça, tartaruga-de-couro ou gigante, tartaruga-de-pente ou legítima e tartaruga-oliva.</t>
   </si>
   <si>
-    <t>Todas as espécies marinhas encontradas no Brasil estão em risco de extinção, segundo critérios internacionais. Dentre elas, a tartaruga-verde está menos exposta, pois desova preferencialmente nas ilhas oceânicas (como Fernando de Noronha), onde as ações humanas têm menos impacto. Além dos predadores naturais, a principal ameaça às tartarugas é a ação do homem, devido à pesca, à fotopoluição, ao trânsito de veículos e destruição dos locais de desova, à poluição do oceano e à mudança climática. De cada mil filhotes que nascem, apenas 1 ou 2 viram adultos.</t>
-  </si>
-  <si>
     <t>https://www.tamar.org.br/interna.php?cod=100</t>
   </si>
   <si>
@@ -8566,6 +8566,21 @@
   </si>
   <si>
     <t>Zooplânctons são plânctons que não realizam fotossíntese. Muitos animais pertencem a esse grupo, tais como crustáceos, e nem todos são microscópicos - salpas, por exemplo, podem formar colônias com vários metros de comprimento.</t>
+  </si>
+  <si>
+    <t>Tartarugas marinhas possuem um ciclo de vida complexo, passando por diferentes ambientes ao longo da vida. Começando pelo nascimento, as pequenas tartarugas escavam seu caminho para fora da areia e rumam para o mar. Algumas espécies passam a fase juvenil em regiões costeiras, enquanto outras permanecem no oceano a vida toda, como a tartaruga-de-couro. Elas atingem a maturidade sexual entre os 15 e 30 anos dependendo da espécie, quando retornam às praias onde nasceram para acasalar.</t>
+  </si>
+  <si>
+    <t>Todas as espécies marinhas encontradas no Brasil estão em risco de extinção, segundo critérios internacionais. Dentre elas, a tartaruga-verde está menos exposta, pois desova preferencialmente nas ilhas oceânicas (como Fernando de Noronha), onde as ações humanas têm menos impacto.</t>
+  </si>
+  <si>
+    <t>Por que tartarugas estão em extinção?</t>
+  </si>
+  <si>
+    <t>Além dos predadores naturais, a principal ameaça às tartarugas é a ação do homem, devido à pesca, à fotopoluição, ao trânsito de veículos e destruição dos locais de desova, à poluição do oceano e à mudança climática. De cada mil filhotes que nascem, apenas 1 ou 2 viram adultos.</t>
+  </si>
+  <si>
+    <t>Quais são as ameaças às tartarugas?</t>
   </si>
 </sst>
 </file>
@@ -8702,7 +8717,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8772,7 +8801,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:AB571" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{8C3B9576-1382-4D59-B98B-98BDB5F95A2F}" name="id"/>
@@ -41930,19 +41959,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:AA516"/>
+  <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F148" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B156" sqref="B156"/>
+      <selection pane="bottomRight" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.77734375" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="5" width="8.88671875" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" customWidth="1"/>
   </cols>
@@ -42035,7 +42064,7 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <f>SUM(F2:Z2)</f>
+        <f>IF(SUM(F2:Z2)=0,"",SUM(F2:Z2))</f>
         <v>1</v>
       </c>
     </row>
@@ -42047,7 +42076,7 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <f>SUM(F3:Z3)</f>
+        <f t="shared" ref="AA3:AA66" si="0">IF(SUM(F3:Z3)=0,"",SUM(F3:Z3))</f>
         <v>1</v>
       </c>
     </row>
@@ -42062,7 +42091,7 @@
         <v>1</v>
       </c>
       <c r="AA4">
-        <f>SUM(F4:Z4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -42077,55 +42106,61 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <f>SUM(F5:Z5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2786</v>
+        <v>2598</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2777</v>
+        <v>2599</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2793</v>
+        <v>2600</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <f t="shared" ref="AA9:AA33" si="0">SUM(F9:Z9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -42137,7 +42172,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -42149,7 +42184,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -42161,21 +42196,24 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2602</v>
+        <v>1027</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
       <c r="AA13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2603</v>
-      </c>
-      <c r="F14">
+        <v>997</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
       <c r="AA14">
@@ -42185,9 +42223,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F15">
+        <v>1048</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
       <c r="AA15">
@@ -42197,22 +42235,19 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="N16">
+        <v>1275</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="AA16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>997</v>
+        <v>1363</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -42224,7 +42259,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1048</v>
+        <v>1380</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -42236,7 +42271,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1275</v>
+        <v>2605</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -42247,22 +42282,25 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1363</v>
+      <c r="A20" s="5" t="s">
+        <v>2645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
       <c r="AA20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G21">
+        <v>2606</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="AA21">
@@ -42272,9 +42310,9 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2605</v>
-      </c>
-      <c r="G22">
+        <v>2607</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
       <c r="AA22">
@@ -42283,23 +42321,20 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>2645</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
+      <c r="A23" t="s">
+        <v>2608</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="AA23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2606</v>
+        <v>2039</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -42311,7 +42346,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2607</v>
+        <v>2763</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -42323,7 +42358,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -42335,7 +42370,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2039</v>
+        <v>2610</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2752</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -42346,8 +42387,14 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2763</v>
+      <c r="A28" s="10" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2752</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -42358,8 +42405,14 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>2609</v>
+      <c r="A29" s="10" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2752</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -42371,13 +42424,13 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2610</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2751</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2752</v>
+        <v>2754</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>2756</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -42388,14 +42441,11 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>2753</v>
+      <c r="A31" t="s">
+        <v>2760</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>2757</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2752</v>
+        <v>2761</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -42406,14 +42456,8 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>2758</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>2759</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2752</v>
+      <c r="A32" t="s">
+        <v>2611</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -42425,13 +42469,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2754</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>2755</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>2756</v>
+        <v>2612</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -42443,1251 +42481,1270 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2760</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>2761</v>
+        <v>2613</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2611</v>
+        <v>1626</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="AA35">
-        <f t="shared" ref="AA35:AA67" si="1">SUM(F35:Z35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>2697</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2701</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2835</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2800</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2832</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2833</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2834</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2846</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2584</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2842</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2589</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2836</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA127" si="1">IF(SUM(F67:Z67)=0,"",SUM(F67:Z67))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>2613</v>
-      </c>
-      <c r="H37">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2701</v>
+      </c>
+      <c r="I69">
         <v>1</v>
       </c>
-      <c r="AA37">
+      <c r="AA69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H38">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="AA38">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>2624</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>2614</v>
-      </c>
-      <c r="H39">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>2622</v>
+      </c>
+      <c r="J72">
         <v>1</v>
       </c>
-      <c r="AA39">
+      <c r="AA72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>2615</v>
-      </c>
-      <c r="H40">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>2623</v>
+      </c>
+      <c r="J73">
         <v>1</v>
       </c>
-      <c r="AA40">
+      <c r="AA73">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2801</v>
-      </c>
-      <c r="H41">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>2625</v>
+      </c>
+      <c r="J74">
         <v>1</v>
       </c>
-      <c r="AA41">
+      <c r="AA74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>2616</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2802</v>
-      </c>
-      <c r="H42">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>2626</v>
+      </c>
+      <c r="J75">
         <v>1</v>
       </c>
-      <c r="AA42">
+      <c r="AA75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>2617</v>
-      </c>
-      <c r="H43">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>2627</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
-      <c r="U43">
+      <c r="AA76">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA43">
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>2629</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>2628</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>2630</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>2631</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>2632</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="AA90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>2618</v>
-      </c>
-      <c r="H44">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K91">
         <v>1</v>
       </c>
-      <c r="AA44">
+      <c r="AA91">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>2619</v>
-      </c>
-      <c r="H45">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K92">
         <v>1</v>
       </c>
-      <c r="AA45">
+      <c r="AA92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>2620</v>
-      </c>
-      <c r="H46">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K93">
         <v>1</v>
       </c>
-      <c r="AA46">
+      <c r="AA93">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>2697</v>
-      </c>
-      <c r="H47">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K94">
         <v>1</v>
       </c>
-      <c r="AA47">
+      <c r="AA94">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2701</v>
-      </c>
-      <c r="I48">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K95">
         <v>1</v>
       </c>
-      <c r="AA48">
+      <c r="AA95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I49">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K96">
         <v>1</v>
       </c>
-      <c r="N49">
+      <c r="AA96">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA49">
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>2576</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2837</v>
-      </c>
-      <c r="I50">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="L117">
         <v>1</v>
       </c>
-      <c r="AA50">
+      <c r="AA117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2835</v>
-      </c>
-      <c r="I51">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L118">
         <v>1</v>
       </c>
-      <c r="AA51">
+      <c r="AA118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2798</v>
-      </c>
-      <c r="I52">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>2670</v>
+      </c>
+      <c r="L119">
         <v>1</v>
       </c>
-      <c r="AA52">
+      <c r="AA119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2800</v>
-      </c>
-      <c r="I53">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L120">
         <v>1</v>
       </c>
-      <c r="AA53">
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>2578</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2832</v>
-      </c>
-      <c r="I54">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>2671</v>
+      </c>
+      <c r="M122">
         <v>1</v>
       </c>
-      <c r="AA54">
+      <c r="AA122">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2833</v>
-      </c>
-      <c r="I55">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="M123">
         <v>1</v>
       </c>
-      <c r="AA55">
+      <c r="AA123">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2834</v>
-      </c>
-      <c r="I56">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M124">
         <v>1</v>
       </c>
-      <c r="AA56">
+      <c r="AA124">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I57">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M125">
         <v>1</v>
       </c>
-      <c r="AA57">
+      <c r="AA125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>2582</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2839</v>
-      </c>
-      <c r="I58">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>2672</v>
+      </c>
+      <c r="M126">
         <v>1</v>
       </c>
-      <c r="AA58">
+      <c r="AA126">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>2583</v>
-      </c>
-      <c r="I59">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M127">
         <v>1</v>
       </c>
-      <c r="AA59">
+      <c r="AA127">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>2584</v>
-      </c>
-      <c r="I60">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M128">
         <v>1</v>
       </c>
-      <c r="AA60">
-        <f t="shared" si="1"/>
+      <c r="AA128">
+        <f t="shared" ref="AA128:AA195" si="2">IF(SUM(F128:Z128)=0,"",SUM(F128:Z128))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>2585</v>
-      </c>
-      <c r="I61">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>2636</v>
+      </c>
+      <c r="O129">
         <v>1</v>
       </c>
-      <c r="AA61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>2587</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>2588</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>2589</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="AA65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>2590</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>2591</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2836</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>2592</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="AA68">
-        <f t="shared" ref="AA68:AA99" si="2">SUM(F68:Z68)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>2699</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="AA69">
+      <c r="AA129">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2701</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="AA70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="AA71">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>2624</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="AA72">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>2621</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="AA73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>2622</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="AA74">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>2623</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="AA75">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>2625</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="AA76">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>2626</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="AA77">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
-        <v>2627</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="AA78">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>2629</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="AA79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
-        <v>2628</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="AA80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
-        <v>2630</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="AA81">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="AA82">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
-        <v>1385</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="AA83">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
-        <v>1389</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="AA84">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="AA85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
-        <v>1446</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="AA86">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>2631</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="AA87">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="AA88">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>2632</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="AA90">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
-        <v>2633</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
-        <v>2634</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="AA92">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>2635</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="AA93">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
-        <v>2041</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="AA94">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="AA95">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
-        <v>1802</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="AA96">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
-        <v>2636</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="AA97">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="AA98">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="AA99">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="AA100">
-        <f t="shared" ref="AA100:AA131" si="3">SUM(F100:Z100)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="AA101">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="AA102">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="AA103">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="AA104">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="AA105">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
-        <v>1335</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="AA106">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
-        <v>1341</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="AA107">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="AA108">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
-        <v>1438</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="AA109">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>1446</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="AA110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="AA111">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="AA113">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>1580</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="AA114">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="AA115">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A116" s="7" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="AA116">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>1861</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="AA117">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>1903</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="AA118">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>2667</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="AA119">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>2668</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-      <c r="AA120">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>2669</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="AA121">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="AA122">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>2670</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="AA123">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="AA124">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>2671</v>
-      </c>
-      <c r="M125">
-        <v>1</v>
-      </c>
-      <c r="AA125">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>1833</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-      <c r="AA126">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="AA127">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="AA128">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
-        <v>2672</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="AA129">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M130">
+        <v>1189</v>
+      </c>
+      <c r="O130">
         <v>1</v>
       </c>
       <c r="AA130">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(F130:Z130)=0,"",SUM(F130:Z130))</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>1552</v>
-      </c>
-      <c r="M131">
+        <v>2621</v>
+      </c>
+      <c r="O131">
         <v>1</v>
       </c>
       <c r="AA131">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(F131:Z131)=0,"",SUM(F131:Z131))</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="5" t="s">
         <v>2673</v>
       </c>
       <c r="O132">
         <v>1</v>
       </c>
       <c r="AA132">
-        <f t="shared" ref="AA132:AA158" si="4">SUM(F132:Z132)</f>
+        <f>IF(SUM(F132:Z132)=0,"",SUM(F132:Z132))</f>
         <v>1</v>
       </c>
     </row>
@@ -43699,7 +43756,7 @@
         <v>1</v>
       </c>
       <c r="AA133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43711,7 +43768,7 @@
         <v>1</v>
       </c>
       <c r="AA134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43723,7 +43780,7 @@
         <v>1</v>
       </c>
       <c r="AA135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43735,7 +43792,7 @@
         <v>1</v>
       </c>
       <c r="AA136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43750,7 +43807,7 @@
         <v>1</v>
       </c>
       <c r="AA137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -43765,7 +43822,7 @@
         <v>1</v>
       </c>
       <c r="AA138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -43783,7 +43840,7 @@
         <v>1</v>
       </c>
       <c r="AA139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43804,7 +43861,7 @@
         <v>1</v>
       </c>
       <c r="AA140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -43825,2819 +43882,2740 @@
         <v>1</v>
       </c>
       <c r="AA141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
-        <v>2805</v>
+      <c r="A142" s="8" t="s">
+        <v>2784</v>
       </c>
       <c r="B142" t="s">
-        <v>2803</v>
+        <v>2785</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2786</v>
       </c>
       <c r="R142">
         <v>1</v>
       </c>
       <c r="AA142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
-        <v>2804</v>
+      <c r="A143" s="8" t="s">
+        <v>2775</v>
       </c>
       <c r="B143" t="s">
-        <v>2806</v>
+        <v>2776</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2777</v>
       </c>
       <c r="R143">
         <v>1</v>
       </c>
       <c r="AA143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
-        <v>2807</v>
+      <c r="A144" s="8" t="s">
+        <v>2788</v>
       </c>
       <c r="B144" t="s">
-        <v>2815</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2814</v>
+        <v>2793</v>
       </c>
       <c r="R144">
         <v>1</v>
       </c>
       <c r="AA144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B145" t="s">
-        <v>2809</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2813</v>
+        <v>2803</v>
       </c>
       <c r="R145">
         <v>1</v>
       </c>
       <c r="AA145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="B146" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2812</v>
+        <v>2806</v>
       </c>
       <c r="R146">
         <v>1</v>
       </c>
       <c r="AA146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2679</v>
+        <v>2807</v>
       </c>
       <c r="B147" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="C147" t="s">
-        <v>2819</v>
+        <v>2814</v>
       </c>
       <c r="R147">
         <v>1</v>
       </c>
       <c r="AA147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>2818</v>
+      <c r="A148" s="7" t="s">
+        <v>2808</v>
       </c>
       <c r="B148" t="s">
-        <v>2820</v>
+        <v>2809</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2813</v>
       </c>
       <c r="R148">
         <v>1</v>
       </c>
       <c r="AA148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>2821</v>
+      <c r="A149" s="7" t="s">
+        <v>2810</v>
       </c>
       <c r="B149" t="s">
-        <v>2823</v>
+        <v>2816</v>
       </c>
       <c r="C149" t="s">
-        <v>2822</v>
+        <v>2812</v>
       </c>
       <c r="R149">
         <v>1</v>
       </c>
-      <c r="T149">
+      <c r="AA149">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="AA149">
-        <f t="shared" si="4"/>
-        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>2680</v>
+        <v>2679</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2819</v>
       </c>
       <c r="R150">
         <v>1</v>
       </c>
       <c r="AA150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>2681</v>
+        <v>2818</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2820</v>
       </c>
       <c r="R151">
         <v>1</v>
       </c>
       <c r="AA151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
-        <v>2682</v>
+      <c r="A152" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2822</v>
       </c>
       <c r="R152">
         <v>1</v>
       </c>
+      <c r="T152">
+        <v>1</v>
+      </c>
       <c r="AA152">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2764</v>
+      <c r="A153" s="5" t="s">
+        <v>2680</v>
       </c>
       <c r="R153">
         <v>1</v>
       </c>
       <c r="AA153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2780</v>
+        <v>2681</v>
       </c>
       <c r="R154">
         <v>1</v>
       </c>
       <c r="AA154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>2782</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2783</v>
+        <v>2682</v>
       </c>
       <c r="R155">
         <v>1</v>
       </c>
       <c r="AA155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>2779</v>
+        <v>2683</v>
       </c>
       <c r="B156" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="C156" t="s">
-        <v>2781</v>
+        <v>2764</v>
       </c>
       <c r="R156">
         <v>1</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>2684</v>
+        <v>2778</v>
       </c>
       <c r="B157" t="s">
-        <v>2765</v>
+        <v>2840</v>
       </c>
       <c r="C157" t="s">
-        <v>2767</v>
+        <v>2780</v>
       </c>
       <c r="R157">
         <v>1</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>2791</v>
+        <v>2782</v>
       </c>
       <c r="B158" t="s">
-        <v>2792</v>
+        <v>2783</v>
       </c>
       <c r="R158">
         <v>1</v>
       </c>
       <c r="AA158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>2685</v>
+      <c r="A159" s="7" t="s">
+        <v>2779</v>
       </c>
       <c r="B159" t="s">
-        <v>2811</v>
+        <v>2841</v>
       </c>
       <c r="C159" t="s">
-        <v>2812</v>
+        <v>2781</v>
       </c>
       <c r="R159">
         <v>1</v>
       </c>
-      <c r="T159">
+      <c r="AA159">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA159">
-        <f t="shared" ref="AA159:AA199" si="5">SUM(F159:Z159)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>2700</v>
+      <c r="A160" s="7" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2767</v>
       </c>
       <c r="R160">
         <v>1</v>
       </c>
-      <c r="Z160">
+      <c r="AA160">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="AA160">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>2703</v>
+        <v>2791</v>
       </c>
       <c r="B161" t="s">
-        <v>2738</v>
+        <v>2792</v>
       </c>
       <c r="R161">
         <v>1</v>
       </c>
       <c r="AA161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>2704</v>
+        <v>2685</v>
       </c>
       <c r="B162" t="s">
-        <v>2739</v>
+        <v>2811</v>
       </c>
       <c r="C162" t="s">
-        <v>2745</v>
+        <v>2812</v>
       </c>
       <c r="R162">
         <v>1</v>
       </c>
+      <c r="T162">
+        <v>1</v>
+      </c>
       <c r="AA162">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2789</v>
+        <v>2700</v>
       </c>
       <c r="R163">
         <v>1</v>
       </c>
+      <c r="Z163">
+        <v>1</v>
+      </c>
       <c r="AA163">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
       <c r="B164" t="s">
-        <v>2790</v>
+        <v>2738</v>
       </c>
       <c r="R164">
         <v>1</v>
       </c>
       <c r="AA164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A165" s="7" t="s">
-        <v>2731</v>
+      <c r="A165" s="5" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2745</v>
       </c>
       <c r="R165">
         <v>1</v>
       </c>
       <c r="AA165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
-        <v>1192</v>
-      </c>
-      <c r="S166">
+      <c r="A166" s="5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2789</v>
+      </c>
+      <c r="R166">
         <v>1</v>
       </c>
       <c r="AA166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>2686</v>
-      </c>
-      <c r="S167">
+        <v>2707</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2790</v>
+      </c>
+      <c r="R167">
         <v>1</v>
       </c>
       <c r="AA167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>2795</v>
-      </c>
-      <c r="S168">
+        <v>2731</v>
+      </c>
+      <c r="R168">
         <v>1</v>
       </c>
       <c r="AA168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>1505</v>
-      </c>
-      <c r="S169">
+      <c r="A169" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2748</v>
+      </c>
+      <c r="R169">
         <v>1</v>
       </c>
       <c r="AA169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>1783</v>
-      </c>
-      <c r="S170">
+      <c r="A170" s="7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2737</v>
+      </c>
+      <c r="R170">
         <v>1</v>
       </c>
       <c r="AA170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>2687</v>
-      </c>
-      <c r="T171">
+        <v>2740</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2747</v>
+      </c>
+      <c r="R171">
         <v>1</v>
       </c>
       <c r="AA171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A172" s="7" t="s">
-        <v>2688</v>
-      </c>
-      <c r="T172">
+      <c r="A172" s="5" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2746</v>
+      </c>
+      <c r="R172">
         <v>1</v>
       </c>
       <c r="AA172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A173" s="7" t="s">
-        <v>2689</v>
-      </c>
-      <c r="T173">
+      <c r="A173" s="5" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2771</v>
+      </c>
+      <c r="R173">
         <v>1</v>
       </c>
       <c r="AA173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>2690</v>
-      </c>
-      <c r="U174">
+        <v>2768</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2770</v>
+      </c>
+      <c r="R174">
         <v>1</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>2691</v>
-      </c>
-      <c r="U175">
+        <v>2772</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2794</v>
+      </c>
+      <c r="R175">
         <v>1</v>
       </c>
       <c r="AA175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>2692</v>
-      </c>
-      <c r="U176">
+        <v>1192</v>
+      </c>
+      <c r="S176">
         <v>1</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="V177">
+      <c r="A177" s="7" t="s">
+        <v>2686</v>
+      </c>
+      <c r="S177">
         <v>1</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>1619</v>
-      </c>
-      <c r="V178">
+      <c r="A178" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="S178">
         <v>1</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A179" s="7" t="s">
-        <v>2693</v>
-      </c>
-      <c r="V179">
+      <c r="A179" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="S179">
         <v>1</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L180">
+        <v>1783</v>
+      </c>
+      <c r="S180">
         <v>1</v>
       </c>
-      <c r="W180">
+      <c r="AA180">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="AA180">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>1427</v>
-      </c>
-      <c r="W181">
+        <v>2687</v>
+      </c>
+      <c r="T181">
         <v>1</v>
       </c>
       <c r="AA181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A182" s="7" t="s">
-        <v>2694</v>
-      </c>
-      <c r="X182">
+      <c r="A182" s="5" t="s">
+        <v>2688</v>
+      </c>
+      <c r="T182">
         <v>1</v>
       </c>
       <c r="AA182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>1571</v>
-      </c>
-      <c r="X183">
+        <v>2689</v>
+      </c>
+      <c r="T183">
         <v>1</v>
       </c>
       <c r="AA183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>2695</v>
-      </c>
-      <c r="X184">
+      <c r="A184" s="7" t="s">
+        <v>2690</v>
+      </c>
+      <c r="U184">
         <v>1</v>
       </c>
       <c r="AA184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="X185">
+        <v>2691</v>
+      </c>
+      <c r="U185">
         <v>1</v>
       </c>
       <c r="AA185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>2696</v>
-      </c>
-      <c r="X186">
+        <v>2692</v>
+      </c>
+      <c r="U186">
         <v>1</v>
       </c>
       <c r="AA186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>1846</v>
-      </c>
-      <c r="Y187">
+      <c r="A187" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="V187">
         <v>1</v>
       </c>
       <c r="AA187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>2637</v>
-      </c>
-      <c r="Z188">
+        <v>1619</v>
+      </c>
+      <c r="V188">
         <v>1</v>
       </c>
       <c r="AA188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>2638</v>
-      </c>
-      <c r="Z189">
+        <v>2693</v>
+      </c>
+      <c r="V189">
         <v>1</v>
       </c>
       <c r="AA189">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>2639</v>
-      </c>
-      <c r="Z190">
-        <v>1</v>
-      </c>
-      <c r="AA190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>2640</v>
-      </c>
-      <c r="Z191">
+        <v>1427</v>
+      </c>
+      <c r="W191">
         <v>1</v>
       </c>
       <c r="AA191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>2643</v>
-      </c>
-      <c r="Z192">
+        <v>2694</v>
+      </c>
+      <c r="X192">
         <v>1</v>
       </c>
       <c r="AA192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>2644</v>
-      </c>
-      <c r="Z193">
+        <v>1571</v>
+      </c>
+      <c r="X193">
         <v>1</v>
       </c>
       <c r="AA193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>2641</v>
-      </c>
-      <c r="Z194">
+        <v>2695</v>
+      </c>
+      <c r="X194">
         <v>1</v>
       </c>
       <c r="AA194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B195" t="s">
-        <v>2762</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>2752</v>
-      </c>
-      <c r="Z195">
+        <v>1669</v>
+      </c>
+      <c r="X195">
         <v>1</v>
       </c>
       <c r="AA195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>2646</v>
-      </c>
-      <c r="Z196">
+        <v>2696</v>
+      </c>
+      <c r="X196">
         <v>1</v>
       </c>
       <c r="AA196">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA196:AA259" si="3">IF(SUM(F196:Z196)=0,"",SUM(F196:Z196))</f>
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B197" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C197" t="s">
-        <v>2748</v>
-      </c>
-      <c r="R197">
+        <v>1846</v>
+      </c>
+      <c r="Y197">
         <v>1</v>
       </c>
       <c r="AA197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B198" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C198" t="s">
-        <v>2734</v>
+        <v>2637</v>
       </c>
       <c r="Z198">
         <v>1</v>
       </c>
       <c r="AA198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>2730</v>
-      </c>
-      <c r="B199" t="s">
-        <v>2744</v>
-      </c>
-      <c r="C199" t="s">
-        <v>2732</v>
+        <v>2638</v>
       </c>
       <c r="Z199">
         <v>1</v>
       </c>
       <c r="AA199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>2736</v>
-      </c>
-      <c r="B200" t="s">
-        <v>2737</v>
-      </c>
-      <c r="R200">
+        <v>2639</v>
+      </c>
+      <c r="Z200">
         <v>1</v>
       </c>
       <c r="AA200">
-        <f t="shared" ref="AA200:AA260" si="6">SUM(F200:Z200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B201" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C201" t="s">
-        <v>2747</v>
-      </c>
-      <c r="R201">
+        <v>2640</v>
+      </c>
+      <c r="Z201">
         <v>1</v>
       </c>
       <c r="AA201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>2741</v>
-      </c>
-      <c r="B202" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C202" t="s">
-        <v>2746</v>
-      </c>
-      <c r="R202">
+        <v>2643</v>
+      </c>
+      <c r="Z202">
         <v>1</v>
       </c>
       <c r="AA202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B203" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C203" t="s">
-        <v>2752</v>
-      </c>
-      <c r="H203">
+        <v>2644</v>
+      </c>
+      <c r="Z203">
         <v>1</v>
       </c>
       <c r="AA203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>2766</v>
-      </c>
-      <c r="B204" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C204" t="s">
-        <v>2771</v>
-      </c>
-      <c r="R204">
+        <v>2641</v>
+      </c>
+      <c r="Z204">
         <v>1</v>
       </c>
       <c r="AA204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>2768</v>
+        <v>2642</v>
       </c>
       <c r="B205" t="s">
-        <v>2769</v>
-      </c>
-      <c r="C205" t="s">
-        <v>2770</v>
-      </c>
-      <c r="R205">
+        <v>2762</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Z205">
         <v>1</v>
       </c>
       <c r="AA205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B206" t="s">
-        <v>2794</v>
-      </c>
-      <c r="R206">
+        <v>2646</v>
+      </c>
+      <c r="Z206">
         <v>1</v>
       </c>
       <c r="AA206">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2734</v>
+      </c>
+      <c r="Z207">
+        <v>1</v>
+      </c>
+      <c r="AA207">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Z208">
+        <v>1</v>
+      </c>
+      <c r="AA208">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA209" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA210" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA211" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA212" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA213" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA215" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA216" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA217" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA218" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA219" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA220" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA221" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA222" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA223" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA224" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA225" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA226" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA227" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA228" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA229" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA230" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA231" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA232" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA233" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA235" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA236" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA237" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA238" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA239" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA240" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA241" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA244" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA245" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA246" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA247" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA248" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA249" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA250" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA251" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA252" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA253" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA254" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA255" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA256" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA257" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA258" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA259" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA260" t="str">
+        <f t="shared" ref="AA260:AA323" si="4">IF(SUM(F260:Z260)=0,"",SUM(F260:Z260))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA261" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA262" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA263" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA264" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA265" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA266" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA267" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA268" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA269" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA270" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA271" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA272" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA273" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA274" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA275" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA276" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA277" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA278" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA279" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA280" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA281" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA282" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA283" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA284" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA285" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA286" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA287" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA288" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA289" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA290" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA291" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA292" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA293" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA294" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA295" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA296" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA297" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA298" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA299" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA300" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA301" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA302" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA303" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA304" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA305" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA306" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA307" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA308" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA309" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA310" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA311" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA312" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA313" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA314" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA315" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA316" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA317" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA318" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA319" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA320" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA321" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA322" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA323" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA324" t="str">
+        <f t="shared" ref="AA324:AA387" si="5">IF(SUM(F324:Z324)=0,"",SUM(F324:Z324))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA325" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA326" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA327" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA328" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA329" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA330" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA331" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA332" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA333" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA334" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA335" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA336" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA337" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA338" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA339" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA340" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA341" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA342" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA343" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA344" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA345" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA346" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA347" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA348" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA349" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA350" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA351" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA352" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA353" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA354" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA355" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA356" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA357" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA358" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA359" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA360" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA361" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA362" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA363" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA364" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA365" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA366" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA367" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA368" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA369" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA370" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA371" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA372" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA373" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA374" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA375" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA376" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA377" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA378" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA379" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA380" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA381" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA382" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA383" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA384" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA385" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA386" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA387" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA388" t="str">
+        <f t="shared" ref="AA388:AA451" si="6">IF(SUM(F388:Z388)=0,"",SUM(F388:Z388))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA389" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA207">
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA390" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="AA208">
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA391" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA209">
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA392" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA210">
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA393" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA211">
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA394" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA212">
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA395" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA213">
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA396" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA214">
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA397" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA215">
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA398" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA216">
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA399" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA217">
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA400" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA218">
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA401" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA219">
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA402" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA220">
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA403" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA221">
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA404" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA222">
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA405" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA223">
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA406" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA224">
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA407" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA225">
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA408" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA226">
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA409" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA227">
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA410" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA228">
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA411" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA229">
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA412" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA230">
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA413" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA231">
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA414" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA232">
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA415" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA233">
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA416" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA234">
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA417" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA235">
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA418" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA236">
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA419" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA237">
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA420" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA238">
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA421" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA239">
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA422" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA240">
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA423" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA241">
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA424" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA242">
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA425" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA243">
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA426" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA244">
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA427" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA245">
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA428" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA246">
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA429" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA247">
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA430" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA248">
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA431" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA249">
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA432" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA250">
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA433" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA251">
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA434" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA252">
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA435" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA253">
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA436" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA254">
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA437" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA255">
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA438" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA256">
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA439" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA257">
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA440" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA258">
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA441" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA259">
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA442" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA260">
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA443" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA261">
-        <f t="shared" ref="AA261:AA324" si="7">SUM(F261:Z261)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA262">
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA444" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA445" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA446" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA447" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA448" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA449" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA450" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA451" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA452" t="str">
+        <f t="shared" ref="AA452:AA501" si="7">IF(SUM(F452:Z452)=0,"",SUM(F452:Z452))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA453" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA263">
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA454" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA264">
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA455" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA265">
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA456" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA266">
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA457" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA267">
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA458" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA268">
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA459" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA269">
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA460" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA270">
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA461" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA271">
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA462" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA272">
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA463" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA273">
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA464" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA274">
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA465" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA275">
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA466" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA276">
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA467" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA277">
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA468" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA278">
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA469" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA279">
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA470" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA280">
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA471" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA281">
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA472" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA282">
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA473" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA283">
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA474" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA284">
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA475" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA285">
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA476" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA286">
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA477" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA287">
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA478" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA288">
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA479" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA289">
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA480" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA290">
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA481" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA291">
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA482" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA292">
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA483" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA293">
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA484" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA294">
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA485" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA295">
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA486" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA296">
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA487" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA297">
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA488" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA298">
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA489" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA299">
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA490" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA300">
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA491" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA301">
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA492" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA302">
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA493" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA303">
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA494" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA304">
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA495" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA305">
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA496" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA306">
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA497" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA307">
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA498" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA308">
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA499" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA309">
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA500" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA310">
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA501" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA311">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA312">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA313">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA314">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA315">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA316">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA317">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA318">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA319">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA320">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA321">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA322">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA323">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA324">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA325">
-        <f t="shared" ref="AA325:AA388" si="8">SUM(F325:Z325)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA326">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA327">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA328">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA329">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA330">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA331">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA332">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA333">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA334">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA335">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA336">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA337">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA338">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA339">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA340">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA341">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA342">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA343">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA344">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA345">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA346">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA347">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA348">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA349">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA350">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA351">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA352">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA353">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA354">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA355">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA356">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA357">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA358">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA359">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA360">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA361">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA362">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA363">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA364">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA365">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA366">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA367">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA368">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA369">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA370">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA371">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA372">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA373">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA374">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA375">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA376">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA377">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA378">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA379">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA380">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA381">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA382">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA383">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA384">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA385">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA386">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA387">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA388">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA389">
-        <f t="shared" ref="AA389:AA452" si="9">SUM(F389:Z389)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA390">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA391">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA392">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA393">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA394">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA395">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA396">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA397">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA398">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA399">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA400">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA401">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA402">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA403">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA404">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA405">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA406">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA407">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA408">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA409">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA410">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA411">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA412">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA413">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA414">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA415">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA416">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA417">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA418">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA419">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA420">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA421">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA422">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA423">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA424">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA425">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA426">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA427">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA428">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA429">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA430">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA431">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA432">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA433">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA434">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA435">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA436">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA437">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA438">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA439">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA440">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA441">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA442">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA443">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA444">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA445">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA446">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA447">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA448">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA449">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA450">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA451">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA452">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA453">
-        <f t="shared" ref="AA453:AA516" si="10">SUM(F453:Z453)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA454">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA455">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA456">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA457">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA458">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA459">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA460">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA461">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA462">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA463">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA464">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA465">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA466">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA467">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA468">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA469">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA470">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA471">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA472">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA473">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA474">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA475">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA476">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA477">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA478">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA479">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA480">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA481">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA482">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA483">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA484">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA485">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA486">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA487">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA488">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA489">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA490">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA491">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA492">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA493">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA494">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA495">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA496">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA497">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA498">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA499">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA500">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA501">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA502">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA503">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA504">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA505">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA506">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA507">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA508">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA509">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA510">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA511">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA512">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA513">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA514">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA515">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA516">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A187:Z199">
-    <sortCondition descending="1" ref="Y187:Y199"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A187:Z208">
+    <sortCondition descending="1" ref="V187:V208"/>
   </sortState>
-  <conditionalFormatting sqref="F2:Z516">
+  <conditionalFormatting sqref="F191:Z518 F131:Z189 F2:Z128">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(OR($AA2="", $AA2=0), NOT(ISBLANK($A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F129:Z130">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($AA2=0, NOT(ISBLANK($A2)))</formula>
+      <formula>AND(OR($AA129="", $AA129=0), NOT(ISBLANK($A129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD07FE-42CA-46D1-A2F5-769C0F9E7FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675A2ED-6331-420D-83C3-0657E4ABBEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="programas" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$89:$Z$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$B$1:$B$501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8747" uniqueCount="2847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8820" uniqueCount="2885">
   <si>
     <t>query</t>
   </si>
@@ -8581,6 +8581,120 @@
   </si>
   <si>
     <t>Quais são as ameaças às tartarugas?</t>
+  </si>
+  <si>
+    <t>modificador</t>
+  </si>
+  <si>
+    <t>substantivo</t>
+  </si>
+  <si>
+    <t>composicao</t>
+  </si>
+  <si>
+    <t>branqueamento</t>
+  </si>
+  <si>
+    <t>definicao</t>
+  </si>
+  <si>
+    <t>efeito</t>
+  </si>
+  <si>
+    <t>recife</t>
+  </si>
+  <si>
+    <t>maior</t>
+  </si>
+  <si>
+    <t>listar</t>
+  </si>
+  <si>
+    <t>localizacao</t>
+  </si>
+  <si>
+    <t>governo</t>
+  </si>
+  <si>
+    <t>contras</t>
+  </si>
+  <si>
+    <t>consumo</t>
+  </si>
+  <si>
+    <t>ambiente</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>pros-contras</t>
+  </si>
+  <si>
+    <t>pros</t>
+  </si>
+  <si>
+    <t>recife-artificial</t>
+  </si>
+  <si>
+    <t>tipos</t>
+  </si>
+  <si>
+    <t>recipiente</t>
+  </si>
+  <si>
+    <t>iniciativas</t>
+  </si>
+  <si>
+    <t>funcionamento</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>maiores</t>
+  </si>
+  <si>
+    <t>reserva</t>
+  </si>
+  <si>
+    <t>producao</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>brasil</t>
+  </si>
+  <si>
+    <t>Qual é a maior reserva de petróleo no Brasil?</t>
+  </si>
+  <si>
+    <t>jabuti</t>
+  </si>
+  <si>
+    <t>dieta</t>
+  </si>
+  <si>
+    <t>diferenca</t>
+  </si>
+  <si>
+    <t>pertence</t>
+  </si>
+  <si>
+    <t>especies</t>
+  </si>
+  <si>
+    <t>quelonio</t>
+  </si>
+  <si>
+    <t>rótulos</t>
   </si>
 </sst>
 </file>
@@ -8717,21 +8831,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF96F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -8801,7 +8901,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:AB571" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{8C3B9576-1382-4D59-B98B-98BDB5F95A2F}" name="id"/>
@@ -41959,24 +42059,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:AA501"/>
+  <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F194" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2569</v>
       </c>
@@ -41990,385 +42093,705 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="I1" t="s">
         <v>2573</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>2708</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>2709</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>2710</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>2711</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>2713</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>2714</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>2717</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>2718</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>2720</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>2721</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>2722</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>2723</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>2724</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>2725</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>2726</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>2727</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>2728</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2594</v>
       </c>
-      <c r="F2">
+      <c r="D2" t="str">
+        <f>IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>coral-turismo/efeito-coral</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>coral-turismo</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="AA2">
-        <f>IF(SUM(F2:Z2)=0,"",SUM(F2:Z2))</f>
+      <c r="X2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AE2">
+        <f>IF(SUM(J2:AD2)=0,"",SUM(J2:AD2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2595</v>
       </c>
-      <c r="F3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D14" si="0">IF(AND(ISBLANK(F3),ISBLANK(G3),ISBLANK(H3)), E3, _xlfn.CONCAT(E3,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F3),"",_xlfn.CONCAT(F3,"-")),IF(ISBLANK(G3),"",_xlfn.CONCAT(G3,"-")),IF(ISBLANK(H3),"",_xlfn.CONCAT(H3,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>coral/definicao-recife</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E14" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J3=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K3=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L3=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M3=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N3=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O3=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P3=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q3=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R3=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S3=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T3=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U3=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V3=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W3=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X3=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y3=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z3=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA3=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB3=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC3=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD3=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>coral</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2853</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA66" si="0">IF(SUM(F3:Z3)=0,"",SUM(F3:Z3))</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE67" si="2">IF(SUM(J3:AD3)=0,"",SUM(J3:AD3))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2596</v>
       </c>
       <c r="B4" t="s">
         <v>2773</v>
       </c>
-      <c r="F4">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/definicao</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2851</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="AA4">
-        <f t="shared" si="0"/>
+      <c r="AE4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2597</v>
       </c>
       <c r="B5" t="s">
         <v>2774</v>
       </c>
-      <c r="F5">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/composicao</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2849</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
+      <c r="AE5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2598</v>
       </c>
-      <c r="F6">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/definicao-branqueamento</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2850</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
+      <c r="AE6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2599</v>
       </c>
-      <c r="F7">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/definicao-recife</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2853</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
+      <c r="AE7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2600</v>
       </c>
-      <c r="F8">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/listar-governo-iniciativas</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2867</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
+      <c r="AE8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2601</v>
       </c>
-      <c r="F9">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/localizacao-recife</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2853</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
+      <c r="AE9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2602</v>
       </c>
-      <c r="F10">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/listar-tipos</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="AA10">
-        <f t="shared" si="0"/>
+      <c r="AE10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2603</v>
       </c>
-      <c r="F11">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/definicao-recife-artificial</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
+      <c r="AE11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2604</v>
       </c>
-      <c r="F12">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>coral/efeito-branqueamento-ambiente</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>coral</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2850</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2860</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
+      <c r="AE12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1027</v>
       </c>
-      <c r="F13">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>coral-simbolo</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>coral-simbolo</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>1</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="0"/>
+      <c r="AE13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>997</v>
       </c>
-      <c r="G14">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>energia_de_mare/efeito-ambiente</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2860</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="0"/>
+      <c r="AE14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1048</v>
       </c>
-      <c r="G15">
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D78" si="3">IF(AND(ISBLANK(F15),ISBLANK(G15),ISBLANK(H15)), E15, _xlfn.CONCAT(E15,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F15),"",_xlfn.CONCAT(F15,"-")),IF(ISBLANK(G15),"",_xlfn.CONCAT(G15,"-")),IF(ISBLANK(H15),"",_xlfn.CONCAT(H15,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>energia_de_mare/efeito-economia</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:E78" si="4">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J15=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K15=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L15=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M15=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N15=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O15=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P15=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q15=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R15=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S15=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T15=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U15=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V15=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W15=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X15=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y15=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z15=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA15=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB15=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC15=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD15=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2861</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
+      <c r="AE15">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1275</v>
       </c>
-      <c r="G16">
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v>energia_de_mare/listar-pros-contras</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2862</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="0"/>
+      <c r="AE16">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1363</v>
       </c>
-      <c r="G17">
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v>energia_de_mare/listar-contras</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2858</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="0"/>
+      <c r="AE17">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1380</v>
       </c>
-      <c r="G18">
+      <c r="D18" t="str">
+        <f t="shared" si="3"/>
+        <v>energia_de_mare/listar-pros</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="4"/>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2863</v>
+      </c>
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <f t="shared" si="0"/>
+      <c r="AE18">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2605</v>
       </c>
-      <c r="G19">
+      <c r="D19" t="str">
+        <f t="shared" si="3"/>
+        <v>energia_de_mare/localizacao</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="4"/>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2856</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="AA19">
-        <f t="shared" si="0"/>
+      <c r="AE19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>2645</v>
       </c>
-      <c r="G20">
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v>energia_de_mare/funcionamento</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v>energia_de_mare</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2868</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="Z20">
+      <c r="AE20">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2606</v>
       </c>
-      <c r="H21">
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/maior-empresa</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2869</v>
+      </c>
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <f t="shared" si="0"/>
+      <c r="AE21">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2607</v>
       </c>
-      <c r="H22">
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <f t="shared" si="0"/>
+      <c r="AE22">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2608</v>
       </c>
-      <c r="H23">
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <f t="shared" si="0"/>
+      <c r="AE23">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2039</v>
       </c>
-      <c r="H24">
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L24">
         <v>1</v>
       </c>
-      <c r="AA24">
-        <f t="shared" si="0"/>
+      <c r="AE24">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2763</v>
       </c>
-      <c r="H25">
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L25">
         <v>1</v>
       </c>
-      <c r="AA25">
-        <f t="shared" si="0"/>
+      <c r="AE25">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2609</v>
       </c>
-      <c r="H26">
+      <c r="D26" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="AA26">
-        <f t="shared" si="0"/>
+      <c r="AE26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2610</v>
       </c>
@@ -42378,2409 +42801,3941 @@
       <c r="C27" t="s">
         <v>2752</v>
       </c>
-      <c r="H27">
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/maiores-reserva-brasil</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2870</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2876</v>
+      </c>
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="AA27">
-        <f t="shared" si="0"/>
+      <c r="AE27">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/maior-reserva-brasil</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>2753</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>2757</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2752</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>2758</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>2759</v>
       </c>
       <c r="C29" t="s">
         <v>2752</v>
       </c>
-      <c r="H29">
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/maiores-estado-producao</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2870</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2872</v>
+      </c>
+      <c r="L29">
         <v>1</v>
       </c>
-      <c r="AA29">
-        <f t="shared" si="0"/>
+      <c r="AE29">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/maiores-gas-producao</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2870</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2872</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>2754</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>2755</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>2756</v>
       </c>
-      <c r="H30">
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/quantidade-brasil</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2876</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="AA30">
-        <f t="shared" si="0"/>
+      <c r="AE31">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>2760</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>2761</v>
       </c>
-      <c r="H31">
+      <c r="D32" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/quantidade-gas-consumo</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2875</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L32">
         <v>1</v>
       </c>
-      <c r="AA31">
-        <f t="shared" si="0"/>
+      <c r="AE32">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>2611</v>
       </c>
-      <c r="H32">
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
-      <c r="AA32">
-        <f t="shared" si="0"/>
+      <c r="AE33">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>2612</v>
       </c>
-      <c r="H33">
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L34">
         <v>1</v>
       </c>
-      <c r="AA33">
-        <f t="shared" si="0"/>
+      <c r="AE34">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>2613</v>
       </c>
-      <c r="H34">
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="AA34">
-        <f t="shared" si="0"/>
+      <c r="AE35">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>1626</v>
       </c>
-      <c r="H35">
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L36">
         <v>1</v>
       </c>
-      <c r="AA35">
-        <f t="shared" si="0"/>
+      <c r="AE36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>2614</v>
       </c>
-      <c r="H36">
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L37">
         <v>1</v>
       </c>
-      <c r="AA36">
-        <f t="shared" si="0"/>
+      <c r="AE37">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>2615</v>
       </c>
-      <c r="H37">
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="0"/>
+      <c r="AE38">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>1559</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>2801</v>
       </c>
-      <c r="H38">
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/localizacao</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2856</v>
+      </c>
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="AA38">
-        <f t="shared" si="0"/>
+      <c r="AE39">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>2616</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>2802</v>
       </c>
-      <c r="H39">
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L40">
         <v>1</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="0"/>
+      <c r="AE40">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>2617</v>
       </c>
-      <c r="H40">
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo-engenharia</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo-engenharia</v>
+      </c>
+      <c r="L41">
         <v>1</v>
       </c>
-      <c r="U40">
+      <c r="Y41">
         <v>1</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="0"/>
+      <c r="AE41">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>2618</v>
       </c>
-      <c r="H41">
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L42">
         <v>1</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="0"/>
+      <c r="AE42">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>2619</v>
       </c>
-      <c r="H42">
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L43">
         <v>1</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="0"/>
+      <c r="AE43">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>2620</v>
       </c>
-      <c r="H43">
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="AA43">
-        <f t="shared" si="0"/>
+      <c r="AE44">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>2697</v>
       </c>
-      <c r="H44">
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="L45">
         <v>1</v>
       </c>
-      <c r="AA44">
-        <f t="shared" si="0"/>
+      <c r="AE45">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>2749</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>2750</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>2752</v>
       </c>
-      <c r="H45">
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>petroleo/quantidade-producao</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>petroleo</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2872</v>
+      </c>
+      <c r="L46">
         <v>1</v>
       </c>
-      <c r="AA45">
-        <f t="shared" si="0"/>
+      <c r="AE46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>2574</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>2796</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>2701</v>
       </c>
-      <c r="I46">
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga/definicao-dieta</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2879</v>
+      </c>
+      <c r="M47">
         <v>1</v>
       </c>
-      <c r="AA46">
-        <f t="shared" si="0"/>
+      <c r="AE47">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>2575</v>
       </c>
-      <c r="I47">
+      <c r="D48" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga-simbolo</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga-simbolo</v>
+      </c>
+      <c r="M48">
         <v>1</v>
       </c>
-      <c r="N47">
+      <c r="R48">
         <v>1</v>
       </c>
-      <c r="AA47">
-        <f t="shared" si="0"/>
+      <c r="AE48">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>2576</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>2837</v>
       </c>
-      <c r="I48">
+      <c r="D49" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga/listar-especies</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2882</v>
+      </c>
+      <c r="M49">
         <v>1</v>
       </c>
-      <c r="AA48">
-        <f t="shared" si="0"/>
+      <c r="AE49">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>2577</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>2835</v>
       </c>
-      <c r="I49">
+      <c r="D50" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga/diferenca-jabuti</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M50">
         <v>1</v>
       </c>
-      <c r="AA49">
-        <f t="shared" si="0"/>
+      <c r="AE50">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>2797</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>2798</v>
       </c>
-      <c r="I50">
+      <c r="D51" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga/pertence-jabuti</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2881</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M51">
         <v>1</v>
       </c>
-      <c r="AA50">
-        <f t="shared" si="0"/>
+      <c r="AE51">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>2799</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>2800</v>
       </c>
-      <c r="I51">
+      <c r="D52" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga/definicao-quelonio</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2883</v>
+      </c>
+      <c r="M52">
         <v>1</v>
       </c>
-      <c r="AA51">
-        <f t="shared" si="0"/>
+      <c r="AE52">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>2578</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>2832</v>
       </c>
-      <c r="I52">
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga/definicao-jabuti</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M53">
         <v>1</v>
       </c>
-      <c r="AA52">
-        <f t="shared" si="0"/>
+      <c r="AE53">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>2579</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>2833</v>
       </c>
-      <c r="I53">
+      <c r="D54" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M54">
         <v>1</v>
       </c>
-      <c r="AA53">
-        <f t="shared" si="0"/>
+      <c r="AE54">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>2580</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>2834</v>
       </c>
-      <c r="I54">
+      <c r="D55" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M55">
         <v>1</v>
       </c>
-      <c r="AA54">
-        <f t="shared" si="0"/>
+      <c r="AE55">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>2581</v>
       </c>
-      <c r="I55">
+      <c r="D56" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M56">
         <v>1</v>
       </c>
-      <c r="AA55">
-        <f t="shared" si="0"/>
+      <c r="AE56">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>2582</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>2843</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>2838</v>
       </c>
-      <c r="I56">
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M57">
         <v>1</v>
       </c>
-      <c r="AA56">
-        <f t="shared" si="0"/>
+      <c r="AE57">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>2844</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>2845</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="I58" t="s">
         <v>2846</v>
       </c>
-      <c r="I57">
+      <c r="M58">
         <v>1</v>
       </c>
-      <c r="AA57">
-        <f t="shared" si="0"/>
+      <c r="AE58">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>2583</v>
       </c>
-      <c r="I58">
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M59">
         <v>1</v>
       </c>
-      <c r="AA58">
-        <f t="shared" si="0"/>
+      <c r="AE59">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>2584</v>
       </c>
-      <c r="I59">
+      <c r="D60" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M60">
         <v>1</v>
       </c>
-      <c r="AA59">
-        <f t="shared" si="0"/>
+      <c r="AE60">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>2585</v>
       </c>
-      <c r="I60">
+      <c r="D61" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M61">
         <v>1</v>
       </c>
-      <c r="AA60">
-        <f t="shared" si="0"/>
+      <c r="AE61">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>2586</v>
       </c>
-      <c r="I61">
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M62">
         <v>1</v>
       </c>
-      <c r="AA61">
-        <f t="shared" si="0"/>
+      <c r="AE62">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>2587</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>2842</v>
       </c>
-      <c r="I62">
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M63">
         <v>1</v>
       </c>
-      <c r="AA62">
-        <f t="shared" si="0"/>
+      <c r="AE63">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>2588</v>
       </c>
-      <c r="I63">
+      <c r="D64" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M64">
         <v>1</v>
       </c>
-      <c r="AA63">
-        <f t="shared" si="0"/>
+      <c r="AE64">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>2589</v>
       </c>
-      <c r="I64">
+      <c r="D65" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M65">
         <v>1</v>
       </c>
-      <c r="AA64">
-        <f t="shared" si="0"/>
+      <c r="AE65">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>2590</v>
       </c>
-      <c r="I65">
+      <c r="D66" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M66">
         <v>1</v>
       </c>
-      <c r="AA65">
-        <f t="shared" si="0"/>
+      <c r="AE66">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>2591</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>2836</v>
       </c>
-      <c r="I66">
+      <c r="D67" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M67">
         <v>1</v>
       </c>
-      <c r="AA66">
-        <f t="shared" si="0"/>
+      <c r="AE67">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>2592</v>
       </c>
-      <c r="I67">
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M68">
         <v>1</v>
       </c>
-      <c r="AA67">
-        <f t="shared" ref="AA67:AA127" si="1">IF(SUM(F67:Z67)=0,"",SUM(F67:Z67))</f>
+      <c r="AE68">
+        <f t="shared" ref="AE68:AE128" si="5">IF(SUM(J68:AD68)=0,"",SUM(J68:AD68))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>2699</v>
       </c>
-      <c r="I68">
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M69">
         <v>1</v>
       </c>
-      <c r="AA68">
-        <f t="shared" si="1"/>
+      <c r="AE69">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
         <v>2593</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>2698</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>2701</v>
       </c>
-      <c r="I69">
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="M70">
         <v>1</v>
       </c>
-      <c r="AA69">
-        <f t="shared" si="1"/>
+      <c r="AE70">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="I70">
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>tartaruga-corrente</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga-corrente</v>
+      </c>
+      <c r="M71">
         <v>1</v>
       </c>
-      <c r="O70">
+      <c r="S71">
         <v>1</v>
       </c>
-      <c r="AA70">
-        <f t="shared" si="1"/>
+      <c r="AE71">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>2624</v>
       </c>
-      <c r="J71">
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N72">
         <v>1</v>
       </c>
-      <c r="AA71">
-        <f t="shared" si="1"/>
+      <c r="AE72">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
         <v>2622</v>
       </c>
-      <c r="J72">
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N73">
         <v>1</v>
       </c>
-      <c r="AA72">
-        <f t="shared" si="1"/>
+      <c r="AE73">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
         <v>2623</v>
       </c>
-      <c r="J73">
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N74">
         <v>1</v>
       </c>
-      <c r="AA73">
-        <f t="shared" si="1"/>
+      <c r="AE74">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="J74">
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N75">
         <v>1</v>
       </c>
-      <c r="AA74">
-        <f t="shared" si="1"/>
+      <c r="AE75">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
         <v>2626</v>
       </c>
-      <c r="J75">
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N76">
         <v>1</v>
       </c>
-      <c r="AA75">
-        <f t="shared" si="1"/>
+      <c r="AE76">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
         <v>2627</v>
       </c>
-      <c r="J76">
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N77">
         <v>1</v>
       </c>
-      <c r="AA76">
-        <f t="shared" si="1"/>
+      <c r="AE77">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
         <v>2629</v>
       </c>
-      <c r="J77">
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>fisica</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="N78">
         <v>1</v>
       </c>
-      <c r="AA77">
-        <f t="shared" si="1"/>
+      <c r="AE78">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
         <v>2628</v>
       </c>
-      <c r="J78">
+      <c r="D79" t="str">
+        <f t="shared" ref="D79:D142" si="6">IF(AND(ISBLANK(F79),ISBLANK(G79),ISBLANK(H79)), E79, _xlfn.CONCAT(E79,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F79),"",_xlfn.CONCAT(F79,"-")),IF(ISBLANK(G79),"",_xlfn.CONCAT(G79,"-")),IF(ISBLANK(H79),"",_xlfn.CONCAT(H79,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>fisica</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" ref="E79:E142" si="7">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J79=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K79=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L79=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M79=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N79=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O79=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P79=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q79=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R79=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S79=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T79=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U79=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V79=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W79=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X79=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y79=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z79=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA79=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB79=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC79=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD79=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>fisica</v>
+      </c>
+      <c r="N79">
         <v>1</v>
       </c>
-      <c r="AA78">
-        <f t="shared" si="1"/>
+      <c r="AE79">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
         <v>2630</v>
       </c>
-      <c r="J79">
+      <c r="D80" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N80">
         <v>1</v>
       </c>
-      <c r="AA79">
-        <f t="shared" si="1"/>
+      <c r="AE80">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="J80">
+      <c r="D81" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N81">
         <v>1</v>
       </c>
-      <c r="AA80">
-        <f t="shared" si="1"/>
+      <c r="AE81">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="J81">
+      <c r="D82" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N82">
         <v>1</v>
       </c>
-      <c r="AA81">
-        <f t="shared" si="1"/>
+      <c r="AE82">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="J82">
+      <c r="D83" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N83">
         <v>1</v>
       </c>
-      <c r="AA82">
-        <f t="shared" si="1"/>
+      <c r="AE83">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="J83">
+      <c r="D84" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N84">
         <v>1</v>
       </c>
-      <c r="AA83">
-        <f t="shared" si="1"/>
+      <c r="AE84">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
         <v>1446</v>
       </c>
-      <c r="J84">
+      <c r="D85" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N85">
         <v>1</v>
       </c>
-      <c r="AA84">
-        <f t="shared" si="1"/>
+      <c r="AE85">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+    <row r="86" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
         <v>2631</v>
       </c>
-      <c r="J85">
+      <c r="D86" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N86">
         <v>1</v>
       </c>
-      <c r="AA85">
-        <f t="shared" si="1"/>
+      <c r="AE86">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="J86">
+      <c r="D87" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N87">
         <v>1</v>
       </c>
-      <c r="AA86">
-        <f t="shared" si="1"/>
+      <c r="AE87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="J87">
+      <c r="D88" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N88">
         <v>1</v>
       </c>
-      <c r="AA87">
-        <f t="shared" si="1"/>
+      <c r="AE88">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
         <v>2632</v>
       </c>
-      <c r="J88">
+      <c r="D89" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
+      </c>
+      <c r="N89">
         <v>1</v>
       </c>
-      <c r="AA88">
-        <f t="shared" si="1"/>
+      <c r="AE89">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
         <v>2633</v>
       </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>2634</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
+      <c r="D90" t="str">
+        <f t="shared" si="6"/>
+        <v>fisica</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="7"/>
+        <v>fisica</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
-      <c r="AA90">
-        <f t="shared" si="1"/>
+      <c r="AE90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano-simbolo</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano-simbolo</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
         <v>2635</v>
       </c>
-      <c r="K91">
+      <c r="D92" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O92">
         <v>1</v>
       </c>
-      <c r="AA91">
-        <f t="shared" si="1"/>
+      <c r="AE92">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
         <v>2041</v>
       </c>
-      <c r="K92">
+      <c r="D93" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O93">
         <v>1</v>
       </c>
-      <c r="AA92">
-        <f t="shared" si="1"/>
+      <c r="AE93">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="K93">
+      <c r="D94" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O94">
         <v>1</v>
       </c>
-      <c r="AA93">
-        <f t="shared" si="1"/>
+      <c r="AE94">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>1802</v>
       </c>
-      <c r="K94">
+      <c r="D95" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O95">
         <v>1</v>
       </c>
-      <c r="AA94">
-        <f t="shared" si="1"/>
+      <c r="AE95">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="K95">
+      <c r="D96" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O96">
         <v>1</v>
       </c>
-      <c r="AA95">
-        <f t="shared" si="1"/>
+      <c r="AE96">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="K96">
+      <c r="D97" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O97">
         <v>1</v>
       </c>
-      <c r="AA96">
-        <f t="shared" si="1"/>
+      <c r="AE97">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="K97">
+      <c r="D98" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O98">
         <v>1</v>
       </c>
-      <c r="AA97">
-        <f t="shared" si="1"/>
+      <c r="AE98">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="K98">
+      <c r="D99" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O99">
         <v>1</v>
       </c>
-      <c r="AA98">
-        <f t="shared" si="1"/>
+      <c r="AE99">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>1245</v>
       </c>
-      <c r="K99">
+      <c r="D100" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O100">
         <v>1</v>
       </c>
-      <c r="AA99">
-        <f t="shared" si="1"/>
+      <c r="AE100">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="K100">
+      <c r="D101" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O101">
         <v>1</v>
       </c>
-      <c r="AA100">
-        <f t="shared" si="1"/>
+      <c r="AE101">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="K101">
+      <c r="D102" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O102">
         <v>1</v>
       </c>
-      <c r="AA101">
-        <f t="shared" si="1"/>
+      <c r="AE102">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="K102">
+      <c r="D103" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O103">
         <v>1</v>
       </c>
-      <c r="AA102">
-        <f t="shared" si="1"/>
+      <c r="AE103">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="K103">
+      <c r="D104" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O104">
         <v>1</v>
       </c>
-      <c r="AA103">
-        <f t="shared" si="1"/>
+      <c r="AE104">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="K104">
+      <c r="D105" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O105">
         <v>1</v>
       </c>
-      <c r="AA104">
-        <f t="shared" si="1"/>
+      <c r="AE105">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="K105">
+      <c r="D106" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O106">
         <v>1</v>
       </c>
-      <c r="AA105">
-        <f t="shared" si="1"/>
+      <c r="AE106">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
         <v>1446</v>
       </c>
-      <c r="K106">
+      <c r="D107" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O107">
         <v>1</v>
       </c>
-      <c r="AA106">
-        <f t="shared" si="1"/>
+      <c r="AE107">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>1461</v>
       </c>
-      <c r="K107">
+      <c r="D108" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O108">
         <v>1</v>
       </c>
-      <c r="AA107">
-        <f t="shared" si="1"/>
+      <c r="AE108">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="K108">
+      <c r="D109" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O109">
         <v>1</v>
       </c>
-      <c r="AA108">
-        <f t="shared" si="1"/>
+      <c r="AE109">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="K109">
+      <c r="D110" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O110">
         <v>1</v>
       </c>
-      <c r="AA109">
-        <f t="shared" si="1"/>
+      <c r="AE110">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="K110">
+      <c r="D111" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O111">
         <v>1</v>
       </c>
-      <c r="AA110">
-        <f t="shared" si="1"/>
+      <c r="AE111">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
         <v>1597</v>
       </c>
-      <c r="K111">
+      <c r="D112" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O112">
         <v>1</v>
       </c>
-      <c r="AA111">
-        <f t="shared" si="1"/>
+      <c r="AE112">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
         <v>1667</v>
       </c>
-      <c r="K112">
+      <c r="D113" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O113">
         <v>1</v>
       </c>
-      <c r="AA112">
-        <f t="shared" si="1"/>
+      <c r="AE113">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
         <v>1861</v>
       </c>
-      <c r="K113">
+      <c r="D114" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O114">
         <v>1</v>
       </c>
-      <c r="AA113">
-        <f t="shared" si="1"/>
+      <c r="AE114">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
         <v>1903</v>
       </c>
-      <c r="K114">
+      <c r="D115" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="O115">
         <v>1</v>
       </c>
-      <c r="AA114">
-        <f t="shared" si="1"/>
+      <c r="AE115">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
         <v>2667</v>
       </c>
-      <c r="L115">
+      <c r="D116" t="str">
+        <f t="shared" si="6"/>
+        <v>onda</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="P116">
         <v>1</v>
       </c>
-      <c r="AA115">
-        <f t="shared" si="1"/>
+      <c r="AE116">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
         <v>2668</v>
       </c>
-      <c r="L116">
+      <c r="D117" t="str">
+        <f t="shared" si="6"/>
+        <v>onda-mare</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="7"/>
+        <v>onda-mare</v>
+      </c>
+      <c r="P117">
         <v>1</v>
       </c>
-      <c r="M116">
+      <c r="Q117">
         <v>1</v>
       </c>
-      <c r="AA116">
-        <f t="shared" si="1"/>
+      <c r="AE117">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
         <v>2669</v>
       </c>
-      <c r="L117">
+      <c r="D118" t="str">
+        <f t="shared" si="6"/>
+        <v>onda</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="P118">
         <v>1</v>
       </c>
-      <c r="AA117">
-        <f t="shared" si="1"/>
+      <c r="AE118">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="L118">
+      <c r="D119" t="str">
+        <f t="shared" si="6"/>
+        <v>onda</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="P119">
         <v>1</v>
       </c>
-      <c r="AA118">
-        <f t="shared" si="1"/>
+      <c r="AE119">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
         <v>2670</v>
       </c>
-      <c r="L119">
+      <c r="D120" t="str">
+        <f t="shared" si="6"/>
+        <v>onda</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="P120">
         <v>1</v>
       </c>
-      <c r="AA119">
-        <f t="shared" si="1"/>
+      <c r="AE120">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="L120">
+      <c r="D121" t="str">
+        <f t="shared" si="6"/>
+        <v>onda-litoral</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="7"/>
+        <v>onda-litoral</v>
+      </c>
+      <c r="P121">
         <v>1</v>
       </c>
-      <c r="W120">
+      <c r="AA121">
         <v>1</v>
       </c>
-      <c r="AA120">
-        <f t="shared" si="1"/>
+      <c r="AE121">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="M121">
+      <c r="D122" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q122">
         <v>1</v>
       </c>
-      <c r="AA121">
-        <f t="shared" si="1"/>
+      <c r="AE122">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
         <v>2671</v>
       </c>
-      <c r="M122">
+      <c r="D123" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q123">
         <v>1</v>
       </c>
-      <c r="AA122">
-        <f t="shared" si="1"/>
+      <c r="AE123">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="M123">
+      <c r="D124" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q124">
         <v>1</v>
       </c>
-      <c r="AA123">
-        <f t="shared" si="1"/>
+      <c r="AE124">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="M124">
+      <c r="D125" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q125">
         <v>1</v>
       </c>
-      <c r="AA124">
-        <f t="shared" si="1"/>
+      <c r="AE125">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="M125">
+      <c r="D126" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q126">
         <v>1</v>
       </c>
-      <c r="AA125">
-        <f t="shared" si="1"/>
+      <c r="AE126">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
         <v>2672</v>
       </c>
-      <c r="M126">
+      <c r="D127" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q127">
         <v>1</v>
       </c>
-      <c r="AA126">
-        <f t="shared" si="1"/>
+      <c r="AE127">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="M127">
+      <c r="D128" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q128">
         <v>1</v>
       </c>
-      <c r="AA127">
-        <f t="shared" si="1"/>
+      <c r="AE128">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="M128">
+      <c r="D129" t="str">
+        <f t="shared" si="6"/>
+        <v>mare</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="7"/>
+        <v>mare</v>
+      </c>
+      <c r="Q129">
         <v>1</v>
       </c>
-      <c r="AA128">
-        <f t="shared" ref="AA128:AA195" si="2">IF(SUM(F128:Z128)=0,"",SUM(F128:Z128))</f>
+      <c r="AE129">
+        <f t="shared" ref="AE129:AE195" si="8">IF(SUM(J129:AD129)=0,"",SUM(J129:AD129))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
         <v>2636</v>
       </c>
-      <c r="O129">
+      <c r="D130" t="str">
+        <f t="shared" si="6"/>
+        <v>corrente</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="7"/>
+        <v>corrente</v>
+      </c>
+      <c r="S130">
         <v>1</v>
       </c>
-      <c r="AA129">
-        <f t="shared" si="2"/>
+      <c r="AE130">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="O130">
+      <c r="D131" t="str">
+        <f t="shared" si="6"/>
+        <v>corrente</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="7"/>
+        <v>corrente</v>
+      </c>
+      <c r="S131">
         <v>1</v>
       </c>
-      <c r="AA130">
-        <f>IF(SUM(F130:Z130)=0,"",SUM(F130:Z130))</f>
+      <c r="AE131">
+        <f>IF(SUM(J131:AD131)=0,"",SUM(J131:AD131))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
         <v>2621</v>
       </c>
-      <c r="O131">
+      <c r="D132" t="str">
+        <f t="shared" si="6"/>
+        <v>corrente</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="7"/>
+        <v>corrente</v>
+      </c>
+      <c r="S132">
         <v>1</v>
       </c>
-      <c r="AA131">
-        <f>IF(SUM(F131:Z131)=0,"",SUM(F131:Z131))</f>
+      <c r="AE132">
+        <f>IF(SUM(J132:AD132)=0,"",SUM(J132:AD132))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
         <v>2673</v>
       </c>
-      <c r="O132">
+      <c r="D133" t="str">
+        <f t="shared" si="6"/>
+        <v>corrente</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="7"/>
+        <v>corrente</v>
+      </c>
+      <c r="S133">
         <v>1</v>
       </c>
-      <c r="AA132">
-        <f>IF(SUM(F132:Z132)=0,"",SUM(F132:Z132))</f>
+      <c r="AE133">
+        <f>IF(SUM(J133:AD133)=0,"",SUM(J133:AD133))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
         <v>2674</v>
       </c>
-      <c r="P133">
+      <c r="D134" t="str">
+        <f t="shared" si="6"/>
+        <v>navio</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="7"/>
+        <v>navio</v>
+      </c>
+      <c r="T134">
         <v>1</v>
       </c>
-      <c r="AA133">
-        <f t="shared" si="2"/>
+      <c r="AE134">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
         <v>2675</v>
       </c>
-      <c r="P134">
+      <c r="D135" t="str">
+        <f t="shared" si="6"/>
+        <v>navio</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="7"/>
+        <v>navio</v>
+      </c>
+      <c r="T135">
         <v>1</v>
       </c>
-      <c r="AA134">
-        <f t="shared" si="2"/>
+      <c r="AE135">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
         <v>2676</v>
       </c>
-      <c r="Q135">
+      <c r="D136" t="str">
+        <f t="shared" si="6"/>
+        <v>flora</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="7"/>
+        <v>flora</v>
+      </c>
+      <c r="U136">
         <v>1</v>
       </c>
-      <c r="AA135">
-        <f t="shared" si="2"/>
+      <c r="AE136">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
         <v>2677</v>
       </c>
-      <c r="Q136">
+      <c r="D137" t="str">
+        <f t="shared" si="6"/>
+        <v>flora</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="7"/>
+        <v>flora</v>
+      </c>
+      <c r="U137">
         <v>1</v>
       </c>
-      <c r="AA136">
-        <f t="shared" si="2"/>
+      <c r="AE137">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
         <v>2678</v>
       </c>
-      <c r="Q137">
+      <c r="D138" t="str">
+        <f t="shared" si="6"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="7"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="U138">
         <v>1</v>
       </c>
-      <c r="R137">
+      <c r="V138">
         <v>1</v>
       </c>
-      <c r="AA137">
-        <f t="shared" si="2"/>
+      <c r="AE138">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="Q138">
+      <c r="D139" t="str">
+        <f t="shared" si="6"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="7"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="U139">
         <v>1</v>
       </c>
-      <c r="R138">
+      <c r="V139">
         <v>1</v>
       </c>
-      <c r="AA138">
-        <f t="shared" si="2"/>
+      <c r="AE139">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
         <v>2706</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>2831</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>2828</v>
       </c>
-      <c r="Q139">
+      <c r="D140" t="str">
+        <f t="shared" si="6"/>
+        <v>flora</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="7"/>
+        <v>flora</v>
+      </c>
+      <c r="U140">
         <v>1</v>
       </c>
-      <c r="AA139">
-        <f t="shared" si="2"/>
+      <c r="AE140">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
         <v>2824</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>2829</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>2830</v>
       </c>
-      <c r="Q140">
+      <c r="D141" t="str">
+        <f t="shared" si="6"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="7"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="U141">
         <v>1</v>
       </c>
-      <c r="R140">
+      <c r="V141">
         <v>1</v>
       </c>
-      <c r="AA140">
-        <f t="shared" si="2"/>
+      <c r="AE141">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
         <v>2825</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>2827</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>2826</v>
       </c>
-      <c r="Q141">
+      <c r="D142" t="str">
+        <f t="shared" si="6"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="7"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="U142">
         <v>1</v>
       </c>
-      <c r="R141">
+      <c r="V142">
         <v>1</v>
       </c>
-      <c r="AA141">
-        <f t="shared" si="2"/>
+      <c r="AE142">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
         <v>2784</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>2785</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>2786</v>
       </c>
-      <c r="R142">
+      <c r="D143" t="str">
+        <f t="shared" ref="D143:D206" si="9">IF(AND(ISBLANK(F143),ISBLANK(G143),ISBLANK(H143)), E143, _xlfn.CONCAT(E143,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F143),"",_xlfn.CONCAT(F143,"-")),IF(ISBLANK(G143),"",_xlfn.CONCAT(G143,"-")),IF(ISBLANK(H143),"",_xlfn.CONCAT(H143,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>fauna</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" ref="E143:E206" si="10">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J143=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K143=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L143=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M143=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N143=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O143=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P143=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q143=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R143=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S143=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T143=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U143=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V143=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W143=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X143=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y143=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z143=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA143=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB143=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC143=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD143=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>fauna</v>
+      </c>
+      <c r="V143">
         <v>1</v>
       </c>
-      <c r="AA142">
-        <f t="shared" si="2"/>
+      <c r="AE143">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
         <v>2775</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>2776</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>2777</v>
       </c>
-      <c r="R143">
+      <c r="D144" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V144">
         <v>1</v>
       </c>
-      <c r="AA143">
-        <f t="shared" si="2"/>
+      <c r="AE144">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
         <v>2788</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>2793</v>
       </c>
-      <c r="R144">
+      <c r="D145" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V145">
         <v>1</v>
       </c>
-      <c r="AA144">
-        <f t="shared" si="2"/>
+      <c r="AE145">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
         <v>2805</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>2803</v>
       </c>
-      <c r="R145">
+      <c r="D146" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V146">
         <v>1</v>
       </c>
-      <c r="AA145">
-        <f t="shared" si="2"/>
+      <c r="AE146">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
         <v>2804</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>2806</v>
       </c>
-      <c r="R146">
+      <c r="D147" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V147">
         <v>1</v>
       </c>
-      <c r="AA146">
-        <f t="shared" si="2"/>
+      <c r="AE147">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
         <v>2807</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>2815</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>2814</v>
       </c>
-      <c r="R147">
+      <c r="D148" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V148">
         <v>1</v>
       </c>
-      <c r="AA147">
-        <f t="shared" si="2"/>
+      <c r="AE148">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
         <v>2808</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>2809</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>2813</v>
       </c>
-      <c r="R148">
+      <c r="D149" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V149">
         <v>1</v>
       </c>
-      <c r="AA148">
-        <f t="shared" si="2"/>
+      <c r="AE149">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
         <v>2810</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>2816</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>2812</v>
       </c>
-      <c r="R149">
+      <c r="D150" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V150">
         <v>1</v>
       </c>
-      <c r="AA149">
-        <f t="shared" si="2"/>
+      <c r="AE150">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
         <v>2679</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>2817</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>2819</v>
       </c>
-      <c r="R150">
+      <c r="D151" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V151">
         <v>1</v>
       </c>
-      <c r="AA150">
-        <f t="shared" si="2"/>
+      <c r="AE151">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
         <v>2818</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>2820</v>
       </c>
-      <c r="R151">
+      <c r="D152" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V152">
         <v>1</v>
       </c>
-      <c r="AA151">
-        <f t="shared" si="2"/>
+      <c r="AE152">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
         <v>2821</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>2823</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>2822</v>
       </c>
-      <c r="R152">
+      <c r="D153" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna-turismo</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna-turismo</v>
+      </c>
+      <c r="V153">
         <v>1</v>
       </c>
-      <c r="T152">
+      <c r="X153">
         <v>1</v>
       </c>
-      <c r="AA152">
-        <f t="shared" si="2"/>
+      <c r="AE153">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
         <v>2680</v>
       </c>
-      <c r="R153">
+      <c r="D154" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V154">
         <v>1</v>
       </c>
-      <c r="AA153">
-        <f t="shared" si="2"/>
+      <c r="AE154">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
         <v>2681</v>
       </c>
-      <c r="R154">
+      <c r="D155" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V155">
         <v>1</v>
       </c>
-      <c r="AA154">
-        <f t="shared" si="2"/>
+      <c r="AE155">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
         <v>2682</v>
       </c>
-      <c r="R155">
+      <c r="D156" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V156">
         <v>1</v>
       </c>
-      <c r="AA155">
-        <f t="shared" si="2"/>
+      <c r="AE156">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
         <v>2683</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>2839</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>2764</v>
       </c>
-      <c r="R156">
+      <c r="D157" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V157">
         <v>1</v>
       </c>
-      <c r="AA156">
-        <f t="shared" si="2"/>
+      <c r="AE157">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
         <v>2778</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>2840</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>2780</v>
       </c>
-      <c r="R157">
+      <c r="D158" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V158">
         <v>1</v>
       </c>
-      <c r="AA157">
-        <f t="shared" si="2"/>
+      <c r="AE158">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A158" s="7" t="s">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
         <v>2782</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>2783</v>
       </c>
-      <c r="R158">
+      <c r="D159" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V159">
         <v>1</v>
       </c>
-      <c r="AA158">
-        <f t="shared" si="2"/>
+      <c r="AE159">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
         <v>2779</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>2841</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>2781</v>
       </c>
-      <c r="R159">
+      <c r="D160" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V160">
         <v>1</v>
       </c>
-      <c r="AA159">
-        <f t="shared" si="2"/>
+      <c r="AE160">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A160" s="7" t="s">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
         <v>2684</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>2765</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>2767</v>
       </c>
-      <c r="R160">
+      <c r="D161" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V161">
         <v>1</v>
       </c>
-      <c r="AA160">
-        <f t="shared" si="2"/>
+      <c r="AE161">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
         <v>2791</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>2792</v>
       </c>
-      <c r="R161">
+      <c r="D162" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V162">
         <v>1</v>
       </c>
-      <c r="AA161">
-        <f t="shared" si="2"/>
+      <c r="AE162">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
         <v>2685</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>2811</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>2812</v>
       </c>
-      <c r="R162">
+      <c r="D163" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna-turismo</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna-turismo</v>
+      </c>
+      <c r="V163">
         <v>1</v>
       </c>
-      <c r="T162">
+      <c r="X163">
         <v>1</v>
       </c>
-      <c r="AA162">
-        <f t="shared" si="2"/>
+      <c r="AE163">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
         <v>2700</v>
       </c>
-      <c r="R163">
+      <c r="D164" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna-extra</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna-extra</v>
+      </c>
+      <c r="V164">
         <v>1</v>
       </c>
-      <c r="Z163">
+      <c r="AD164">
         <v>1</v>
       </c>
-      <c r="AA163">
-        <f t="shared" si="2"/>
+      <c r="AE164">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>2703</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>2738</v>
       </c>
-      <c r="R164">
+      <c r="D165" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V165">
         <v>1</v>
       </c>
-      <c r="AA164">
-        <f t="shared" si="2"/>
+      <c r="AE165">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>2704</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>2739</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>2745</v>
       </c>
-      <c r="R165">
+      <c r="D166" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V166">
         <v>1</v>
       </c>
-      <c r="AA165">
-        <f t="shared" si="2"/>
+      <c r="AE166">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
         <v>2705</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>2789</v>
       </c>
-      <c r="R166">
+      <c r="D167" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V167">
         <v>1</v>
       </c>
-      <c r="AA166">
-        <f t="shared" si="2"/>
+      <c r="AE167">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
         <v>2707</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>2790</v>
       </c>
-      <c r="R167">
+      <c r="D168" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V168">
         <v>1</v>
       </c>
-      <c r="AA167">
-        <f t="shared" si="2"/>
+      <c r="AE168">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
         <v>2731</v>
       </c>
-      <c r="R168">
+      <c r="D169" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V169">
         <v>1</v>
       </c>
-      <c r="AA168">
-        <f t="shared" si="2"/>
+      <c r="AE169">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
         <v>2702</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>2735</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>2748</v>
       </c>
-      <c r="R169">
+      <c r="D170" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V170">
         <v>1</v>
       </c>
-      <c r="AA169">
-        <f t="shared" si="2"/>
+      <c r="AE170">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A170" s="7" t="s">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
         <v>2736</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>2737</v>
       </c>
-      <c r="R170">
+      <c r="D171" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V171">
         <v>1</v>
       </c>
-      <c r="AA170">
-        <f t="shared" si="2"/>
+      <c r="AE171">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
         <v>2740</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>2743</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>2747</v>
       </c>
-      <c r="R171">
+      <c r="D172" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V172">
         <v>1</v>
       </c>
-      <c r="AA171">
-        <f t="shared" si="2"/>
+      <c r="AE172">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
         <v>2741</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>2742</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>2746</v>
       </c>
-      <c r="R172">
+      <c r="D173" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V173">
         <v>1</v>
       </c>
-      <c r="AA172">
-        <f t="shared" si="2"/>
+      <c r="AE173">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
         <v>2766</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>2787</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>2771</v>
       </c>
-      <c r="R173">
+      <c r="D174" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V174">
         <v>1</v>
       </c>
-      <c r="AA173">
-        <f t="shared" si="2"/>
+      <c r="AE174">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
         <v>2768</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>2769</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>2770</v>
       </c>
-      <c r="R174">
+      <c r="D175" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V175">
         <v>1</v>
       </c>
-      <c r="AA174">
-        <f t="shared" si="2"/>
+      <c r="AE175">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
         <v>2772</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>2794</v>
       </c>
-      <c r="R175">
+      <c r="D176" t="str">
+        <f t="shared" si="9"/>
+        <v>fauna</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="10"/>
+        <v>fauna</v>
+      </c>
+      <c r="V176">
         <v>1</v>
       </c>
-      <c r="AA175">
-        <f t="shared" si="2"/>
+      <c r="AE176">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A176" s="7" t="s">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="S176">
+      <c r="D177" t="str">
+        <f t="shared" si="9"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="10"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W177">
         <v>1</v>
       </c>
-      <c r="AA176">
-        <f t="shared" si="2"/>
+      <c r="AE177">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
         <v>2686</v>
       </c>
-      <c r="S177">
+      <c r="D178" t="str">
+        <f t="shared" si="9"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="10"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W178">
         <v>1</v>
       </c>
-      <c r="AA177">
-        <f t="shared" si="2"/>
+      <c r="AE178">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A178" s="7" t="s">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
         <v>2795</v>
       </c>
-      <c r="S178">
+      <c r="D179" t="str">
+        <f t="shared" si="9"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="10"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W179">
         <v>1</v>
       </c>
-      <c r="AA178">
-        <f t="shared" si="2"/>
+      <c r="AE179">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
         <v>1505</v>
       </c>
-      <c r="S179">
+      <c r="D180" t="str">
+        <f t="shared" si="9"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="10"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W180">
         <v>1</v>
       </c>
-      <c r="AA179">
-        <f t="shared" si="2"/>
+      <c r="AE180">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="S180">
+      <c r="D181" t="str">
+        <f t="shared" si="9"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="10"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W181">
         <v>1</v>
       </c>
-      <c r="AA180">
-        <f t="shared" si="2"/>
+      <c r="AE181">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A181" s="7" t="s">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
         <v>2687</v>
       </c>
-      <c r="T181">
+      <c r="D182" t="str">
+        <f t="shared" si="9"/>
+        <v>turismo</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="10"/>
+        <v>turismo</v>
+      </c>
+      <c r="X182">
         <v>1</v>
       </c>
-      <c r="AA181">
-        <f t="shared" si="2"/>
+      <c r="AE182">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="T182">
+      <c r="D183" t="str">
+        <f t="shared" si="9"/>
+        <v>turismo</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="10"/>
+        <v>turismo</v>
+      </c>
+      <c r="X183">
         <v>1</v>
       </c>
-      <c r="AA182">
-        <f t="shared" si="2"/>
+      <c r="AE183">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A183" s="7" t="s">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
         <v>2689</v>
       </c>
-      <c r="T183">
+      <c r="D184" t="str">
+        <f t="shared" si="9"/>
+        <v>turismo</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="10"/>
+        <v>turismo</v>
+      </c>
+      <c r="X184">
         <v>1</v>
       </c>
-      <c r="AA183">
-        <f t="shared" si="2"/>
+      <c r="AE184">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
         <v>2690</v>
       </c>
-      <c r="U184">
+      <c r="D185" t="str">
+        <f t="shared" si="9"/>
+        <v>engenharia</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="10"/>
+        <v>engenharia</v>
+      </c>
+      <c r="Y185">
         <v>1</v>
       </c>
-      <c r="AA184">
-        <f t="shared" si="2"/>
+      <c r="AE185">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
         <v>2691</v>
       </c>
-      <c r="U185">
+      <c r="D186" t="str">
+        <f t="shared" si="9"/>
+        <v>engenharia</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="10"/>
+        <v>engenharia</v>
+      </c>
+      <c r="Y186">
         <v>1</v>
       </c>
-      <c r="AA185">
-        <f t="shared" si="2"/>
+      <c r="AE186">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
         <v>2692</v>
       </c>
-      <c r="U186">
+      <c r="D187" t="str">
+        <f t="shared" si="9"/>
+        <v>engenharia</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="10"/>
+        <v>engenharia</v>
+      </c>
+      <c r="Y187">
         <v>1</v>
       </c>
-      <c r="AA186">
-        <f t="shared" si="2"/>
+      <c r="AE187">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A187" s="7" t="s">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="V187">
+      <c r="D188" t="str">
+        <f t="shared" si="9"/>
+        <v>saude</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="10"/>
+        <v>saude</v>
+      </c>
+      <c r="Z188">
         <v>1</v>
       </c>
-      <c r="AA187">
-        <f t="shared" si="2"/>
+      <c r="AE188">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
         <v>1619</v>
       </c>
-      <c r="V188">
+      <c r="D189" t="str">
+        <f t="shared" si="9"/>
+        <v>saude</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="10"/>
+        <v>saude</v>
+      </c>
+      <c r="Z189">
         <v>1</v>
       </c>
-      <c r="AA188">
-        <f t="shared" si="2"/>
+      <c r="AE189">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
         <v>2693</v>
       </c>
-      <c r="V189">
+      <c r="D190" t="str">
+        <f t="shared" si="9"/>
+        <v>saude</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="10"/>
+        <v>saude</v>
+      </c>
+      <c r="Z190">
         <v>1</v>
       </c>
-      <c r="AA189">
-        <f t="shared" si="2"/>
+      <c r="AE190">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="W191">
+      <c r="D191" t="str">
+        <f t="shared" si="9"/>
+        <v>litoral</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="10"/>
+        <v>litoral</v>
+      </c>
+      <c r="AA191">
         <v>1</v>
       </c>
-      <c r="AA191">
-        <f t="shared" si="2"/>
+      <c r="AE191">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>2694</v>
       </c>
-      <c r="X192">
+      <c r="D192" t="str">
+        <f t="shared" si="9"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="AB192">
         <v>1</v>
       </c>
-      <c r="AA192">
-        <f t="shared" si="2"/>
+      <c r="AE192">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>1571</v>
       </c>
-      <c r="X193">
+      <c r="D193" t="str">
+        <f t="shared" si="9"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="AB193">
         <v>1</v>
       </c>
-      <c r="AA193">
-        <f t="shared" si="2"/>
+      <c r="AE193">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>2695</v>
       </c>
-      <c r="X194">
+      <c r="D194" t="str">
+        <f t="shared" si="9"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="AB194">
         <v>1</v>
       </c>
-      <c r="AA194">
-        <f t="shared" si="2"/>
+      <c r="AE194">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="X195">
+      <c r="D195" t="str">
+        <f t="shared" si="9"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="AB195">
         <v>1</v>
       </c>
-      <c r="AA195">
-        <f t="shared" si="2"/>
+      <c r="AE195">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>2696</v>
       </c>
-      <c r="X196">
+      <c r="D196" t="str">
+        <f t="shared" si="9"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="AB196">
         <v>1</v>
       </c>
-      <c r="AA196">
-        <f t="shared" ref="AA196:AA259" si="3">IF(SUM(F196:Z196)=0,"",SUM(F196:Z196))</f>
+      <c r="AE196">
+        <f t="shared" ref="AE196:AE259" si="11">IF(SUM(J196:AD196)=0,"",SUM(J196:AD196))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>1846</v>
       </c>
-      <c r="Y197">
+      <c r="D197" t="str">
+        <f t="shared" si="9"/>
+        <v>geologia</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="10"/>
+        <v>geologia</v>
+      </c>
+      <c r="AC197">
         <v>1</v>
       </c>
-      <c r="AA197">
-        <f t="shared" si="3"/>
+      <c r="AE197">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>2637</v>
       </c>
-      <c r="Z198">
+      <c r="D198" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD198">
         <v>1</v>
       </c>
-      <c r="AA198">
-        <f t="shared" si="3"/>
+      <c r="AE198">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>2638</v>
       </c>
-      <c r="Z199">
+      <c r="D199" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD199">
         <v>1</v>
       </c>
-      <c r="AA199">
-        <f t="shared" si="3"/>
+      <c r="AE199">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>2639</v>
       </c>
-      <c r="Z200">
+      <c r="D200" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD200">
         <v>1</v>
       </c>
-      <c r="AA200">
-        <f t="shared" si="3"/>
+      <c r="AE200">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>2640</v>
       </c>
-      <c r="Z201">
+      <c r="D201" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD201">
         <v>1</v>
       </c>
-      <c r="AA201">
-        <f t="shared" si="3"/>
+      <c r="AE201">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>2643</v>
       </c>
-      <c r="Z202">
+      <c r="D202" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD202">
         <v>1</v>
       </c>
-      <c r="AA202">
-        <f t="shared" si="3"/>
+      <c r="AE202">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>2644</v>
       </c>
-      <c r="Z203">
+      <c r="D203" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD203">
         <v>1</v>
       </c>
-      <c r="AA203">
-        <f t="shared" si="3"/>
+      <c r="AE203">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>2641</v>
       </c>
-      <c r="Z204">
+      <c r="D204" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD204">
         <v>1</v>
       </c>
-      <c r="AA204">
-        <f t="shared" si="3"/>
+      <c r="AE204">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>2642</v>
       </c>
@@ -44790,27 +46745,43 @@
       <c r="C205" s="10" t="s">
         <v>2752</v>
       </c>
-      <c r="Z205">
+      <c r="D205" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD205">
         <v>1</v>
       </c>
-      <c r="AA205">
-        <f t="shared" si="3"/>
+      <c r="AE205">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>2646</v>
       </c>
-      <c r="Z206">
+      <c r="D206" t="str">
+        <f t="shared" si="9"/>
+        <v>extra</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="AD206">
         <v>1</v>
       </c>
-      <c r="AA206">
-        <f t="shared" si="3"/>
+      <c r="AE206">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>2729</v>
       </c>
@@ -44820,15 +46791,23 @@
       <c r="C207" t="s">
         <v>2734</v>
       </c>
-      <c r="Z207">
+      <c r="D207" t="str">
+        <f t="shared" ref="D207:D208" si="12">IF(AND(ISBLANK(F207),ISBLANK(G207),ISBLANK(H207)), E207, _xlfn.CONCAT(E207,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F207),"",_xlfn.CONCAT(F207,"-")),IF(ISBLANK(G207),"",_xlfn.CONCAT(G207,"-")),IF(ISBLANK(H207),"",_xlfn.CONCAT(H207,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>extra</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" ref="E207:E208" si="13">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J207=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K207=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L207=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M207=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N207=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O207=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P207=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q207=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R207=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S207=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T207=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U207=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V207=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W207=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X207=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y207=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z207=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA207=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB207=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC207=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD207=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>extra</v>
+      </c>
+      <c r="AD207">
         <v>1</v>
       </c>
-      <c r="AA207">
-        <f t="shared" si="3"/>
+      <c r="AE207">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>2730</v>
       </c>
@@ -44838,1784 +46817,1788 @@
       <c r="C208" t="s">
         <v>2732</v>
       </c>
-      <c r="Z208">
+      <c r="D208" t="str">
+        <f t="shared" si="12"/>
+        <v>extra</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="13"/>
+        <v>extra</v>
+      </c>
+      <c r="AD208">
         <v>1</v>
       </c>
-      <c r="AA208">
-        <f t="shared" si="3"/>
+      <c r="AE208">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA209" t="str">
-        <f t="shared" si="3"/>
+    <row r="209" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE209" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA210" t="str">
-        <f t="shared" si="3"/>
+    <row r="210" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE210" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA211" t="str">
-        <f t="shared" si="3"/>
+    <row r="211" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE211" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA212" t="str">
-        <f t="shared" si="3"/>
+    <row r="212" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE212" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA213" t="str">
-        <f t="shared" si="3"/>
+    <row r="213" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE213" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA214" t="str">
-        <f t="shared" si="3"/>
+    <row r="214" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE214" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA215" t="str">
-        <f t="shared" si="3"/>
+    <row r="215" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE215" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA216" t="str">
-        <f t="shared" si="3"/>
+    <row r="216" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE216" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA217" t="str">
-        <f t="shared" si="3"/>
+    <row r="217" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE217" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA218" t="str">
-        <f t="shared" si="3"/>
+    <row r="218" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE218" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA219" t="str">
-        <f t="shared" si="3"/>
+    <row r="219" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE219" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA220" t="str">
-        <f t="shared" si="3"/>
+    <row r="220" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE220" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA221" t="str">
-        <f t="shared" si="3"/>
+    <row r="221" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE221" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA222" t="str">
-        <f t="shared" si="3"/>
+    <row r="222" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE222" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA223" t="str">
-        <f t="shared" si="3"/>
+    <row r="223" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE223" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA224" t="str">
-        <f t="shared" si="3"/>
+    <row r="224" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE224" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA225" t="str">
-        <f t="shared" si="3"/>
+    <row r="225" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE225" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA226" t="str">
-        <f t="shared" si="3"/>
+    <row r="226" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE226" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA227" t="str">
-        <f t="shared" si="3"/>
+    <row r="227" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE227" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA228" t="str">
-        <f t="shared" si="3"/>
+    <row r="228" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE228" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA229" t="str">
-        <f t="shared" si="3"/>
+    <row r="229" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE229" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA230" t="str">
-        <f t="shared" si="3"/>
+    <row r="230" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE230" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA231" t="str">
-        <f t="shared" si="3"/>
+    <row r="231" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE231" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA232" t="str">
-        <f t="shared" si="3"/>
+    <row r="232" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE232" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA233" t="str">
-        <f t="shared" si="3"/>
+    <row r="233" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE233" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA234" t="str">
-        <f t="shared" si="3"/>
+    <row r="234" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE234" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA235" t="str">
-        <f t="shared" si="3"/>
+    <row r="235" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE235" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA236" t="str">
-        <f t="shared" si="3"/>
+    <row r="236" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE236" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA237" t="str">
-        <f t="shared" si="3"/>
+    <row r="237" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE237" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA238" t="str">
-        <f t="shared" si="3"/>
+    <row r="238" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE238" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA239" t="str">
-        <f t="shared" si="3"/>
+    <row r="239" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE239" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA240" t="str">
-        <f t="shared" si="3"/>
+    <row r="240" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE240" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA241" t="str">
-        <f t="shared" si="3"/>
+    <row r="241" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE241" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA242" t="str">
-        <f t="shared" si="3"/>
+    <row r="242" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE242" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA243" t="str">
-        <f t="shared" si="3"/>
+    <row r="243" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE243" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA244" t="str">
-        <f t="shared" si="3"/>
+    <row r="244" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE244" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA245" t="str">
-        <f t="shared" si="3"/>
+    <row r="245" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE245" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA246" t="str">
-        <f t="shared" si="3"/>
+    <row r="246" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE246" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA247" t="str">
-        <f t="shared" si="3"/>
+    <row r="247" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE247" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA248" t="str">
-        <f t="shared" si="3"/>
+    <row r="248" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE248" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA249" t="str">
-        <f t="shared" si="3"/>
+    <row r="249" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE249" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA250" t="str">
-        <f t="shared" si="3"/>
+    <row r="250" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE250" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA251" t="str">
-        <f t="shared" si="3"/>
+    <row r="251" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE251" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA252" t="str">
-        <f t="shared" si="3"/>
+    <row r="252" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE252" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA253" t="str">
-        <f t="shared" si="3"/>
+    <row r="253" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE253" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA254" t="str">
-        <f t="shared" si="3"/>
+    <row r="254" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE254" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA255" t="str">
-        <f t="shared" si="3"/>
+    <row r="255" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE255" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA256" t="str">
-        <f t="shared" si="3"/>
+    <row r="256" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE256" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA257" t="str">
-        <f t="shared" si="3"/>
+    <row r="257" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE257" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA258" t="str">
-        <f t="shared" si="3"/>
+    <row r="258" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE258" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA259" t="str">
-        <f t="shared" si="3"/>
+    <row r="259" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE259" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA260" t="str">
-        <f t="shared" ref="AA260:AA323" si="4">IF(SUM(F260:Z260)=0,"",SUM(F260:Z260))</f>
+    <row r="260" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE260" t="str">
+        <f t="shared" ref="AE260:AE323" si="14">IF(SUM(J260:AD260)=0,"",SUM(J260:AD260))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA261" t="str">
-        <f t="shared" si="4"/>
+    <row r="261" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE261" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA262" t="str">
-        <f t="shared" si="4"/>
+    <row r="262" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE262" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA263" t="str">
-        <f t="shared" si="4"/>
+    <row r="263" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE263" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA264" t="str">
-        <f t="shared" si="4"/>
+    <row r="264" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE264" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA265" t="str">
-        <f t="shared" si="4"/>
+    <row r="265" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE265" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA266" t="str">
-        <f t="shared" si="4"/>
+    <row r="266" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE266" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA267" t="str">
-        <f t="shared" si="4"/>
+    <row r="267" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE267" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA268" t="str">
-        <f t="shared" si="4"/>
+    <row r="268" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE268" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA269" t="str">
-        <f t="shared" si="4"/>
+    <row r="269" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE269" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA270" t="str">
-        <f t="shared" si="4"/>
+    <row r="270" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE270" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA271" t="str">
-        <f t="shared" si="4"/>
+    <row r="271" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE271" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA272" t="str">
-        <f t="shared" si="4"/>
+    <row r="272" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE272" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA273" t="str">
-        <f t="shared" si="4"/>
+    <row r="273" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE273" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA274" t="str">
-        <f t="shared" si="4"/>
+    <row r="274" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE274" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA275" t="str">
-        <f t="shared" si="4"/>
+    <row r="275" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE275" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA276" t="str">
-        <f t="shared" si="4"/>
+    <row r="276" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE276" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA277" t="str">
-        <f t="shared" si="4"/>
+    <row r="277" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE277" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA278" t="str">
-        <f t="shared" si="4"/>
+    <row r="278" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE278" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA279" t="str">
-        <f t="shared" si="4"/>
+    <row r="279" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE279" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA280" t="str">
-        <f t="shared" si="4"/>
+    <row r="280" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE280" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA281" t="str">
-        <f t="shared" si="4"/>
+    <row r="281" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE281" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA282" t="str">
-        <f t="shared" si="4"/>
+    <row r="282" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE282" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA283" t="str">
-        <f t="shared" si="4"/>
+    <row r="283" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE283" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA284" t="str">
-        <f t="shared" si="4"/>
+    <row r="284" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE284" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA285" t="str">
-        <f t="shared" si="4"/>
+    <row r="285" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE285" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA286" t="str">
-        <f t="shared" si="4"/>
+    <row r="286" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE286" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA287" t="str">
-        <f t="shared" si="4"/>
+    <row r="287" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE287" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA288" t="str">
-        <f t="shared" si="4"/>
+    <row r="288" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE288" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA289" t="str">
-        <f t="shared" si="4"/>
+    <row r="289" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE289" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA290" t="str">
-        <f t="shared" si="4"/>
+    <row r="290" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE290" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA291" t="str">
-        <f t="shared" si="4"/>
+    <row r="291" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE291" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA292" t="str">
-        <f t="shared" si="4"/>
+    <row r="292" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE292" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA293" t="str">
-        <f t="shared" si="4"/>
+    <row r="293" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE293" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA294" t="str">
-        <f t="shared" si="4"/>
+    <row r="294" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE294" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA295" t="str">
-        <f t="shared" si="4"/>
+    <row r="295" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE295" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA296" t="str">
-        <f t="shared" si="4"/>
+    <row r="296" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE296" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA297" t="str">
-        <f t="shared" si="4"/>
+    <row r="297" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE297" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA298" t="str">
-        <f t="shared" si="4"/>
+    <row r="298" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE298" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA299" t="str">
-        <f t="shared" si="4"/>
+    <row r="299" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE299" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA300" t="str">
-        <f t="shared" si="4"/>
+    <row r="300" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE300" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA301" t="str">
-        <f t="shared" si="4"/>
+    <row r="301" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE301" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA302" t="str">
-        <f t="shared" si="4"/>
+    <row r="302" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE302" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA303" t="str">
-        <f t="shared" si="4"/>
+    <row r="303" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE303" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA304" t="str">
-        <f t="shared" si="4"/>
+    <row r="304" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE304" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA305" t="str">
-        <f t="shared" si="4"/>
+    <row r="305" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE305" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA306" t="str">
-        <f t="shared" si="4"/>
+    <row r="306" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE306" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA307" t="str">
-        <f t="shared" si="4"/>
+    <row r="307" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE307" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA308" t="str">
-        <f t="shared" si="4"/>
+    <row r="308" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE308" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA309" t="str">
-        <f t="shared" si="4"/>
+    <row r="309" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE309" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA310" t="str">
-        <f t="shared" si="4"/>
+    <row r="310" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE310" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA311" t="str">
-        <f t="shared" si="4"/>
+    <row r="311" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE311" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA312" t="str">
-        <f t="shared" si="4"/>
+    <row r="312" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE312" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA313" t="str">
-        <f t="shared" si="4"/>
+    <row r="313" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE313" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA314" t="str">
-        <f t="shared" si="4"/>
+    <row r="314" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE314" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA315" t="str">
-        <f t="shared" si="4"/>
+    <row r="315" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE315" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA316" t="str">
-        <f t="shared" si="4"/>
+    <row r="316" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE316" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA317" t="str">
-        <f t="shared" si="4"/>
+    <row r="317" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE317" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA318" t="str">
-        <f t="shared" si="4"/>
+    <row r="318" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE318" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA319" t="str">
-        <f t="shared" si="4"/>
+    <row r="319" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE319" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA320" t="str">
-        <f t="shared" si="4"/>
+    <row r="320" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE320" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA321" t="str">
-        <f t="shared" si="4"/>
+    <row r="321" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE321" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA322" t="str">
-        <f t="shared" si="4"/>
+    <row r="322" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE322" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA323" t="str">
-        <f t="shared" si="4"/>
+    <row r="323" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE323" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA324" t="str">
-        <f t="shared" ref="AA324:AA387" si="5">IF(SUM(F324:Z324)=0,"",SUM(F324:Z324))</f>
+    <row r="324" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE324" t="str">
+        <f t="shared" ref="AE324:AE387" si="15">IF(SUM(J324:AD324)=0,"",SUM(J324:AD324))</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA325" t="str">
-        <f t="shared" si="5"/>
+    <row r="325" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE325" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA326" t="str">
-        <f t="shared" si="5"/>
+    <row r="326" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE326" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA327" t="str">
-        <f t="shared" si="5"/>
+    <row r="327" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE327" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA328" t="str">
-        <f t="shared" si="5"/>
+    <row r="328" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE328" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA329" t="str">
-        <f t="shared" si="5"/>
+    <row r="329" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE329" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA330" t="str">
-        <f t="shared" si="5"/>
+    <row r="330" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE330" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA331" t="str">
-        <f t="shared" si="5"/>
+    <row r="331" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE331" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA332" t="str">
-        <f t="shared" si="5"/>
+    <row r="332" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE332" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA333" t="str">
-        <f t="shared" si="5"/>
+    <row r="333" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE333" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA334" t="str">
-        <f t="shared" si="5"/>
+    <row r="334" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE334" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA335" t="str">
-        <f t="shared" si="5"/>
+    <row r="335" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE335" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA336" t="str">
-        <f t="shared" si="5"/>
+    <row r="336" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE336" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA337" t="str">
-        <f t="shared" si="5"/>
+    <row r="337" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE337" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA338" t="str">
-        <f t="shared" si="5"/>
+    <row r="338" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE338" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA339" t="str">
-        <f t="shared" si="5"/>
+    <row r="339" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE339" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA340" t="str">
-        <f t="shared" si="5"/>
+    <row r="340" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE340" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA341" t="str">
-        <f t="shared" si="5"/>
+    <row r="341" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE341" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA342" t="str">
-        <f t="shared" si="5"/>
+    <row r="342" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE342" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA343" t="str">
-        <f t="shared" si="5"/>
+    <row r="343" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE343" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA344" t="str">
-        <f t="shared" si="5"/>
+    <row r="344" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE344" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA345" t="str">
-        <f t="shared" si="5"/>
+    <row r="345" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE345" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA346" t="str">
-        <f t="shared" si="5"/>
+    <row r="346" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE346" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA347" t="str">
-        <f t="shared" si="5"/>
+    <row r="347" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE347" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA348" t="str">
-        <f t="shared" si="5"/>
+    <row r="348" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE348" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA349" t="str">
-        <f t="shared" si="5"/>
+    <row r="349" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE349" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA350" t="str">
-        <f t="shared" si="5"/>
+    <row r="350" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE350" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA351" t="str">
-        <f t="shared" si="5"/>
+    <row r="351" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE351" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA352" t="str">
-        <f t="shared" si="5"/>
+    <row r="352" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE352" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA353" t="str">
-        <f t="shared" si="5"/>
+    <row r="353" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE353" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA354" t="str">
-        <f t="shared" si="5"/>
+    <row r="354" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE354" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA355" t="str">
-        <f t="shared" si="5"/>
+    <row r="355" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE355" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA356" t="str">
-        <f t="shared" si="5"/>
+    <row r="356" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE356" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA357" t="str">
-        <f t="shared" si="5"/>
+    <row r="357" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE357" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA358" t="str">
-        <f t="shared" si="5"/>
+    <row r="358" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE358" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA359" t="str">
-        <f t="shared" si="5"/>
+    <row r="359" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE359" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA360" t="str">
-        <f t="shared" si="5"/>
+    <row r="360" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE360" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA361" t="str">
-        <f t="shared" si="5"/>
+    <row r="361" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE361" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA362" t="str">
-        <f t="shared" si="5"/>
+    <row r="362" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE362" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA363" t="str">
-        <f t="shared" si="5"/>
+    <row r="363" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE363" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA364" t="str">
-        <f t="shared" si="5"/>
+    <row r="364" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE364" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA365" t="str">
-        <f t="shared" si="5"/>
+    <row r="365" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE365" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA366" t="str">
-        <f t="shared" si="5"/>
+    <row r="366" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE366" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA367" t="str">
-        <f t="shared" si="5"/>
+    <row r="367" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE367" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA368" t="str">
-        <f t="shared" si="5"/>
+    <row r="368" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE368" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA369" t="str">
-        <f t="shared" si="5"/>
+    <row r="369" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE369" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA370" t="str">
-        <f t="shared" si="5"/>
+    <row r="370" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE370" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA371" t="str">
-        <f t="shared" si="5"/>
+    <row r="371" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE371" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA372" t="str">
-        <f t="shared" si="5"/>
+    <row r="372" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE372" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA373" t="str">
-        <f t="shared" si="5"/>
+    <row r="373" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE373" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA374" t="str">
-        <f t="shared" si="5"/>
+    <row r="374" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE374" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA375" t="str">
-        <f t="shared" si="5"/>
+    <row r="375" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE375" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA376" t="str">
-        <f t="shared" si="5"/>
+    <row r="376" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE376" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA377" t="str">
-        <f t="shared" si="5"/>
+    <row r="377" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE377" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA378" t="str">
-        <f t="shared" si="5"/>
+    <row r="378" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE378" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA379" t="str">
-        <f t="shared" si="5"/>
+    <row r="379" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE379" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA380" t="str">
-        <f t="shared" si="5"/>
+    <row r="380" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE380" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA381" t="str">
-        <f t="shared" si="5"/>
+    <row r="381" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE381" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA382" t="str">
-        <f t="shared" si="5"/>
+    <row r="382" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE382" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA383" t="str">
-        <f t="shared" si="5"/>
+    <row r="383" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE383" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA384" t="str">
-        <f t="shared" si="5"/>
+    <row r="384" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE384" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA385" t="str">
-        <f t="shared" si="5"/>
+    <row r="385" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE385" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA386" t="str">
-        <f t="shared" si="5"/>
+    <row r="386" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE386" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA387" t="str">
-        <f t="shared" si="5"/>
+    <row r="387" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE387" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA388" t="str">
-        <f t="shared" ref="AA388:AA451" si="6">IF(SUM(F388:Z388)=0,"",SUM(F388:Z388))</f>
+    <row r="388" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE388" t="str">
+        <f t="shared" ref="AE388:AE451" si="16">IF(SUM(J388:AD388)=0,"",SUM(J388:AD388))</f>
         <v/>
       </c>
     </row>
-    <row r="389" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA389" t="str">
-        <f t="shared" si="6"/>
+    <row r="389" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE389" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA390" t="str">
-        <f t="shared" si="6"/>
+    <row r="390" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE390" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA391" t="str">
-        <f t="shared" si="6"/>
+    <row r="391" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE391" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA392" t="str">
-        <f t="shared" si="6"/>
+    <row r="392" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE392" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA393" t="str">
-        <f t="shared" si="6"/>
+    <row r="393" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE393" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA394" t="str">
-        <f t="shared" si="6"/>
+    <row r="394" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE394" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA395" t="str">
-        <f t="shared" si="6"/>
+    <row r="395" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE395" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA396" t="str">
-        <f t="shared" si="6"/>
+    <row r="396" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE396" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA397" t="str">
-        <f t="shared" si="6"/>
+    <row r="397" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE397" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA398" t="str">
-        <f t="shared" si="6"/>
+    <row r="398" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE398" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA399" t="str">
-        <f t="shared" si="6"/>
+    <row r="399" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE399" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA400" t="str">
-        <f t="shared" si="6"/>
+    <row r="400" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE400" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA401" t="str">
-        <f t="shared" si="6"/>
+    <row r="401" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE401" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA402" t="str">
-        <f t="shared" si="6"/>
+    <row r="402" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE402" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA403" t="str">
-        <f t="shared" si="6"/>
+    <row r="403" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE403" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA404" t="str">
-        <f t="shared" si="6"/>
+    <row r="404" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE404" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA405" t="str">
-        <f t="shared" si="6"/>
+    <row r="405" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE405" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA406" t="str">
-        <f t="shared" si="6"/>
+    <row r="406" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE406" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA407" t="str">
-        <f t="shared" si="6"/>
+    <row r="407" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE407" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA408" t="str">
-        <f t="shared" si="6"/>
+    <row r="408" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE408" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA409" t="str">
-        <f t="shared" si="6"/>
+    <row r="409" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE409" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA410" t="str">
-        <f t="shared" si="6"/>
+    <row r="410" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE410" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA411" t="str">
-        <f t="shared" si="6"/>
+    <row r="411" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE411" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA412" t="str">
-        <f t="shared" si="6"/>
+    <row r="412" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE412" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA413" t="str">
-        <f t="shared" si="6"/>
+    <row r="413" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE413" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA414" t="str">
-        <f t="shared" si="6"/>
+    <row r="414" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE414" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA415" t="str">
-        <f t="shared" si="6"/>
+    <row r="415" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE415" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA416" t="str">
-        <f t="shared" si="6"/>
+    <row r="416" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE416" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA417" t="str">
-        <f t="shared" si="6"/>
+    <row r="417" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE417" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA418" t="str">
-        <f t="shared" si="6"/>
+    <row r="418" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE418" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA419" t="str">
-        <f t="shared" si="6"/>
+    <row r="419" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE419" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA420" t="str">
-        <f t="shared" si="6"/>
+    <row r="420" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE420" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA421" t="str">
-        <f t="shared" si="6"/>
+    <row r="421" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE421" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA422" t="str">
-        <f t="shared" si="6"/>
+    <row r="422" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE422" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA423" t="str">
-        <f t="shared" si="6"/>
+    <row r="423" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE423" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA424" t="str">
-        <f t="shared" si="6"/>
+    <row r="424" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE424" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA425" t="str">
-        <f t="shared" si="6"/>
+    <row r="425" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE425" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA426" t="str">
-        <f t="shared" si="6"/>
+    <row r="426" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE426" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA427" t="str">
-        <f t="shared" si="6"/>
+    <row r="427" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE427" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA428" t="str">
-        <f t="shared" si="6"/>
+    <row r="428" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE428" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA429" t="str">
-        <f t="shared" si="6"/>
+    <row r="429" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE429" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA430" t="str">
-        <f t="shared" si="6"/>
+    <row r="430" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE430" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA431" t="str">
-        <f t="shared" si="6"/>
+    <row r="431" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE431" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA432" t="str">
-        <f t="shared" si="6"/>
+    <row r="432" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE432" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA433" t="str">
-        <f t="shared" si="6"/>
+    <row r="433" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE433" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA434" t="str">
-        <f t="shared" si="6"/>
+    <row r="434" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE434" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA435" t="str">
-        <f t="shared" si="6"/>
+    <row r="435" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE435" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA436" t="str">
-        <f t="shared" si="6"/>
+    <row r="436" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE436" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA437" t="str">
-        <f t="shared" si="6"/>
+    <row r="437" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE437" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA438" t="str">
-        <f t="shared" si="6"/>
+    <row r="438" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE438" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA439" t="str">
-        <f t="shared" si="6"/>
+    <row r="439" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE439" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA440" t="str">
-        <f t="shared" si="6"/>
+    <row r="440" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE440" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA441" t="str">
-        <f t="shared" si="6"/>
+    <row r="441" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE441" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA442" t="str">
-        <f t="shared" si="6"/>
+    <row r="442" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE442" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA443" t="str">
-        <f t="shared" si="6"/>
+    <row r="443" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE443" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA444" t="str">
-        <f t="shared" si="6"/>
+    <row r="444" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE444" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA445" t="str">
-        <f t="shared" si="6"/>
+    <row r="445" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE445" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA446" t="str">
-        <f t="shared" si="6"/>
+    <row r="446" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE446" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA447" t="str">
-        <f t="shared" si="6"/>
+    <row r="447" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE447" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA448" t="str">
-        <f t="shared" si="6"/>
+    <row r="448" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE448" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA449" t="str">
-        <f t="shared" si="6"/>
+    <row r="449" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE449" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA450" t="str">
-        <f t="shared" si="6"/>
+    <row r="450" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE450" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA451" t="str">
-        <f t="shared" si="6"/>
+    <row r="451" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE451" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA452" t="str">
-        <f t="shared" ref="AA452:AA501" si="7">IF(SUM(F452:Z452)=0,"",SUM(F452:Z452))</f>
+    <row r="452" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE452" t="str">
+        <f t="shared" ref="AE452:AE501" si="17">IF(SUM(J452:AD452)=0,"",SUM(J452:AD452))</f>
         <v/>
       </c>
     </row>
-    <row r="453" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA453" t="str">
-        <f t="shared" si="7"/>
+    <row r="453" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE453" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA454" t="str">
-        <f t="shared" si="7"/>
+    <row r="454" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE454" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA455" t="str">
-        <f t="shared" si="7"/>
+    <row r="455" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE455" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA456" t="str">
-        <f t="shared" si="7"/>
+    <row r="456" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE456" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA457" t="str">
-        <f t="shared" si="7"/>
+    <row r="457" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE457" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA458" t="str">
-        <f t="shared" si="7"/>
+    <row r="458" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE458" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA459" t="str">
-        <f t="shared" si="7"/>
+    <row r="459" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE459" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA460" t="str">
-        <f t="shared" si="7"/>
+    <row r="460" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE460" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA461" t="str">
-        <f t="shared" si="7"/>
+    <row r="461" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE461" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA462" t="str">
-        <f t="shared" si="7"/>
+    <row r="462" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE462" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA463" t="str">
-        <f t="shared" si="7"/>
+    <row r="463" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE463" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA464" t="str">
-        <f t="shared" si="7"/>
+    <row r="464" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE464" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA465" t="str">
-        <f t="shared" si="7"/>
+    <row r="465" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE465" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA466" t="str">
-        <f t="shared" si="7"/>
+    <row r="466" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE466" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA467" t="str">
-        <f t="shared" si="7"/>
+    <row r="467" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE467" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA468" t="str">
-        <f t="shared" si="7"/>
+    <row r="468" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE468" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA469" t="str">
-        <f t="shared" si="7"/>
+    <row r="469" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE469" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA470" t="str">
-        <f t="shared" si="7"/>
+    <row r="470" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE470" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA471" t="str">
-        <f t="shared" si="7"/>
+    <row r="471" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE471" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA472" t="str">
-        <f t="shared" si="7"/>
+    <row r="472" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE472" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA473" t="str">
-        <f t="shared" si="7"/>
+    <row r="473" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE473" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA474" t="str">
-        <f t="shared" si="7"/>
+    <row r="474" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE474" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA475" t="str">
-        <f t="shared" si="7"/>
+    <row r="475" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE475" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA476" t="str">
-        <f t="shared" si="7"/>
+    <row r="476" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE476" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA477" t="str">
-        <f t="shared" si="7"/>
+    <row r="477" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE477" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA478" t="str">
-        <f t="shared" si="7"/>
+    <row r="478" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE478" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA479" t="str">
-        <f t="shared" si="7"/>
+    <row r="479" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE479" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA480" t="str">
-        <f t="shared" si="7"/>
+    <row r="480" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE480" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA481" t="str">
-        <f t="shared" si="7"/>
+    <row r="481" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE481" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA482" t="str">
-        <f t="shared" si="7"/>
+    <row r="482" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE482" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA483" t="str">
-        <f t="shared" si="7"/>
+    <row r="483" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE483" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA484" t="str">
-        <f t="shared" si="7"/>
+    <row r="484" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE484" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA485" t="str">
-        <f t="shared" si="7"/>
+    <row r="485" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE485" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA486" t="str">
-        <f t="shared" si="7"/>
+    <row r="486" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE486" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA487" t="str">
-        <f t="shared" si="7"/>
+    <row r="487" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE487" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA488" t="str">
-        <f t="shared" si="7"/>
+    <row r="488" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE488" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA489" t="str">
-        <f t="shared" si="7"/>
+    <row r="489" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE489" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA490" t="str">
-        <f t="shared" si="7"/>
+    <row r="490" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE490" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA491" t="str">
-        <f t="shared" si="7"/>
+    <row r="491" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE491" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA492" t="str">
-        <f t="shared" si="7"/>
+    <row r="492" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE492" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA493" t="str">
-        <f t="shared" si="7"/>
+    <row r="493" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE493" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA494" t="str">
-        <f t="shared" si="7"/>
+    <row r="494" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE494" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA495" t="str">
-        <f t="shared" si="7"/>
+    <row r="495" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE495" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA496" t="str">
-        <f t="shared" si="7"/>
+    <row r="496" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE496" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA497" t="str">
-        <f t="shared" si="7"/>
+    <row r="497" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE497" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA498" t="str">
-        <f t="shared" si="7"/>
+    <row r="498" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE498" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA499" t="str">
-        <f t="shared" si="7"/>
+    <row r="499" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE499" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA500" t="str">
-        <f t="shared" si="7"/>
+    <row r="500" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE500" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA501" t="str">
-        <f t="shared" si="7"/>
+    <row r="501" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE501" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A187:Z208">
-    <sortCondition descending="1" ref="V187:V208"/>
+  <autoFilter ref="B1:B501" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A188:AD208">
+    <sortCondition descending="1" ref="Z188:Z208"/>
   </sortState>
-  <conditionalFormatting sqref="F191:Z518 F131:Z189 F2:Z128">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(OR($AA2="", $AA2=0), NOT(ISBLANK($A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F129:Z130">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(OR($AA129="", $AA129=0), NOT(ISBLANK($A129)))</formula>
+  <conditionalFormatting sqref="J2:AD518">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(OR($AE2="", $AE2=0), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675A2ED-6331-420D-83C3-0657E4ABBEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C6D97-5AE1-41F4-AA06-91133E93A136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="programas" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$B$1:$B$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$1:$AE$502</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8820" uniqueCount="2885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="2927">
   <si>
     <t>query</t>
   </si>
@@ -8349,9 +8349,6 @@
     <t>O que é uma cnida?</t>
   </si>
   <si>
-    <t>Cnida é uma cápsula que contém toxinas paralizantes que são ejetadas ao contato, tais como tetramina, histamina e serotonina.</t>
-  </si>
-  <si>
     <t>https://pt.wikipedia.org/wiki/Nematocisto</t>
   </si>
   <si>
@@ -8595,9 +8592,6 @@
     <t>branqueamento</t>
   </si>
   <si>
-    <t>definicao</t>
-  </si>
-  <si>
     <t>efeito</t>
   </si>
   <si>
@@ -8646,9 +8640,6 @@
     <t>iniciativas</t>
   </si>
   <si>
-    <t>funcionamento</t>
-  </si>
-  <si>
     <t>empresa</t>
   </si>
   <si>
@@ -8676,6 +8667,9 @@
     <t>Qual é a maior reserva de petróleo no Brasil?</t>
   </si>
   <si>
+    <t>peso</t>
+  </si>
+  <si>
     <t>jabuti</t>
   </si>
   <si>
@@ -8695,6 +8689,138 @@
   </si>
   <si>
     <t>rótulos</t>
+  </si>
+  <si>
+    <t>cagado</t>
+  </si>
+  <si>
+    <t>extincao</t>
+  </si>
+  <si>
+    <t>motivo</t>
+  </si>
+  <si>
+    <t>ciclo-de-vida</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>geral</t>
+  </si>
+  <si>
+    <t>definir</t>
+  </si>
+  <si>
+    <t>alga</t>
+  </si>
+  <si>
+    <t>marinho</t>
+  </si>
+  <si>
+    <t>liquen</t>
+  </si>
+  <si>
+    <t>polifiletico</t>
+  </si>
+  <si>
+    <t>polipo</t>
+  </si>
+  <si>
+    <t>medusa</t>
+  </si>
+  <si>
+    <t>peixe</t>
+  </si>
+  <si>
+    <t>salpa</t>
+  </si>
+  <si>
+    <t>hidra</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>tunicado</t>
+  </si>
+  <si>
+    <t>molusco</t>
+  </si>
+  <si>
+    <t>actinoperigeo</t>
+  </si>
+  <si>
+    <t>tubarao</t>
+  </si>
+  <si>
+    <t>existe</t>
+  </si>
+  <si>
+    <t>baleia</t>
+  </si>
+  <si>
+    <t>plancton</t>
+  </si>
+  <si>
+    <t>fitoplancton</t>
+  </si>
+  <si>
+    <t>zooplancton</t>
+  </si>
+  <si>
+    <t>anemona</t>
+  </si>
+  <si>
+    <t>filo</t>
+  </si>
+  <si>
+    <t>cnida</t>
+  </si>
+  <si>
+    <t>crustaceo</t>
+  </si>
+  <si>
+    <t>detalhar</t>
+  </si>
+  <si>
+    <t>cordado</t>
+  </si>
+  <si>
+    <t>O que são cordados?</t>
+  </si>
+  <si>
+    <t>cnidario</t>
+  </si>
+  <si>
+    <t>O que é um nematocisto?</t>
+  </si>
+  <si>
+    <t>Cnida (ou nematocisto) é uma cápsula que contém toxinas paralizantes que são ejetadas ao contato, tais como tetramina, histamina e serotonina.</t>
+  </si>
+  <si>
+    <t>Tubarão é peixe?</t>
+  </si>
+  <si>
+    <t>importancia</t>
+  </si>
+  <si>
+    <t>aaz</t>
+  </si>
+  <si>
+    <t>programas-de-protecao</t>
+  </si>
+  <si>
+    <t>Quais são os prós e contras da energia de maré?</t>
+  </si>
+  <si>
+    <t>Quais são os principais contras da energia de marés?</t>
+  </si>
+  <si>
+    <t>Quais são as vantagens da energia demarés?</t>
+  </si>
+  <si>
+    <t>O que é energia de maré?</t>
   </si>
 </sst>
 </file>
@@ -42059,10 +42185,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:AE501"/>
+  <dimension ref="A1:AE502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42093,16 +42220,16 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="F1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="G1" t="s">
         <v>2847</v>
       </c>
-      <c r="G1" t="s">
-        <v>2848</v>
-      </c>
       <c r="H1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
@@ -42184,9 +42311,9 @@
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2852</v>
-      </c>
-      <c r="H2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="G2" t="s">
         <v>2708</v>
       </c>
       <c r="J2">
@@ -42206,17 +42333,17 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D14" si="0">IF(AND(ISBLANK(F3),ISBLANK(G3),ISBLANK(H3)), E3, _xlfn.CONCAT(E3,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F3),"",_xlfn.CONCAT(F3,"-")),IF(ISBLANK(G3),"",_xlfn.CONCAT(G3,"-")),IF(ISBLANK(H3),"",_xlfn.CONCAT(H3,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>coral/definicao-recife</v>
+        <v>coral/definir-recife</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E14" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J3=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K3=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L3=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M3=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N3=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O3=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P3=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q3=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R3=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S3=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T3=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U3=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V3=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W3=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X3=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y3=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z3=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA3=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB3=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC3=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD3=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral</v>
       </c>
       <c r="F3" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G3" t="s">
         <v>2851</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2853</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -42231,18 +42358,21 @@
         <v>2596</v>
       </c>
       <c r="B4" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definicao</v>
+        <v>coral/definir-geral</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F4" t="s">
-        <v>2851</v>
+        <v>2889</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2888</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -42257,7 +42387,7 @@
         <v>2597</v>
       </c>
       <c r="B5" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -42268,7 +42398,7 @@
         <v>coral</v>
       </c>
       <c r="F5" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -42284,17 +42414,17 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definicao-branqueamento</v>
+        <v>coral/definir-branqueamento</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F6" t="s">
-        <v>2851</v>
+        <v>2889</v>
       </c>
       <c r="G6" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -42310,17 +42440,17 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definicao-recife</v>
+        <v>coral/definir-recife</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F7" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G7" t="s">
         <v>2851</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2853</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -42336,20 +42466,20 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>coral/listar-governo-iniciativas</v>
+        <v>coral/listar-iniciativas-governo</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F8" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2865</v>
+      </c>
+      <c r="H8" t="s">
         <v>2855</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2857</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2867</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -42372,10 +42502,10 @@
         <v>coral</v>
       </c>
       <c r="F9" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="G9" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -42398,10 +42528,10 @@
         <v>coral</v>
       </c>
       <c r="F10" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="H10" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -42417,17 +42547,17 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definicao-recife-artificial</v>
+        <v>coral/definir-recife-artificial</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F11" t="s">
-        <v>2851</v>
+        <v>2889</v>
       </c>
       <c r="G11" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -42450,13 +42580,13 @@
         <v>coral</v>
       </c>
       <c r="F12" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="G12" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="H12" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -42502,10 +42632,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F14" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="H14" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -42528,10 +42658,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F15" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="H15" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -42543,7 +42673,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1275</v>
+        <v>2923</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="3"/>
@@ -42554,10 +42684,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F16" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="G16" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -42569,7 +42699,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1363</v>
+        <v>2924</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="3"/>
@@ -42580,10 +42710,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F17" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="G17" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -42595,7 +42725,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1380</v>
+        <v>2925</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="3"/>
@@ -42606,10 +42736,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F18" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="G18" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -42632,7 +42762,7 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F19" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -42648,14 +42778,20 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="3"/>
-        <v>energia_de_mare/funcionamento</v>
+        <v>energia_de_mare/definir-geral</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="4"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F20" t="s">
-        <v>2868</v>
+        <v>2889</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2888</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2926</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -42678,10 +42814,10 @@
         <v>petroleo</v>
       </c>
       <c r="F21" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="G21" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -42810,13 +42946,13 @@
         <v>petroleo</v>
       </c>
       <c r="F27" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="G27" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="H27" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -42828,7 +42964,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="3"/>
@@ -42839,13 +42975,13 @@
         <v>petroleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="G28" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="H28" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -42874,13 +43010,13 @@
         <v>petroleo</v>
       </c>
       <c r="F29" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G29" t="s">
         <v>2870</v>
       </c>
-      <c r="G29" t="s">
-        <v>2873</v>
-      </c>
       <c r="H29" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -42909,13 +43045,13 @@
         <v>petroleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="G30" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="H30" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -42944,10 +43080,10 @@
         <v>petroleo</v>
       </c>
       <c r="F31" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="H31" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -42973,13 +43109,13 @@
         <v>petroleo</v>
       </c>
       <c r="F32" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="G32" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="H32" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -43114,7 +43250,7 @@
         <v>1559</v>
       </c>
       <c r="B39" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="3"/>
@@ -43125,7 +43261,7 @@
         <v>petroleo</v>
       </c>
       <c r="F39" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -43140,7 +43276,7 @@
         <v>2616</v>
       </c>
       <c r="B40" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="3"/>
@@ -43280,10 +43416,10 @@
         <v>petroleo</v>
       </c>
       <c r="F46" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="H46" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -43298,24 +43434,24 @@
         <v>2574</v>
       </c>
       <c r="B47" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="C47" t="s">
         <v>2701</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definicao-dieta</v>
+        <v>tartaruga/definir-dieta</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F47" t="s">
-        <v>2851</v>
+        <v>2889</v>
       </c>
       <c r="H47" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -43353,7 +43489,7 @@
         <v>2576</v>
       </c>
       <c r="B49" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="3"/>
@@ -43364,10 +43500,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F49" t="s">
-        <v>2855</v>
-      </c>
-      <c r="H49" t="s">
-        <v>2882</v>
+        <v>2853</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2880</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -43382,21 +43518,24 @@
         <v>2577</v>
       </c>
       <c r="B50" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/diferenca-jabuti</v>
+        <v>tartaruga/diferenca-jabuti-tartaruga</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F50" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="G50" t="s">
-        <v>2878</v>
+        <v>2876</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2711</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -43408,24 +43547,27 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B51" t="s">
         <v>2797</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2798</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/pertence-jabuti</v>
+        <v>tartaruga/pertence-jabuti-tartaruga</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F51" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="G51" t="s">
-        <v>2878</v>
+        <v>2876</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2711</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -43437,24 +43579,24 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B52" t="s">
         <v>2799</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2800</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definicao-quelonio</v>
+        <v>tartaruga/definir-quelonio</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F52" t="s">
-        <v>2851</v>
+        <v>2889</v>
       </c>
       <c r="G52" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -43469,21 +43611,21 @@
         <v>2578</v>
       </c>
       <c r="B53" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definicao-jabuti</v>
+        <v>tartaruga/definir-jabuti</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F53" t="s">
-        <v>2851</v>
+        <v>2889</v>
       </c>
       <c r="G53" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -43498,16 +43640,22 @@
         <v>2579</v>
       </c>
       <c r="B54" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/definir-cagado</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F54" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2883</v>
+      </c>
       <c r="M54">
         <v>1</v>
       </c>
@@ -43521,16 +43669,22 @@
         <v>2580</v>
       </c>
       <c r="B55" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/definir-geral</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F55" t="s">
+        <v>2889</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2888</v>
+      </c>
       <c r="M55">
         <v>1</v>
       </c>
@@ -43564,19 +43718,28 @@
         <v>2582</v>
       </c>
       <c r="B57" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C57" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/listar-especies-extincao</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F57" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2880</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2884</v>
+      </c>
       <c r="M57">
         <v>1</v>
       </c>
@@ -43587,21 +43750,27 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B58" t="s">
         <v>2844</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2845</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/motivo-extincao</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F58" t="s">
+        <v>2885</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2884</v>
+      </c>
       <c r="I58" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -43696,16 +43865,22 @@
         <v>2587</v>
       </c>
       <c r="B63" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/definir-ciclo-de-vida</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F63" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2886</v>
+      </c>
       <c r="M63">
         <v>1</v>
       </c>
@@ -43779,16 +43954,19 @@
         <v>2591</v>
       </c>
       <c r="B67" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/localizacao</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F67" t="s">
+        <v>2854</v>
+      </c>
       <c r="M67">
         <v>1</v>
       </c>
@@ -43849,12 +44027,18 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartaruga/definir-peso</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
+      <c r="F70" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2875</v>
+      </c>
       <c r="M70">
         <v>1</v>
       </c>
@@ -45051,7 +45235,7 @@
         <v>1</v>
       </c>
       <c r="AE129">
-        <f t="shared" ref="AE129:AE195" si="8">IF(SUM(J129:AD129)=0,"",SUM(J129:AD129))</f>
+        <f t="shared" ref="AE129:AE196" si="8">IF(SUM(J129:AD129)=0,"",SUM(J129:AD129))</f>
         <v>1</v>
       </c>
     </row>
@@ -45266,19 +45450,25 @@
         <v>2706</v>
       </c>
       <c r="B140" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C140" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="6"/>
-        <v>flora</v>
+        <v>flora/definir-alga</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="7"/>
         <v>flora</v>
       </c>
+      <c r="F140" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G140" t="s">
+        <v>2890</v>
+      </c>
       <c r="U140">
         <v>1</v>
       </c>
@@ -45289,22 +45479,28 @@
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B141" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C141" t="s">
         <v>2829</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2830</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="6"/>
-        <v>flora-fauna</v>
+        <v>flora-fauna/definir-liquen</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="7"/>
         <v>flora-fauna</v>
       </c>
+      <c r="F141" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G141" t="s">
+        <v>2892</v>
+      </c>
       <c r="U141">
         <v>1</v>
       </c>
@@ -45318,22 +45514,28 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C142" t="s">
         <v>2825</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2827</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2826</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="6"/>
-        <v>flora-fauna</v>
+        <v>flora-fauna/definir-polifiletico</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="7"/>
         <v>flora-fauna</v>
       </c>
+      <c r="F142" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G142" t="s">
+        <v>2893</v>
+      </c>
       <c r="U142">
         <v>1</v>
       </c>
@@ -45347,21 +45549,27 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B143" t="s">
         <v>2784</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>2785</v>
       </c>
-      <c r="C143" t="s">
-        <v>2786</v>
-      </c>
       <c r="D143" t="str">
-        <f t="shared" ref="D143:D206" si="9">IF(AND(ISBLANK(F143),ISBLANK(G143),ISBLANK(H143)), E143, _xlfn.CONCAT(E143,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F143),"",_xlfn.CONCAT(F143,"-")),IF(ISBLANK(G143),"",_xlfn.CONCAT(G143,"-")),IF(ISBLANK(H143),"",_xlfn.CONCAT(H143,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D143:D207" si="9">IF(AND(ISBLANK(F143),ISBLANK(G143),ISBLANK(H143)), E143, _xlfn.CONCAT(E143,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F143),"",_xlfn.CONCAT(F143,"-")),IF(ISBLANK(G143),"",_xlfn.CONCAT(G143,"-")),IF(ISBLANK(H143),"",_xlfn.CONCAT(H143,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>fauna/definir-polipo</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" ref="E143:E207" si="10">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J143=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K143=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L143=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M143=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N143=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O143=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P143=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q143=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R143=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S143=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T143=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U143=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V143=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W143=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X143=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y143=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z143=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA143=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB143=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC143=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD143=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>fauna</v>
       </c>
-      <c r="E143" t="str">
-        <f t="shared" ref="E143:E206" si="10">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J143=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K143=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L143=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M143=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N143=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O143=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P143=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q143=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R143=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S143=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T143=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U143=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V143=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W143=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X143=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y143=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z143=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA143=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB143=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC143=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD143=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>fauna</v>
+      <c r="F143" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G143" t="s">
+        <v>2894</v>
       </c>
       <c r="V143">
         <v>1</v>
@@ -45373,22 +45581,31 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B144" t="s">
         <v>2775</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>2776</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2777</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-coral-dieta</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F144" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G144" t="s">
+        <v>2708</v>
+      </c>
+      <c r="H144" t="s">
+        <v>2877</v>
+      </c>
       <c r="V144">
         <v>1</v>
       </c>
@@ -45399,19 +45616,25 @@
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B145" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-medusa</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F145" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G145" t="s">
+        <v>2895</v>
+      </c>
       <c r="V145">
         <v>1</v>
       </c>
@@ -45422,19 +45645,28 @@
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B146" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-animal-marinho</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F146" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G146" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H146" t="s">
+        <v>2891</v>
+      </c>
       <c r="V146">
         <v>1</v>
       </c>
@@ -45445,19 +45677,28 @@
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B147" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/listar-animal-marinho</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F147" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G147" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2891</v>
+      </c>
       <c r="V147">
         <v>1</v>
       </c>
@@ -45468,22 +45709,28 @@
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B148" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C148" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-peixe</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F148" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G148" t="s">
+        <v>2896</v>
+      </c>
       <c r="V148">
         <v>1</v>
       </c>
@@ -45494,22 +45741,28 @@
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B149" t="s">
         <v>2808</v>
       </c>
-      <c r="B149" t="s">
-        <v>2809</v>
-      </c>
       <c r="C149" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-actinoperigeo</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F149" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G149" t="s">
+        <v>2902</v>
+      </c>
       <c r="V149">
         <v>1</v>
       </c>
@@ -45520,22 +45773,28 @@
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B150" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C150" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-tubarao</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F150" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G150" t="s">
+        <v>2903</v>
+      </c>
       <c r="V150">
         <v>1</v>
       </c>
@@ -45546,22 +45805,25 @@
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2817</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2819</v>
+        <v>2919</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/pertence-tubarao-peixe</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F151" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G151" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H151" t="s">
+        <v>2896</v>
+      </c>
       <c r="V151">
         <v>1</v>
       </c>
@@ -45572,19 +45834,31 @@
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C152" t="s">
         <v>2818</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2820</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/maior-animal-marinho</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F152" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G152" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H152" t="s">
+        <v>2891</v>
+      </c>
       <c r="V152">
         <v>1</v>
       </c>
@@ -45595,56 +45869,77 @@
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="B153" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="9"/>
-        <v>fauna-turismo</v>
+        <v>fauna/existe-baleia-brasil</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="10"/>
-        <v>fauna-turismo</v>
+        <v>fauna</v>
+      </c>
+      <c r="F153" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G153" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H153" t="s">
+        <v>2873</v>
       </c>
       <c r="V153">
         <v>1</v>
       </c>
-      <c r="X153">
-        <v>1</v>
-      </c>
       <c r="AE153">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>2680</v>
+        <v>2820</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2821</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna-turismo/localizacao-baleia-brasil</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="10"/>
-        <v>fauna</v>
+        <v>fauna-turismo</v>
+      </c>
+      <c r="F154" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G154" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H154" t="s">
+        <v>2873</v>
       </c>
       <c r="V154">
         <v>1</v>
       </c>
+      <c r="X154">
+        <v>1</v>
+      </c>
       <c r="AE154">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
-        <v>2681</v>
+      <c r="A155" s="5" t="s">
+        <v>2680</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="9"/>
@@ -45664,7 +45959,7 @@
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="9"/>
@@ -45684,13 +45979,7 @@
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2839</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2764</v>
+        <v>2682</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="9"/>
@@ -45710,22 +45999,28 @@
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>2778</v>
+        <v>2683</v>
       </c>
       <c r="B158" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="C158" t="s">
-        <v>2780</v>
+        <v>2764</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-plancton</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F158" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G158" t="s">
+        <v>2906</v>
+      </c>
       <c r="V158">
         <v>1</v>
       </c>
@@ -45736,19 +46031,28 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="B159" t="s">
-        <v>2783</v>
+        <v>2839</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2779</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-fitoplancton</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F159" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G159" t="s">
+        <v>2907</v>
+      </c>
       <c r="V159">
         <v>1</v>
       </c>
@@ -45759,22 +46063,25 @@
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="B160" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-salpa</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F160" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G160" t="s">
+        <v>2897</v>
+      </c>
       <c r="V160">
         <v>1</v>
       </c>
@@ -45785,22 +46092,28 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>2684</v>
+        <v>2778</v>
       </c>
       <c r="B161" t="s">
-        <v>2765</v>
+        <v>2840</v>
       </c>
       <c r="C161" t="s">
-        <v>2767</v>
+        <v>2780</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-zooplancton</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F161" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G161" t="s">
+        <v>2908</v>
+      </c>
       <c r="V161">
         <v>1</v>
       </c>
@@ -45810,20 +46123,29 @@
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
-        <v>2791</v>
+      <c r="A162" s="7" t="s">
+        <v>2684</v>
       </c>
       <c r="B162" t="s">
-        <v>2792</v>
+        <v>2765</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2767</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-anemona</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F162" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G162" t="s">
+        <v>2909</v>
+      </c>
       <c r="V162">
         <v>1</v>
       </c>
@@ -45834,49 +46156,64 @@
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>2685</v>
+        <v>2790</v>
       </c>
       <c r="B163" t="s">
-        <v>2811</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2812</v>
+        <v>2791</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="9"/>
-        <v>fauna-turismo</v>
+        <v>fauna/definir-hidra</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="10"/>
-        <v>fauna-turismo</v>
+        <v>fauna</v>
+      </c>
+      <c r="F163" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G163" t="s">
+        <v>2898</v>
       </c>
       <c r="V163">
         <v>1</v>
       </c>
-      <c r="X163">
-        <v>1</v>
-      </c>
       <c r="AE163">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>2700</v>
+        <v>2685</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2811</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="9"/>
-        <v>fauna-extra</v>
+        <v>fauna-turismo/existe-tubarao-brasil</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="10"/>
-        <v>fauna-extra</v>
+        <v>fauna-turismo</v>
+      </c>
+      <c r="F164" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G164" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H164" t="s">
+        <v>2873</v>
       </c>
       <c r="V164">
         <v>1</v>
       </c>
-      <c r="AD164">
+      <c r="X164">
         <v>1</v>
       </c>
       <c r="AE164">
@@ -45886,20 +46223,17 @@
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>2703</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2738</v>
+        <v>2700</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>extra</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="10"/>
-        <v>fauna</v>
-      </c>
-      <c r="V165">
+        <v>extra</v>
+      </c>
+      <c r="AD165">
         <v>1</v>
       </c>
       <c r="AE165">
@@ -45909,22 +46243,25 @@
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B166" t="s">
-        <v>2739</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2745</v>
+        <v>2738</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/listar-crustaceo</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F166" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G166" t="s">
+        <v>2912</v>
+      </c>
       <c r="V166">
         <v>1</v>
       </c>
@@ -45935,19 +46272,28 @@
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B167" t="s">
-        <v>2789</v>
+        <v>2739</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2745</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-tunicado</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F167" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G167" t="s">
+        <v>2900</v>
+      </c>
       <c r="V167">
         <v>1</v>
       </c>
@@ -45957,20 +46303,26 @@
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
-        <v>2707</v>
+      <c r="A168" s="5" t="s">
+        <v>2705</v>
       </c>
       <c r="B168" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-molusco</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F168" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G168" t="s">
+        <v>2901</v>
+      </c>
       <c r="V168">
         <v>1</v>
       </c>
@@ -45981,16 +46333,25 @@
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>2731</v>
+        <v>2707</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2789</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/listar-molusco</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F169" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G169" t="s">
+        <v>2901</v>
+      </c>
       <c r="V169">
         <v>1</v>
       </c>
@@ -46001,13 +46362,7 @@
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B170" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2748</v>
+        <v>2731</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="9"/>
@@ -46027,19 +46382,28 @@
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>2736</v>
+        <v>2702</v>
       </c>
       <c r="B171" t="s">
-        <v>2737</v>
+        <v>2735</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2748</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-crustaceo</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F171" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G171" t="s">
+        <v>2912</v>
+      </c>
       <c r="V171">
         <v>1</v>
       </c>
@@ -46049,23 +46413,26 @@
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>2740</v>
+      <c r="A172" s="7" t="s">
+        <v>2736</v>
       </c>
       <c r="B172" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/detalhar-crustaceo</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F172" t="s">
+        <v>2913</v>
+      </c>
+      <c r="G172" t="s">
+        <v>2912</v>
+      </c>
       <c r="V172">
         <v>1</v>
       </c>
@@ -46076,22 +46443,28 @@
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B173" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="C173" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-filo</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F173" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G173" t="s">
+        <v>2910</v>
+      </c>
       <c r="V173">
         <v>1</v>
       </c>
@@ -46102,22 +46475,31 @@
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>2766</v>
+        <v>2741</v>
       </c>
       <c r="B174" t="s">
-        <v>2787</v>
+        <v>2742</v>
       </c>
       <c r="C174" t="s">
-        <v>2771</v>
+        <v>2746</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-cordado</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F174" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G174" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I174" t="s">
+        <v>2915</v>
+      </c>
       <c r="V174">
         <v>1</v>
       </c>
@@ -46127,23 +46509,29 @@
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
-        <v>2768</v>
+      <c r="A175" s="5" t="s">
+        <v>2766</v>
       </c>
       <c r="B175" t="s">
-        <v>2769</v>
+        <v>2786</v>
       </c>
       <c r="C175" t="s">
         <v>2770</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-cnidario</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F175" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G175" t="s">
+        <v>2916</v>
+      </c>
       <c r="V175">
         <v>1</v>
       </c>
@@ -46154,19 +46542,31 @@
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="B176" t="s">
-        <v>2794</v>
+        <v>2918</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2769</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="9"/>
-        <v>fauna</v>
+        <v>fauna/definir-cnida</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
+      <c r="F176" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G176" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I176" t="s">
+        <v>2917</v>
+      </c>
       <c r="V176">
         <v>1</v>
       </c>
@@ -46177,17 +46577,26 @@
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>1192</v>
+        <v>2771</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2793</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="9"/>
-        <v>oceanografia</v>
+        <v>fauna/listar-cnidario</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="10"/>
-        <v>oceanografia</v>
-      </c>
-      <c r="W177">
+        <v>fauna</v>
+      </c>
+      <c r="F177" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G177" t="s">
+        <v>2916</v>
+      </c>
+      <c r="V177">
         <v>1</v>
       </c>
       <c r="AE177">
@@ -46197,7 +46606,7 @@
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>2686</v>
+        <v>1192</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="9"/>
@@ -46217,7 +46626,7 @@
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>2795</v>
+        <v>2686</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="9"/>
@@ -46236,8 +46645,8 @@
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>1505</v>
+      <c r="A180" s="7" t="s">
+        <v>2794</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="9"/>
@@ -46257,7 +46666,7 @@
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>1783</v>
+        <v>1505</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="9"/>
@@ -46276,18 +46685,18 @@
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A182" s="7" t="s">
-        <v>2687</v>
+      <c r="A182" s="5" t="s">
+        <v>1783</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="9"/>
-        <v>turismo</v>
+        <v>oceanografia</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="10"/>
-        <v>turismo</v>
-      </c>
-      <c r="X182">
+        <v>oceanografia</v>
+      </c>
+      <c r="W182">
         <v>1</v>
       </c>
       <c r="AE182">
@@ -46296,8 +46705,8 @@
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
-        <v>2688</v>
+      <c r="A183" s="7" t="s">
+        <v>2687</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="9"/>
@@ -46316,8 +46725,8 @@
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
-        <v>2689</v>
+      <c r="A184" s="5" t="s">
+        <v>2688</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="9"/>
@@ -46337,17 +46746,17 @@
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="9"/>
-        <v>engenharia</v>
+        <v>turismo</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="10"/>
-        <v>engenharia</v>
-      </c>
-      <c r="Y185">
+        <v>turismo</v>
+      </c>
+      <c r="X185">
         <v>1</v>
       </c>
       <c r="AE185">
@@ -46357,7 +46766,7 @@
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="9"/>
@@ -46376,8 +46785,8 @@
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>2692</v>
+      <c r="A187" s="7" t="s">
+        <v>2691</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="9"/>
@@ -46396,18 +46805,18 @@
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A188" s="7" t="s">
-        <v>1387</v>
+      <c r="A188" s="5" t="s">
+        <v>2692</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="9"/>
-        <v>saude</v>
+        <v>engenharia</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="10"/>
-        <v>saude</v>
-      </c>
-      <c r="Z188">
+        <v>engenharia</v>
+      </c>
+      <c r="Y188">
         <v>1</v>
       </c>
       <c r="AE188">
@@ -46416,8 +46825,8 @@
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
-        <v>1619</v>
+      <c r="A189" s="7" t="s">
+        <v>1387</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="9"/>
@@ -46437,7 +46846,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>2693</v>
+        <v>1619</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="9"/>
@@ -46457,17 +46866,17 @@
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>1427</v>
+        <v>2693</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="9"/>
-        <v>litoral</v>
+        <v>saude</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="10"/>
-        <v>litoral</v>
-      </c>
-      <c r="AA191">
+        <v>saude</v>
+      </c>
+      <c r="Z191">
         <v>1</v>
       </c>
       <c r="AE191">
@@ -46477,17 +46886,17 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>2694</v>
+        <v>1427</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="9"/>
-        <v>protecao_ambiental</v>
+        <v>litoral</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="10"/>
-        <v>protecao_ambiental</v>
-      </c>
-      <c r="AB192">
+        <v>litoral</v>
+      </c>
+      <c r="AA192">
         <v>1</v>
       </c>
       <c r="AE192">
@@ -46497,7 +46906,7 @@
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>1571</v>
+        <v>2694</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="9"/>
@@ -46517,7 +46926,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>2695</v>
+        <v>1571</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="9"/>
@@ -46537,7 +46946,7 @@
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>1669</v>
+        <v>2695</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="9"/>
@@ -46557,7 +46966,7 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>2696</v>
+        <v>1669</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="9"/>
@@ -46571,43 +46980,43 @@
         <v>1</v>
       </c>
       <c r="AE196">
-        <f t="shared" ref="AE196:AE259" si="11">IF(SUM(J196:AD196)=0,"",SUM(J196:AD196))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>1846</v>
+        <v>2696</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="9"/>
-        <v>geologia</v>
+        <v>protecao_ambiental</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="10"/>
-        <v>geologia</v>
-      </c>
-      <c r="AC197">
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="AB197">
         <v>1</v>
       </c>
       <c r="AE197">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AE197:AE260" si="11">IF(SUM(J197:AD197)=0,"",SUM(J197:AD197))</f>
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>2637</v>
+        <v>1846</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
+        <v>geologia</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="10"/>
-        <v>extra</v>
-      </c>
-      <c r="AD198">
+        <v>geologia</v>
+      </c>
+      <c r="AC198">
         <v>1</v>
       </c>
       <c r="AE198">
@@ -46617,7 +47026,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="9"/>
@@ -46637,7 +47046,7 @@
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="9"/>
@@ -46657,7 +47066,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="9"/>
@@ -46677,7 +47086,7 @@
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="9"/>
@@ -46697,7 +47106,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="9"/>
@@ -46717,7 +47126,7 @@
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="9"/>
@@ -46737,13 +47146,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B205" t="s">
-        <v>2762</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>2752</v>
+        <v>2641</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="9"/>
@@ -46763,16 +47166,31 @@
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>2646</v>
+        <v>2642</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>2752</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
+        <v>extra/definir-gas-producao</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="10"/>
         <v>extra</v>
       </c>
+      <c r="F206" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G206" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H206" t="s">
+        <v>2869</v>
+      </c>
       <c r="AD206">
         <v>1</v>
       </c>
@@ -46783,21 +47201,24 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B207" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C207" t="s">
-        <v>2734</v>
+        <v>2646</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" ref="D207:D208" si="12">IF(AND(ISBLANK(F207),ISBLANK(G207),ISBLANK(H207)), E207, _xlfn.CONCAT(E207,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F207),"",_xlfn.CONCAT(F207,"-")),IF(ISBLANK(G207),"",_xlfn.CONCAT(G207,"-")),IF(ISBLANK(H207),"",_xlfn.CONCAT(H207,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="9"/>
+        <v>extra/listar-programas-de-protecao-aaz</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
-      <c r="E207" t="str">
-        <f t="shared" ref="E207:E208" si="13">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J207=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K207=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L207=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M207=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N207=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O207=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P207=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q207=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R207=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S207=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T207=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U207=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V207=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W207=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X207=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y207=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z207=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA207=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB207=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC207=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD207=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>extra</v>
+      <c r="F207" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G207" t="s">
+        <v>2922</v>
+      </c>
+      <c r="H207" t="s">
+        <v>2921</v>
       </c>
       <c r="AD207">
         <v>1</v>
@@ -46809,21 +47230,30 @@
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B208" t="s">
-        <v>2744</v>
+        <v>2733</v>
       </c>
       <c r="C208" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D208:D209" si="12">IF(AND(ISBLANK(F208),ISBLANK(G208),ISBLANK(H208)), E208, _xlfn.CONCAT(E208,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F208),"",_xlfn.CONCAT(F208,"-")),IF(ISBLANK(G208),"",_xlfn.CONCAT(G208,"-")),IF(ISBLANK(H208),"",_xlfn.CONCAT(H208,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>extra/motivo-importancia-aaz</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" ref="E208:E209" si="13">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J208=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K208=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L208=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M208=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N208=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O208=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P208=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q208=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R208=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S208=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T208=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U208=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V208=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W208=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X208=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y208=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z208=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA208=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB208=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC208=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD208=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>extra</v>
       </c>
-      <c r="E208" t="str">
-        <f t="shared" si="13"/>
-        <v>extra</v>
+      <c r="F208" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G208" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H208" t="s">
+        <v>2921</v>
       </c>
       <c r="AD208">
         <v>1</v>
@@ -46833,97 +47263,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE209" t="str">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="12"/>
+        <v>extra/motivo-nome-aaz</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="13"/>
+        <v>extra</v>
+      </c>
+      <c r="F209" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G209" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H209" t="s">
+        <v>2921</v>
+      </c>
+      <c r="AD209">
+        <v>1</v>
+      </c>
+      <c r="AE209">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="31:31" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE210" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE211" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE212" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE213" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE214" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE215" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE216" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE217" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE218" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE219" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE220" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE221" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE222" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE223" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE224" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -47141,13 +47600,13 @@
     </row>
     <row r="260" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE260" t="str">
-        <f t="shared" ref="AE260:AE323" si="14">IF(SUM(J260:AD260)=0,"",SUM(J260:AD260))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE261" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AE261:AE324" si="14">IF(SUM(J261:AD261)=0,"",SUM(J261:AD261))</f>
         <v/>
       </c>
     </row>
@@ -47525,13 +47984,13 @@
     </row>
     <row r="324" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE324" t="str">
-        <f t="shared" ref="AE324:AE387" si="15">IF(SUM(J324:AD324)=0,"",SUM(J324:AD324))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE325" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AE325:AE388" si="15">IF(SUM(J325:AD325)=0,"",SUM(J325:AD325))</f>
         <v/>
       </c>
     </row>
@@ -47909,13 +48368,13 @@
     </row>
     <row r="388" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE388" t="str">
-        <f t="shared" ref="AE388:AE451" si="16">IF(SUM(J388:AD388)=0,"",SUM(J388:AD388))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE389" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AE389:AE452" si="16">IF(SUM(J389:AD389)=0,"",SUM(J389:AD389))</f>
         <v/>
       </c>
     </row>
@@ -48293,13 +48752,13 @@
     </row>
     <row r="452" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE452" t="str">
-        <f t="shared" ref="AE452:AE501" si="17">IF(SUM(J452:AD452)=0,"",SUM(J452:AD452))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE453" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AE453:AE502" si="17">IF(SUM(J453:AD453)=0,"",SUM(J453:AD453))</f>
         <v/>
       </c>
     </row>
@@ -48591,12 +49050,18 @@
         <v/>
       </c>
     </row>
+    <row r="502" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE502" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B501" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A188:AD208">
-    <sortCondition descending="1" ref="Z188:Z208"/>
+  <autoFilter ref="A1:AE502" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A189:AD209">
+    <sortCondition descending="1" ref="Z189:Z209"/>
   </sortState>
-  <conditionalFormatting sqref="J2:AD518">
+  <conditionalFormatting sqref="J2:AD519">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(OR($AE2="", $AE2=0), NOT(ISBLANK($A2)))</formula>
     </cfRule>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C6D97-5AE1-41F4-AA06-91133E93A136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED687D05-90C8-4B64-8107-C438E05E8304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="9972" yWindow="960" windowWidth="11820" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -42188,21 +42188,21 @@
   <dimension ref="A1:AE502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="28" max="28" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42303,8 +42303,8 @@
         <v>2594</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>coral-turismo/efeito-coral</v>
+        <f t="shared" ref="D2:D65" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>coral-turismo--efeito-coral</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
@@ -42332,8 +42332,8 @@
         <v>2595</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D14" si="0">IF(AND(ISBLANK(F3),ISBLANK(G3),ISBLANK(H3)), E3, _xlfn.CONCAT(E3,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F3),"",_xlfn.CONCAT(F3,"-")),IF(ISBLANK(G3),"",_xlfn.CONCAT(G3,"-")),IF(ISBLANK(H3),"",_xlfn.CONCAT(H3,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>coral/definir-recife</v>
+        <f t="shared" si="0"/>
+        <v>coral--definir-recife</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E14" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J3=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K3=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L3=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M3=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N3=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O3=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P3=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q3=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R3=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S3=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T3=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U3=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V3=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W3=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X3=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y3=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z3=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA3=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB3=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC3=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD3=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
@@ -42362,7 +42362,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definir-geral</v>
+        <v>coral--definir-geral</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -42391,7 +42391,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>coral/composicao</v>
+        <v>coral--composicao</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -42414,7 +42414,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definir-branqueamento</v>
+        <v>coral--definir-branqueamento</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
@@ -42440,7 +42440,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definir-recife</v>
+        <v>coral--definir-recife</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -42466,7 +42466,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>coral/listar-iniciativas-governo</v>
+        <v>coral--listar-iniciativas-governo</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
@@ -42495,7 +42495,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>coral/localizacao-recife</v>
+        <v>coral--localizacao-recife</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -42521,7 +42521,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>coral/listar-tipos</v>
+        <v>coral--listar-tipos</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -42547,7 +42547,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>coral/definir-recife-artificial</v>
+        <v>coral--definir-recife-artificial</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -42573,7 +42573,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>coral/efeito-branqueamento-ambiente</v>
+        <v>coral--efeito-branqueamento-ambiente</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -42625,7 +42625,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare/efeito-ambiente</v>
+        <v>energia_de_mare--efeito-ambiente</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -42650,11 +42650,11 @@
         <v>1048</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D78" si="3">IF(AND(ISBLANK(F15),ISBLANK(G15),ISBLANK(H15)), E15, _xlfn.CONCAT(E15,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F15),"",_xlfn.CONCAT(F15,"-")),IF(ISBLANK(G15),"",_xlfn.CONCAT(G15,"-")),IF(ISBLANK(H15),"",_xlfn.CONCAT(H15,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>energia_de_mare/efeito-economia</v>
+        <f t="shared" si="0"/>
+        <v>energia_de_mare--efeito-economia</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E78" si="4">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J15=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K15=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L15=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M15=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N15=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O15=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P15=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q15=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R15=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S15=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T15=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U15=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V15=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W15=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X15=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y15=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z15=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA15=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB15=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC15=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD15=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E15:E78" si="3">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J15=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K15=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L15=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M15=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N15=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O15=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P15=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q15=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R15=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S15=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T15=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U15=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V15=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W15=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X15=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y15=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z15=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA15=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB15=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC15=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD15=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>energia_de_mare</v>
       </c>
       <c r="F15" t="s">
@@ -42676,11 +42676,11 @@
         <v>2923</v>
       </c>
       <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>energia_de_mare--listar-pros-contras</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="3"/>
-        <v>energia_de_mare/listar-pros-contras</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="4"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F16" t="s">
@@ -42702,11 +42702,11 @@
         <v>2924</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>energia_de_mare--listar-contras</v>
+      </c>
+      <c r="E17" t="str">
         <f t="shared" si="3"/>
-        <v>energia_de_mare/listar-contras</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="4"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F17" t="s">
@@ -42728,11 +42728,11 @@
         <v>2925</v>
       </c>
       <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>energia_de_mare--listar-pros</v>
+      </c>
+      <c r="E18" t="str">
         <f t="shared" si="3"/>
-        <v>energia_de_mare/listar-pros</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="4"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F18" t="s">
@@ -42754,11 +42754,11 @@
         <v>2605</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>energia_de_mare--localizacao</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" si="3"/>
-        <v>energia_de_mare/localizacao</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="4"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F19" t="s">
@@ -42777,11 +42777,11 @@
         <v>2645</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>energia_de_mare--definir-geral</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="3"/>
-        <v>energia_de_mare/definir-geral</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="4"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F20" t="s">
@@ -42806,11 +42806,11 @@
         <v>2606</v>
       </c>
       <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--maior-empresa</v>
+      </c>
+      <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/maior-empresa</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F21" t="s">
@@ -42832,11 +42832,11 @@
         <v>2607</v>
       </c>
       <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L22">
@@ -42852,11 +42852,11 @@
         <v>2608</v>
       </c>
       <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L23">
@@ -42872,11 +42872,11 @@
         <v>2039</v>
       </c>
       <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L24">
@@ -42892,11 +42892,11 @@
         <v>2763</v>
       </c>
       <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L25">
@@ -42912,11 +42912,11 @@
         <v>2609</v>
       </c>
       <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L26">
@@ -42938,11 +42938,11 @@
         <v>2752</v>
       </c>
       <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--maiores-reserva-brasil</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/maiores-reserva-brasil</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F27" t="s">
@@ -42967,11 +42967,11 @@
         <v>2874</v>
       </c>
       <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--maior-reserva-brasil</v>
+      </c>
+      <c r="E28" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/maior-reserva-brasil</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F28" t="s">
@@ -43002,11 +43002,11 @@
         <v>2752</v>
       </c>
       <c r="D29" t="str">
+        <f>IF(AND(ISBLANK(F29),ISBLANK(G29),ISBLANK(H29)), E29, _xlfn.CONCAT(E29,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F29),"",_xlfn.CONCAT(F29,"-")),IF(ISBLANK(G29),"",_xlfn.CONCAT(G29,"-")),IF(ISBLANK(H29),"",_xlfn.CONCAT(H29,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>petroleo--maiores-estado-producao</v>
+      </c>
+      <c r="E29" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/maiores-estado-producao</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F29" t="s">
@@ -43037,11 +43037,11 @@
         <v>2752</v>
       </c>
       <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--maiores-gas-producao</v>
+      </c>
+      <c r="E30" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/maiores-gas-producao</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F30" t="s">
@@ -43072,11 +43072,11 @@
         <v>2756</v>
       </c>
       <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--quantidade-brasil</v>
+      </c>
+      <c r="E31" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/quantidade-brasil</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F31" t="s">
@@ -43101,11 +43101,11 @@
         <v>2761</v>
       </c>
       <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--quantidade-gas-consumo</v>
+      </c>
+      <c r="E32" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/quantidade-gas-consumo</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F32" t="s">
@@ -43130,11 +43130,11 @@
         <v>2611</v>
       </c>
       <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E33" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L33">
@@ -43150,11 +43150,11 @@
         <v>2612</v>
       </c>
       <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E34" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L34">
@@ -43170,11 +43170,11 @@
         <v>2613</v>
       </c>
       <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E35" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L35">
@@ -43190,11 +43190,11 @@
         <v>1626</v>
       </c>
       <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E36" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L36">
@@ -43210,11 +43210,11 @@
         <v>2614</v>
       </c>
       <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E37" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L37">
@@ -43230,11 +43230,11 @@
         <v>2615</v>
       </c>
       <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E38" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L38">
@@ -43253,11 +43253,11 @@
         <v>2800</v>
       </c>
       <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--localizacao</v>
+      </c>
+      <c r="E39" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/localizacao</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F39" t="s">
@@ -43279,11 +43279,11 @@
         <v>2801</v>
       </c>
       <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L40">
@@ -43299,11 +43299,11 @@
         <v>2617</v>
       </c>
       <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo-engenharia</v>
+      </c>
+      <c r="E41" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo-engenharia</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo-engenharia</v>
       </c>
       <c r="L41">
@@ -43322,11 +43322,11 @@
         <v>2618</v>
       </c>
       <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L42">
@@ -43342,11 +43342,11 @@
         <v>2619</v>
       </c>
       <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E43" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L43">
@@ -43362,11 +43362,11 @@
         <v>2620</v>
       </c>
       <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L44">
@@ -43382,11 +43382,11 @@
         <v>2697</v>
       </c>
       <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo</v>
+      </c>
+      <c r="E45" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="L45">
@@ -43408,11 +43408,11 @@
         <v>2752</v>
       </c>
       <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>petroleo--quantidade-producao</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo/quantidade-producao</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="4"/>
         <v>petroleo</v>
       </c>
       <c r="F46" t="s">
@@ -43440,11 +43440,11 @@
         <v>2701</v>
       </c>
       <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--definir-dieta</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-dieta</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F47" t="s">
@@ -43466,11 +43466,11 @@
         <v>2575</v>
       </c>
       <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga-simbolo</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga-simbolo</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga-simbolo</v>
       </c>
       <c r="M48">
@@ -43492,11 +43492,11 @@
         <v>2836</v>
       </c>
       <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--listar-especies</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/listar-especies</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F49" t="s">
@@ -43521,11 +43521,11 @@
         <v>2834</v>
       </c>
       <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--diferenca-jabuti-tartaruga</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/diferenca-jabuti-tartaruga</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F50" t="s">
@@ -43553,11 +43553,11 @@
         <v>2797</v>
       </c>
       <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--pertence-jabuti-tartaruga</v>
+      </c>
+      <c r="E51" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/pertence-jabuti-tartaruga</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F51" t="s">
@@ -43585,11 +43585,11 @@
         <v>2799</v>
       </c>
       <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--definir-quelonio</v>
+      </c>
+      <c r="E52" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-quelonio</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F52" t="s">
@@ -43614,11 +43614,11 @@
         <v>2831</v>
       </c>
       <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--definir-jabuti</v>
+      </c>
+      <c r="E53" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-jabuti</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F53" t="s">
@@ -43643,11 +43643,11 @@
         <v>2832</v>
       </c>
       <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--definir-cagado</v>
+      </c>
+      <c r="E54" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-cagado</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F54" t="s">
@@ -43672,11 +43672,11 @@
         <v>2833</v>
       </c>
       <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--definir-geral</v>
+      </c>
+      <c r="E55" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-geral</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F55" t="s">
@@ -43698,11 +43698,11 @@
         <v>2581</v>
       </c>
       <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E56" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M56">
@@ -43724,11 +43724,11 @@
         <v>2837</v>
       </c>
       <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--listar-especies-extincao</v>
+      </c>
+      <c r="E57" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/listar-especies-extincao</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F57" t="s">
@@ -43756,11 +43756,11 @@
         <v>2844</v>
       </c>
       <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--motivo-extincao</v>
+      </c>
+      <c r="E58" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/motivo-extincao</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F58" t="s">
@@ -43785,11 +43785,11 @@
         <v>2583</v>
       </c>
       <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E59" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M59">
@@ -43805,11 +43805,11 @@
         <v>2584</v>
       </c>
       <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E60" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M60">
@@ -43825,11 +43825,11 @@
         <v>2585</v>
       </c>
       <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E61" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M61">
@@ -43845,11 +43845,11 @@
         <v>2586</v>
       </c>
       <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E62" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M62">
@@ -43868,11 +43868,11 @@
         <v>2841</v>
       </c>
       <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga--definir-ciclo-de-vida</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-ciclo-de-vida</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F63" t="s">
@@ -43894,11 +43894,11 @@
         <v>2588</v>
       </c>
       <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E64" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M64">
@@ -43914,11 +43914,11 @@
         <v>2589</v>
       </c>
       <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E65" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M65">
@@ -43934,11 +43934,11 @@
         <v>2590</v>
       </c>
       <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="4">IF(AND(ISBLANK(F66),ISBLANK(G66),ISBLANK(H66)), E66, _xlfn.CONCAT(E66,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F66),"",_xlfn.CONCAT(F66,"-")),IF(ISBLANK(G66),"",_xlfn.CONCAT(G66,"-")),IF(ISBLANK(H66),"",_xlfn.CONCAT(H66,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>tartaruga</v>
+      </c>
+      <c r="E66" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M66">
@@ -43957,11 +43957,11 @@
         <v>2835</v>
       </c>
       <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga--localizacao</v>
+      </c>
+      <c r="E67" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/localizacao</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F67" t="s">
@@ -43980,11 +43980,11 @@
         <v>2592</v>
       </c>
       <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E68" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M68">
@@ -44000,11 +44000,11 @@
         <v>2699</v>
       </c>
       <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga</v>
+      </c>
+      <c r="E69" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="M69">
@@ -44026,11 +44026,11 @@
         <v>2701</v>
       </c>
       <c r="D70" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga--definir-peso</v>
+      </c>
+      <c r="E70" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga/definir-peso</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga</v>
       </c>
       <c r="F70" t="s">
@@ -44052,11 +44052,11 @@
         <v>1404</v>
       </c>
       <c r="D71" t="str">
+        <f t="shared" si="4"/>
+        <v>tartaruga-corrente</v>
+      </c>
+      <c r="E71" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga-corrente</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="4"/>
         <v>tartaruga-corrente</v>
       </c>
       <c r="M71">
@@ -44075,11 +44075,11 @@
         <v>2624</v>
       </c>
       <c r="D72" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E72" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N72">
@@ -44095,11 +44095,11 @@
         <v>2622</v>
       </c>
       <c r="D73" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E73" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N73">
@@ -44115,11 +44115,11 @@
         <v>2623</v>
       </c>
       <c r="D74" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E74" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N74">
@@ -44135,11 +44135,11 @@
         <v>2625</v>
       </c>
       <c r="D75" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E75" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N75">
@@ -44155,11 +44155,11 @@
         <v>2626</v>
       </c>
       <c r="D76" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E76" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N76">
@@ -44175,11 +44175,11 @@
         <v>2627</v>
       </c>
       <c r="D77" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E77" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N77">
@@ -44195,11 +44195,11 @@
         <v>2629</v>
       </c>
       <c r="D78" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E78" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="N78">
@@ -44215,11 +44215,11 @@
         <v>2628</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79:D142" si="6">IF(AND(ISBLANK(F79),ISBLANK(G79),ISBLANK(H79)), E79, _xlfn.CONCAT(E79,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F79),"",_xlfn.CONCAT(F79,"-")),IF(ISBLANK(G79),"",_xlfn.CONCAT(G79,"-")),IF(ISBLANK(H79),"",_xlfn.CONCAT(H79,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="4"/>
         <v>fisica</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" ref="E79:E142" si="7">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J79=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K79=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L79=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M79=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N79=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O79=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P79=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q79=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R79=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S79=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T79=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U79=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V79=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W79=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X79=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y79=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z79=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA79=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB79=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC79=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD79=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E79:E142" si="6">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J79=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K79=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L79=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M79=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N79=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O79=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P79=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q79=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R79=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S79=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T79=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U79=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V79=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W79=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X79=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y79=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z79=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA79=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB79=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC79=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD79=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>fisica</v>
       </c>
       <c r="N79">
@@ -44235,11 +44235,11 @@
         <v>2630</v>
       </c>
       <c r="D80" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E80" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N80">
@@ -44255,11 +44255,11 @@
         <v>1329</v>
       </c>
       <c r="D81" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E81" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N81">
@@ -44275,11 +44275,11 @@
         <v>1385</v>
       </c>
       <c r="D82" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E82" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N82">
@@ -44295,11 +44295,11 @@
         <v>1389</v>
       </c>
       <c r="D83" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E83" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N83">
@@ -44315,11 +44315,11 @@
         <v>1431</v>
       </c>
       <c r="D84" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E84" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N84">
@@ -44335,11 +44335,11 @@
         <v>1446</v>
       </c>
       <c r="D85" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E85" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N85">
@@ -44355,11 +44355,11 @@
         <v>2631</v>
       </c>
       <c r="D86" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E86" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N86">
@@ -44375,11 +44375,11 @@
         <v>1577</v>
       </c>
       <c r="D87" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E87" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N87">
@@ -44395,11 +44395,11 @@
         <v>1582</v>
       </c>
       <c r="D88" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E88" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N88">
@@ -44415,11 +44415,11 @@
         <v>2632</v>
       </c>
       <c r="D89" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E89" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N89">
@@ -44435,11 +44435,11 @@
         <v>2633</v>
       </c>
       <c r="D90" t="str">
+        <f t="shared" si="4"/>
+        <v>fisica</v>
+      </c>
+      <c r="E90" t="str">
         <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="7"/>
         <v>fisica</v>
       </c>
       <c r="N90">
@@ -44455,11 +44455,11 @@
         <v>2634</v>
       </c>
       <c r="D91" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano-simbolo</v>
+      </c>
+      <c r="E91" t="str">
         <f t="shared" si="6"/>
-        <v>oceano-simbolo</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="7"/>
         <v>oceano-simbolo</v>
       </c>
       <c r="O91">
@@ -44478,11 +44478,11 @@
         <v>2635</v>
       </c>
       <c r="D92" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E92" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O92">
@@ -44498,11 +44498,11 @@
         <v>2041</v>
       </c>
       <c r="D93" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E93" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O93">
@@ -44518,11 +44518,11 @@
         <v>1095</v>
       </c>
       <c r="D94" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E94" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O94">
@@ -44538,11 +44538,11 @@
         <v>1802</v>
       </c>
       <c r="D95" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E95" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O95">
@@ -44558,11 +44558,11 @@
         <v>1171</v>
       </c>
       <c r="D96" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E96" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O96">
@@ -44578,11 +44578,11 @@
         <v>1177</v>
       </c>
       <c r="D97" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E97" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O97">
@@ -44598,11 +44598,11 @@
         <v>1224</v>
       </c>
       <c r="D98" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E98" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O98">
@@ -44618,11 +44618,11 @@
         <v>1228</v>
       </c>
       <c r="D99" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E99" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O99">
@@ -44638,11 +44638,11 @@
         <v>1245</v>
       </c>
       <c r="D100" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E100" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O100">
@@ -44658,11 +44658,11 @@
         <v>1252</v>
       </c>
       <c r="D101" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E101" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O101">
@@ -44678,11 +44678,11 @@
         <v>1325</v>
       </c>
       <c r="D102" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E102" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O102">
@@ -44698,11 +44698,11 @@
         <v>1335</v>
       </c>
       <c r="D103" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E103" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O103">
@@ -44718,11 +44718,11 @@
         <v>1341</v>
       </c>
       <c r="D104" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E104" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O104">
@@ -44738,11 +44738,11 @@
         <v>1431</v>
       </c>
       <c r="D105" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E105" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O105">
@@ -44758,11 +44758,11 @@
         <v>1438</v>
       </c>
       <c r="D106" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E106" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O106">
@@ -44778,11 +44778,11 @@
         <v>1446</v>
       </c>
       <c r="D107" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E107" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O107">
@@ -44798,11 +44798,11 @@
         <v>1461</v>
       </c>
       <c r="D108" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E108" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O108">
@@ -44818,11 +44818,11 @@
         <v>1480</v>
       </c>
       <c r="D109" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E109" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O109">
@@ -44838,11 +44838,11 @@
         <v>1561</v>
       </c>
       <c r="D110" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E110" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O110">
@@ -44858,11 +44858,11 @@
         <v>1580</v>
       </c>
       <c r="D111" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E111" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O111">
@@ -44878,11 +44878,11 @@
         <v>1597</v>
       </c>
       <c r="D112" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E112" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O112">
@@ -44898,11 +44898,11 @@
         <v>1667</v>
       </c>
       <c r="D113" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E113" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O113">
@@ -44918,11 +44918,11 @@
         <v>1861</v>
       </c>
       <c r="D114" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E114" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O114">
@@ -44938,11 +44938,11 @@
         <v>1903</v>
       </c>
       <c r="D115" t="str">
+        <f t="shared" si="4"/>
+        <v>oceano</v>
+      </c>
+      <c r="E115" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="O115">
@@ -44958,11 +44958,11 @@
         <v>2667</v>
       </c>
       <c r="D116" t="str">
+        <f t="shared" si="4"/>
+        <v>onda</v>
+      </c>
+      <c r="E116" t="str">
         <f t="shared" si="6"/>
-        <v>onda</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="7"/>
         <v>onda</v>
       </c>
       <c r="P116">
@@ -44978,11 +44978,11 @@
         <v>2668</v>
       </c>
       <c r="D117" t="str">
+        <f t="shared" si="4"/>
+        <v>onda-mare</v>
+      </c>
+      <c r="E117" t="str">
         <f t="shared" si="6"/>
-        <v>onda-mare</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="7"/>
         <v>onda-mare</v>
       </c>
       <c r="P117">
@@ -45001,11 +45001,11 @@
         <v>2669</v>
       </c>
       <c r="D118" t="str">
+        <f t="shared" si="4"/>
+        <v>onda</v>
+      </c>
+      <c r="E118" t="str">
         <f t="shared" si="6"/>
-        <v>onda</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="7"/>
         <v>onda</v>
       </c>
       <c r="P118">
@@ -45021,11 +45021,11 @@
         <v>1314</v>
       </c>
       <c r="D119" t="str">
+        <f t="shared" si="4"/>
+        <v>onda</v>
+      </c>
+      <c r="E119" t="str">
         <f t="shared" si="6"/>
-        <v>onda</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="7"/>
         <v>onda</v>
       </c>
       <c r="P119">
@@ -45041,11 +45041,11 @@
         <v>2670</v>
       </c>
       <c r="D120" t="str">
+        <f t="shared" si="4"/>
+        <v>onda</v>
+      </c>
+      <c r="E120" t="str">
         <f t="shared" si="6"/>
-        <v>onda</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="7"/>
         <v>onda</v>
       </c>
       <c r="P120">
@@ -45061,11 +45061,11 @@
         <v>1253</v>
       </c>
       <c r="D121" t="str">
+        <f t="shared" si="4"/>
+        <v>onda-litoral</v>
+      </c>
+      <c r="E121" t="str">
         <f t="shared" si="6"/>
-        <v>onda-litoral</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="7"/>
         <v>onda-litoral</v>
       </c>
       <c r="P121">
@@ -45084,11 +45084,11 @@
         <v>1054</v>
       </c>
       <c r="D122" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E122" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q122">
@@ -45104,11 +45104,11 @@
         <v>2671</v>
       </c>
       <c r="D123" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E123" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q123">
@@ -45124,11 +45124,11 @@
         <v>1833</v>
       </c>
       <c r="D124" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E124" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q124">
@@ -45144,11 +45144,11 @@
         <v>1140</v>
       </c>
       <c r="D125" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E125" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q125">
@@ -45164,11 +45164,11 @@
         <v>1279</v>
       </c>
       <c r="D126" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E126" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q126">
@@ -45184,11 +45184,11 @@
         <v>2672</v>
       </c>
       <c r="D127" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E127" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q127">
@@ -45204,11 +45204,11 @@
         <v>1488</v>
       </c>
       <c r="D128" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E128" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="7"/>
         <v>mare</v>
       </c>
       <c r="Q128">
@@ -45224,18 +45224,18 @@
         <v>1552</v>
       </c>
       <c r="D129" t="str">
+        <f t="shared" si="4"/>
+        <v>mare</v>
+      </c>
+      <c r="E129" t="str">
         <f t="shared" si="6"/>
         <v>mare</v>
       </c>
-      <c r="E129" t="str">
-        <f t="shared" si="7"/>
-        <v>mare</v>
-      </c>
       <c r="Q129">
         <v>1</v>
       </c>
       <c r="AE129">
-        <f t="shared" ref="AE129:AE196" si="8">IF(SUM(J129:AD129)=0,"",SUM(J129:AD129))</f>
+        <f t="shared" ref="AE129:AE196" si="7">IF(SUM(J129:AD129)=0,"",SUM(J129:AD129))</f>
         <v>1</v>
       </c>
     </row>
@@ -45244,18 +45244,18 @@
         <v>2636</v>
       </c>
       <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" si="8">IF(AND(ISBLANK(F130),ISBLANK(G130),ISBLANK(H130)), E130, _xlfn.CONCAT(E130,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F130),"",_xlfn.CONCAT(F130,"-")),IF(ISBLANK(G130),"",_xlfn.CONCAT(G130,"-")),IF(ISBLANK(H130),"",_xlfn.CONCAT(H130,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>corrente</v>
+      </c>
+      <c r="E130" t="str">
         <f t="shared" si="6"/>
         <v>corrente</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="7"/>
-        <v>corrente</v>
-      </c>
       <c r="S130">
         <v>1</v>
       </c>
       <c r="AE130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45264,11 +45264,11 @@
         <v>1189</v>
       </c>
       <c r="D131" t="str">
+        <f t="shared" si="8"/>
+        <v>corrente</v>
+      </c>
+      <c r="E131" t="str">
         <f t="shared" si="6"/>
-        <v>corrente</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" si="7"/>
         <v>corrente</v>
       </c>
       <c r="S131">
@@ -45284,11 +45284,11 @@
         <v>2621</v>
       </c>
       <c r="D132" t="str">
+        <f t="shared" si="8"/>
+        <v>corrente</v>
+      </c>
+      <c r="E132" t="str">
         <f t="shared" si="6"/>
-        <v>corrente</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="7"/>
         <v>corrente</v>
       </c>
       <c r="S132">
@@ -45304,11 +45304,11 @@
         <v>2673</v>
       </c>
       <c r="D133" t="str">
+        <f t="shared" si="8"/>
+        <v>corrente</v>
+      </c>
+      <c r="E133" t="str">
         <f t="shared" si="6"/>
-        <v>corrente</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="7"/>
         <v>corrente</v>
       </c>
       <c r="S133">
@@ -45324,18 +45324,18 @@
         <v>2674</v>
       </c>
       <c r="D134" t="str">
+        <f t="shared" si="8"/>
+        <v>navio</v>
+      </c>
+      <c r="E134" t="str">
         <f t="shared" si="6"/>
         <v>navio</v>
       </c>
-      <c r="E134" t="str">
-        <f t="shared" si="7"/>
-        <v>navio</v>
-      </c>
       <c r="T134">
         <v>1</v>
       </c>
       <c r="AE134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45344,18 +45344,18 @@
         <v>2675</v>
       </c>
       <c r="D135" t="str">
+        <f t="shared" si="8"/>
+        <v>navio</v>
+      </c>
+      <c r="E135" t="str">
         <f t="shared" si="6"/>
         <v>navio</v>
       </c>
-      <c r="E135" t="str">
-        <f t="shared" si="7"/>
-        <v>navio</v>
-      </c>
       <c r="T135">
         <v>1</v>
       </c>
       <c r="AE135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45364,18 +45364,18 @@
         <v>2676</v>
       </c>
       <c r="D136" t="str">
+        <f t="shared" si="8"/>
+        <v>flora</v>
+      </c>
+      <c r="E136" t="str">
         <f t="shared" si="6"/>
         <v>flora</v>
       </c>
-      <c r="E136" t="str">
-        <f t="shared" si="7"/>
-        <v>flora</v>
-      </c>
       <c r="U136">
         <v>1</v>
       </c>
       <c r="AE136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45384,18 +45384,18 @@
         <v>2677</v>
       </c>
       <c r="D137" t="str">
+        <f t="shared" si="8"/>
+        <v>flora</v>
+      </c>
+      <c r="E137" t="str">
         <f t="shared" si="6"/>
         <v>flora</v>
       </c>
-      <c r="E137" t="str">
-        <f t="shared" si="7"/>
-        <v>flora</v>
-      </c>
       <c r="U137">
         <v>1</v>
       </c>
       <c r="AE137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45404,13 +45404,13 @@
         <v>2678</v>
       </c>
       <c r="D138" t="str">
+        <f t="shared" si="8"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="E138" t="str">
         <f t="shared" si="6"/>
         <v>flora-fauna</v>
       </c>
-      <c r="E138" t="str">
-        <f t="shared" si="7"/>
-        <v>flora-fauna</v>
-      </c>
       <c r="U138">
         <v>1</v>
       </c>
@@ -45418,7 +45418,7 @@
         <v>1</v>
       </c>
       <c r="AE138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -45427,13 +45427,13 @@
         <v>1561</v>
       </c>
       <c r="D139" t="str">
+        <f t="shared" si="8"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="E139" t="str">
         <f t="shared" si="6"/>
         <v>flora-fauna</v>
       </c>
-      <c r="E139" t="str">
-        <f t="shared" si="7"/>
-        <v>flora-fauna</v>
-      </c>
       <c r="U139">
         <v>1</v>
       </c>
@@ -45441,7 +45441,7 @@
         <v>1</v>
       </c>
       <c r="AE139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -45456,11 +45456,11 @@
         <v>2827</v>
       </c>
       <c r="D140" t="str">
+        <f t="shared" si="8"/>
+        <v>flora--definir-alga</v>
+      </c>
+      <c r="E140" t="str">
         <f t="shared" si="6"/>
-        <v>flora/definir-alga</v>
-      </c>
-      <c r="E140" t="str">
-        <f t="shared" si="7"/>
         <v>flora</v>
       </c>
       <c r="F140" t="s">
@@ -45473,7 +45473,7 @@
         <v>1</v>
       </c>
       <c r="AE140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45488,11 +45488,11 @@
         <v>2829</v>
       </c>
       <c r="D141" t="str">
+        <f t="shared" si="8"/>
+        <v>flora-fauna--definir-liquen</v>
+      </c>
+      <c r="E141" t="str">
         <f t="shared" si="6"/>
-        <v>flora-fauna/definir-liquen</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="7"/>
         <v>flora-fauna</v>
       </c>
       <c r="F141" t="s">
@@ -45508,7 +45508,7 @@
         <v>1</v>
       </c>
       <c r="AE141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -45523,11 +45523,11 @@
         <v>2825</v>
       </c>
       <c r="D142" t="str">
+        <f t="shared" si="8"/>
+        <v>flora-fauna--definir-polifiletico</v>
+      </c>
+      <c r="E142" t="str">
         <f t="shared" si="6"/>
-        <v>flora-fauna/definir-polifiletico</v>
-      </c>
-      <c r="E142" t="str">
-        <f t="shared" si="7"/>
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
@@ -45543,7 +45543,7 @@
         <v>1</v>
       </c>
       <c r="AE142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -45558,11 +45558,11 @@
         <v>2785</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" ref="D143:D207" si="9">IF(AND(ISBLANK(F143),ISBLANK(G143),ISBLANK(H143)), E143, _xlfn.CONCAT(E143,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F143),"",_xlfn.CONCAT(F143,"-")),IF(ISBLANK(G143),"",_xlfn.CONCAT(G143,"-")),IF(ISBLANK(H143),"",_xlfn.CONCAT(H143,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>fauna/definir-polipo</v>
+        <f t="shared" si="8"/>
+        <v>fauna--definir-polipo</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" ref="E143:E207" si="10">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J143=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K143=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L143=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M143=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N143=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O143=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P143=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q143=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R143=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S143=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T143=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U143=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V143=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W143=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X143=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y143=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z143=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA143=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB143=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC143=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD143=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E143:E207" si="9">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J143=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K143=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L143=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M143=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N143=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O143=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P143=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q143=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R143=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S143=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T143=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U143=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V143=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W143=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X143=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y143=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z143=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA143=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB143=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC143=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD143=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>fauna</v>
       </c>
       <c r="F143" t="s">
@@ -45575,7 +45575,7 @@
         <v>1</v>
       </c>
       <c r="AE143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45590,11 +45590,11 @@
         <v>2776</v>
       </c>
       <c r="D144" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-coral-dieta</v>
+      </c>
+      <c r="E144" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-coral-dieta</v>
-      </c>
-      <c r="E144" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
@@ -45610,7 +45610,7 @@
         <v>1</v>
       </c>
       <c r="AE144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45622,11 +45622,11 @@
         <v>2792</v>
       </c>
       <c r="D145" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-medusa</v>
+      </c>
+      <c r="E145" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-medusa</v>
-      </c>
-      <c r="E145" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F145" t="s">
@@ -45639,7 +45639,7 @@
         <v>1</v>
       </c>
       <c r="AE145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45651,11 +45651,11 @@
         <v>2802</v>
       </c>
       <c r="D146" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-animal-marinho</v>
+      </c>
+      <c r="E146" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-animal-marinho</v>
-      </c>
-      <c r="E146" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AE146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45683,11 +45683,11 @@
         <v>2805</v>
       </c>
       <c r="D147" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--listar-animal-marinho</v>
+      </c>
+      <c r="E147" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/listar-animal-marinho</v>
-      </c>
-      <c r="E147" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
@@ -45703,7 +45703,7 @@
         <v>1</v>
       </c>
       <c r="AE147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45718,11 +45718,11 @@
         <v>2813</v>
       </c>
       <c r="D148" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-peixe</v>
+      </c>
+      <c r="E148" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-peixe</v>
-      </c>
-      <c r="E148" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
@@ -45735,7 +45735,7 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45750,11 +45750,11 @@
         <v>2812</v>
       </c>
       <c r="D149" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-actinoperigeo</v>
+      </c>
+      <c r="E149" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-actinoperigeo</v>
-      </c>
-      <c r="E149" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
@@ -45767,7 +45767,7 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45782,11 +45782,11 @@
         <v>2811</v>
       </c>
       <c r="D150" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-tubarao</v>
+      </c>
+      <c r="E150" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-tubarao</v>
-      </c>
-      <c r="E150" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
@@ -45799,7 +45799,7 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45808,11 +45808,11 @@
         <v>2919</v>
       </c>
       <c r="D151" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--pertence-tubarao-peixe</v>
+      </c>
+      <c r="E151" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/pertence-tubarao-peixe</v>
-      </c>
-      <c r="E151" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
@@ -45828,7 +45828,7 @@
         <v>1</v>
       </c>
       <c r="AE151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45843,11 +45843,11 @@
         <v>2818</v>
       </c>
       <c r="D152" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--maior-animal-marinho</v>
+      </c>
+      <c r="E152" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/maior-animal-marinho</v>
-      </c>
-      <c r="E152" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
@@ -45863,7 +45863,7 @@
         <v>1</v>
       </c>
       <c r="AE152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45875,11 +45875,11 @@
         <v>2819</v>
       </c>
       <c r="D153" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--existe-baleia-brasil</v>
+      </c>
+      <c r="E153" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/existe-baleia-brasil</v>
-      </c>
-      <c r="E153" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
@@ -45895,7 +45895,7 @@
         <v>1</v>
       </c>
       <c r="AE153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45910,11 +45910,11 @@
         <v>2821</v>
       </c>
       <c r="D154" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna-turismo--localizacao-baleia-brasil</v>
+      </c>
+      <c r="E154" t="str">
         <f t="shared" si="9"/>
-        <v>fauna-turismo/localizacao-baleia-brasil</v>
-      </c>
-      <c r="E154" t="str">
-        <f t="shared" si="10"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F154" t="s">
@@ -45933,7 +45933,7 @@
         <v>1</v>
       </c>
       <c r="AE154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -45942,18 +45942,18 @@
         <v>2680</v>
       </c>
       <c r="D155" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna</v>
+      </c>
+      <c r="E155" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
-      <c r="E155" t="str">
-        <f t="shared" si="10"/>
-        <v>fauna</v>
-      </c>
       <c r="V155">
         <v>1</v>
       </c>
       <c r="AE155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45962,18 +45962,18 @@
         <v>2681</v>
       </c>
       <c r="D156" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna</v>
+      </c>
+      <c r="E156" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
-      <c r="E156" t="str">
-        <f t="shared" si="10"/>
-        <v>fauna</v>
-      </c>
       <c r="V156">
         <v>1</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -45982,18 +45982,18 @@
         <v>2682</v>
       </c>
       <c r="D157" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna</v>
+      </c>
+      <c r="E157" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="10"/>
-        <v>fauna</v>
-      </c>
       <c r="V157">
         <v>1</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46008,11 +46008,11 @@
         <v>2764</v>
       </c>
       <c r="D158" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-plancton</v>
+      </c>
+      <c r="E158" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-plancton</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F158" t="s">
@@ -46025,7 +46025,7 @@
         <v>1</v>
       </c>
       <c r="AE158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46040,11 +46040,11 @@
         <v>2779</v>
       </c>
       <c r="D159" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-fitoplancton</v>
+      </c>
+      <c r="E159" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-fitoplancton</v>
-      </c>
-      <c r="E159" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
@@ -46057,7 +46057,7 @@
         <v>1</v>
       </c>
       <c r="AE159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46069,11 +46069,11 @@
         <v>2782</v>
       </c>
       <c r="D160" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-salpa</v>
+      </c>
+      <c r="E160" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-salpa</v>
-      </c>
-      <c r="E160" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
@@ -46086,7 +46086,7 @@
         <v>1</v>
       </c>
       <c r="AE160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46101,11 +46101,11 @@
         <v>2780</v>
       </c>
       <c r="D161" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-zooplancton</v>
+      </c>
+      <c r="E161" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-zooplancton</v>
-      </c>
-      <c r="E161" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
@@ -46118,7 +46118,7 @@
         <v>1</v>
       </c>
       <c r="AE161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46133,11 +46133,11 @@
         <v>2767</v>
       </c>
       <c r="D162" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-anemona</v>
+      </c>
+      <c r="E162" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-anemona</v>
-      </c>
-      <c r="E162" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
@@ -46150,7 +46150,7 @@
         <v>1</v>
       </c>
       <c r="AE162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46162,11 +46162,11 @@
         <v>2791</v>
       </c>
       <c r="D163" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-hidra</v>
+      </c>
+      <c r="E163" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-hidra</v>
-      </c>
-      <c r="E163" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
@@ -46179,7 +46179,7 @@
         <v>1</v>
       </c>
       <c r="AE163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46194,11 +46194,11 @@
         <v>2811</v>
       </c>
       <c r="D164" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna-turismo--existe-tubarao-brasil</v>
+      </c>
+      <c r="E164" t="str">
         <f t="shared" si="9"/>
-        <v>fauna-turismo/existe-tubarao-brasil</v>
-      </c>
-      <c r="E164" t="str">
-        <f t="shared" si="10"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F164" t="s">
@@ -46217,7 +46217,7 @@
         <v>1</v>
       </c>
       <c r="AE164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -46226,18 +46226,18 @@
         <v>2700</v>
       </c>
       <c r="D165" t="str">
+        <f t="shared" si="8"/>
+        <v>extra</v>
+      </c>
+      <c r="E165" t="str">
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="E165" t="str">
-        <f t="shared" si="10"/>
-        <v>extra</v>
-      </c>
       <c r="AD165">
         <v>1</v>
       </c>
       <c r="AE165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46249,11 +46249,11 @@
         <v>2738</v>
       </c>
       <c r="D166" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--listar-crustaceo</v>
+      </c>
+      <c r="E166" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/listar-crustaceo</v>
-      </c>
-      <c r="E166" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F166" t="s">
@@ -46266,7 +46266,7 @@
         <v>1</v>
       </c>
       <c r="AE166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46281,11 +46281,11 @@
         <v>2745</v>
       </c>
       <c r="D167" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-tunicado</v>
+      </c>
+      <c r="E167" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-tunicado</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
@@ -46298,7 +46298,7 @@
         <v>1</v>
       </c>
       <c r="AE167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46310,11 +46310,11 @@
         <v>2788</v>
       </c>
       <c r="D168" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-molusco</v>
+      </c>
+      <c r="E168" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-molusco</v>
-      </c>
-      <c r="E168" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
@@ -46327,7 +46327,7 @@
         <v>1</v>
       </c>
       <c r="AE168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46339,11 +46339,11 @@
         <v>2789</v>
       </c>
       <c r="D169" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--listar-molusco</v>
+      </c>
+      <c r="E169" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/listar-molusco</v>
-      </c>
-      <c r="E169" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
@@ -46356,7 +46356,7 @@
         <v>1</v>
       </c>
       <c r="AE169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46365,18 +46365,18 @@
         <v>2731</v>
       </c>
       <c r="D170" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna</v>
+      </c>
+      <c r="E170" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
-      <c r="E170" t="str">
-        <f t="shared" si="10"/>
-        <v>fauna</v>
-      </c>
       <c r="V170">
         <v>1</v>
       </c>
       <c r="AE170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46391,11 +46391,11 @@
         <v>2748</v>
       </c>
       <c r="D171" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-crustaceo</v>
+      </c>
+      <c r="E171" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-crustaceo</v>
-      </c>
-      <c r="E171" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F171" t="s">
@@ -46408,7 +46408,7 @@
         <v>1</v>
       </c>
       <c r="AE171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46420,11 +46420,11 @@
         <v>2737</v>
       </c>
       <c r="D172" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--detalhar-crustaceo</v>
+      </c>
+      <c r="E172" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/detalhar-crustaceo</v>
-      </c>
-      <c r="E172" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
@@ -46437,7 +46437,7 @@
         <v>1</v>
       </c>
       <c r="AE172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46452,11 +46452,11 @@
         <v>2747</v>
       </c>
       <c r="D173" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-filo</v>
+      </c>
+      <c r="E173" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-filo</v>
-      </c>
-      <c r="E173" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
@@ -46469,7 +46469,7 @@
         <v>1</v>
       </c>
       <c r="AE173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46484,11 +46484,11 @@
         <v>2746</v>
       </c>
       <c r="D174" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-cordado</v>
+      </c>
+      <c r="E174" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-cordado</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
@@ -46504,7 +46504,7 @@
         <v>1</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46519,11 +46519,11 @@
         <v>2770</v>
       </c>
       <c r="D175" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-cnidario</v>
+      </c>
+      <c r="E175" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-cnidario</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
@@ -46536,7 +46536,7 @@
         <v>1</v>
       </c>
       <c r="AE175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46551,11 +46551,11 @@
         <v>2769</v>
       </c>
       <c r="D176" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--definir-cnida</v>
+      </c>
+      <c r="E176" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/definir-cnida</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
@@ -46571,7 +46571,7 @@
         <v>1</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46583,11 +46583,11 @@
         <v>2793</v>
       </c>
       <c r="D177" t="str">
+        <f t="shared" si="8"/>
+        <v>fauna--listar-cnidario</v>
+      </c>
+      <c r="E177" t="str">
         <f t="shared" si="9"/>
-        <v>fauna/listar-cnidario</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="10"/>
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
@@ -46600,7 +46600,7 @@
         <v>1</v>
       </c>
       <c r="AE177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46609,18 +46609,18 @@
         <v>1192</v>
       </c>
       <c r="D178" t="str">
+        <f t="shared" si="8"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E178" t="str">
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="E178" t="str">
-        <f t="shared" si="10"/>
-        <v>oceanografia</v>
-      </c>
       <c r="W178">
         <v>1</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46629,18 +46629,18 @@
         <v>2686</v>
       </c>
       <c r="D179" t="str">
+        <f t="shared" si="8"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E179" t="str">
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="E179" t="str">
-        <f t="shared" si="10"/>
-        <v>oceanografia</v>
-      </c>
       <c r="W179">
         <v>1</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46649,18 +46649,18 @@
         <v>2794</v>
       </c>
       <c r="D180" t="str">
+        <f t="shared" si="8"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E180" t="str">
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="E180" t="str">
-        <f t="shared" si="10"/>
-        <v>oceanografia</v>
-      </c>
       <c r="W180">
         <v>1</v>
       </c>
       <c r="AE180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46669,18 +46669,18 @@
         <v>1505</v>
       </c>
       <c r="D181" t="str">
+        <f t="shared" si="8"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E181" t="str">
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="E181" t="str">
-        <f t="shared" si="10"/>
-        <v>oceanografia</v>
-      </c>
       <c r="W181">
         <v>1</v>
       </c>
       <c r="AE181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46689,18 +46689,18 @@
         <v>1783</v>
       </c>
       <c r="D182" t="str">
+        <f t="shared" si="8"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="E182" t="str">
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="E182" t="str">
-        <f t="shared" si="10"/>
-        <v>oceanografia</v>
-      </c>
       <c r="W182">
         <v>1</v>
       </c>
       <c r="AE182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46709,18 +46709,18 @@
         <v>2687</v>
       </c>
       <c r="D183" t="str">
+        <f t="shared" si="8"/>
+        <v>turismo</v>
+      </c>
+      <c r="E183" t="str">
         <f t="shared" si="9"/>
         <v>turismo</v>
       </c>
-      <c r="E183" t="str">
-        <f t="shared" si="10"/>
-        <v>turismo</v>
-      </c>
       <c r="X183">
         <v>1</v>
       </c>
       <c r="AE183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46729,18 +46729,18 @@
         <v>2688</v>
       </c>
       <c r="D184" t="str">
+        <f t="shared" si="8"/>
+        <v>turismo</v>
+      </c>
+      <c r="E184" t="str">
         <f t="shared" si="9"/>
         <v>turismo</v>
       </c>
-      <c r="E184" t="str">
-        <f t="shared" si="10"/>
-        <v>turismo</v>
-      </c>
       <c r="X184">
         <v>1</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46749,18 +46749,18 @@
         <v>2689</v>
       </c>
       <c r="D185" t="str">
+        <f t="shared" si="8"/>
+        <v>turismo</v>
+      </c>
+      <c r="E185" t="str">
         <f t="shared" si="9"/>
         <v>turismo</v>
       </c>
-      <c r="E185" t="str">
-        <f t="shared" si="10"/>
-        <v>turismo</v>
-      </c>
       <c r="X185">
         <v>1</v>
       </c>
       <c r="AE185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46769,18 +46769,18 @@
         <v>2690</v>
       </c>
       <c r="D186" t="str">
+        <f t="shared" si="8"/>
+        <v>engenharia</v>
+      </c>
+      <c r="E186" t="str">
         <f t="shared" si="9"/>
         <v>engenharia</v>
       </c>
-      <c r="E186" t="str">
-        <f t="shared" si="10"/>
-        <v>engenharia</v>
-      </c>
       <c r="Y186">
         <v>1</v>
       </c>
       <c r="AE186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46789,18 +46789,18 @@
         <v>2691</v>
       </c>
       <c r="D187" t="str">
+        <f t="shared" si="8"/>
+        <v>engenharia</v>
+      </c>
+      <c r="E187" t="str">
         <f t="shared" si="9"/>
         <v>engenharia</v>
       </c>
-      <c r="E187" t="str">
-        <f t="shared" si="10"/>
-        <v>engenharia</v>
-      </c>
       <c r="Y187">
         <v>1</v>
       </c>
       <c r="AE187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46809,18 +46809,18 @@
         <v>2692</v>
       </c>
       <c r="D188" t="str">
+        <f t="shared" si="8"/>
+        <v>engenharia</v>
+      </c>
+      <c r="E188" t="str">
         <f t="shared" si="9"/>
         <v>engenharia</v>
       </c>
-      <c r="E188" t="str">
-        <f t="shared" si="10"/>
-        <v>engenharia</v>
-      </c>
       <c r="Y188">
         <v>1</v>
       </c>
       <c r="AE188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46829,18 +46829,18 @@
         <v>1387</v>
       </c>
       <c r="D189" t="str">
+        <f t="shared" si="8"/>
+        <v>saude</v>
+      </c>
+      <c r="E189" t="str">
         <f t="shared" si="9"/>
         <v>saude</v>
       </c>
-      <c r="E189" t="str">
-        <f t="shared" si="10"/>
-        <v>saude</v>
-      </c>
       <c r="Z189">
         <v>1</v>
       </c>
       <c r="AE189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46849,18 +46849,18 @@
         <v>1619</v>
       </c>
       <c r="D190" t="str">
+        <f t="shared" si="8"/>
+        <v>saude</v>
+      </c>
+      <c r="E190" t="str">
         <f t="shared" si="9"/>
         <v>saude</v>
       </c>
-      <c r="E190" t="str">
-        <f t="shared" si="10"/>
-        <v>saude</v>
-      </c>
       <c r="Z190">
         <v>1</v>
       </c>
       <c r="AE190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46869,18 +46869,18 @@
         <v>2693</v>
       </c>
       <c r="D191" t="str">
+        <f t="shared" si="8"/>
+        <v>saude</v>
+      </c>
+      <c r="E191" t="str">
         <f t="shared" si="9"/>
         <v>saude</v>
       </c>
-      <c r="E191" t="str">
-        <f t="shared" si="10"/>
-        <v>saude</v>
-      </c>
       <c r="Z191">
         <v>1</v>
       </c>
       <c r="AE191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46889,18 +46889,18 @@
         <v>1427</v>
       </c>
       <c r="D192" t="str">
+        <f t="shared" si="8"/>
+        <v>litoral</v>
+      </c>
+      <c r="E192" t="str">
         <f t="shared" si="9"/>
         <v>litoral</v>
       </c>
-      <c r="E192" t="str">
-        <f t="shared" si="10"/>
-        <v>litoral</v>
-      </c>
       <c r="AA192">
         <v>1</v>
       </c>
       <c r="AE192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46909,18 +46909,18 @@
         <v>2694</v>
       </c>
       <c r="D193" t="str">
+        <f t="shared" si="8"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E193" t="str">
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="E193" t="str">
-        <f t="shared" si="10"/>
-        <v>protecao_ambiental</v>
-      </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AE193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46929,18 +46929,18 @@
         <v>1571</v>
       </c>
       <c r="D194" t="str">
+        <f t="shared" ref="D194:D209" si="10">IF(AND(ISBLANK(F194),ISBLANK(G194),ISBLANK(H194)), E194, _xlfn.CONCAT(E194,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F194),"",_xlfn.CONCAT(F194,"-")),IF(ISBLANK(G194),"",_xlfn.CONCAT(G194,"-")),IF(ISBLANK(H194),"",_xlfn.CONCAT(H194,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E194" t="str">
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="E194" t="str">
-        <f t="shared" si="10"/>
-        <v>protecao_ambiental</v>
-      </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AE194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46949,18 +46949,18 @@
         <v>2695</v>
       </c>
       <c r="D195" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E195" t="str">
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="E195" t="str">
-        <f t="shared" si="10"/>
-        <v>protecao_ambiental</v>
-      </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AE195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46969,18 +46969,18 @@
         <v>1669</v>
       </c>
       <c r="D196" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E196" t="str">
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="E196" t="str">
-        <f t="shared" si="10"/>
-        <v>protecao_ambiental</v>
-      </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AE196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -46989,11 +46989,11 @@
         <v>2696</v>
       </c>
       <c r="D197" t="str">
+        <f t="shared" si="10"/>
+        <v>protecao_ambiental</v>
+      </c>
+      <c r="E197" t="str">
         <f t="shared" si="9"/>
-        <v>protecao_ambiental</v>
-      </c>
-      <c r="E197" t="str">
-        <f t="shared" si="10"/>
         <v>protecao_ambiental</v>
       </c>
       <c r="AB197">
@@ -47009,11 +47009,11 @@
         <v>1846</v>
       </c>
       <c r="D198" t="str">
+        <f t="shared" si="10"/>
+        <v>geologia</v>
+      </c>
+      <c r="E198" t="str">
         <f t="shared" si="9"/>
-        <v>geologia</v>
-      </c>
-      <c r="E198" t="str">
-        <f t="shared" si="10"/>
         <v>geologia</v>
       </c>
       <c r="AC198">
@@ -47029,11 +47029,11 @@
         <v>2637</v>
       </c>
       <c r="D199" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E199" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E199" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD199">
@@ -47049,11 +47049,11 @@
         <v>2638</v>
       </c>
       <c r="D200" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E200" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E200" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD200">
@@ -47069,11 +47069,11 @@
         <v>2639</v>
       </c>
       <c r="D201" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E201" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E201" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD201">
@@ -47089,11 +47089,11 @@
         <v>2640</v>
       </c>
       <c r="D202" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E202" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E202" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD202">
@@ -47109,11 +47109,11 @@
         <v>2643</v>
       </c>
       <c r="D203" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E203" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E203" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD203">
@@ -47129,11 +47129,11 @@
         <v>2644</v>
       </c>
       <c r="D204" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E204" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E204" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD204">
@@ -47149,11 +47149,11 @@
         <v>2641</v>
       </c>
       <c r="D205" t="str">
+        <f t="shared" si="10"/>
+        <v>extra</v>
+      </c>
+      <c r="E205" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
-      </c>
-      <c r="E205" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="AD205">
@@ -47175,11 +47175,11 @@
         <v>2752</v>
       </c>
       <c r="D206" t="str">
+        <f t="shared" si="10"/>
+        <v>extra--definir-gas-producao</v>
+      </c>
+      <c r="E206" t="str">
         <f t="shared" si="9"/>
-        <v>extra/definir-gas-producao</v>
-      </c>
-      <c r="E206" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="F206" t="s">
@@ -47204,11 +47204,11 @@
         <v>2646</v>
       </c>
       <c r="D207" t="str">
+        <f t="shared" si="10"/>
+        <v>extra--listar-programas-de-protecao-aaz</v>
+      </c>
+      <c r="E207" t="str">
         <f t="shared" si="9"/>
-        <v>extra/listar-programas-de-protecao-aaz</v>
-      </c>
-      <c r="E207" t="str">
-        <f t="shared" si="10"/>
         <v>extra</v>
       </c>
       <c r="F207" t="s">
@@ -47239,11 +47239,11 @@
         <v>2734</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" ref="D208:D209" si="12">IF(AND(ISBLANK(F208),ISBLANK(G208),ISBLANK(H208)), E208, _xlfn.CONCAT(E208,"/",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F208),"",_xlfn.CONCAT(F208,"-")),IF(ISBLANK(G208),"",_xlfn.CONCAT(G208,"-")),IF(ISBLANK(H208),"",_xlfn.CONCAT(H208,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>extra/motivo-importancia-aaz</v>
+        <f t="shared" si="10"/>
+        <v>extra--motivo-importancia-aaz</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" ref="E208:E209" si="13">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J208=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K208=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L208=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M208=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N208=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O208=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P208=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q208=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R208=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S208=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T208=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U208=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V208=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W208=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X208=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y208=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z208=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA208=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB208=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC208=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD208=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E208:E209" si="12">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J208=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K208=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L208=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M208=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N208=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O208=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P208=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q208=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R208=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S208=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T208=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U208=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V208=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W208=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X208=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y208=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z208=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA208=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB208=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC208=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD208=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>extra</v>
       </c>
       <c r="F208" t="s">
@@ -47274,11 +47274,11 @@
         <v>2732</v>
       </c>
       <c r="D209" t="str">
+        <f t="shared" si="10"/>
+        <v>extra--motivo-nome-aaz</v>
+      </c>
+      <c r="E209" t="str">
         <f t="shared" si="12"/>
-        <v>extra/motivo-nome-aaz</v>
-      </c>
-      <c r="E209" t="str">
-        <f t="shared" si="13"/>
         <v>extra</v>
       </c>
       <c r="F209" t="s">
@@ -47606,1453 +47606,1453 @@
     </row>
     <row r="261" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE261" t="str">
-        <f t="shared" ref="AE261:AE324" si="14">IF(SUM(J261:AD261)=0,"",SUM(J261:AD261))</f>
+        <f t="shared" ref="AE261:AE324" si="13">IF(SUM(J261:AD261)=0,"",SUM(J261:AD261))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE262" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE263" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE264" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE265" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE266" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE267" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE268" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE269" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE270" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE271" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE272" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE273" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE274" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE275" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE276" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE277" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE278" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE279" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE280" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE281" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE282" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE283" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE284" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE285" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE286" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE287" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE288" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE289" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE290" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE291" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE292" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE293" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE294" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE295" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE296" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE297" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE298" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE299" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE300" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE301" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE302" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE303" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE304" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE305" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE306" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE307" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE308" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE309" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE310" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE311" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE312" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE313" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE314" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE315" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE316" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE317" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE318" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE319" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE320" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE321" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE322" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE323" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE324" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE325" t="str">
+        <f t="shared" ref="AE325:AE388" si="14">IF(SUM(J325:AD325)=0,"",SUM(J325:AD325))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE326" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE263" t="str">
+    <row r="327" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE327" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE264" t="str">
+    <row r="328" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE328" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE265" t="str">
+    <row r="329" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE329" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE266" t="str">
+    <row r="330" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE330" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE267" t="str">
+    <row r="331" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE331" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE268" t="str">
+    <row r="332" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE332" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE269" t="str">
+    <row r="333" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE333" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE270" t="str">
+    <row r="334" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE334" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE271" t="str">
+    <row r="335" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE335" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE272" t="str">
+    <row r="336" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE336" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE273" t="str">
+    <row r="337" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE337" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE274" t="str">
+    <row r="338" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE338" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE275" t="str">
+    <row r="339" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE339" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE276" t="str">
+    <row r="340" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE340" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE277" t="str">
+    <row r="341" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE341" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE278" t="str">
+    <row r="342" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE342" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE279" t="str">
+    <row r="343" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE343" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE280" t="str">
+    <row r="344" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE344" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE281" t="str">
+    <row r="345" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE345" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE282" t="str">
+    <row r="346" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE346" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE283" t="str">
+    <row r="347" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE347" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE284" t="str">
+    <row r="348" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE348" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE285" t="str">
+    <row r="349" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE349" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE286" t="str">
+    <row r="350" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE350" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE287" t="str">
+    <row r="351" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE351" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE288" t="str">
+    <row r="352" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE352" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE289" t="str">
+    <row r="353" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE353" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE290" t="str">
+    <row r="354" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE354" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE291" t="str">
+    <row r="355" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE355" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE292" t="str">
+    <row r="356" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE356" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE293" t="str">
+    <row r="357" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE357" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE294" t="str">
+    <row r="358" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE358" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE295" t="str">
+    <row r="359" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE359" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE296" t="str">
+    <row r="360" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE360" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE297" t="str">
+    <row r="361" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE361" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE298" t="str">
+    <row r="362" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE362" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE299" t="str">
+    <row r="363" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE363" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE300" t="str">
+    <row r="364" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE364" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE301" t="str">
+    <row r="365" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE365" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE302" t="str">
+    <row r="366" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE366" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE303" t="str">
+    <row r="367" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE367" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE304" t="str">
+    <row r="368" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE368" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE305" t="str">
+    <row r="369" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE369" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE306" t="str">
+    <row r="370" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE370" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE307" t="str">
+    <row r="371" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE371" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE308" t="str">
+    <row r="372" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE372" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE309" t="str">
+    <row r="373" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE373" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE310" t="str">
+    <row r="374" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE374" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE311" t="str">
+    <row r="375" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE375" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE312" t="str">
+    <row r="376" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE376" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE313" t="str">
+    <row r="377" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE377" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE314" t="str">
+    <row r="378" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE378" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE315" t="str">
+    <row r="379" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE379" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE316" t="str">
+    <row r="380" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE380" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE317" t="str">
+    <row r="381" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE381" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE318" t="str">
+    <row r="382" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE382" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE319" t="str">
+    <row r="383" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE383" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE320" t="str">
+    <row r="384" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE384" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE321" t="str">
+    <row r="385" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE385" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE322" t="str">
+    <row r="386" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE386" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE323" t="str">
+    <row r="387" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE387" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE324" t="str">
+    <row r="388" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE388" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE325" t="str">
-        <f t="shared" ref="AE325:AE388" si="15">IF(SUM(J325:AD325)=0,"",SUM(J325:AD325))</f>
+    <row r="389" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE389" t="str">
+        <f t="shared" ref="AE389:AE452" si="15">IF(SUM(J389:AD389)=0,"",SUM(J389:AD389))</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE326" t="str">
+    <row r="390" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE390" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE327" t="str">
+    <row r="391" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE391" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE328" t="str">
+    <row r="392" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE392" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE329" t="str">
+    <row r="393" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE393" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE330" t="str">
+    <row r="394" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE394" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE331" t="str">
+    <row r="395" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE395" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE332" t="str">
+    <row r="396" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE396" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE333" t="str">
+    <row r="397" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE397" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE334" t="str">
+    <row r="398" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE398" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE335" t="str">
+    <row r="399" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE399" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE336" t="str">
+    <row r="400" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE400" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE337" t="str">
+    <row r="401" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE401" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE338" t="str">
+    <row r="402" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE402" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE339" t="str">
+    <row r="403" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE403" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE340" t="str">
+    <row r="404" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE404" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE341" t="str">
+    <row r="405" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE405" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE342" t="str">
+    <row r="406" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE406" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE343" t="str">
+    <row r="407" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE407" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE344" t="str">
+    <row r="408" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE408" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE345" t="str">
+    <row r="409" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE409" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE346" t="str">
+    <row r="410" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE410" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE347" t="str">
+    <row r="411" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE411" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE348" t="str">
+    <row r="412" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE412" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE349" t="str">
+    <row r="413" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE413" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE350" t="str">
+    <row r="414" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE414" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE351" t="str">
+    <row r="415" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE415" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE352" t="str">
+    <row r="416" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE416" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE353" t="str">
+    <row r="417" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE417" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE354" t="str">
+    <row r="418" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE418" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE355" t="str">
+    <row r="419" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE419" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE356" t="str">
+    <row r="420" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE420" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE357" t="str">
+    <row r="421" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE421" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE358" t="str">
+    <row r="422" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE422" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE359" t="str">
+    <row r="423" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE423" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE360" t="str">
+    <row r="424" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE424" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE361" t="str">
+    <row r="425" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE425" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE362" t="str">
+    <row r="426" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE426" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE363" t="str">
+    <row r="427" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE427" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE364" t="str">
+    <row r="428" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE428" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE365" t="str">
+    <row r="429" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE429" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE366" t="str">
+    <row r="430" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE430" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE367" t="str">
+    <row r="431" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE431" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE368" t="str">
+    <row r="432" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE432" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE369" t="str">
+    <row r="433" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE433" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE370" t="str">
+    <row r="434" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE434" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE371" t="str">
+    <row r="435" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE435" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE372" t="str">
+    <row r="436" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE436" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE373" t="str">
+    <row r="437" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE437" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE374" t="str">
+    <row r="438" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE438" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE375" t="str">
+    <row r="439" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE439" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE376" t="str">
+    <row r="440" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE440" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE377" t="str">
+    <row r="441" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE441" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE378" t="str">
+    <row r="442" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE442" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE379" t="str">
+    <row r="443" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE443" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE380" t="str">
+    <row r="444" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE444" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE381" t="str">
+    <row r="445" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE445" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE382" t="str">
+    <row r="446" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE446" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE383" t="str">
+    <row r="447" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE447" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE384" t="str">
+    <row r="448" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE448" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE385" t="str">
+    <row r="449" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE449" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE386" t="str">
+    <row r="450" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE450" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE387" t="str">
+    <row r="451" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE451" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE388" t="str">
+    <row r="452" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE452" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE389" t="str">
-        <f t="shared" ref="AE389:AE452" si="16">IF(SUM(J389:AD389)=0,"",SUM(J389:AD389))</f>
+    <row r="453" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE453" t="str">
+        <f t="shared" ref="AE453:AE502" si="16">IF(SUM(J453:AD453)=0,"",SUM(J453:AD453))</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE390" t="str">
+    <row r="454" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE454" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE391" t="str">
+    <row r="455" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE455" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE392" t="str">
+    <row r="456" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE456" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE393" t="str">
+    <row r="457" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE457" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE394" t="str">
+    <row r="458" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE458" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE395" t="str">
+    <row r="459" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE459" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE396" t="str">
+    <row r="460" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE460" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE397" t="str">
+    <row r="461" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE461" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE398" t="str">
+    <row r="462" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE462" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE399" t="str">
+    <row r="463" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE463" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE400" t="str">
+    <row r="464" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE464" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE401" t="str">
+    <row r="465" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE465" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE402" t="str">
+    <row r="466" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE466" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE403" t="str">
+    <row r="467" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE467" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE404" t="str">
+    <row r="468" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE468" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE405" t="str">
+    <row r="469" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE469" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE406" t="str">
+    <row r="470" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE470" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE407" t="str">
+    <row r="471" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE471" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE408" t="str">
+    <row r="472" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE472" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE409" t="str">
+    <row r="473" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE473" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE410" t="str">
+    <row r="474" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE474" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE411" t="str">
+    <row r="475" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE475" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE412" t="str">
+    <row r="476" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE476" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE413" t="str">
+    <row r="477" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE477" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE414" t="str">
+    <row r="478" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE478" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE415" t="str">
+    <row r="479" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE479" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE416" t="str">
+    <row r="480" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE480" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE417" t="str">
+    <row r="481" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE481" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE418" t="str">
+    <row r="482" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE482" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE419" t="str">
+    <row r="483" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE483" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE420" t="str">
+    <row r="484" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE484" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE421" t="str">
+    <row r="485" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE485" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE422" t="str">
+    <row r="486" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE486" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE423" t="str">
+    <row r="487" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE487" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE424" t="str">
+    <row r="488" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE488" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE425" t="str">
+    <row r="489" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE489" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE426" t="str">
+    <row r="490" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE490" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE427" t="str">
+    <row r="491" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE491" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE428" t="str">
+    <row r="492" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE492" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE429" t="str">
+    <row r="493" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE493" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE430" t="str">
+    <row r="494" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE494" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE431" t="str">
+    <row r="495" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE495" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE432" t="str">
+    <row r="496" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE496" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE433" t="str">
+    <row r="497" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE497" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE434" t="str">
+    <row r="498" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE498" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE435" t="str">
+    <row r="499" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE499" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE436" t="str">
+    <row r="500" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE500" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE437" t="str">
+    <row r="501" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE501" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE438" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="439" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE439" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE440" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE441" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE442" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE443" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE444" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE445" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE446" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE447" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE448" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE449" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE450" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE451" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE452" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE453" t="str">
-        <f t="shared" ref="AE453:AE502" si="17">IF(SUM(J453:AD453)=0,"",SUM(J453:AD453))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE454" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE455" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE456" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE457" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE458" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE459" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE460" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE461" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE462" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE463" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE464" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE465" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE466" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE467" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE468" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE469" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE470" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE471" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE472" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE473" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE474" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE475" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE476" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE477" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE478" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE479" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE480" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE481" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE482" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE483" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE484" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE485" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE486" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE487" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE488" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE489" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE490" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE491" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE492" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE493" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE494" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE495" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE496" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE497" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE498" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE499" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE500" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="501" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE501" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
     <row r="502" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE502" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED687D05-90C8-4B64-8107-C438E05E8304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EB538B-BBBB-464C-A72D-4A9C7052C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="960" windowWidth="11820" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="566" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8926" uniqueCount="2930">
   <si>
     <t>query</t>
   </si>
@@ -8580,12 +8580,6 @@
     <t>Quais são as ameaças às tartarugas?</t>
   </si>
   <si>
-    <t>modificador</t>
-  </si>
-  <si>
-    <t>substantivo</t>
-  </si>
-  <si>
     <t>composicao</t>
   </si>
   <si>
@@ -8634,9 +8628,6 @@
     <t>tipos</t>
   </si>
   <si>
-    <t>recipiente</t>
-  </si>
-  <si>
     <t>iniciativas</t>
   </si>
   <si>
@@ -8661,9 +8652,6 @@
     <t>quantidade</t>
   </si>
   <si>
-    <t>brasil</t>
-  </si>
-  <si>
     <t>Qual é a maior reserva de petróleo no Brasil?</t>
   </si>
   <si>
@@ -8688,9 +8676,6 @@
     <t>quelonio</t>
   </si>
   <si>
-    <t>rótulos</t>
-  </si>
-  <si>
     <t>cagado</t>
   </si>
   <si>
@@ -8706,9 +8691,6 @@
     <t>nome</t>
   </si>
   <si>
-    <t>geral</t>
-  </si>
-  <si>
     <t>definir</t>
   </si>
   <si>
@@ -8821,6 +8803,33 @@
   </si>
   <si>
     <t>O que é energia de maré?</t>
+  </si>
+  <si>
+    <t>Rótulos</t>
+  </si>
+  <si>
+    <t>Modificador</t>
+  </si>
+  <si>
+    <t>Substantivo</t>
+  </si>
+  <si>
+    <t>Recipiente</t>
+  </si>
+  <si>
+    <t>maremoto</t>
+  </si>
+  <si>
+    <t>circulacao</t>
+  </si>
+  <si>
+    <t>trincheira-profunda</t>
+  </si>
+  <si>
+    <t>Como o oceano é usado?</t>
+  </si>
+  <si>
+    <t>acidificacao</t>
   </si>
 </sst>
 </file>
@@ -17907,7 +17916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB571"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -30030,8 +30041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E933B6A1-031B-4D1D-8E81-FF5488950B7F}">
   <dimension ref="A1:AB571"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42188,8 +42199,8 @@
   <dimension ref="A1:AE502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42198,10 +42209,10 @@
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="28" max="28" width="8.88671875" customWidth="1"/>
   </cols>
@@ -42220,16 +42231,16 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
-        <v>2882</v>
+        <v>2921</v>
       </c>
       <c r="F1" t="s">
-        <v>2846</v>
+        <v>2922</v>
       </c>
       <c r="G1" t="s">
-        <v>2847</v>
+        <v>2923</v>
       </c>
       <c r="H1" t="s">
-        <v>2864</v>
+        <v>2924</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
@@ -42311,7 +42322,7 @@
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="G2" t="s">
         <v>2708</v>
@@ -42340,10 +42351,10 @@
         <v>coral</v>
       </c>
       <c r="F3" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G3" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -42362,17 +42373,14 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definir-geral</v>
+        <v>coral--definir</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F4" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -42398,7 +42406,7 @@
         <v>coral</v>
       </c>
       <c r="F5" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -42421,10 +42429,10 @@
         <v>coral</v>
       </c>
       <c r="F6" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G6" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -42447,10 +42455,10 @@
         <v>coral</v>
       </c>
       <c r="F7" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G7" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -42473,13 +42481,13 @@
         <v>coral</v>
       </c>
       <c r="F8" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H8" t="s">
         <v>2853</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2865</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2855</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -42502,10 +42510,10 @@
         <v>coral</v>
       </c>
       <c r="F9" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="G9" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -42528,10 +42536,10 @@
         <v>coral</v>
       </c>
       <c r="F10" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="H10" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -42554,10 +42562,10 @@
         <v>coral</v>
       </c>
       <c r="F11" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G11" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -42580,13 +42588,13 @@
         <v>coral</v>
       </c>
       <c r="F12" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="G12" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="H12" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -42632,10 +42640,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F14" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="H14" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -42658,10 +42666,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F15" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="H15" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -42673,7 +42681,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2923</v>
+        <v>2917</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -42684,10 +42692,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F16" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G16" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -42699,7 +42707,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2924</v>
+        <v>2918</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -42710,10 +42718,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F17" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G17" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -42725,7 +42733,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -42736,10 +42744,10 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F18" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G18" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -42762,7 +42770,7 @@
         <v>energia_de_mare</v>
       </c>
       <c r="F19" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -42778,20 +42786,17 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--definir-geral</v>
+        <v>energia_de_mare--definir</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="3"/>
         <v>energia_de_mare</v>
       </c>
       <c r="F20" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="I20" t="s">
-        <v>2926</v>
+        <v>2920</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -42814,10 +42819,10 @@
         <v>petroleo</v>
       </c>
       <c r="F21" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="G21" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -42939,20 +42944,17 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--maiores-reserva-brasil</v>
+        <v>petroleo--maiores-reserva</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
         <v>petroleo</v>
       </c>
       <c r="F27" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="G27" t="s">
-        <v>2868</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -42964,24 +42966,21 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--maior-reserva-brasil</v>
+        <v>petroleo--maior-reserva</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="3"/>
         <v>petroleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="G28" t="s">
-        <v>2868</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -43010,13 +43009,13 @@
         <v>petroleo</v>
       </c>
       <c r="F29" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G29" t="s">
         <v>2867</v>
       </c>
-      <c r="G29" t="s">
-        <v>2870</v>
-      </c>
       <c r="H29" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -43045,13 +43044,13 @@
         <v>petroleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="G30" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="H30" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -43073,17 +43072,14 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--quantidade-brasil</v>
+        <v>petroleo--quantidade</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="3"/>
         <v>petroleo</v>
       </c>
       <c r="F31" t="s">
-        <v>2872</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -43109,13 +43105,13 @@
         <v>petroleo</v>
       </c>
       <c r="F32" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="G32" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="H32" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -43261,7 +43257,7 @@
         <v>petroleo</v>
       </c>
       <c r="F39" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -43416,10 +43412,10 @@
         <v>petroleo</v>
       </c>
       <c r="F46" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="H46" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -43448,10 +43444,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F47" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="H47" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -43500,10 +43496,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F49" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G49" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -43522,20 +43518,17 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--diferenca-jabuti-tartaruga</v>
+        <v>tartaruga--diferenca-jabuti</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F50" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="G50" t="s">
-        <v>2876</v>
-      </c>
-      <c r="H50" t="s">
-        <v>2711</v>
+        <v>2872</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -43554,20 +43547,17 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--pertence-jabuti-tartaruga</v>
+        <v>tartaruga--pertence-jabuti</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F51" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="G51" t="s">
-        <v>2876</v>
-      </c>
-      <c r="H51" t="s">
-        <v>2711</v>
+        <v>2872</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -43593,10 +43583,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F52" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G52" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -43622,10 +43612,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F53" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G53" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -43651,10 +43641,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F54" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G54" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -43673,17 +43663,14 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-geral</v>
+        <v>tartaruga--definir</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F55" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H55" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -43732,13 +43719,13 @@
         <v>tartaruga</v>
       </c>
       <c r="F57" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G57" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="H57" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -43764,10 +43751,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F58" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="H58" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="I58" t="s">
         <v>2845</v>
@@ -43876,10 +43863,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F63" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G63" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -43965,7 +43952,7 @@
         <v>tartaruga</v>
       </c>
       <c r="F67" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -44034,10 +44021,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F70" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G70" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -44595,7 +44582,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>1224</v>
+        <v>2928</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -44619,12 +44606,18 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="4"/>
-        <v>oceano</v>
+        <v>oceano--motivo-circulacao</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
+      <c r="F99" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2926</v>
+      </c>
       <c r="O99">
         <v>1</v>
       </c>
@@ -44639,13 +44632,19 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="4"/>
-        <v>oceano</v>
+        <v>extra--definir-trincheira-profunda</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="6"/>
-        <v>oceano</v>
-      </c>
-      <c r="O100">
+        <v>extra</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AD100">
         <v>1</v>
       </c>
       <c r="AE100">
@@ -44679,12 +44678,18 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
-        <v>oceano</v>
+        <v>oceano--definir-acidificacao</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
+      <c r="F102" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2929</v>
+      </c>
       <c r="O102">
         <v>1</v>
       </c>
@@ -45085,12 +45090,15 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>mare--motivo</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="6"/>
         <v>mare</v>
       </c>
+      <c r="F122" t="s">
+        <v>2880</v>
+      </c>
       <c r="Q122">
         <v>1</v>
       </c>
@@ -45105,13 +45113,19 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>extra--definir-maremoto</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q123">
+        <v>extra</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AD123">
         <v>1</v>
       </c>
       <c r="AE123">
@@ -45325,13 +45339,13 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>navio</v>
+        <v>extra</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="6"/>
-        <v>navio</v>
-      </c>
-      <c r="T134">
+        <v>extra</v>
+      </c>
+      <c r="AD134">
         <v>1</v>
       </c>
       <c r="AE134">
@@ -45345,13 +45359,13 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>navio</v>
+        <v>extra</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="6"/>
-        <v>navio</v>
-      </c>
-      <c r="T135">
+        <v>extra</v>
+      </c>
+      <c r="AD135">
         <v>1</v>
       </c>
       <c r="AE135">
@@ -45464,10 +45478,10 @@
         <v>flora</v>
       </c>
       <c r="F140" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G140" t="s">
-        <v>2890</v>
+        <v>2884</v>
       </c>
       <c r="U140">
         <v>1</v>
@@ -45496,10 +45510,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F141" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G141" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="U141">
         <v>1</v>
@@ -45531,10 +45545,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G142" t="s">
-        <v>2893</v>
+        <v>2887</v>
       </c>
       <c r="U142">
         <v>1</v>
@@ -45566,10 +45580,10 @@
         <v>fauna</v>
       </c>
       <c r="F143" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G143" t="s">
-        <v>2894</v>
+        <v>2888</v>
       </c>
       <c r="V143">
         <v>1</v>
@@ -45598,13 +45612,13 @@
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G144" t="s">
         <v>2708</v>
       </c>
       <c r="H144" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="V144">
         <v>1</v>
@@ -45630,10 +45644,10 @@
         <v>fauna</v>
       </c>
       <c r="F145" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G145" t="s">
         <v>2889</v>
-      </c>
-      <c r="G145" t="s">
-        <v>2895</v>
       </c>
       <c r="V145">
         <v>1</v>
@@ -45659,13 +45673,13 @@
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G146" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="H146" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="V146">
         <v>1</v>
@@ -45691,13 +45705,13 @@
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G147" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="H147" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="V147">
         <v>1</v>
@@ -45726,10 +45740,10 @@
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G148" t="s">
-        <v>2896</v>
+        <v>2890</v>
       </c>
       <c r="V148">
         <v>1</v>
@@ -45758,10 +45772,10 @@
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G149" t="s">
-        <v>2902</v>
+        <v>2896</v>
       </c>
       <c r="V149">
         <v>1</v>
@@ -45790,10 +45804,10 @@
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G150" t="s">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="V150">
         <v>1</v>
@@ -45805,7 +45819,7 @@
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>2919</v>
+        <v>2913</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
@@ -45816,13 +45830,13 @@
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="G151" t="s">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="H151" t="s">
-        <v>2896</v>
+        <v>2890</v>
       </c>
       <c r="V151">
         <v>1</v>
@@ -45851,13 +45865,13 @@
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="G152" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="H152" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="V152">
         <v>1</v>
@@ -45876,20 +45890,17 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--existe-baleia-brasil</v>
+        <v>fauna--existe-baleia</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
-        <v>2904</v>
+        <v>2898</v>
       </c>
       <c r="G153" t="s">
-        <v>2905</v>
-      </c>
-      <c r="H153" t="s">
-        <v>2873</v>
+        <v>2899</v>
       </c>
       <c r="V153">
         <v>1</v>
@@ -45911,20 +45922,17 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>fauna-turismo--localizacao-baleia-brasil</v>
+        <v>fauna-turismo--localizacao-baleia</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="9"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F154" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="G154" t="s">
-        <v>2905</v>
-      </c>
-      <c r="H154" t="s">
-        <v>2873</v>
+        <v>2899</v>
       </c>
       <c r="V154">
         <v>1</v>
@@ -46016,10 +46024,10 @@
         <v>fauna</v>
       </c>
       <c r="F158" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G158" t="s">
-        <v>2906</v>
+        <v>2900</v>
       </c>
       <c r="V158">
         <v>1</v>
@@ -46048,10 +46056,10 @@
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G159" t="s">
-        <v>2907</v>
+        <v>2901</v>
       </c>
       <c r="V159">
         <v>1</v>
@@ -46077,10 +46085,10 @@
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G160" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="V160">
         <v>1</v>
@@ -46109,10 +46117,10 @@
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G161" t="s">
-        <v>2908</v>
+        <v>2902</v>
       </c>
       <c r="V161">
         <v>1</v>
@@ -46141,10 +46149,10 @@
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G162" t="s">
-        <v>2909</v>
+        <v>2903</v>
       </c>
       <c r="V162">
         <v>1</v>
@@ -46170,10 +46178,10 @@
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G163" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="V163">
         <v>1</v>
@@ -46195,20 +46203,17 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>fauna-turismo--existe-tubarao-brasil</v>
+        <v>fauna-turismo--existe-tubarao</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="9"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F164" t="s">
-        <v>2904</v>
+        <v>2898</v>
       </c>
       <c r="G164" t="s">
-        <v>2903</v>
-      </c>
-      <c r="H164" t="s">
-        <v>2873</v>
+        <v>2897</v>
       </c>
       <c r="V164">
         <v>1</v>
@@ -46257,10 +46262,10 @@
         <v>fauna</v>
       </c>
       <c r="F166" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G166" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="V166">
         <v>1</v>
@@ -46289,10 +46294,10 @@
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G167" t="s">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="V167">
         <v>1</v>
@@ -46318,10 +46323,10 @@
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G168" t="s">
-        <v>2901</v>
+        <v>2895</v>
       </c>
       <c r="V168">
         <v>1</v>
@@ -46347,10 +46352,10 @@
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G169" t="s">
-        <v>2901</v>
+        <v>2895</v>
       </c>
       <c r="V169">
         <v>1</v>
@@ -46399,10 +46404,10 @@
         <v>fauna</v>
       </c>
       <c r="F171" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G171" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="V171">
         <v>1</v>
@@ -46428,10 +46433,10 @@
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
-        <v>2913</v>
+        <v>2907</v>
       </c>
       <c r="G172" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="V172">
         <v>1</v>
@@ -46460,10 +46465,10 @@
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G173" t="s">
-        <v>2910</v>
+        <v>2904</v>
       </c>
       <c r="V173">
         <v>1</v>
@@ -46492,13 +46497,13 @@
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G174" t="s">
-        <v>2914</v>
+        <v>2908</v>
       </c>
       <c r="I174" t="s">
-        <v>2915</v>
+        <v>2909</v>
       </c>
       <c r="V174">
         <v>1</v>
@@ -46527,10 +46532,10 @@
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G175" t="s">
-        <v>2916</v>
+        <v>2910</v>
       </c>
       <c r="V175">
         <v>1</v>
@@ -46545,7 +46550,7 @@
         <v>2768</v>
       </c>
       <c r="B176" t="s">
-        <v>2918</v>
+        <v>2912</v>
       </c>
       <c r="C176" t="s">
         <v>2769</v>
@@ -46559,13 +46564,13 @@
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G176" t="s">
+        <v>2905</v>
+      </c>
+      <c r="I176" t="s">
         <v>2911</v>
-      </c>
-      <c r="I176" t="s">
-        <v>2917</v>
       </c>
       <c r="V176">
         <v>1</v>
@@ -46591,10 +46596,10 @@
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G177" t="s">
-        <v>2916</v>
+        <v>2910</v>
       </c>
       <c r="V177">
         <v>1</v>
@@ -47183,13 +47188,13 @@
         <v>extra</v>
       </c>
       <c r="F206" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="G206" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="H206" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="AD206">
         <v>1</v>
@@ -47212,13 +47217,13 @@
         <v>extra</v>
       </c>
       <c r="F207" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="G207" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="H207" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="AD207">
         <v>1</v>
@@ -47247,13 +47252,13 @@
         <v>extra</v>
       </c>
       <c r="F208" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="G208" t="s">
-        <v>2920</v>
+        <v>2914</v>
       </c>
       <c r="H208" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="AD208">
         <v>1</v>
@@ -47282,13 +47287,13 @@
         <v>extra</v>
       </c>
       <c r="F209" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="G209" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="H209" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="AD209">
         <v>1</v>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EB538B-BBBB-464C-A72D-4A9C7052C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B16DAB-DABD-4D0A-8DAF-256DF4C7E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="566" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="9972" yWindow="960" windowWidth="11820" windowHeight="10332" tabRatio="566" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="programas" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$1:$AE$502</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$1:$AF$502</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8926" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="2931">
   <si>
     <t>query</t>
   </si>
@@ -8169,30 +8169,15 @@
     <t>coral</t>
   </si>
   <si>
-    <t>energia_de_mare</t>
-  </si>
-  <si>
-    <t>petroleo</t>
-  </si>
-  <si>
     <t>tartaruga</t>
   </si>
   <si>
-    <t>fisica</t>
-  </si>
-  <si>
     <t>oceano</t>
   </si>
   <si>
     <t>onda</t>
   </si>
   <si>
-    <t>mare</t>
-  </si>
-  <si>
-    <t>simbolo</t>
-  </si>
-  <si>
     <t>corrente</t>
   </si>
   <si>
@@ -8541,9 +8526,6 @@
     <t>Os cágados são geralmente menores que outros quelônios e costumam viver tanto em ambientes terrestres (onde saem pra tomar sol e colocar os ovos) e aquáticos de água doce (onde acasalam). O seu casco é achatado e eles possuem patas cilíndricas, com nadadeiras e membranas entre os dedos e pequenas unhas que auxiliam a locomoção na terra. Esses animais costumam dobrar lateralmente o longo pescoço para dentro do casco quando precisam se esconder e costumam ser carnivoros, comendo pequenos peixes e crustáceos.</t>
   </si>
   <si>
-    <t>As tartugas são animais aquáticos (vivem tanto em água doce quanto salgada), possuem o casco alto e achatado e as suas patas são em formato de remo, o que facilita seu deslocamento aquático. Há especies carnívoras e outras herbívoras.</t>
-  </si>
-  <si>
     <t>A principal diferença reside no habitat. Tartarugas são aquáticas, jabutis são terrestres e cágados são semi-aquáticos. Os seus corpos são adaptados para esses ambientes, por exemplo, as patas de tartarugas parecem nadadeiras com seu formato de remo, enquanto as de jabutis são similares às de elefante.</t>
   </si>
   <si>
@@ -8580,9 +8562,6 @@
     <t>Quais são as ameaças às tartarugas?</t>
   </si>
   <si>
-    <t>composicao</t>
-  </si>
-  <si>
     <t>branqueamento</t>
   </si>
   <si>
@@ -8598,9 +8577,6 @@
     <t>listar</t>
   </si>
   <si>
-    <t>localizacao</t>
-  </si>
-  <si>
     <t>governo</t>
   </si>
   <si>
@@ -8616,12 +8592,6 @@
     <t>economia</t>
   </si>
   <si>
-    <t>pros-contras</t>
-  </si>
-  <si>
-    <t>pros</t>
-  </si>
-  <si>
     <t>recife-artificial</t>
   </si>
   <si>
@@ -8640,15 +8610,9 @@
     <t>reserva</t>
   </si>
   <si>
-    <t>producao</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>quantidade</t>
   </si>
   <si>
@@ -8664,24 +8628,9 @@
     <t>dieta</t>
   </si>
   <si>
-    <t>diferenca</t>
-  </si>
-  <si>
     <t>pertence</t>
   </si>
   <si>
-    <t>especies</t>
-  </si>
-  <si>
-    <t>quelonio</t>
-  </si>
-  <si>
-    <t>cagado</t>
-  </si>
-  <si>
-    <t>extincao</t>
-  </si>
-  <si>
     <t>motivo</t>
   </si>
   <si>
@@ -8700,12 +8649,6 @@
     <t>marinho</t>
   </si>
   <si>
-    <t>liquen</t>
-  </si>
-  <si>
-    <t>polifiletico</t>
-  </si>
-  <si>
     <t>polipo</t>
   </si>
   <si>
@@ -8730,12 +8673,6 @@
     <t>molusco</t>
   </si>
   <si>
-    <t>actinoperigeo</t>
-  </si>
-  <si>
-    <t>tubarao</t>
-  </si>
-  <si>
     <t>existe</t>
   </si>
   <si>
@@ -8760,9 +8697,6 @@
     <t>cnida</t>
   </si>
   <si>
-    <t>crustaceo</t>
-  </si>
-  <si>
     <t>detalhar</t>
   </si>
   <si>
@@ -8784,15 +8718,9 @@
     <t>Tubarão é peixe?</t>
   </si>
   <si>
-    <t>importancia</t>
-  </si>
-  <si>
     <t>aaz</t>
   </si>
   <si>
-    <t>programas-de-protecao</t>
-  </si>
-  <si>
     <t>Quais são os prós e contras da energia de maré?</t>
   </si>
   <si>
@@ -8820,7 +8748,7 @@
     <t>maremoto</t>
   </si>
   <si>
-    <t>circulacao</t>
+    <t>maré</t>
   </si>
   <si>
     <t>trincheira-profunda</t>
@@ -8829,7 +8757,82 @@
     <t>Como o oceano é usado?</t>
   </si>
   <si>
-    <t>acidificacao</t>
+    <t>localização</t>
+  </si>
+  <si>
+    <t>produção</t>
+  </si>
+  <si>
+    <t>extinção</t>
+  </si>
+  <si>
+    <t>composição</t>
+  </si>
+  <si>
+    <t>circulação</t>
+  </si>
+  <si>
+    <t>acidificação</t>
+  </si>
+  <si>
+    <t>programas-de-proteção</t>
+  </si>
+  <si>
+    <t>petróleo</t>
+  </si>
+  <si>
+    <t>gás</t>
+  </si>
+  <si>
+    <t>As tartugas são animais aquáticos (vivem tanto em água doce quanto salgada), possuem o casco alto e achatado e as suas patas são em formato de remo, o que facilita seu deslocamento aquático. Há espécies carnívoras e outras herbívoras.</t>
+  </si>
+  <si>
+    <t>espécies</t>
+  </si>
+  <si>
+    <t>diferença</t>
+  </si>
+  <si>
+    <t>actinoperígeo</t>
+  </si>
+  <si>
+    <t>tubarão</t>
+  </si>
+  <si>
+    <t>crustáceo</t>
+  </si>
+  <si>
+    <t>importância</t>
+  </si>
+  <si>
+    <t>polifilético</t>
+  </si>
+  <si>
+    <t>líquen</t>
+  </si>
+  <si>
+    <t>símbolo</t>
+  </si>
+  <si>
+    <t>energia_de_maré</t>
+  </si>
+  <si>
+    <t>física</t>
+  </si>
+  <si>
+    <t>quelônio</t>
+  </si>
+  <si>
+    <t>cágado</t>
+  </si>
+  <si>
+    <t>energia-de-maré</t>
+  </si>
+  <si>
+    <t>prós</t>
+  </si>
+  <si>
+    <t>prós-contras</t>
   </si>
 </sst>
 </file>
@@ -42196,11 +42199,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:AE502"/>
+  <dimension ref="A1:AF502"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42214,10 +42217,10 @@
     <col min="7" max="7" width="25.21875" customWidth="1"/>
     <col min="8" max="8" width="28.5546875" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2569</v>
       </c>
@@ -42231,16 +42234,16 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
-        <v>2921</v>
+        <v>2897</v>
       </c>
       <c r="F1" t="s">
-        <v>2922</v>
+        <v>2898</v>
       </c>
       <c r="G1" t="s">
-        <v>2923</v>
+        <v>2899</v>
       </c>
       <c r="H1" t="s">
-        <v>2924</v>
+        <v>2900</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
@@ -42249,96 +42252,102 @@
         <v>2708</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>2709</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>2925</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>2710</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2711</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>2902</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>2713</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>2714</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>2717</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>2718</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>2720</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>2721</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>2722</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AE1" s="6" t="s">
         <v>2723</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>2724</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>2726</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>2727</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2594</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>coral-turismo--efeito-coral</v>
+        <v>coral-turismo--efeito-turismo-coral</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E2:E30" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE2=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2848</v>
+        <v>2841</v>
       </c>
       <c r="G2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="H2" t="s">
         <v>2708</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="AE2">
-        <f>IF(SUM(J2:AD2)=0,"",SUM(J2:AD2))</f>
+      <c r="AF2">
+        <f>IF(SUM(J2:AE2)=0,"",SUM(J2:AE2))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2595</v>
       </c>
@@ -42347,29 +42356,29 @@
         <v>coral--definir-recife</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E14" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J3=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K3=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L3=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M3=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N3=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O3=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P3=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q3=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R3=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S3=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T3=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U3=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V3=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W3=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X3=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y3=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z3=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA3=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB3=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC3=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD3=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F3" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G3" t="s">
-        <v>2849</v>
+        <v>2842</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE67" si="2">IF(SUM(J3:AD3)=0,"",SUM(J3:AD3))</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF67" si="2">IF(SUM(J3:AE3)=0,"",SUM(J3:AE3))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2596</v>
       </c>
       <c r="B4" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -42380,43 +42389,43 @@
         <v>coral</v>
       </c>
       <c r="F4" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2597</v>
       </c>
       <c r="B5" t="s">
-        <v>2773</v>
+        <v>2768</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>coral--composicao</v>
+        <v>coral--composição</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F5" t="s">
-        <v>2846</v>
+        <v>2908</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2598</v>
       </c>
@@ -42429,20 +42438,20 @@
         <v>coral</v>
       </c>
       <c r="F6" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G6" t="s">
-        <v>2847</v>
+        <v>2840</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2599</v>
       </c>
@@ -42455,20 +42464,20 @@
         <v>coral</v>
       </c>
       <c r="F7" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G7" t="s">
-        <v>2849</v>
+        <v>2842</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2600</v>
       </c>
@@ -42481,49 +42490,49 @@
         <v>coral</v>
       </c>
       <c r="F8" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G8" t="s">
-        <v>2862</v>
+        <v>2852</v>
       </c>
       <c r="H8" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2601</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>coral--localizacao-recife</v>
+        <v>coral--localização-recife</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F9" t="s">
-        <v>2852</v>
+        <v>2905</v>
       </c>
       <c r="G9" t="s">
-        <v>2849</v>
+        <v>2842</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2602</v>
       </c>
@@ -42536,20 +42545,20 @@
         <v>coral</v>
       </c>
       <c r="F10" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H10" t="s">
         <v>2851</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2861</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2603</v>
       </c>
@@ -42562,20 +42571,20 @@
         <v>coral</v>
       </c>
       <c r="F11" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G11" t="s">
-        <v>2860</v>
+        <v>2850</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2604</v>
       </c>
@@ -42588,849 +42597,855 @@
         <v>coral</v>
       </c>
       <c r="F12" t="s">
+        <v>2841</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H12" t="s">
         <v>2848</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2847</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2856</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1027</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>coral-simbolo</v>
+        <v>coral-símbolo</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>coral-simbolo</v>
+        <v>coral-símbolo</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>997</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--efeito-ambiente</v>
+        <v>energia_de_maré--efeito-energia-de-maré-ambiente</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_mare</v>
+        <v>energia_de_maré</v>
       </c>
       <c r="F14" t="s">
+        <v>2841</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H14" t="s">
         <v>2848</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2856</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1048</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--efeito-economia</v>
+        <v>energia_de_maré--efeito-energia-de-maré-economia</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E78" si="3">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J15=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K15=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L15=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M15=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N15=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O15=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P15=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q15=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R15=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S15=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T15=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U15=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V15=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W15=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X15=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y15=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z15=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA15=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB15=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC15=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD15=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>energia_de_mare</v>
+        <f t="shared" si="1"/>
+        <v>energia_de_maré</v>
       </c>
       <c r="F15" t="s">
-        <v>2848</v>
+        <v>2841</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2928</v>
       </c>
       <c r="H15" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2917</v>
+        <v>2893</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--listar-pros-contras</v>
+        <v>energia_de_maré--listar-prós-contras</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="3"/>
-        <v>energia_de_mare</v>
+        <f t="shared" si="1"/>
+        <v>energia_de_maré</v>
       </c>
       <c r="F16" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G16" t="s">
-        <v>2858</v>
+        <v>2930</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2918</v>
+        <v>2894</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--listar-contras</v>
+        <v>energia_de_maré--listar-contras</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>energia_de_mare</v>
+        <f t="shared" si="1"/>
+        <v>energia_de_maré</v>
       </c>
       <c r="F17" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G17" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2919</v>
+        <v>2895</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--listar-pros</v>
+        <v>energia_de_maré--listar-prós</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>energia_de_mare</v>
+        <f t="shared" si="1"/>
+        <v>energia_de_maré</v>
       </c>
       <c r="F18" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G18" t="s">
-        <v>2859</v>
+        <v>2929</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2605</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--localizacao</v>
+        <v>energia_de_maré--localização</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>energia_de_mare</v>
+        <f t="shared" si="1"/>
+        <v>energia_de_maré</v>
       </c>
       <c r="F19" t="s">
-        <v>2852</v>
+        <v>2905</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>2645</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_mare--definir</v>
+        <v>energia_de_maré--definir</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="3"/>
-        <v>energia_de_mare</v>
+        <f t="shared" si="1"/>
+        <v>energia_de_maré</v>
       </c>
       <c r="F20" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="I20" t="s">
-        <v>2920</v>
+        <v>2896</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2606</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--maior-empresa</v>
+        <v>petróleo--maior-empresa</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="F21" t="s">
-        <v>2850</v>
+        <v>2843</v>
       </c>
       <c r="G21" t="s">
-        <v>2863</v>
+        <v>2853</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2607</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2608</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2039</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2609</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2610</v>
       </c>
       <c r="B27" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="C27" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--maiores-reserva</v>
+        <v>petróleo--maiores-reserva</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="F27" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="G27" t="s">
-        <v>2865</v>
+        <v>2855</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2870</v>
+        <v>2858</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--maior-reserva</v>
+        <v>petróleo--maior-reserva</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2850</v>
+        <v>2843</v>
       </c>
       <c r="G28" t="s">
-        <v>2865</v>
+        <v>2855</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>2753</v>
+        <v>2748</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>2757</v>
+        <v>2752</v>
       </c>
       <c r="C29" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D29" t="str">
         <f>IF(AND(ISBLANK(F29),ISBLANK(G29),ISBLANK(H29)), E29, _xlfn.CONCAT(E29,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F29),"",_xlfn.CONCAT(F29,"-")),IF(ISBLANK(G29),"",_xlfn.CONCAT(G29,"-")),IF(ISBLANK(H29),"",_xlfn.CONCAT(H29,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>petroleo--maiores-estado-producao</v>
+        <v>gás--maiores-estado-produção</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>gás</v>
       </c>
       <c r="F29" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="G29" t="s">
-        <v>2867</v>
+        <v>2856</v>
       </c>
       <c r="H29" t="s">
-        <v>2866</v>
-      </c>
-      <c r="L29">
+        <v>2906</v>
+      </c>
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>2758</v>
+        <v>2753</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="C30" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--maiores-gas-producao</v>
+        <v>petróleo--maiores-estado-produção</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" si="1"/>
+        <v>petróleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="G30" t="s">
-        <v>2868</v>
+        <v>2856</v>
       </c>
       <c r="H30" t="s">
-        <v>2866</v>
+        <v>2906</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2754</v>
+        <v>2749</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>2755</v>
+        <v>2750</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--quantidade</v>
+        <v>petróleo--quantidade</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J31=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K31=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L31=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M31=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N31=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O31=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P31=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q31=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R31=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S31=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T31=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U31=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V31=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W31=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X31=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y31=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z31=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA31=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB31=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC31=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD31=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE31=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>petróleo</v>
       </c>
       <c r="F31" t="s">
-        <v>2869</v>
+        <v>2857</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--quantidade-gas-consumo</v>
+        <v>gás--quantidade-consumo</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J32=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K32=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L32=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M32=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N32=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O32=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P32=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q32=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R32=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S32=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T32=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U32=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V32=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W32=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X32=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y32=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z32=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA32=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB32=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC32=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD32=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE32=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>gás</v>
       </c>
       <c r="F32" t="s">
-        <v>2869</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2868</v>
+        <v>2857</v>
       </c>
       <c r="H32" t="s">
-        <v>2855</v>
-      </c>
-      <c r="L32">
+        <v>2847</v>
+      </c>
+      <c r="M32">
         <v>1</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2611</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <f t="shared" ref="E33:E96" si="3">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J33=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K33=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L33=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M33=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N33=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O33=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P33=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q33=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R33=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S33=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T33=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U33=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V33=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W33=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X33=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y33=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z33=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA33=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB33=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC33=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD33=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE33=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>petróleo</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2612</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2613</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1626</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2614</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <v>petróleo</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2615</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
+        <v>petróleo-gás</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
+        <v>petróleo-gás</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
-      <c r="AE38">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>petróleo--localização</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>petróleo</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2800</v>
-      </c>
-      <c r="D39" t="str">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo--localizacao</v>
-      </c>
-      <c r="E39" t="str">
+        <v>petróleo</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="F39" t="s">
-        <v>2852</v>
-      </c>
-      <c r="L39">
+        <v>petróleo</v>
+      </c>
+      <c r="L40">
         <v>1</v>
       </c>
-      <c r="AE39">
+      <c r="AF40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>2616</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2801</v>
-      </c>
-      <c r="D40" t="str">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E40" t="str">
+        <v>petróleo-engenharia</v>
+      </c>
+      <c r="E41" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="L40">
+        <v>petróleo-engenharia</v>
+      </c>
+      <c r="L41">
         <v>1</v>
       </c>
-      <c r="AE40">
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>petróleo</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>petróleo</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>2617</v>
-      </c>
-      <c r="D41" t="str">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo-engenharia</v>
-      </c>
-      <c r="E41" t="str">
+        <v>petróleo</v>
+      </c>
+      <c r="E43" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo-engenharia</v>
-      </c>
-      <c r="L41">
+        <v>petróleo</v>
+      </c>
+      <c r="L43">
         <v>1</v>
       </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>2618</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
+      <c r="AF43">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>2619</v>
-      </c>
-      <c r="D43" t="str">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E43" t="str">
+        <v>petróleo</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="L43">
+        <v>petróleo</v>
+      </c>
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="AE43">
+      <c r="AF44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>2620</v>
-      </c>
-      <c r="D44" t="str">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E44" t="str">
+        <v>petróleo</v>
+      </c>
+      <c r="E45" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="L44">
+        <v>petróleo</v>
+      </c>
+      <c r="L45">
         <v>1</v>
       </c>
-      <c r="AE44">
+      <c r="AF45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>2697</v>
-      </c>
-      <c r="D45" t="str">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>petroleo</v>
-      </c>
-      <c r="E45" t="str">
+        <v>petróleo--quantidade-produção</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="L45">
+        <v>petróleo</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2906</v>
+      </c>
+      <c r="L46">
         <v>1</v>
       </c>
-      <c r="AE45">
+      <c r="AF46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2752</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>petroleo--quantidade-producao</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>petroleo</v>
-      </c>
-      <c r="F46" t="s">
-        <v>2869</v>
-      </c>
-      <c r="H46" t="s">
-        <v>2866</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2574</v>
       </c>
       <c r="B47" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="C47" t="s">
         <v>2701</v>
@@ -43444,106 +43459,106 @@
         <v>tartaruga</v>
       </c>
       <c r="F47" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="H47" t="s">
-        <v>2873</v>
-      </c>
-      <c r="M47">
+        <v>2861</v>
+      </c>
+      <c r="N47">
         <v>1</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2575</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga-simbolo</v>
+        <v>tartaruga-símbolo</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga-simbolo</v>
-      </c>
-      <c r="M48">
+        <v>tartaruga-símbolo</v>
+      </c>
+      <c r="N48">
         <v>1</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>1</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2576</v>
       </c>
       <c r="B49" t="s">
-        <v>2836</v>
+        <v>2830</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--listar-especies</v>
+        <v>tartaruga--listar-espécies</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F49" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G49" t="s">
-        <v>2876</v>
-      </c>
-      <c r="M49">
+        <v>2915</v>
+      </c>
+      <c r="N49">
         <v>1</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2577</v>
       </c>
       <c r="B50" t="s">
-        <v>2834</v>
+        <v>2828</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--diferenca-jabuti</v>
+        <v>tartaruga--diferença-jabuti</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F50" t="s">
-        <v>2874</v>
+        <v>2916</v>
       </c>
       <c r="G50" t="s">
-        <v>2872</v>
-      </c>
-      <c r="M50">
+        <v>2860</v>
+      </c>
+      <c r="N50">
         <v>1</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="B51" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -43554,54 +43569,54 @@
         <v>tartaruga</v>
       </c>
       <c r="F51" t="s">
-        <v>2875</v>
+        <v>2862</v>
       </c>
       <c r="G51" t="s">
-        <v>2872</v>
-      </c>
-      <c r="M51">
+        <v>2860</v>
+      </c>
+      <c r="N51">
         <v>1</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="B52" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-quelonio</v>
+        <v>tartaruga--definir-quelônio</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F52" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G52" t="s">
-        <v>2877</v>
-      </c>
-      <c r="M52">
+        <v>2926</v>
+      </c>
+      <c r="N52">
         <v>1</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2578</v>
       </c>
       <c r="B53" t="s">
-        <v>2831</v>
+        <v>2826</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -43612,54 +43627,54 @@
         <v>tartaruga</v>
       </c>
       <c r="F53" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G53" t="s">
-        <v>2872</v>
-      </c>
-      <c r="M53">
+        <v>2860</v>
+      </c>
+      <c r="N53">
         <v>1</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2579</v>
       </c>
       <c r="B54" t="s">
-        <v>2832</v>
+        <v>2827</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-cagado</v>
+        <v>tartaruga--definir-cágado</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F54" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G54" t="s">
-        <v>2878</v>
-      </c>
-      <c r="M54">
+        <v>2927</v>
+      </c>
+      <c r="N54">
         <v>1</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2580</v>
       </c>
       <c r="B55" t="s">
-        <v>2833</v>
+        <v>2914</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -43670,17 +43685,17 @@
         <v>tartaruga</v>
       </c>
       <c r="F55" t="s">
-        <v>2883</v>
-      </c>
-      <c r="M55">
+        <v>2866</v>
+      </c>
+      <c r="N55">
         <v>1</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2581</v>
       </c>
@@ -43692,82 +43707,82 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>1</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2582</v>
       </c>
       <c r="B57" t="s">
-        <v>2842</v>
+        <v>2836</v>
       </c>
       <c r="C57" t="s">
-        <v>2837</v>
+        <v>2831</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--listar-especies-extincao</v>
+        <v>tartaruga--listar-espécies-extinção</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F57" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G57" t="s">
-        <v>2876</v>
+        <v>2915</v>
       </c>
       <c r="H57" t="s">
-        <v>2879</v>
-      </c>
-      <c r="M57">
+        <v>2907</v>
+      </c>
+      <c r="N57">
         <v>1</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2843</v>
+        <v>2837</v>
       </c>
       <c r="B58" t="s">
-        <v>2844</v>
+        <v>2838</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--motivo-extincao</v>
+        <v>tartaruga--motivo-extinção</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F58" t="s">
-        <v>2880</v>
+        <v>2863</v>
       </c>
       <c r="H58" t="s">
-        <v>2879</v>
+        <v>2907</v>
       </c>
       <c r="I58" t="s">
-        <v>2845</v>
-      </c>
-      <c r="M58">
+        <v>2839</v>
+      </c>
+      <c r="N58">
         <v>1</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2583</v>
       </c>
@@ -43779,15 +43794,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>1</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2584</v>
       </c>
@@ -43799,15 +43814,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>1</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2585</v>
       </c>
@@ -43819,15 +43834,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>1</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2586</v>
       </c>
@@ -43839,20 +43854,20 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>1</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2587</v>
       </c>
       <c r="B63" t="s">
-        <v>2841</v>
+        <v>2835</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -43863,20 +43878,20 @@
         <v>tartaruga</v>
       </c>
       <c r="F63" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G63" t="s">
-        <v>2881</v>
-      </c>
-      <c r="M63">
+        <v>2864</v>
+      </c>
+      <c r="N63">
         <v>1</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2588</v>
       </c>
@@ -43888,15 +43903,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>1</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2589</v>
       </c>
@@ -43908,15 +43923,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>1</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2590</v>
       </c>
@@ -43928,41 +43943,41 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2591</v>
       </c>
       <c r="B67" t="s">
-        <v>2835</v>
+        <v>2829</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="4"/>
-        <v>tartaruga--localizacao</v>
+        <v>tartaruga--localização</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
       <c r="F67" t="s">
-        <v>2852</v>
-      </c>
-      <c r="M67">
+        <v>2905</v>
+      </c>
+      <c r="N67">
         <v>1</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2592</v>
       </c>
@@ -43974,15 +43989,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>1</v>
       </c>
-      <c r="AE68">
-        <f t="shared" ref="AE68:AE128" si="5">IF(SUM(J68:AD68)=0,"",SUM(J68:AD68))</f>
+      <c r="AF68">
+        <f t="shared" ref="AF68:AF128" si="5">IF(SUM(J68:AE68)=0,"",SUM(J68:AE68))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>2699</v>
       </c>
@@ -43994,15 +44009,15 @@
         <f t="shared" si="3"/>
         <v>tartaruga</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>1</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>2593</v>
       </c>
@@ -44021,20 +44036,20 @@
         <v>tartaruga</v>
       </c>
       <c r="F70" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G70" t="s">
-        <v>2871</v>
-      </c>
-      <c r="M70">
+        <v>2859</v>
+      </c>
+      <c r="N70">
         <v>1</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>1404</v>
       </c>
@@ -44046,421 +44061,421 @@
         <f t="shared" si="3"/>
         <v>tartaruga-corrente</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>1</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>1</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>2624</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N72">
+        <v>física</v>
+      </c>
+      <c r="O72">
         <v>1</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>2622</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N73">
+        <v>física</v>
+      </c>
+      <c r="O73">
         <v>1</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>2623</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N74">
+        <v>física</v>
+      </c>
+      <c r="O74">
         <v>1</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2625</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N75">
+        <v>física</v>
+      </c>
+      <c r="O75">
         <v>1</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>2626</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N76">
+        <v>física</v>
+      </c>
+      <c r="O76">
         <v>1</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>2627</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N77">
+        <v>física</v>
+      </c>
+      <c r="O77">
         <v>1</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>2629</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="3"/>
-        <v>fisica</v>
-      </c>
-      <c r="N78">
+        <v>física</v>
+      </c>
+      <c r="O78">
         <v>1</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>2628</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" ref="E79:E142" si="6">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J79=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K79=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L79=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M79=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N79=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O79=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P79=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q79=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R79=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S79=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T79=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U79=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V79=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W79=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X79=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y79=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z79=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA79=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB79=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC79=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD79=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>fisica</v>
-      </c>
-      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O79">
         <v>1</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>2630</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O80">
         <v>1</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>1329</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O81">
         <v>1</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>1385</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O82">
         <v>1</v>
       </c>
-      <c r="AE82">
+      <c r="AF82">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>1389</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O83">
         <v>1</v>
       </c>
-      <c r="AE83">
+      <c r="AF83">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>1431</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O84">
         <v>1</v>
       </c>
-      <c r="AE84">
+      <c r="AF84">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>1446</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O85">
         <v>1</v>
       </c>
-      <c r="AE85">
+      <c r="AF85">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>2631</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O86">
         <v>1</v>
       </c>
-      <c r="AE86">
+      <c r="AF86">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>1577</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O87">
         <v>1</v>
       </c>
-      <c r="AE87">
+      <c r="AF87">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>1582</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O88">
         <v>1</v>
       </c>
-      <c r="AE88">
+      <c r="AF88">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>2632</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O89">
         <v>1</v>
       </c>
-      <c r="AE89">
+      <c r="AF89">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>2633</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="4"/>
-        <v>fisica</v>
+        <v>física</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="6"/>
-        <v>fisica</v>
-      </c>
-      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>física</v>
+      </c>
+      <c r="O90">
         <v>1</v>
       </c>
-      <c r="AE90">
+      <c r="AF90">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>2634</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="4"/>
-        <v>oceano-simbolo</v>
+        <v>oceano-símbolo</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="6"/>
-        <v>oceano-simbolo</v>
-      </c>
-      <c r="O91">
+        <f t="shared" si="3"/>
+        <v>oceano-símbolo</v>
+      </c>
+      <c r="P91">
         <v>1</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>1</v>
       </c>
-      <c r="AE91">
+      <c r="AF91">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>2635</v>
       </c>
@@ -44469,18 +44484,18 @@
         <v>oceano</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>oceano</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>1</v>
       </c>
-      <c r="AE92">
+      <c r="AF92">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>2041</v>
       </c>
@@ -44489,18 +44504,18 @@
         <v>oceano</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>oceano</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>1</v>
       </c>
-      <c r="AE93">
+      <c r="AF93">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>1095</v>
       </c>
@@ -44509,18 +44524,18 @@
         <v>oceano</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>oceano</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>1</v>
       </c>
-      <c r="AE94">
+      <c r="AF94">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>1802</v>
       </c>
@@ -44529,18 +44544,18 @@
         <v>oceano</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>oceano</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>1</v>
       </c>
-      <c r="AE95">
+      <c r="AF95">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>1171</v>
       </c>
@@ -44549,18 +44564,18 @@
         <v>oceano</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>oceano</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>1</v>
       </c>
-      <c r="AE96">
+      <c r="AF96">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>1177</v>
       </c>
@@ -44569,20 +44584,20 @@
         <v>oceano</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E97:E160" si="6">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J97=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K97=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L97=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M97=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N97=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O97=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P97=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q97=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R97=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S97=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T97=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U97=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V97=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W97=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X97=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y97=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z97=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA97=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB97=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC97=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD97=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE97=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>oceano</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>1</v>
       </c>
-      <c r="AE97">
+      <c r="AF97">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>2928</v>
+        <v>2904</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -44592,41 +44607,41 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>1</v>
       </c>
-      <c r="AE98">
+      <c r="AF98">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="4"/>
-        <v>oceano--motivo-circulacao</v>
+        <v>oceano--motivo-circulação</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="F99" t="s">
-        <v>2880</v>
+        <v>2863</v>
       </c>
       <c r="G99" t="s">
-        <v>2926</v>
-      </c>
-      <c r="O99">
+        <v>2909</v>
+      </c>
+      <c r="P99">
         <v>1</v>
       </c>
-      <c r="AE99">
+      <c r="AF99">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>1245</v>
       </c>
@@ -44639,20 +44654,20 @@
         <v>extra</v>
       </c>
       <c r="F100" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G100" t="s">
-        <v>2927</v>
-      </c>
-      <c r="AD100">
+        <v>2903</v>
+      </c>
+      <c r="AE100">
         <v>1</v>
       </c>
-      <c r="AE100">
+      <c r="AF100">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>1252</v>
       </c>
@@ -44664,41 +44679,41 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>1</v>
       </c>
-      <c r="AE101">
+      <c r="AF101">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>1325</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
-        <v>oceano--definir-acidificacao</v>
+        <v>oceano--definir-acidificação</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="F102" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G102" t="s">
-        <v>2929</v>
-      </c>
-      <c r="O102">
+        <v>2910</v>
+      </c>
+      <c r="P102">
         <v>1</v>
       </c>
-      <c r="AE102">
+      <c r="AF102">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>1335</v>
       </c>
@@ -44710,15 +44725,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>1</v>
       </c>
-      <c r="AE103">
+      <c r="AF103">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>1341</v>
       </c>
@@ -44730,15 +44745,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>1</v>
       </c>
-      <c r="AE104">
+      <c r="AF104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>1431</v>
       </c>
@@ -44750,15 +44765,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>1</v>
       </c>
-      <c r="AE105">
+      <c r="AF105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>1438</v>
       </c>
@@ -44770,15 +44785,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>1</v>
       </c>
-      <c r="AE106">
+      <c r="AF106">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>1446</v>
       </c>
@@ -44790,15 +44805,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>1</v>
       </c>
-      <c r="AE107">
+      <c r="AF107">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>1461</v>
       </c>
@@ -44810,15 +44825,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>1</v>
       </c>
-      <c r="AE108">
+      <c r="AF108">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>1480</v>
       </c>
@@ -44830,15 +44845,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>1</v>
       </c>
-      <c r="AE109">
+      <c r="AF109">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>1561</v>
       </c>
@@ -44850,15 +44865,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>1</v>
       </c>
-      <c r="AE110">
+      <c r="AF110">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>1580</v>
       </c>
@@ -44870,15 +44885,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>1</v>
       </c>
-      <c r="AE111">
+      <c r="AF111">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>1597</v>
       </c>
@@ -44890,15 +44905,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>1</v>
       </c>
-      <c r="AE112">
+      <c r="AF112">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>1667</v>
       </c>
@@ -44910,15 +44925,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>1</v>
       </c>
-      <c r="AE113">
+      <c r="AF113">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>1861</v>
       </c>
@@ -44930,15 +44945,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <v>1</v>
       </c>
-      <c r="AE114">
+      <c r="AF114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>1903</v>
       </c>
@@ -44950,15 +44965,15 @@
         <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>1</v>
       </c>
-      <c r="AE115">
+      <c r="AF115">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>2667</v>
       </c>
@@ -44970,38 +44985,38 @@
         <f t="shared" si="6"/>
         <v>onda</v>
       </c>
-      <c r="P116">
+      <c r="Q116">
         <v>1</v>
       </c>
-      <c r="AE116">
+      <c r="AF116">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>2668</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
-        <v>onda-mare</v>
+        <v>onda-maré</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
-        <v>onda-mare</v>
-      </c>
-      <c r="P117">
-        <v>1</v>
+        <v>onda-maré</v>
       </c>
       <c r="Q117">
         <v>1</v>
       </c>
-      <c r="AE117">
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="AF117">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>2669</v>
       </c>
@@ -45013,15 +45028,15 @@
         <f t="shared" si="6"/>
         <v>onda</v>
       </c>
-      <c r="P118">
+      <c r="Q118">
         <v>1</v>
       </c>
-      <c r="AE118">
+      <c r="AF118">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>1314</v>
       </c>
@@ -45033,15 +45048,15 @@
         <f t="shared" si="6"/>
         <v>onda</v>
       </c>
-      <c r="P119">
+      <c r="Q119">
         <v>1</v>
       </c>
-      <c r="AE119">
+      <c r="AF119">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>2670</v>
       </c>
@@ -45053,15 +45068,15 @@
         <f t="shared" si="6"/>
         <v>onda</v>
       </c>
-      <c r="P120">
+      <c r="Q120">
         <v>1</v>
       </c>
-      <c r="AE120">
+      <c r="AF120">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>1253</v>
       </c>
@@ -45073,41 +45088,41 @@
         <f t="shared" si="6"/>
         <v>onda-litoral</v>
       </c>
-      <c r="P121">
+      <c r="Q121">
         <v>1</v>
       </c>
-      <c r="AA121">
+      <c r="AB121">
         <v>1</v>
       </c>
-      <c r="AE121">
+      <c r="AF121">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="4"/>
-        <v>mare--motivo</v>
+        <v>maré--motivo</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="F122" t="s">
-        <v>2880</v>
-      </c>
-      <c r="Q122">
+        <v>2863</v>
+      </c>
+      <c r="R122">
         <v>1</v>
       </c>
-      <c r="AE122">
+      <c r="AF122">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>2671</v>
       </c>
@@ -45120,140 +45135,140 @@
         <v>extra</v>
       </c>
       <c r="F123" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G123" t="s">
-        <v>2925</v>
-      </c>
-      <c r="AD123">
+        <v>2901</v>
+      </c>
+      <c r="AE123">
         <v>1</v>
       </c>
-      <c r="AE123">
+      <c r="AF123">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>1833</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q124">
+        <v>maré</v>
+      </c>
+      <c r="R124">
         <v>1</v>
       </c>
-      <c r="AE124">
+      <c r="AF124">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>1140</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q125">
+        <v>maré</v>
+      </c>
+      <c r="R125">
         <v>1</v>
       </c>
-      <c r="AE125">
+      <c r="AF125">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>1279</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q126">
+        <v>maré</v>
+      </c>
+      <c r="R126">
         <v>1</v>
       </c>
-      <c r="AE126">
+      <c r="AF126">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>2672</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q127">
+        <v>maré</v>
+      </c>
+      <c r="R127">
         <v>1</v>
       </c>
-      <c r="AE127">
+      <c r="AF127">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>1488</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q128">
+        <v>maré</v>
+      </c>
+      <c r="R128">
         <v>1</v>
       </c>
-      <c r="AE128">
+      <c r="AF128">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>1552</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="4"/>
-        <v>mare</v>
+        <v>maré</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="6"/>
-        <v>mare</v>
-      </c>
-      <c r="Q129">
+        <v>maré</v>
+      </c>
+      <c r="R129">
         <v>1</v>
       </c>
-      <c r="AE129">
-        <f t="shared" ref="AE129:AE196" si="7">IF(SUM(J129:AD129)=0,"",SUM(J129:AD129))</f>
+      <c r="AF129">
+        <f t="shared" ref="AF129:AF196" si="7">IF(SUM(J129:AE129)=0,"",SUM(J129:AE129))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>2636</v>
       </c>
@@ -45265,15 +45280,15 @@
         <f t="shared" si="6"/>
         <v>corrente</v>
       </c>
-      <c r="S130">
+      <c r="T130">
         <v>1</v>
       </c>
-      <c r="AE130">
+      <c r="AF130">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>1189</v>
       </c>
@@ -45285,15 +45300,15 @@
         <f t="shared" si="6"/>
         <v>corrente</v>
       </c>
-      <c r="S131">
+      <c r="T131">
         <v>1</v>
       </c>
-      <c r="AE131">
-        <f>IF(SUM(J131:AD131)=0,"",SUM(J131:AD131))</f>
+      <c r="AF131">
+        <f>IF(SUM(J131:AE131)=0,"",SUM(J131:AE131))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>2621</v>
       </c>
@@ -45305,15 +45320,15 @@
         <f t="shared" si="6"/>
         <v>corrente</v>
       </c>
-      <c r="S132">
+      <c r="T132">
         <v>1</v>
       </c>
-      <c r="AE132">
-        <f>IF(SUM(J132:AD132)=0,"",SUM(J132:AD132))</f>
+      <c r="AF132">
+        <f>IF(SUM(J132:AE132)=0,"",SUM(J132:AE132))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>2673</v>
       </c>
@@ -45325,15 +45340,15 @@
         <f t="shared" si="6"/>
         <v>corrente</v>
       </c>
-      <c r="S133">
+      <c r="T133">
         <v>1</v>
       </c>
-      <c r="AE133">
-        <f>IF(SUM(J133:AD133)=0,"",SUM(J133:AD133))</f>
+      <c r="AF133">
+        <f>IF(SUM(J133:AE133)=0,"",SUM(J133:AE133))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>2674</v>
       </c>
@@ -45345,15 +45360,15 @@
         <f t="shared" si="6"/>
         <v>extra</v>
       </c>
-      <c r="AD134">
+      <c r="AE134">
         <v>1</v>
       </c>
-      <c r="AE134">
+      <c r="AF134">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>2675</v>
       </c>
@@ -45365,15 +45380,15 @@
         <f t="shared" si="6"/>
         <v>extra</v>
       </c>
-      <c r="AD135">
+      <c r="AE135">
         <v>1</v>
       </c>
-      <c r="AE135">
+      <c r="AF135">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>2676</v>
       </c>
@@ -45385,15 +45400,15 @@
         <f t="shared" si="6"/>
         <v>flora</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>1</v>
       </c>
-      <c r="AE136">
+      <c r="AF136">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>2677</v>
       </c>
@@ -45405,15 +45420,15 @@
         <f t="shared" si="6"/>
         <v>flora</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>1</v>
       </c>
-      <c r="AE137">
+      <c r="AF137">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>2678</v>
       </c>
@@ -45425,18 +45440,18 @@
         <f t="shared" si="6"/>
         <v>flora-fauna</v>
       </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
       <c r="V138">
         <v>1</v>
       </c>
-      <c r="AE138">
+      <c r="W138">
+        <v>1</v>
+      </c>
+      <c r="AF138">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>1561</v>
       </c>
@@ -45448,26 +45463,26 @@
         <f t="shared" si="6"/>
         <v>flora-fauna</v>
       </c>
-      <c r="U139">
-        <v>1</v>
-      </c>
       <c r="V139">
         <v>1</v>
       </c>
-      <c r="AE139">
+      <c r="W139">
+        <v>1</v>
+      </c>
+      <c r="AF139">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>2706</v>
       </c>
       <c r="B140" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="C140" t="s">
-        <v>2827</v>
+        <v>2822</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
@@ -45478,474 +45493,474 @@
         <v>flora</v>
       </c>
       <c r="F140" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G140" t="s">
-        <v>2884</v>
-      </c>
-      <c r="U140">
+        <v>2867</v>
+      </c>
+      <c r="V140">
         <v>1</v>
       </c>
-      <c r="AE140">
+      <c r="AF140">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B141" t="s">
         <v>2823</v>
       </c>
-      <c r="B141" t="s">
-        <v>2828</v>
-      </c>
       <c r="C141" t="s">
-        <v>2829</v>
+        <v>2824</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>flora-fauna--definir-liquen</v>
+        <v>flora-fauna--definir-líquen</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="6"/>
         <v>flora-fauna</v>
       </c>
       <c r="F141" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G141" t="s">
-        <v>2886</v>
-      </c>
-      <c r="U141">
-        <v>1</v>
+        <v>2922</v>
       </c>
       <c r="V141">
         <v>1</v>
       </c>
-      <c r="AE141">
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="AF141">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>2824</v>
+        <v>2819</v>
       </c>
       <c r="B142" t="s">
-        <v>2826</v>
+        <v>2821</v>
       </c>
       <c r="C142" t="s">
-        <v>2825</v>
+        <v>2820</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>flora-fauna--definir-polifiletico</v>
+        <v>flora-fauna--definir-polifilético</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="6"/>
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G142" t="s">
-        <v>2887</v>
-      </c>
-      <c r="U142">
-        <v>1</v>
+        <v>2921</v>
       </c>
       <c r="V142">
         <v>1</v>
       </c>
-      <c r="AE142">
+      <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="AF142">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="B143" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="C143" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-polipo</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" ref="E143:E207" si="9">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J143=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K143=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L143=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M143=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N143=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O143=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P143=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q143=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R143=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S143=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T143=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U143=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V143=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W143=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X143=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y143=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z143=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA143=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB143=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC143=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD143=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F143" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G143" t="s">
-        <v>2888</v>
-      </c>
-      <c r="V143">
+        <v>2869</v>
+      </c>
+      <c r="W143">
         <v>1</v>
       </c>
-      <c r="AE143">
+      <c r="AF143">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="B144" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="C144" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-coral-dieta</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G144" t="s">
         <v>2708</v>
       </c>
       <c r="H144" t="s">
-        <v>2873</v>
-      </c>
-      <c r="V144">
+        <v>2861</v>
+      </c>
+      <c r="W144">
         <v>1</v>
       </c>
-      <c r="AE144">
+      <c r="AF144">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B145" t="s">
         <v>2787</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2792</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-medusa</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F145" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G145" t="s">
-        <v>2889</v>
-      </c>
-      <c r="V145">
+        <v>2870</v>
+      </c>
+      <c r="W145">
         <v>1</v>
       </c>
-      <c r="AE145">
+      <c r="AF145">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
       <c r="B146" t="s">
-        <v>2802</v>
+        <v>2797</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-animal-marinho</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G146" t="s">
-        <v>2893</v>
+        <v>2874</v>
       </c>
       <c r="H146" t="s">
-        <v>2885</v>
-      </c>
-      <c r="V146">
+        <v>2868</v>
+      </c>
+      <c r="W146">
         <v>1</v>
       </c>
-      <c r="AE146">
+      <c r="AF146">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2803</v>
+        <v>2798</v>
       </c>
       <c r="B147" t="s">
-        <v>2805</v>
+        <v>2800</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
         <v>fauna--listar-animal-marinho</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G147" t="s">
-        <v>2893</v>
+        <v>2874</v>
       </c>
       <c r="H147" t="s">
-        <v>2885</v>
-      </c>
-      <c r="V147">
+        <v>2868</v>
+      </c>
+      <c r="W147">
         <v>1</v>
       </c>
-      <c r="AE147">
+      <c r="AF147">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="B148" t="s">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="C148" t="s">
-        <v>2813</v>
+        <v>2808</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-peixe</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G148" t="s">
-        <v>2890</v>
-      </c>
-      <c r="V148">
+        <v>2871</v>
+      </c>
+      <c r="W148">
         <v>1</v>
       </c>
-      <c r="AE148">
+      <c r="AF148">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C149" t="s">
         <v>2807</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2808</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2812</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--definir-actinoperigeo</v>
+        <v>fauna--definir-actinoperígeo</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G149" t="s">
-        <v>2896</v>
-      </c>
-      <c r="V149">
+        <v>2917</v>
+      </c>
+      <c r="W149">
         <v>1</v>
       </c>
-      <c r="AE149">
+      <c r="AF149">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="B150" t="s">
-        <v>2815</v>
+        <v>2810</v>
       </c>
       <c r="C150" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--definir-tubarao</v>
+        <v>fauna--definir-tubarão</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G150" t="s">
-        <v>2897</v>
-      </c>
-      <c r="V150">
+        <v>2918</v>
+      </c>
+      <c r="W150">
         <v>1</v>
       </c>
-      <c r="AE150">
+      <c r="AF150">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>2913</v>
+        <v>2891</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--pertence-tubarao-peixe</v>
+        <v>fauna--pertence-tubarão-peixe</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
-        <v>2875</v>
+        <v>2862</v>
       </c>
       <c r="G151" t="s">
-        <v>2897</v>
+        <v>2918</v>
       </c>
       <c r="H151" t="s">
-        <v>2890</v>
-      </c>
-      <c r="V151">
+        <v>2871</v>
+      </c>
+      <c r="W151">
         <v>1</v>
       </c>
-      <c r="AE151">
+      <c r="AF151">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>2679</v>
       </c>
       <c r="B152" t="s">
-        <v>2816</v>
+        <v>2811</v>
       </c>
       <c r="C152" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
         <v>fauna--maior-animal-marinho</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
-        <v>2850</v>
+        <v>2843</v>
       </c>
       <c r="G152" t="s">
-        <v>2893</v>
+        <v>2874</v>
       </c>
       <c r="H152" t="s">
-        <v>2885</v>
-      </c>
-      <c r="V152">
+        <v>2868</v>
+      </c>
+      <c r="W152">
         <v>1</v>
       </c>
-      <c r="AE152">
+      <c r="AF152">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="B153" t="s">
-        <v>2819</v>
+        <v>2814</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
         <v>fauna--existe-baleia</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
-        <v>2898</v>
+        <v>2877</v>
       </c>
       <c r="G153" t="s">
-        <v>2899</v>
-      </c>
-      <c r="V153">
+        <v>2878</v>
+      </c>
+      <c r="W153">
         <v>1</v>
       </c>
-      <c r="AE153">
+      <c r="AF153">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>2820</v>
+        <v>2815</v>
       </c>
       <c r="B154" t="s">
-        <v>2822</v>
+        <v>2817</v>
       </c>
       <c r="C154" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>fauna-turismo--localizacao-baleia</v>
+        <v>fauna-turismo--localização-baleia</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F154" t="s">
-        <v>2852</v>
+        <v>2905</v>
       </c>
       <c r="G154" t="s">
-        <v>2899</v>
-      </c>
-      <c r="V154">
+        <v>2878</v>
+      </c>
+      <c r="W154">
         <v>1</v>
       </c>
-      <c r="X154">
+      <c r="Y154">
         <v>1</v>
       </c>
-      <c r="AE154">
+      <c r="AF154">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>2680</v>
       </c>
@@ -45954,18 +45969,18 @@
         <v>fauna</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>1</v>
       </c>
-      <c r="AE155">
+      <c r="AF155">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>2681</v>
       </c>
@@ -45974,18 +45989,18 @@
         <v>fauna</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>1</v>
       </c>
-      <c r="AE156">
+      <c r="AF156">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>2682</v>
       </c>
@@ -45994,151 +46009,151 @@
         <v>fauna</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>1</v>
       </c>
-      <c r="AE157">
+      <c r="AF157">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>2683</v>
       </c>
       <c r="B158" t="s">
-        <v>2838</v>
+        <v>2832</v>
       </c>
       <c r="C158" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-plancton</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F158" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G158" t="s">
-        <v>2900</v>
-      </c>
-      <c r="V158">
+        <v>2879</v>
+      </c>
+      <c r="W158">
         <v>1</v>
       </c>
-      <c r="AE158">
+      <c r="AF158">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="B159" t="s">
-        <v>2839</v>
+        <v>2833</v>
       </c>
       <c r="C159" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-fitoplancton</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G159" t="s">
-        <v>2901</v>
-      </c>
-      <c r="V159">
+        <v>2880</v>
+      </c>
+      <c r="W159">
         <v>1</v>
       </c>
-      <c r="AE159">
+      <c r="AF159">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="B160" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-salpa</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G160" t="s">
-        <v>2891</v>
-      </c>
-      <c r="V160">
+        <v>2872</v>
+      </c>
+      <c r="W160">
         <v>1</v>
       </c>
-      <c r="AE160">
+      <c r="AF160">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="B161" t="s">
-        <v>2840</v>
+        <v>2834</v>
       </c>
       <c r="C161" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
         <v>fauna--definir-zooplancton</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E161:E209" si="9">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J161=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K161=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L161=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M161=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N161=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O161=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P161=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q161=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R161=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S161=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T161=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U161=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V161=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W161=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X161=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y161=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z161=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA161=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB161=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC161=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD161=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE161=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G161" t="s">
-        <v>2902</v>
-      </c>
-      <c r="V161">
+        <v>2881</v>
+      </c>
+      <c r="W161">
         <v>1</v>
       </c>
-      <c r="AE161">
+      <c r="AF161">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>2684</v>
       </c>
       <c r="B162" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="C162" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
@@ -46149,25 +46164,25 @@
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G162" t="s">
-        <v>2903</v>
-      </c>
-      <c r="V162">
+        <v>2882</v>
+      </c>
+      <c r="W162">
         <v>1</v>
       </c>
-      <c r="AE162">
+      <c r="AF162">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="B163" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
@@ -46178,55 +46193,55 @@
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G163" t="s">
-        <v>2892</v>
-      </c>
-      <c r="V163">
+        <v>2873</v>
+      </c>
+      <c r="W163">
         <v>1</v>
       </c>
-      <c r="AE163">
+      <c r="AF163">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>2685</v>
       </c>
       <c r="B164" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="C164" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
-        <v>fauna-turismo--existe-tubarao</v>
+        <v>fauna-turismo--existe-tubarão</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="9"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F164" t="s">
-        <v>2898</v>
+        <v>2877</v>
       </c>
       <c r="G164" t="s">
-        <v>2897</v>
-      </c>
-      <c r="V164">
+        <v>2918</v>
+      </c>
+      <c r="W164">
         <v>1</v>
       </c>
-      <c r="X164">
+      <c r="Y164">
         <v>1</v>
       </c>
-      <c r="AE164">
+      <c r="AF164">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>2700</v>
       </c>
@@ -46238,52 +46253,52 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD165">
+      <c r="AE165">
         <v>1</v>
       </c>
-      <c r="AE165">
+      <c r="AF165">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>2703</v>
       </c>
       <c r="B166" t="s">
-        <v>2738</v>
+        <v>2733</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--listar-crustaceo</v>
+        <v>fauna--listar-crustáceo</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
       <c r="F166" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G166" t="s">
-        <v>2906</v>
-      </c>
-      <c r="V166">
+        <v>2919</v>
+      </c>
+      <c r="W166">
         <v>1</v>
       </c>
-      <c r="AE166">
+      <c r="AF166">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>2704</v>
       </c>
       <c r="B167" t="s">
-        <v>2739</v>
+        <v>2734</v>
       </c>
       <c r="C167" t="s">
-        <v>2745</v>
+        <v>2740</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
@@ -46294,25 +46309,25 @@
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G167" t="s">
-        <v>2894</v>
-      </c>
-      <c r="V167">
+        <v>2875</v>
+      </c>
+      <c r="W167">
         <v>1</v>
       </c>
-      <c r="AE167">
+      <c r="AF167">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>2705</v>
       </c>
       <c r="B168" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
@@ -46323,25 +46338,25 @@
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G168" t="s">
-        <v>2895</v>
-      </c>
-      <c r="V168">
+        <v>2876</v>
+      </c>
+      <c r="W168">
         <v>1</v>
       </c>
-      <c r="AE168">
+      <c r="AF168">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>2707</v>
       </c>
       <c r="B169" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
@@ -46352,22 +46367,22 @@
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G169" t="s">
-        <v>2895</v>
-      </c>
-      <c r="V169">
+        <v>2876</v>
+      </c>
+      <c r="W169">
         <v>1</v>
       </c>
-      <c r="AE169">
+      <c r="AF169">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>2731</v>
+        <v>2726</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
@@ -46377,84 +46392,84 @@
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>1</v>
       </c>
-      <c r="AE170">
+      <c r="AF170">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>2702</v>
       </c>
       <c r="B171" t="s">
-        <v>2735</v>
+        <v>2730</v>
       </c>
       <c r="C171" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--definir-crustaceo</v>
+        <v>fauna--definir-crustáceo</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
       <c r="F171" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G171" t="s">
-        <v>2906</v>
-      </c>
-      <c r="V171">
+        <v>2919</v>
+      </c>
+      <c r="W171">
         <v>1</v>
       </c>
-      <c r="AE171">
+      <c r="AF171">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>2736</v>
+        <v>2731</v>
       </c>
       <c r="B172" t="s">
-        <v>2737</v>
+        <v>2732</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--detalhar-crustaceo</v>
+        <v>fauna--detalhar-crustáceo</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="9"/>
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
-        <v>2907</v>
+        <v>2885</v>
       </c>
       <c r="G172" t="s">
-        <v>2906</v>
-      </c>
-      <c r="V172">
+        <v>2919</v>
+      </c>
+      <c r="W172">
         <v>1</v>
       </c>
-      <c r="AE172">
+      <c r="AF172">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>2740</v>
+        <v>2735</v>
       </c>
       <c r="B173" t="s">
-        <v>2743</v>
+        <v>2738</v>
       </c>
       <c r="C173" t="s">
-        <v>2747</v>
+        <v>2742</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
@@ -46465,28 +46480,28 @@
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G173" t="s">
         <v>2883</v>
       </c>
-      <c r="G173" t="s">
-        <v>2904</v>
-      </c>
-      <c r="V173">
+      <c r="W173">
         <v>1</v>
       </c>
-      <c r="AE173">
+      <c r="AF173">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C174" t="s">
         <v>2741</v>
-      </c>
-      <c r="B174" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2746</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
@@ -46497,31 +46512,31 @@
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G174" t="s">
-        <v>2908</v>
+        <v>2886</v>
       </c>
       <c r="I174" t="s">
-        <v>2909</v>
-      </c>
-      <c r="V174">
+        <v>2887</v>
+      </c>
+      <c r="W174">
         <v>1</v>
       </c>
-      <c r="AE174">
+      <c r="AF174">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
       <c r="B175" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="C175" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
@@ -46532,28 +46547,28 @@
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G175" t="s">
-        <v>2910</v>
-      </c>
-      <c r="V175">
+        <v>2888</v>
+      </c>
+      <c r="W175">
         <v>1</v>
       </c>
-      <c r="AE175">
+      <c r="AF175">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="B176" t="s">
-        <v>2912</v>
+        <v>2890</v>
       </c>
       <c r="C176" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
@@ -46564,28 +46579,28 @@
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
       <c r="G176" t="s">
-        <v>2905</v>
+        <v>2884</v>
       </c>
       <c r="I176" t="s">
-        <v>2911</v>
-      </c>
-      <c r="V176">
+        <v>2889</v>
+      </c>
+      <c r="W176">
         <v>1</v>
       </c>
-      <c r="AE176">
+      <c r="AF176">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="B177" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
@@ -46596,20 +46611,20 @@
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G177" t="s">
-        <v>2910</v>
-      </c>
-      <c r="V177">
+        <v>2888</v>
+      </c>
+      <c r="W177">
         <v>1</v>
       </c>
-      <c r="AE177">
+      <c r="AF177">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>1192</v>
       </c>
@@ -46621,15 +46636,15 @@
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>1</v>
       </c>
-      <c r="AE178">
+      <c r="AF178">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>2686</v>
       </c>
@@ -46641,17 +46656,17 @@
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>1</v>
       </c>
-      <c r="AE179">
+      <c r="AF179">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
@@ -46661,15 +46676,15 @@
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>1</v>
       </c>
-      <c r="AE180">
+      <c r="AF180">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>1505</v>
       </c>
@@ -46681,15 +46696,15 @@
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>1</v>
       </c>
-      <c r="AE181">
+      <c r="AF181">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>1783</v>
       </c>
@@ -46701,15 +46716,15 @@
         <f t="shared" si="9"/>
         <v>oceanografia</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>1</v>
       </c>
-      <c r="AE182">
+      <c r="AF182">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>2687</v>
       </c>
@@ -46721,15 +46736,15 @@
         <f t="shared" si="9"/>
         <v>turismo</v>
       </c>
-      <c r="X183">
+      <c r="Y183">
         <v>1</v>
       </c>
-      <c r="AE183">
+      <c r="AF183">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>2688</v>
       </c>
@@ -46741,15 +46756,15 @@
         <f t="shared" si="9"/>
         <v>turismo</v>
       </c>
-      <c r="X184">
+      <c r="Y184">
         <v>1</v>
       </c>
-      <c r="AE184">
+      <c r="AF184">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>2689</v>
       </c>
@@ -46761,15 +46776,15 @@
         <f t="shared" si="9"/>
         <v>turismo</v>
       </c>
-      <c r="X185">
+      <c r="Y185">
         <v>1</v>
       </c>
-      <c r="AE185">
+      <c r="AF185">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>2690</v>
       </c>
@@ -46781,15 +46796,15 @@
         <f t="shared" si="9"/>
         <v>engenharia</v>
       </c>
-      <c r="Y186">
+      <c r="Z186">
         <v>1</v>
       </c>
-      <c r="AE186">
+      <c r="AF186">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>2691</v>
       </c>
@@ -46801,15 +46816,15 @@
         <f t="shared" si="9"/>
         <v>engenharia</v>
       </c>
-      <c r="Y187">
+      <c r="Z187">
         <v>1</v>
       </c>
-      <c r="AE187">
+      <c r="AF187">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>2692</v>
       </c>
@@ -46821,15 +46836,15 @@
         <f t="shared" si="9"/>
         <v>engenharia</v>
       </c>
-      <c r="Y188">
+      <c r="Z188">
         <v>1</v>
       </c>
-      <c r="AE188">
+      <c r="AF188">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>1387</v>
       </c>
@@ -46841,15 +46856,15 @@
         <f t="shared" si="9"/>
         <v>saude</v>
       </c>
-      <c r="Z189">
+      <c r="AA189">
         <v>1</v>
       </c>
-      <c r="AE189">
+      <c r="AF189">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>1619</v>
       </c>
@@ -46861,15 +46876,15 @@
         <f t="shared" si="9"/>
         <v>saude</v>
       </c>
-      <c r="Z190">
+      <c r="AA190">
         <v>1</v>
       </c>
-      <c r="AE190">
+      <c r="AF190">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>2693</v>
       </c>
@@ -46881,15 +46896,15 @@
         <f t="shared" si="9"/>
         <v>saude</v>
       </c>
-      <c r="Z191">
+      <c r="AA191">
         <v>1</v>
       </c>
-      <c r="AE191">
+      <c r="AF191">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>1427</v>
       </c>
@@ -46901,15 +46916,15 @@
         <f t="shared" si="9"/>
         <v>litoral</v>
       </c>
-      <c r="AA192">
+      <c r="AB192">
         <v>1</v>
       </c>
-      <c r="AE192">
+      <c r="AF192">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>2694</v>
       </c>
@@ -46921,15 +46936,15 @@
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="AB193">
+      <c r="AC193">
         <v>1</v>
       </c>
-      <c r="AE193">
+      <c r="AF193">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>1571</v>
       </c>
@@ -46941,15 +46956,15 @@
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="AB194">
+      <c r="AC194">
         <v>1</v>
       </c>
-      <c r="AE194">
+      <c r="AF194">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>2695</v>
       </c>
@@ -46961,15 +46976,15 @@
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="AB195">
+      <c r="AC195">
         <v>1</v>
       </c>
-      <c r="AE195">
+      <c r="AF195">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>1669</v>
       </c>
@@ -46981,15 +46996,15 @@
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="AB196">
+      <c r="AC196">
         <v>1</v>
       </c>
-      <c r="AE196">
+      <c r="AF196">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>2696</v>
       </c>
@@ -47001,15 +47016,15 @@
         <f t="shared" si="9"/>
         <v>protecao_ambiental</v>
       </c>
-      <c r="AB197">
+      <c r="AC197">
         <v>1</v>
       </c>
-      <c r="AE197">
-        <f t="shared" ref="AE197:AE260" si="11">IF(SUM(J197:AD197)=0,"",SUM(J197:AD197))</f>
+      <c r="AF197">
+        <f t="shared" ref="AF197:AF260" si="11">IF(SUM(J197:AE197)=0,"",SUM(J197:AE197))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>1846</v>
       </c>
@@ -47021,15 +47036,15 @@
         <f t="shared" si="9"/>
         <v>geologia</v>
       </c>
-      <c r="AC198">
+      <c r="AD198">
         <v>1</v>
       </c>
-      <c r="AE198">
+      <c r="AF198">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>2637</v>
       </c>
@@ -47041,15 +47056,15 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD199">
+      <c r="AE199">
         <v>1</v>
       </c>
-      <c r="AE199">
+      <c r="AF199">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>2638</v>
       </c>
@@ -47061,15 +47076,15 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD200">
+      <c r="AE200">
         <v>1</v>
       </c>
-      <c r="AE200">
+      <c r="AF200">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>2639</v>
       </c>
@@ -47081,15 +47096,15 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD201">
+      <c r="AE201">
         <v>1</v>
       </c>
-      <c r="AE201">
+      <c r="AF201">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>2640</v>
       </c>
@@ -47101,15 +47116,15 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD202">
+      <c r="AE202">
         <v>1</v>
       </c>
-      <c r="AE202">
+      <c r="AF202">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>2643</v>
       </c>
@@ -47121,15 +47136,15 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD203">
+      <c r="AE203">
         <v>1</v>
       </c>
-      <c r="AE203">
+      <c r="AF203">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>2644</v>
       </c>
@@ -47141,15 +47156,15 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD204">
+      <c r="AE204">
         <v>1</v>
       </c>
-      <c r="AE204">
+      <c r="AF204">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>2641</v>
       </c>
@@ -47161,1914 +47176,1911 @@
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
-      <c r="AD205">
+      <c r="AE205">
         <v>1</v>
       </c>
-      <c r="AE205">
+      <c r="AF205">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>2642</v>
       </c>
       <c r="B206" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="10"/>
-        <v>extra--definir-gas-producao</v>
+        <v>gás--definir-produção</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="9"/>
-        <v>extra</v>
+        <v>gás</v>
       </c>
       <c r="F206" t="s">
-        <v>2883</v>
-      </c>
-      <c r="G206" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="H206" t="s">
-        <v>2866</v>
-      </c>
-      <c r="AD206">
+        <v>2906</v>
+      </c>
+      <c r="M206">
         <v>1</v>
       </c>
-      <c r="AE206">
+      <c r="AF206">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>2646</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="10"/>
-        <v>extra--listar-programas-de-protecao-aaz</v>
+        <v>extra--listar-programas-de-proteção-aaz</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="9"/>
         <v>extra</v>
       </c>
       <c r="F207" t="s">
-        <v>2851</v>
+        <v>2844</v>
       </c>
       <c r="G207" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="H207" t="s">
-        <v>2915</v>
-      </c>
-      <c r="AD207">
+        <v>2892</v>
+      </c>
+      <c r="AE207">
         <v>1</v>
       </c>
-      <c r="AE207">
+      <c r="AF207">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C208" t="s">
         <v>2729</v>
-      </c>
-      <c r="B208" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C208" t="s">
-        <v>2734</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="10"/>
-        <v>extra--motivo-importancia-aaz</v>
+        <v>extra--motivo-importância-aaz</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" ref="E208:E209" si="12">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J208=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K208=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L208=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M208=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N208=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O208=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P208=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q208=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R208=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S208=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T208=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U208=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V208=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W208=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X208=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y208=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z208=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA208=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB208=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC208=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD208=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="9"/>
         <v>extra</v>
       </c>
       <c r="F208" t="s">
-        <v>2880</v>
+        <v>2863</v>
       </c>
       <c r="G208" t="s">
-        <v>2914</v>
+        <v>2920</v>
       </c>
       <c r="H208" t="s">
-        <v>2915</v>
-      </c>
-      <c r="AD208">
+        <v>2892</v>
+      </c>
+      <c r="AE208">
         <v>1</v>
       </c>
-      <c r="AE208">
+      <c r="AF208">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="B209" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="C209" t="s">
-        <v>2732</v>
+        <v>2727</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="10"/>
         <v>extra--motivo-nome-aaz</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>extra</v>
       </c>
       <c r="F209" t="s">
-        <v>2880</v>
+        <v>2863</v>
       </c>
       <c r="G209" t="s">
-        <v>2882</v>
+        <v>2865</v>
       </c>
       <c r="H209" t="s">
-        <v>2915</v>
-      </c>
-      <c r="AD209">
+        <v>2892</v>
+      </c>
+      <c r="AE209">
         <v>1</v>
       </c>
-      <c r="AE209">
+      <c r="AF209">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE210" t="str">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF210" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE211" t="str">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF211" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE212" t="str">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF212" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE213" t="str">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF213" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE214" t="str">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF214" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE215" t="str">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF215" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE216" t="str">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF216" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE217" t="str">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF217" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE218" t="str">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF218" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE219" t="str">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF219" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE220" t="str">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF220" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE221" t="str">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF221" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE222" t="str">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF222" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE223" t="str">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF223" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE224" t="str">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF224" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE225" t="str">
+    <row r="225" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF225" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE226" t="str">
+    <row r="226" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF226" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE227" t="str">
+    <row r="227" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF227" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE228" t="str">
+    <row r="228" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF228" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE229" t="str">
+    <row r="229" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF229" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE230" t="str">
+    <row r="230" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF230" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE231" t="str">
+    <row r="231" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF231" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE232" t="str">
+    <row r="232" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF232" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE233" t="str">
+    <row r="233" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF233" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE234" t="str">
+    <row r="234" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF234" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE235" t="str">
+    <row r="235" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF235" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE236" t="str">
+    <row r="236" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF236" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE237" t="str">
+    <row r="237" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF237" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE238" t="str">
+    <row r="238" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF238" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE239" t="str">
+    <row r="239" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF239" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE240" t="str">
+    <row r="240" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF240" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE241" t="str">
+    <row r="241" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF241" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE242" t="str">
+    <row r="242" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF242" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE243" t="str">
+    <row r="243" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF243" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE244" t="str">
+    <row r="244" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF244" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE245" t="str">
+    <row r="245" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF245" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE246" t="str">
+    <row r="246" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF246" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE247" t="str">
+    <row r="247" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF247" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE248" t="str">
+    <row r="248" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF248" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE249" t="str">
+    <row r="249" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF249" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE250" t="str">
+    <row r="250" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF250" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE251" t="str">
+    <row r="251" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF251" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE252" t="str">
+    <row r="252" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF252" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE253" t="str">
+    <row r="253" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF253" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE254" t="str">
+    <row r="254" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF254" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE255" t="str">
+    <row r="255" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF255" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE256" t="str">
+    <row r="256" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF256" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE257" t="str">
+    <row r="257" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF257" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE258" t="str">
+    <row r="258" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF258" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE259" t="str">
+    <row r="259" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF259" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE260" t="str">
+    <row r="260" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF260" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE261" t="str">
-        <f t="shared" ref="AE261:AE324" si="13">IF(SUM(J261:AD261)=0,"",SUM(J261:AD261))</f>
+    <row r="261" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF261" t="str">
+        <f t="shared" ref="AF261:AF324" si="12">IF(SUM(J261:AE261)=0,"",SUM(J261:AE261))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE262" t="str">
+    <row r="262" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF262" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF263" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF264" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF265" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF266" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF267" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF268" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF269" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF270" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF271" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF272" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF273" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF274" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF275" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF276" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF277" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF278" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF279" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF280" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF281" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF282" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF283" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF284" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF285" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF286" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF287" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF288" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF289" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF290" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF291" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF292" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF293" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF294" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF295" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF296" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF297" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF298" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF299" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF300" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF301" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF302" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF303" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF304" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF305" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF306" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF307" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF308" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF309" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF310" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF311" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF312" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF313" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF314" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF315" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF316" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF317" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF318" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF319" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF320" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF321" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF322" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF323" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF324" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF325" t="str">
+        <f t="shared" ref="AF325:AF388" si="13">IF(SUM(J325:AE325)=0,"",SUM(J325:AE325))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF326" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE263" t="str">
+    <row r="327" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF327" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE264" t="str">
+    <row r="328" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF328" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE265" t="str">
+    <row r="329" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF329" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE266" t="str">
+    <row r="330" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF330" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE267" t="str">
+    <row r="331" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF331" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE268" t="str">
+    <row r="332" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF332" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE269" t="str">
+    <row r="333" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF333" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE270" t="str">
+    <row r="334" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF334" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE271" t="str">
+    <row r="335" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF335" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE272" t="str">
+    <row r="336" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF336" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE273" t="str">
+    <row r="337" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF337" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE274" t="str">
+    <row r="338" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF338" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE275" t="str">
+    <row r="339" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF339" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE276" t="str">
+    <row r="340" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF340" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE277" t="str">
+    <row r="341" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF341" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE278" t="str">
+    <row r="342" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF342" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE279" t="str">
+    <row r="343" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF343" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE280" t="str">
+    <row r="344" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF344" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE281" t="str">
+    <row r="345" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF345" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE282" t="str">
+    <row r="346" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF346" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE283" t="str">
+    <row r="347" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF347" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE284" t="str">
+    <row r="348" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF348" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE285" t="str">
+    <row r="349" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF349" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE286" t="str">
+    <row r="350" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF350" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE287" t="str">
+    <row r="351" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF351" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE288" t="str">
+    <row r="352" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF352" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE289" t="str">
+    <row r="353" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF353" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE290" t="str">
+    <row r="354" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF354" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE291" t="str">
+    <row r="355" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF355" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE292" t="str">
+    <row r="356" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF356" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE293" t="str">
+    <row r="357" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF357" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE294" t="str">
+    <row r="358" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF358" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE295" t="str">
+    <row r="359" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF359" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE296" t="str">
+    <row r="360" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF360" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE297" t="str">
+    <row r="361" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF361" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE298" t="str">
+    <row r="362" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF362" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE299" t="str">
+    <row r="363" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF363" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE300" t="str">
+    <row r="364" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF364" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE301" t="str">
+    <row r="365" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF365" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE302" t="str">
+    <row r="366" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF366" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE303" t="str">
+    <row r="367" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF367" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE304" t="str">
+    <row r="368" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF368" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE305" t="str">
+    <row r="369" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF369" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE306" t="str">
+    <row r="370" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF370" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE307" t="str">
+    <row r="371" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF371" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE308" t="str">
+    <row r="372" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF372" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE309" t="str">
+    <row r="373" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF373" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE310" t="str">
+    <row r="374" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF374" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE311" t="str">
+    <row r="375" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF375" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE312" t="str">
+    <row r="376" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF376" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE313" t="str">
+    <row r="377" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF377" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE314" t="str">
+    <row r="378" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF378" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE315" t="str">
+    <row r="379" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF379" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE316" t="str">
+    <row r="380" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF380" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE317" t="str">
+    <row r="381" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF381" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE318" t="str">
+    <row r="382" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF382" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE319" t="str">
+    <row r="383" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF383" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE320" t="str">
+    <row r="384" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF384" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE321" t="str">
+    <row r="385" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF385" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE322" t="str">
+    <row r="386" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF386" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE323" t="str">
+    <row r="387" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF387" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE324" t="str">
+    <row r="388" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF388" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE325" t="str">
-        <f t="shared" ref="AE325:AE388" si="14">IF(SUM(J325:AD325)=0,"",SUM(J325:AD325))</f>
+    <row r="389" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF389" t="str">
+        <f t="shared" ref="AF389:AF452" si="14">IF(SUM(J389:AE389)=0,"",SUM(J389:AE389))</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE326" t="str">
+    <row r="390" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF390" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE327" t="str">
+    <row r="391" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF391" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE328" t="str">
+    <row r="392" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF392" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE329" t="str">
+    <row r="393" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF393" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE330" t="str">
+    <row r="394" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF394" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE331" t="str">
+    <row r="395" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF395" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE332" t="str">
+    <row r="396" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF396" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE333" t="str">
+    <row r="397" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF397" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE334" t="str">
+    <row r="398" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF398" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE335" t="str">
+    <row r="399" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF399" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE336" t="str">
+    <row r="400" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF400" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE337" t="str">
+    <row r="401" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF401" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE338" t="str">
+    <row r="402" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF402" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE339" t="str">
+    <row r="403" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF403" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE340" t="str">
+    <row r="404" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF404" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE341" t="str">
+    <row r="405" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF405" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE342" t="str">
+    <row r="406" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF406" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE343" t="str">
+    <row r="407" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF407" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE344" t="str">
+    <row r="408" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF408" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE345" t="str">
+    <row r="409" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF409" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE346" t="str">
+    <row r="410" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF410" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE347" t="str">
+    <row r="411" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF411" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE348" t="str">
+    <row r="412" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF412" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE349" t="str">
+    <row r="413" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF413" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE350" t="str">
+    <row r="414" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF414" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE351" t="str">
+    <row r="415" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF415" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE352" t="str">
+    <row r="416" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF416" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE353" t="str">
+    <row r="417" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF417" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE354" t="str">
+    <row r="418" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF418" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE355" t="str">
+    <row r="419" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF419" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE356" t="str">
+    <row r="420" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF420" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE357" t="str">
+    <row r="421" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF421" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE358" t="str">
+    <row r="422" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF422" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE359" t="str">
+    <row r="423" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF423" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE360" t="str">
+    <row r="424" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF424" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE361" t="str">
+    <row r="425" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF425" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE362" t="str">
+    <row r="426" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF426" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE363" t="str">
+    <row r="427" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF427" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE364" t="str">
+    <row r="428" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF428" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE365" t="str">
+    <row r="429" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF429" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE366" t="str">
+    <row r="430" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF430" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE367" t="str">
+    <row r="431" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF431" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE368" t="str">
+    <row r="432" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF432" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE369" t="str">
+    <row r="433" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF433" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE370" t="str">
+    <row r="434" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF434" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE371" t="str">
+    <row r="435" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF435" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE372" t="str">
+    <row r="436" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF436" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE373" t="str">
+    <row r="437" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF437" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE374" t="str">
+    <row r="438" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF438" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE375" t="str">
+    <row r="439" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF439" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE376" t="str">
+    <row r="440" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF440" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE377" t="str">
+    <row r="441" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF441" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE378" t="str">
+    <row r="442" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF442" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE379" t="str">
+    <row r="443" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF443" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE380" t="str">
+    <row r="444" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF444" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE381" t="str">
+    <row r="445" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF445" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE382" t="str">
+    <row r="446" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF446" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE383" t="str">
+    <row r="447" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF447" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE384" t="str">
+    <row r="448" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF448" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE385" t="str">
+    <row r="449" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF449" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE386" t="str">
+    <row r="450" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF450" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE387" t="str">
+    <row r="451" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF451" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE388" t="str">
+    <row r="452" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF452" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE389" t="str">
-        <f t="shared" ref="AE389:AE452" si="15">IF(SUM(J389:AD389)=0,"",SUM(J389:AD389))</f>
+    <row r="453" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF453" t="str">
+        <f t="shared" ref="AF453:AF502" si="15">IF(SUM(J453:AE453)=0,"",SUM(J453:AE453))</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE390" t="str">
+    <row r="454" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF454" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE391" t="str">
+    <row r="455" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF455" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE392" t="str">
+    <row r="456" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF456" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE393" t="str">
+    <row r="457" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF457" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE394" t="str">
+    <row r="458" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF458" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE395" t="str">
+    <row r="459" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF459" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE396" t="str">
+    <row r="460" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF460" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE397" t="str">
+    <row r="461" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF461" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE398" t="str">
+    <row r="462" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF462" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE399" t="str">
+    <row r="463" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF463" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE400" t="str">
+    <row r="464" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF464" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE401" t="str">
+    <row r="465" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF465" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE402" t="str">
+    <row r="466" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF466" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE403" t="str">
+    <row r="467" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF467" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE404" t="str">
+    <row r="468" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF468" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE405" t="str">
+    <row r="469" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF469" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE406" t="str">
+    <row r="470" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF470" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE407" t="str">
+    <row r="471" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF471" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE408" t="str">
+    <row r="472" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF472" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE409" t="str">
+    <row r="473" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF473" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE410" t="str">
+    <row r="474" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF474" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE411" t="str">
+    <row r="475" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF475" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE412" t="str">
+    <row r="476" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF476" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE413" t="str">
+    <row r="477" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF477" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE414" t="str">
+    <row r="478" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF478" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE415" t="str">
+    <row r="479" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF479" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE416" t="str">
+    <row r="480" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF480" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE417" t="str">
+    <row r="481" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF481" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE418" t="str">
+    <row r="482" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF482" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE419" t="str">
+    <row r="483" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF483" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE420" t="str">
+    <row r="484" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF484" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE421" t="str">
+    <row r="485" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF485" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE422" t="str">
+    <row r="486" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF486" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE423" t="str">
+    <row r="487" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF487" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE424" t="str">
+    <row r="488" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF488" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE425" t="str">
+    <row r="489" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF489" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE426" t="str">
+    <row r="490" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF490" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE427" t="str">
+    <row r="491" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF491" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE428" t="str">
+    <row r="492" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF492" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE429" t="str">
+    <row r="493" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF493" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE430" t="str">
+    <row r="494" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF494" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE431" t="str">
+    <row r="495" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF495" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE432" t="str">
+    <row r="496" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF496" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE433" t="str">
+    <row r="497" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF497" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE434" t="str">
+    <row r="498" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF498" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE435" t="str">
+    <row r="499" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF499" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE436" t="str">
+    <row r="500" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF500" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE437" t="str">
+    <row r="501" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF501" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE438" t="str">
+    <row r="502" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF502" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE439" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE440" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE441" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE442" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE443" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE444" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE445" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE446" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE447" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE448" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE449" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE450" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE451" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE452" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE453" t="str">
-        <f t="shared" ref="AE453:AE502" si="16">IF(SUM(J453:AD453)=0,"",SUM(J453:AD453))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE454" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE455" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE456" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE457" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE458" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE459" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE460" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE461" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE462" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE463" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE464" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE465" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE466" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE467" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE468" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE469" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE470" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE471" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE472" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE473" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE474" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE475" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE476" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE477" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE478" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE479" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE480" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE481" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE482" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE483" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE484" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE485" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE486" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE487" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE488" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE489" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE490" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE491" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE492" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE493" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE494" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE495" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE496" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE497" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE498" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE499" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE500" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="501" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE501" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="502" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE502" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AE502" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A189:AD209">
-    <sortCondition descending="1" ref="Z189:Z209"/>
+  <autoFilter ref="A1:AF502" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A189:AE209">
+    <sortCondition descending="1" ref="AA189:AA209"/>
   </sortState>
-  <conditionalFormatting sqref="J2:AD519">
+  <conditionalFormatting sqref="J2:AE519">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(OR($AE2="", $AE2=0), NOT(ISBLANK($A2)))</formula>
+      <formula>AND(OR($AF2="", $AF2=0), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B16DAB-DABD-4D0A-8DAF-256DF4C7E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA3BDC-C70D-44E7-93C4-57FDF0F7D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="960" windowWidth="11820" windowHeight="10332" tabRatio="566" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="17175" yWindow="-14730" windowWidth="11820" windowHeight="10335" tabRatio="566" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -42201,16 +42201,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
   <dimension ref="A1:AF502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA3BDC-C70D-44E7-93C4-57FDF0F7D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09AF60-BEE8-47F6-99AE-F39B52D565FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17175" yWindow="-14730" windowWidth="11820" windowHeight="10335" tabRatio="566" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="2931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8927" uniqueCount="2930">
   <si>
     <t>query</t>
   </si>
@@ -8428,9 +8428,6 @@
   </si>
   <si>
     <t>O petróleo fica em bolsões profundos na terra, nas chamadas bacias sedimentares. Ele fica retido em pedras porosas, que, por sua vez, precisam ser cercadas de pedras impermeáveis para que ele não escape.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Animais marinhos são aqueles que vivem no mar. É importante distinguí-los de animais de água doce, que vivem, por exemplo, em rios. Ambos são aquáticos.</t>
@@ -42202,14 +42199,14 @@
   <dimension ref="A1:AF502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.77734375" customWidth="1"/>
@@ -42234,16 +42231,16 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F1" t="s">
         <v>2897</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2898</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2899</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2900</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
@@ -42252,19 +42249,19 @@
         <v>2708</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>2911</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>2912</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2913</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>2709</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>2710</v>
@@ -42273,10 +42270,10 @@
         <v>2711</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>2712</v>
@@ -42328,7 +42325,7 @@
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="G2" t="s">
         <v>2717</v>
@@ -42360,10 +42357,10 @@
         <v>coral</v>
       </c>
       <c r="F3" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G3" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -42389,7 +42386,7 @@
         <v>coral</v>
       </c>
       <c r="F4" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -42415,7 +42412,7 @@
         <v>coral</v>
       </c>
       <c r="F5" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -42438,10 +42435,10 @@
         <v>coral</v>
       </c>
       <c r="F6" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G6" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -42464,10 +42461,10 @@
         <v>coral</v>
       </c>
       <c r="F7" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G7" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -42490,13 +42487,13 @@
         <v>coral</v>
       </c>
       <c r="F8" t="s">
+        <v>2843</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H8" t="s">
         <v>2844</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2852</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2845</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -42519,10 +42516,10 @@
         <v>coral</v>
       </c>
       <c r="F9" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G9" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -42545,10 +42542,10 @@
         <v>coral</v>
       </c>
       <c r="F10" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="H10" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -42571,10 +42568,10 @@
         <v>coral</v>
       </c>
       <c r="F11" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G11" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -42597,13 +42594,13 @@
         <v>coral</v>
       </c>
       <c r="F12" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="G12" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="H12" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -42649,13 +42646,13 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F14" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="G14" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="H14" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -42678,13 +42675,13 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F15" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="G15" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="H15" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -42696,7 +42693,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -42707,10 +42704,10 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F16" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G16" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -42722,7 +42719,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -42733,10 +42730,10 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F17" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G17" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -42748,7 +42745,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -42759,10 +42756,10 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F18" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G18" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -42785,7 +42782,7 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F19" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -42808,10 +42805,10 @@
         <v>energia_de_maré</v>
       </c>
       <c r="F20" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="I20" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -42834,10 +42831,10 @@
         <v>petróleo</v>
       </c>
       <c r="F21" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G21" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -42966,10 +42963,10 @@
         <v>petróleo</v>
       </c>
       <c r="F27" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G27" t="s">
         <v>2854</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2855</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -42981,7 +42978,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -42992,10 +42989,10 @@
         <v>petróleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G28" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -43024,13 +43021,13 @@
         <v>gás</v>
       </c>
       <c r="F29" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="G29" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="H29" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -43059,13 +43056,13 @@
         <v>petróleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="G30" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="H30" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -43094,7 +43091,7 @@
         <v>petróleo</v>
       </c>
       <c r="F31" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -43120,10 +43117,10 @@
         <v>gás</v>
       </c>
       <c r="F32" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="H32" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -43272,7 +43269,7 @@
         <v>petróleo</v>
       </c>
       <c r="F39" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -43286,9 +43283,6 @@
       <c r="A40" t="s">
         <v>2616</v>
       </c>
-      <c r="B40" t="s">
-        <v>2796</v>
-      </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>petróleo</v>
@@ -43427,10 +43421,10 @@
         <v>petróleo</v>
       </c>
       <c r="F46" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="H46" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -43459,10 +43453,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F47" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="H47" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -43500,7 +43494,7 @@
         <v>2576</v>
       </c>
       <c r="B49" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -43511,10 +43505,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F49" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G49" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -43529,7 +43523,7 @@
         <v>2577</v>
       </c>
       <c r="B50" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -43540,10 +43534,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F50" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G50" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -43569,10 +43563,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F51" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G51" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -43598,10 +43592,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F52" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G52" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -43616,7 +43610,7 @@
         <v>2578</v>
       </c>
       <c r="B53" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -43627,10 +43621,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F53" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G53" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -43645,7 +43639,7 @@
         <v>2579</v>
       </c>
       <c r="B54" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -43656,10 +43650,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F54" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G54" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -43674,7 +43668,7 @@
         <v>2580</v>
       </c>
       <c r="B55" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -43685,7 +43679,7 @@
         <v>tartaruga</v>
       </c>
       <c r="F55" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -43720,10 +43714,10 @@
         <v>2582</v>
       </c>
       <c r="B57" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C57" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -43734,13 +43728,13 @@
         <v>tartaruga</v>
       </c>
       <c r="F57" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G57" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="H57" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -43752,10 +43746,10 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B58" t="s">
         <v>2837</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2838</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -43766,13 +43760,13 @@
         <v>tartaruga</v>
       </c>
       <c r="F58" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="H58" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="I58" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -43867,7 +43861,7 @@
         <v>2587</v>
       </c>
       <c r="B63" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -43878,10 +43872,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F63" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G63" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -43956,7 +43950,7 @@
         <v>2591</v>
       </c>
       <c r="B67" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="4"/>
@@ -43967,7 +43961,7 @@
         <v>tartaruga</v>
       </c>
       <c r="F67" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -44036,10 +44030,10 @@
         <v>tartaruga</v>
       </c>
       <c r="F70" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G70" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -44597,7 +44591,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -44628,10 +44622,10 @@
         <v>oceano</v>
       </c>
       <c r="F99" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="G99" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -44654,10 +44648,10 @@
         <v>extra</v>
       </c>
       <c r="F100" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G100" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="AE100">
         <v>1</v>
@@ -44700,10 +44694,10 @@
         <v>oceano</v>
       </c>
       <c r="F102" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G102" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -45112,7 +45106,7 @@
         <v>maré</v>
       </c>
       <c r="F122" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="R122">
         <v>1</v>
@@ -45135,10 +45129,10 @@
         <v>extra</v>
       </c>
       <c r="F123" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G123" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="AE123">
         <v>1</v>
@@ -45479,10 +45473,10 @@
         <v>2706</v>
       </c>
       <c r="B140" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C140" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
@@ -45493,10 +45487,10 @@
         <v>flora</v>
       </c>
       <c r="F140" t="s">
+        <v>2865</v>
+      </c>
+      <c r="G140" t="s">
         <v>2866</v>
-      </c>
-      <c r="G140" t="s">
-        <v>2867</v>
       </c>
       <c r="V140">
         <v>1</v>
@@ -45508,13 +45502,13 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B141" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C141" t="s">
         <v>2823</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2824</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
@@ -45525,10 +45519,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F141" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G141" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="V141">
         <v>1</v>
@@ -45543,13 +45537,13 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C142" t="s">
         <v>2819</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2821</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2820</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
@@ -45560,10 +45554,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G142" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="V142">
         <v>1</v>
@@ -45595,10 +45589,10 @@
         <v>fauna</v>
       </c>
       <c r="F143" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G143" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="W143">
         <v>1</v>
@@ -45627,13 +45621,13 @@
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G144" t="s">
         <v>2708</v>
       </c>
       <c r="H144" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="W144">
         <v>1</v>
@@ -45659,10 +45653,10 @@
         <v>fauna</v>
       </c>
       <c r="F145" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G145" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="W145">
         <v>1</v>
@@ -45674,10 +45668,10 @@
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B146" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
@@ -45688,13 +45682,13 @@
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G146" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="H146" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="W146">
         <v>1</v>
@@ -45706,10 +45700,10 @@
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B147" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
@@ -45720,13 +45714,13 @@
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G147" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="H147" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="W147">
         <v>1</v>
@@ -45738,13 +45732,13 @@
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B148" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C148" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
@@ -45755,10 +45749,10 @@
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G148" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="W148">
         <v>1</v>
@@ -45770,13 +45764,13 @@
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B149" t="s">
         <v>2802</v>
       </c>
-      <c r="B149" t="s">
-        <v>2803</v>
-      </c>
       <c r="C149" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
@@ -45787,10 +45781,10 @@
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G149" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="W149">
         <v>1</v>
@@ -45802,13 +45796,13 @@
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B150" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C150" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
@@ -45819,10 +45813,10 @@
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G150" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="W150">
         <v>1</v>
@@ -45834,7 +45828,7 @@
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
@@ -45845,13 +45839,13 @@
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G151" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="H151" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="W151">
         <v>1</v>
@@ -45866,10 +45860,10 @@
         <v>2679</v>
       </c>
       <c r="B152" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C152" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
@@ -45880,13 +45874,13 @@
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G152" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="H152" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="W152">
         <v>1</v>
@@ -45898,10 +45892,10 @@
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B153" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
@@ -45912,10 +45906,10 @@
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G153" t="s">
         <v>2877</v>
-      </c>
-      <c r="G153" t="s">
-        <v>2878</v>
       </c>
       <c r="W153">
         <v>1</v>
@@ -45927,13 +45921,13 @@
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C154" t="s">
         <v>2815</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2817</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2816</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
@@ -45944,10 +45938,10 @@
         <v>fauna-turismo</v>
       </c>
       <c r="F154" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G154" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="W154">
         <v>1</v>
@@ -46025,7 +46019,7 @@
         <v>2683</v>
       </c>
       <c r="B158" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C158" t="s">
         <v>2759</v>
@@ -46039,10 +46033,10 @@
         <v>fauna</v>
       </c>
       <c r="F158" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G158" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="W158">
         <v>1</v>
@@ -46057,7 +46051,7 @@
         <v>2772</v>
       </c>
       <c r="B159" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C159" t="s">
         <v>2774</v>
@@ -46071,10 +46065,10 @@
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G159" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="W159">
         <v>1</v>
@@ -46100,10 +46094,10 @@
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G160" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="W160">
         <v>1</v>
@@ -46118,7 +46112,7 @@
         <v>2773</v>
       </c>
       <c r="B161" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C161" t="s">
         <v>2775</v>
@@ -46132,10 +46126,10 @@
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G161" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="W161">
         <v>1</v>
@@ -46164,10 +46158,10 @@
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G162" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="W162">
         <v>1</v>
@@ -46193,10 +46187,10 @@
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G163" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="W163">
         <v>1</v>
@@ -46211,10 +46205,10 @@
         <v>2685</v>
       </c>
       <c r="B164" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C164" t="s">
         <v>2805</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2806</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
@@ -46225,10 +46219,10 @@
         <v>fauna-turismo</v>
       </c>
       <c r="F164" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G164" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="W164">
         <v>1</v>
@@ -46277,10 +46271,10 @@
         <v>fauna</v>
       </c>
       <c r="F166" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G166" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="W166">
         <v>1</v>
@@ -46309,10 +46303,10 @@
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G167" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="W167">
         <v>1</v>
@@ -46338,10 +46332,10 @@
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G168" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="W168">
         <v>1</v>
@@ -46367,10 +46361,10 @@
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G169" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="W169">
         <v>1</v>
@@ -46419,10 +46413,10 @@
         <v>fauna</v>
       </c>
       <c r="F171" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G171" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="W171">
         <v>1</v>
@@ -46448,10 +46442,10 @@
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="G172" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="W172">
         <v>1</v>
@@ -46480,10 +46474,10 @@
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G173" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="W173">
         <v>1</v>
@@ -46512,13 +46506,13 @@
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G174" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I174" t="s">
         <v>2886</v>
-      </c>
-      <c r="I174" t="s">
-        <v>2887</v>
       </c>
       <c r="W174">
         <v>1</v>
@@ -46547,10 +46541,10 @@
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G175" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="W175">
         <v>1</v>
@@ -46565,7 +46559,7 @@
         <v>2763</v>
       </c>
       <c r="B176" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C176" t="s">
         <v>2764</v>
@@ -46579,13 +46573,13 @@
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="G176" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="I176" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="W176">
         <v>1</v>
@@ -46611,10 +46605,10 @@
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G177" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="W177">
         <v>1</v>
@@ -47203,10 +47197,10 @@
         <v>gás</v>
       </c>
       <c r="F206" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="H206" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="M206">
         <v>1</v>
@@ -47229,13 +47223,13 @@
         <v>extra</v>
       </c>
       <c r="F207" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="G207" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="H207" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AE207">
         <v>1</v>
@@ -47264,13 +47258,13 @@
         <v>extra</v>
       </c>
       <c r="F208" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="G208" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="H208" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AE208">
         <v>1</v>
@@ -47299,13 +47293,13 @@
         <v>extra</v>
       </c>
       <c r="F209" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="G209" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="H209" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AE209">
         <v>1</v>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09AF60-BEE8-47F6-99AE-F39B52D565FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67A7C3B-D35E-47F4-9A87-163AF1363657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17175" yWindow="-14730" windowWidth="11820" windowHeight="10335" tabRatio="566" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="566" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8927" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8944" uniqueCount="2935">
   <si>
     <t>query</t>
   </si>
@@ -8169,9 +8169,6 @@
     <t>coral</t>
   </si>
   <si>
-    <t>tartaruga</t>
-  </si>
-  <si>
     <t>oceano</t>
   </si>
   <si>
@@ -8646,9 +8643,6 @@
     <t>marinho</t>
   </si>
   <si>
-    <t>polipo</t>
-  </si>
-  <si>
     <t>medusa</t>
   </si>
   <si>
@@ -8784,9 +8778,6 @@
     <t>As tartugas são animais aquáticos (vivem tanto em água doce quanto salgada), possuem o casco alto e achatado e as suas patas são em formato de remo, o que facilita seu deslocamento aquático. Há espécies carnívoras e outras herbívoras.</t>
   </si>
   <si>
-    <t>espécies</t>
-  </si>
-  <si>
     <t>diferença</t>
   </si>
   <si>
@@ -8811,9 +8802,6 @@
     <t>símbolo</t>
   </si>
   <si>
-    <t>energia_de_maré</t>
-  </si>
-  <si>
     <t>física</t>
   </si>
   <si>
@@ -8829,7 +8817,34 @@
     <t>prós</t>
   </si>
   <si>
-    <t>prós-contras</t>
+    <t>derramamento</t>
+  </si>
+  <si>
+    <t>plataforma</t>
+  </si>
+  <si>
+    <t>tartarugas</t>
+  </si>
+  <si>
+    <t>prós-e-contras</t>
+  </si>
+  <si>
+    <t>custo</t>
+  </si>
+  <si>
+    <t>extração</t>
+  </si>
+  <si>
+    <t>recurso-renovável</t>
+  </si>
+  <si>
+    <t>espécie</t>
+  </si>
+  <si>
+    <t>corais</t>
+  </si>
+  <si>
+    <t>pólipo</t>
   </si>
 </sst>
 </file>
@@ -42198,9 +42213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
   <dimension ref="A1:AF502"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42231,85 +42246,85 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G1" t="s">
         <v>2896</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2897</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2899</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>2708</v>
+        <v>2933</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>2923</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2920</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>2709</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>2924</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2710</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2919</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>2711</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>2901</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>2922</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>2713</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>2714</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>2717</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>2718</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>2720</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>2721</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="6" t="s">
         <v>2722</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>2723</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -42318,20 +42333,17 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>coral-turismo--efeito-turismo-coral</v>
+        <v>corais-turismo--efeito-turismo</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E30" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE2=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>coral-turismo</v>
+        <v>corais-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="G2" t="s">
-        <v>2717</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2708</v>
+        <v>2716</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -42350,17 +42362,17 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definir-recife</v>
+        <v>corais--definir-recife</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G3" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -42375,18 +42387,18 @@
         <v>2596</v>
       </c>
       <c r="B4" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definir</v>
+        <v>corais--definir</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -42401,18 +42413,18 @@
         <v>2597</v>
       </c>
       <c r="B5" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>coral--composição</v>
+        <v>corais--composição</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F5" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -42428,17 +42440,17 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definir-branqueamento</v>
+        <v>corais--definir-branqueamento</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F6" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G6" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -42454,17 +42466,17 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definir-recife</v>
+        <v>corais--definir-recife</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F7" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G7" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -42480,20 +42492,20 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>coral--listar-iniciativas-governo</v>
+        <v>corais--listar-iniciativas-governo</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F8" t="s">
+        <v>2842</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2850</v>
+      </c>
+      <c r="H8" t="s">
         <v>2843</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2851</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2844</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -42509,17 +42521,17 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>coral--localização-recife</v>
+        <v>corais--localização-recife</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F9" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="G9" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -42535,17 +42547,17 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>coral--listar-tipos</v>
+        <v>corais--listar-tipos</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F10" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="H10" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -42561,17 +42573,17 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definir-recife-artificial</v>
+        <v>corais--definir-recife-artificial</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F11" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G11" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -42587,20 +42599,20 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>coral--efeito-branqueamento-ambiente</v>
+        <v>corais--efeito-branqueamento-ambiente</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>coral</v>
+        <v>corais</v>
       </c>
       <c r="F12" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="G12" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="H12" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -42616,11 +42628,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>coral-símbolo</v>
+        <v>corais-símbolo</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>coral-símbolo</v>
+        <v>corais-símbolo</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -42639,20 +42651,17 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--efeito-energia-de-maré-ambiente</v>
+        <v>energia-de-maré--efeito-ambiente</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F14" t="s">
-        <v>2840</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2927</v>
+        <v>2839</v>
       </c>
       <c r="H14" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -42668,20 +42677,20 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--efeito-energia-de-maré-economia</v>
+        <v>energia-de-maré--efeito-energia-de-maré-economia</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F15" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="G15" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="H15" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -42693,21 +42702,21 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--listar-prós-contras</v>
+        <v>energia-de-maré--listar-prós-e-contras</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F16" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G16" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -42719,21 +42728,21 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--listar-contras</v>
+        <v>energia-de-maré--listar-contras</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F17" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G17" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -42745,21 +42754,21 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--listar-prós</v>
+        <v>energia-de-maré--listar-prós</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F18" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G18" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -42775,14 +42784,14 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--localização</v>
+        <v>energia-de-maré--localização</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F19" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -42798,17 +42807,17 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>energia_de_maré--definir</v>
+        <v>energia-de-maré--definir</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>energia_de_maré</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F20" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="I20" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -42831,10 +42840,10 @@
         <v>petróleo</v>
       </c>
       <c r="F21" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="G21" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -42850,12 +42859,21 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--efeito-derramamento-ambiente</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
+      <c r="F22" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2846</v>
+      </c>
       <c r="L22">
         <v>1</v>
       </c>
@@ -42870,12 +42888,21 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--efeito-derramamento-economia</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
+      <c r="F23" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2847</v>
+      </c>
       <c r="L23">
         <v>1</v>
       </c>
@@ -42890,12 +42917,18 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--definir-plataforma</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
+      <c r="F24" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2926</v>
+      </c>
       <c r="L24">
         <v>1</v>
       </c>
@@ -42906,16 +42939,22 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--quantidade-consumo</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
+      <c r="F25" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2845</v>
+      </c>
       <c r="L25">
         <v>1</v>
       </c>
@@ -42930,12 +42969,21 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--definir-custo-extração</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
+      <c r="F26" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2929</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2930</v>
+      </c>
       <c r="L26">
         <v>1</v>
       </c>
@@ -42949,10 +42997,10 @@
         <v>2610</v>
       </c>
       <c r="B27" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C27" t="s">
         <v>2746</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2747</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -42963,10 +43011,10 @@
         <v>petróleo</v>
       </c>
       <c r="F27" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G27" t="s">
         <v>2853</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2854</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -42978,7 +43026,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -42989,10 +43037,10 @@
         <v>petróleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="G28" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -43004,13 +43052,13 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C29" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D29" t="str">
         <f>IF(AND(ISBLANK(F29),ISBLANK(G29),ISBLANK(H29)), E29, _xlfn.CONCAT(E29,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F29),"",_xlfn.CONCAT(F29,"-")),IF(ISBLANK(G29),"",_xlfn.CONCAT(G29,"-")),IF(ISBLANK(H29),"",_xlfn.CONCAT(H29,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
@@ -43021,13 +43069,13 @@
         <v>gás</v>
       </c>
       <c r="F29" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G29" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="H29" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -43039,13 +43087,13 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>2753</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>2754</v>
-      </c>
       <c r="C30" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -43056,13 +43104,13 @@
         <v>petróleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G30" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="H30" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -43074,13 +43122,13 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>2749</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>2750</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2751</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -43091,7 +43139,7 @@
         <v>petróleo</v>
       </c>
       <c r="F31" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -43103,10 +43151,10 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>2755</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>2756</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -43117,10 +43165,10 @@
         <v>gás</v>
       </c>
       <c r="F32" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="H32" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -43136,12 +43184,18 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--definir-derramamento</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ref="E33:E96" si="3">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J33=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K33=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L33=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M33=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N33=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O33=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P33=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q33=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R33=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S33=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T33=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U33=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V33=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W33=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X33=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y33=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z33=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA33=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB33=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC33=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD33=1, _xlfn.CONCAT(AD$1,"-"), ""),IF(AE33=1, _xlfn.CONCAT(AE$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>petróleo</v>
       </c>
+      <c r="F33" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2925</v>
+      </c>
       <c r="L33">
         <v>1</v>
       </c>
@@ -43156,12 +43210,18 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <v>petróleo--maiores-derramamento</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="3"/>
         <v>petróleo</v>
       </c>
+      <c r="F34" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2925</v>
+      </c>
       <c r="L34">
         <v>1</v>
       </c>
@@ -43175,13 +43235,19 @@
         <v>2613</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>petróleo</v>
+        <f>IF(AND(ISBLANK(F35),ISBLANK(G35),ISBLANK(H35)), E35, _xlfn.CONCAT(E35,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F35),"",_xlfn.CONCAT(F35,"-")),IF(ISBLANK(G35),"",_xlfn.CONCAT(G35,"-")),IF(ISBLANK(H35),"",_xlfn.CONCAT(H35,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>petróleo--pertence-recurso-renovável</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
         <v>petróleo</v>
       </c>
+      <c r="F35" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2931</v>
+      </c>
       <c r="L35">
         <v>1</v>
       </c>
@@ -43258,7 +43324,7 @@
         <v>1559</v>
       </c>
       <c r="B39" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -43269,7 +43335,7 @@
         <v>petróleo</v>
       </c>
       <c r="F39" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -43404,13 +43470,13 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B46" t="s">
         <v>2744</v>
       </c>
-      <c r="B46" t="s">
-        <v>2745</v>
-      </c>
       <c r="C46" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -43421,10 +43487,10 @@
         <v>petróleo</v>
       </c>
       <c r="F46" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="H46" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -43439,24 +43505,24 @@
         <v>2574</v>
       </c>
       <c r="B47" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C47" t="s">
         <v>2701</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-dieta</v>
+        <v>tartarugas--definir-dieta</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F47" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="H47" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -43472,11 +43538,11 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga-símbolo</v>
+        <v>tartarugas-símbolo</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga-símbolo</v>
+        <v>tartarugas-símbolo</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -43494,21 +43560,21 @@
         <v>2576</v>
       </c>
       <c r="B49" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--listar-espécies</v>
+        <v>tartarugas--listar-espécie</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F49" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G49" t="s">
-        <v>2914</v>
+        <v>2932</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -43523,21 +43589,21 @@
         <v>2577</v>
       </c>
       <c r="B50" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--diferença-jabuti</v>
+        <v>tartarugas--diferença-jabuti</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F50" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="G50" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -43549,24 +43615,24 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B51" t="s">
         <v>2791</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2792</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--pertence-jabuti</v>
+        <v>tartarugas--pertence-jabuti</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F51" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="G51" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -43578,24 +43644,24 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B52" t="s">
         <v>2793</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2794</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-quelônio</v>
+        <v>tartarugas--definir-quelônio</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F52" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G52" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -43610,21 +43676,21 @@
         <v>2578</v>
       </c>
       <c r="B53" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-jabuti</v>
+        <v>tartarugas--definir-jabuti</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F53" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G53" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -43639,21 +43705,21 @@
         <v>2579</v>
       </c>
       <c r="B54" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-cágado</v>
+        <v>tartarugas--definir-cágado</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F54" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G54" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -43668,18 +43734,18 @@
         <v>2580</v>
       </c>
       <c r="B55" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir</v>
+        <v>tartarugas--definir</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F55" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -43695,11 +43761,11 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -43714,27 +43780,27 @@
         <v>2582</v>
       </c>
       <c r="B57" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C57" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--listar-espécies-extinção</v>
+        <v>tartarugas--listar-espécie-extinção</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F57" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G57" t="s">
-        <v>2914</v>
+        <v>2932</v>
       </c>
       <c r="H57" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -43746,27 +43812,27 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B58" t="s">
         <v>2836</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2837</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--motivo-extinção</v>
+        <v>tartarugas--motivo-extinção</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F58" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="H58" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="I58" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -43782,11 +43848,11 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -43802,11 +43868,11 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -43822,11 +43888,11 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -43842,11 +43908,11 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -43861,21 +43927,21 @@
         <v>2587</v>
       </c>
       <c r="B63" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga--definir-ciclo-de-vida</v>
+        <v>tartarugas--definir-ciclo-de-vida</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F63" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G63" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -43891,11 +43957,11 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -43911,11 +43977,11 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -43931,11 +43997,11 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D129" si="4">IF(AND(ISBLANK(F66),ISBLANK(G66),ISBLANK(H66)), E66, _xlfn.CONCAT(E66,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F66),"",_xlfn.CONCAT(F66,"-")),IF(ISBLANK(G66),"",_xlfn.CONCAT(G66,"-")),IF(ISBLANK(H66),"",_xlfn.CONCAT(H66,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -43950,18 +44016,18 @@
         <v>2591</v>
       </c>
       <c r="B67" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="4"/>
-        <v>tartaruga--localização</v>
+        <v>tartarugas--localização</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F67" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -43977,11 +44043,11 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="4"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -43997,11 +44063,11 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="4"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -44023,17 +44089,17 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="4"/>
-        <v>tartaruga--definir-peso</v>
+        <v>tartarugas--definir-peso</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga</v>
+        <v>tartarugas</v>
       </c>
       <c r="F70" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G70" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -44049,11 +44115,11 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="4"/>
-        <v>tartaruga-corrente</v>
+        <v>tartarugas-corrente</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="3"/>
-        <v>tartaruga-corrente</v>
+        <v>tartarugas-corrente</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -44591,7 +44657,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -44622,10 +44688,10 @@
         <v>oceano</v>
       </c>
       <c r="F99" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G99" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -44648,10 +44714,10 @@
         <v>extra</v>
       </c>
       <c r="F100" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G100" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="AE100">
         <v>1</v>
@@ -44694,10 +44760,10 @@
         <v>oceano</v>
       </c>
       <c r="F102" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G102" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -45106,7 +45172,7 @@
         <v>maré</v>
       </c>
       <c r="F122" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="R122">
         <v>1</v>
@@ -45129,10 +45195,10 @@
         <v>extra</v>
       </c>
       <c r="F123" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G123" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="AE123">
         <v>1</v>
@@ -45473,10 +45539,10 @@
         <v>2706</v>
       </c>
       <c r="B140" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C140" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="8"/>
@@ -45487,10 +45553,10 @@
         <v>flora</v>
       </c>
       <c r="F140" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G140" t="s">
         <v>2865</v>
-      </c>
-      <c r="G140" t="s">
-        <v>2866</v>
       </c>
       <c r="V140">
         <v>1</v>
@@ -45502,13 +45568,13 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B141" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C141" t="s">
         <v>2822</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2823</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="8"/>
@@ -45519,10 +45585,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F141" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G141" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="V141">
         <v>1</v>
@@ -45537,13 +45603,13 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C142" t="s">
         <v>2818</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2820</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2819</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="8"/>
@@ -45554,10 +45620,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G142" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="V142">
         <v>1</v>
@@ -45572,27 +45638,27 @@
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B143" t="s">
         <v>2778</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>2779</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2780</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>fauna--definir-polipo</v>
+        <v>fauna--definir-pólipo</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="6"/>
         <v>fauna</v>
       </c>
       <c r="F143" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G143" t="s">
-        <v>2868</v>
+        <v>2934</v>
       </c>
       <c r="W143">
         <v>1</v>
@@ -45604,13 +45670,13 @@
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B144" t="s">
         <v>2769</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>2770</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2771</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="8"/>
@@ -45621,13 +45687,13 @@
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G144" t="s">
         <v>2708</v>
       </c>
       <c r="H144" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="W144">
         <v>1</v>
@@ -45639,10 +45705,10 @@
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B145" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="8"/>
@@ -45653,10 +45719,10 @@
         <v>fauna</v>
       </c>
       <c r="F145" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G145" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="W145">
         <v>1</v>
@@ -45668,10 +45734,10 @@
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B146" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
@@ -45682,13 +45748,13 @@
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G146" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="H146" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="W146">
         <v>1</v>
@@ -45700,10 +45766,10 @@
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B147" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
@@ -45714,13 +45780,13 @@
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G147" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="H147" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="W147">
         <v>1</v>
@@ -45732,13 +45798,13 @@
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B148" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C148" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="8"/>
@@ -45749,10 +45815,10 @@
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G148" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="W148">
         <v>1</v>
@@ -45764,13 +45830,13 @@
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B149" t="s">
         <v>2801</v>
       </c>
-      <c r="B149" t="s">
-        <v>2802</v>
-      </c>
       <c r="C149" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="8"/>
@@ -45781,10 +45847,10 @@
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G149" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="W149">
         <v>1</v>
@@ -45796,13 +45862,13 @@
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B150" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C150" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="8"/>
@@ -45813,10 +45879,10 @@
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G150" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="W150">
         <v>1</v>
@@ -45828,7 +45894,7 @@
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="8"/>
@@ -45839,13 +45905,13 @@
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="G151" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="H151" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="W151">
         <v>1</v>
@@ -45860,10 +45926,10 @@
         <v>2679</v>
       </c>
       <c r="B152" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C152" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="8"/>
@@ -45874,13 +45940,13 @@
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="G152" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="H152" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="W152">
         <v>1</v>
@@ -45892,10 +45958,10 @@
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B153" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="8"/>
@@ -45906,10 +45972,10 @@
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="G153" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="W153">
         <v>1</v>
@@ -45921,13 +45987,13 @@
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C154" t="s">
         <v>2814</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2815</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="8"/>
@@ -45938,10 +46004,10 @@
         <v>fauna-turismo</v>
       </c>
       <c r="F154" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="G154" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="W154">
         <v>1</v>
@@ -46019,10 +46085,10 @@
         <v>2683</v>
       </c>
       <c r="B158" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C158" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="8"/>
@@ -46033,10 +46099,10 @@
         <v>fauna</v>
       </c>
       <c r="F158" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G158" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="W158">
         <v>1</v>
@@ -46048,13 +46114,13 @@
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B159" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C159" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="8"/>
@@ -46065,10 +46131,10 @@
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G159" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="W159">
         <v>1</v>
@@ -46080,10 +46146,10 @@
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B160" t="s">
         <v>2776</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2777</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="8"/>
@@ -46094,10 +46160,10 @@
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G160" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="W160">
         <v>1</v>
@@ -46109,13 +46175,13 @@
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B161" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C161" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="8"/>
@@ -46126,10 +46192,10 @@
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G161" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="W161">
         <v>1</v>
@@ -46144,10 +46210,10 @@
         <v>2684</v>
       </c>
       <c r="B162" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C162" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="8"/>
@@ -46158,10 +46224,10 @@
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G162" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="W162">
         <v>1</v>
@@ -46173,10 +46239,10 @@
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B163" t="s">
         <v>2785</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2786</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="8"/>
@@ -46187,10 +46253,10 @@
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G163" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="W163">
         <v>1</v>
@@ -46205,10 +46271,10 @@
         <v>2685</v>
       </c>
       <c r="B164" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C164" t="s">
         <v>2804</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2805</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="8"/>
@@ -46219,10 +46285,10 @@
         <v>fauna-turismo</v>
       </c>
       <c r="F164" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="G164" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="W164">
         <v>1</v>
@@ -46260,7 +46326,7 @@
         <v>2703</v>
       </c>
       <c r="B166" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="8"/>
@@ -46271,10 +46337,10 @@
         <v>fauna</v>
       </c>
       <c r="F166" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G166" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="W166">
         <v>1</v>
@@ -46289,10 +46355,10 @@
         <v>2704</v>
       </c>
       <c r="B167" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="C167" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="8"/>
@@ -46303,10 +46369,10 @@
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G167" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="W167">
         <v>1</v>
@@ -46321,7 +46387,7 @@
         <v>2705</v>
       </c>
       <c r="B168" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="8"/>
@@ -46332,10 +46398,10 @@
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G168" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="W168">
         <v>1</v>
@@ -46350,7 +46416,7 @@
         <v>2707</v>
       </c>
       <c r="B169" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="8"/>
@@ -46361,10 +46427,10 @@
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G169" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="W169">
         <v>1</v>
@@ -46376,7 +46442,7 @@
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="8"/>
@@ -46399,10 +46465,10 @@
         <v>2702</v>
       </c>
       <c r="B171" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="C171" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="8"/>
@@ -46413,10 +46479,10 @@
         <v>fauna</v>
       </c>
       <c r="F171" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G171" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="W171">
         <v>1</v>
@@ -46428,10 +46494,10 @@
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B172" t="s">
         <v>2731</v>
-      </c>
-      <c r="B172" t="s">
-        <v>2732</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="8"/>
@@ -46442,10 +46508,10 @@
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="G172" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="W172">
         <v>1</v>
@@ -46457,13 +46523,13 @@
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B173" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="C173" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="8"/>
@@ -46474,10 +46540,10 @@
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G173" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="W173">
         <v>1</v>
@@ -46489,13 +46555,13 @@
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B174" t="s">
         <v>2736</v>
       </c>
-      <c r="B174" t="s">
-        <v>2737</v>
-      </c>
       <c r="C174" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="8"/>
@@ -46506,13 +46572,13 @@
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G174" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="I174" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="W174">
         <v>1</v>
@@ -46524,13 +46590,13 @@
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B175" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C175" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="8"/>
@@ -46541,10 +46607,10 @@
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G175" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="W175">
         <v>1</v>
@@ -46556,13 +46622,13 @@
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C176" t="s">
         <v>2763</v>
-      </c>
-      <c r="B176" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2764</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="8"/>
@@ -46573,13 +46639,13 @@
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="G176" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="I176" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="W176">
         <v>1</v>
@@ -46591,10 +46657,10 @@
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B177" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="8"/>
@@ -46605,10 +46671,10 @@
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G177" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="W177">
         <v>1</v>
@@ -46660,7 +46726,7 @@
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="8"/>
@@ -47183,10 +47249,10 @@
         <v>2642</v>
       </c>
       <c r="B206" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="10"/>
@@ -47197,10 +47263,10 @@
         <v>gás</v>
       </c>
       <c r="F206" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="H206" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="M206">
         <v>1</v>
@@ -47223,13 +47289,13 @@
         <v>extra</v>
       </c>
       <c r="F207" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="G207" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="H207" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="AE207">
         <v>1</v>
@@ -47241,13 +47307,13 @@
     </row>
     <row r="208" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B208" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C208" t="s">
         <v>2728</v>
-      </c>
-      <c r="C208" t="s">
-        <v>2729</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="10"/>
@@ -47258,13 +47324,13 @@
         <v>extra</v>
       </c>
       <c r="F208" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G208" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="H208" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="AE208">
         <v>1</v>
@@ -47276,13 +47342,13 @@
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B209" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="C209" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="10"/>
@@ -47293,13 +47359,13 @@
         <v>extra</v>
       </c>
       <c r="F209" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G209" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="H209" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="AE209">
         <v>1</v>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F742C-C66A-4590-B64C-FAF3B1590FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E7C6FC-676E-405E-83E4-23EB6F870C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="566" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="5940" yWindow="60" windowWidth="14784" windowHeight="11964" tabRatio="565" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="programas" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$1:$AE$499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">finais!$A$1:$AE$503</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9025" uniqueCount="2965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="2987">
   <si>
     <t>query</t>
   </si>
@@ -8535,9 +8535,6 @@
     <t>Tartarugas marinhas possuem um ciclo de vida complexo, passando por diferentes ambientes ao longo da vida. Começando pelo nascimento, as pequenas tartarugas escavam seu caminho para fora da areia e rumam para o mar. Algumas espécies passam a fase juvenil em regiões costeiras, enquanto outras permanecem no oceano a vida toda, como a tartaruga-de-couro. Elas atingem a maturidade sexual entre os 15 e 30 anos dependendo da espécie, quando retornam às praias onde nasceram para acasalar.</t>
   </si>
   <si>
-    <t>Todas as espécies marinhas encontradas no Brasil estão em risco de extinção, segundo critérios internacionais. Dentre elas, a tartaruga-verde está menos exposta, pois desova preferencialmente nas ilhas oceânicas (como Fernando de Noronha), onde as ações humanas têm menos impacto.</t>
-  </si>
-  <si>
     <t>Por que tartarugas estão em extinção?</t>
   </si>
   <si>
@@ -8703,9 +8700,6 @@
     <t>Quais são os principais contras da energia de marés?</t>
   </si>
   <si>
-    <t>Quais são as vantagens da energia demarés?</t>
-  </si>
-  <si>
     <t>O que é energia de maré?</t>
   </si>
   <si>
@@ -8760,9 +8754,6 @@
     <t>gás</t>
   </si>
   <si>
-    <t>As tartugas são animais aquáticos (vivem tanto em água doce quanto salgada), possuem o casco alto e achatado e as suas patas são em formato de remo, o que facilita seu deslocamento aquático. Há espécies carnívoras e outras herbívoras.</t>
-  </si>
-  <si>
     <t>diferença</t>
   </si>
   <si>
@@ -8935,6 +8926,81 @@
   </si>
   <si>
     <t>cnidário</t>
+  </si>
+  <si>
+    <t>espalhamento-do-piso</t>
+  </si>
+  <si>
+    <t>As tartarugas são animais aquáticos (vivem tanto em água doce quanto salgada), possuem o casco alto e achatado e as suas patas são em formato de remo, o que facilita seu deslocamento na água. Há espécies carnívoras e outras herbívoras.</t>
+  </si>
+  <si>
+    <t>Todas as espécies marinhas encontradas no Brasil estão em risco de extinção :(  Dentre elas, a tartaruga-verde está menos exposta, pois desova preferencialmente nas ilhas oceânicas (como Fernando de Noronha), onde as ações humanas têm menos impacto.</t>
+  </si>
+  <si>
+    <t>O branqueamento de corais é um problema ecológico caracterizado pela perda de coloração dos corais, que se tornam translúcidos, podendo levar à morte.</t>
+  </si>
+  <si>
+    <t>O que causa o branqueamento de corais?</t>
+  </si>
+  <si>
+    <t>Há diversos fatores envolvidos, como alterações na salinidade da água, poluição e, principalmente, mudanças de temperatura, sendo o aquecimento global um grande responsável.</t>
+  </si>
+  <si>
+    <t>O turismo danifica e até mata os recifes de corais de diferentes formas: o caminhar de pessoas em cima deles, a ancoragem de barcos, o despejo de lixo e outras substâncias tóxicas, a suspensão de sedimento ao andar ou nadar próximo a recifes, prejudicando organismos filtradores.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/292222600_O_turismo_em_areas_de_recifes_de_coral_consideracoes_acerca_da_area_de_Protecao_Ambiental_Costa_dos_Corais_estados_de_Pernambuco_e_Alagoas</t>
+  </si>
+  <si>
+    <t>Apesar de parecer um monte de rochas, na verdade os recifes são compostos principalmente dos próprios corais, cujo esqueleto de carbonato de cálcio resulta na aparência e textura dos recifes.</t>
+  </si>
+  <si>
+    <t>https://brasilescola.uol.com.br/biologia/recifes-corais.htm</t>
+  </si>
+  <si>
+    <t>mundo</t>
+  </si>
+  <si>
+    <t>O maior recife do mundo é a Grande Barreira de Corais da Austrália, que se estende por 2700 km de comprimento e 700 km de largura. Devido ao tamanho e à quantidade de espécies que abriga (em torno de 3 mil!), ela é considerada patrimônio mundial da Unesco e uma das Sete Maravilhas Naturais do mundo.</t>
+  </si>
+  <si>
+    <t>Qual é o maior recife de corais no Brasil?</t>
+  </si>
+  <si>
+    <t>O maior recife do Brasil é a Costa dos Corais do Alagoas, com uma extensão de cerca de 135 km. Apesar de ser bem menor que a Grande Barreira de Corais da Austrália, ainda está entre os maiores recifes do mundo!</t>
+  </si>
+  <si>
+    <t>https://www.evidive.com.br/barreiras-corais/</t>
+  </si>
+  <si>
+    <t>Existem 3 tipos principais: franjas, barreiras e atóis. Os recifes em franja formam-se perto da costa, separando-se dela por lagoas rasas. Os recifes em barreira formam-se paralelo à costa, porém as lagoas são profundas. Já os atóis possuem formato de anel e ficam no meio do oceano, normalmente onde antes havia ilhas.</t>
+  </si>
+  <si>
+    <t>Quais são as vantagens da energia de marés?</t>
+  </si>
+  <si>
+    <t>Os recifes são encontrados perto do litoral, separados por lagoas rasas ou profundas, e às vezes no meio do oceano, normalmente onde ilhas costumavam ficar. No Brasil, há grandes comunidades de corais no litoral nordestion, desde a Bahia até o Maranhão.</t>
+  </si>
+  <si>
+    <t>https://www.infoescola.com/ecologia/recifes-artificiais/</t>
+  </si>
+  <si>
+    <t>Recifes artificiais são construções humanas que tentam imitar a estrutura de recifes verdadeiros com o objetivo de impulsionar a biodiversidade local. Eles são empregados principalmente na reabilitação de habitats, ou seja, na recuperação de locais impactados pela ação do homem.</t>
+  </si>
+  <si>
+    <t>Qual é a importância dos corais?</t>
+  </si>
+  <si>
+    <t>O branqueamento pode levar à morte dos corais. Mesmo quando sobrevivem, eles ficam enfraquecidos e mais suscetíveis a doenças. Sem os corais, milhares de peixes e outros seres aquáticos ficam sem lar, o que causa uma reação em cadeia no ecossistema marinho.</t>
+  </si>
+  <si>
+    <t>Os recifes de corais são ecossistemas que abrigam muitas formas de vida marinhas. Aproximadamente 65% dos peixes marinhos moram nesse habitat, tornando essencial a sua preservação.</t>
+  </si>
+  <si>
+    <t>Os corais ensinam a paciência, já que demoram muitos anos para se formar. Partes de corais já foram usadas como amuletos para trazer proteção, por exemplo, pelos egípcios. Para os romanos, eles simbolizavam a fertilidade.</t>
+  </si>
+  <si>
+    <t>https://whatismyspiritanimal.com/spirit-totem-power-animal-meanings/fish/coral-symbolism-meaning/</t>
   </si>
 </sst>
 </file>
@@ -9078,7 +9144,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9148,7 +9221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:AB571" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{8C3B9576-1382-4D59-B98B-98BDB5F95A2F}" name="id"/>
@@ -9447,6 +9520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18026,6 +18100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30151,6 +30226,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E933B6A1-031B-4D1D-8E81-FF5488950B7F}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AB571"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -42308,16 +42384,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}">
-  <dimension ref="A1:AE499"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AE503"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
@@ -42343,37 +42420,37 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G1" t="s">
         <v>2889</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2890</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2892</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>2708</v>
@@ -42382,7 +42459,7 @@
         <v>2709</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>2710</v>
@@ -42412,29 +42489,35 @@
         <v>2718</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>2719</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2594</v>
       </c>
+      <c r="B2" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2969</v>
+      </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D65" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D2:D69" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
         <v>coral-turismo--efeito-turismo</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E2:E69" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="G2" t="s">
         <v>2715</v>
@@ -42446,7 +42529,7 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <f t="shared" ref="AE2:AE65" si="2">IF(SUM(J2:AD2)=0,"",SUM(J2:AD2))</f>
+        <f t="shared" ref="AE2:AE69" si="2">IF(SUM(J2:AD2)=0,"",SUM(J2:AD2))</f>
         <v>2</v>
       </c>
     </row>
@@ -42454,6 +42537,12 @@
       <c r="A3" t="s">
         <v>2595</v>
       </c>
+      <c r="B3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2971</v>
+      </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>coral--definição-recife</v>
@@ -42463,10 +42552,10 @@
         <v>coral</v>
       </c>
       <c r="F3" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G3" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -42492,7 +42581,7 @@
         <v>coral</v>
       </c>
       <c r="F4" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -42518,7 +42607,7 @@
         <v>coral</v>
       </c>
       <c r="F5" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -42532,6 +42621,9 @@
       <c r="A6" t="s">
         <v>2598</v>
       </c>
+      <c r="B6" t="s">
+        <v>2965</v>
+      </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>coral--definição-branqueamento</v>
@@ -42541,10 +42633,10 @@
         <v>coral</v>
       </c>
       <c r="F6" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G6" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -42556,21 +42648,24 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2599</v>
+        <v>2966</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2967</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>coral--maior-recife</v>
+        <f t="shared" ref="D7:D8" si="3">IF(AND(ISBLANK(F7),ISBLANK(G7),ISBLANK(H7)), E7, _xlfn.CONCAT(E7,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F7),"",_xlfn.CONCAT(F7,"-")),IF(ISBLANK(G7),"",_xlfn.CONCAT(G7,"-")),IF(ISBLANK(H7),"",_xlfn.CONCAT(H7,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>coral--motivo-branqueamento</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J7=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K7=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L7=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M7=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N7=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O7=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P7=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q7=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R7=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S7=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T7=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U7=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V7=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W7=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X7=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y7=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z7=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA7=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB7=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC7=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD7=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E7" si="4">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J7=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K7=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L7=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M7=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N7=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O7=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P7=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q7=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R7=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S7=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T7=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U7=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V7=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W7=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X7=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y7=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z7=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA7=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB7=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC7=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD7=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral</v>
       </c>
       <c r="F7" t="s">
-        <v>2838</v>
+        <v>2857</v>
       </c>
       <c r="G7" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -42582,50 +42677,65 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2600</v>
+        <v>2599</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2976</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>coral--listar-iniciativas-governo</v>
+        <f t="shared" si="3"/>
+        <v>coral--maior-recife-mundo</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J8=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K8=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L8=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M8=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N8=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O8=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P8=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q8=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R8=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S8=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T8=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U8=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V8=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W8=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X8=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y8=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z8=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA8=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB8=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC8=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD8=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral</v>
       </c>
       <c r="F8" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="G8" t="s">
-        <v>2847</v>
+        <v>2836</v>
       </c>
       <c r="H8" t="s">
-        <v>2840</v>
+        <v>2972</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AE8" si="5">IF(SUM(J8:AD8)=0,"",SUM(J8:AD8))</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2601</v>
+        <v>2974</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2976</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>coral--localização-recife</v>
+        <v>coral--maior-recife-brasil</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J9=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K9=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L9=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M9=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N9=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O9=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P9=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q9=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R9=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S9=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T9=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U9=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V9=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W9=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X9=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y9=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z9=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA9=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB9=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC9=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD9=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral</v>
       </c>
       <c r="F9" t="s">
-        <v>2897</v>
+        <v>2837</v>
       </c>
       <c r="G9" t="s">
-        <v>2837</v>
+        <v>2836</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2930</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -42637,21 +42747,24 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>coral--listar-tipos</v>
+        <v>coral--listar-iniciativas-governo</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F10" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H10" t="s">
         <v>2839</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2846</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -42663,21 +42776,27 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2603</v>
+        <v>2601</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2971</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>coral--definição-recife-artificial</v>
+        <v>coral--localização-recife</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F11" t="s">
-        <v>2962</v>
+        <v>2895</v>
       </c>
       <c r="G11" t="s">
-        <v>2845</v>
+        <v>2836</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -42689,24 +42808,27 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2604</v>
+        <v>2602</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2971</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>coral--efeito-branqueamento-ambiente</v>
+        <v>coral--listar-tipos</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F12" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="H12" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -42718,21 +42840,27 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1027</v>
+        <v>2603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2980</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>coral--detalhar-símbolo</v>
+        <v>coral--definição-recife-artificial</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F13" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2914</v>
+        <v>2959</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2844</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -42744,23 +42872,29 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>997</v>
+        <v>2604</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2983</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--efeito-ambiente</v>
+        <v>coral--efeito-branqueamento-ambiente</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>energia-de-maré</v>
+        <v>coral</v>
       </c>
       <c r="F14" t="s">
-        <v>2836</v>
+        <v>2835</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2834</v>
       </c>
       <c r="H14" t="s">
-        <v>2843</v>
-      </c>
-      <c r="K14">
+        <v>2842</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
       <c r="AE14">
@@ -42770,52 +42904,37 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>energia-de-maré--efeito-energia-de-maré-economia</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>energia-de-maré</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2918</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2844</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2982</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2984</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2885</v>
+        <v>1027</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2986</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--listar-prós-e-contras</v>
+        <v>coral--detalhar-símbolo</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>energia-de-maré</v>
+        <v>coral</v>
       </c>
       <c r="F16" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2923</v>
-      </c>
-      <c r="K16">
+        <v>2877</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
       <c r="AE16">
@@ -42825,21 +42944,21 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2886</v>
+        <v>997</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--listar-contras</v>
+        <v>energia-de-maré--efeito-ambiente</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F17" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2841</v>
+        <v>2835</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2842</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -42851,21 +42970,24 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2887</v>
+        <v>1048</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--listar-prós</v>
+        <v>energia-de-maré--efeito-energia-de-maré-economia</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F18" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="G18" t="s">
-        <v>2919</v>
+        <v>2915</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2843</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -42877,18 +42999,21 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2605</v>
+        <v>2884</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--localização</v>
+        <v>energia-de-maré--listar-prós-e-contras</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F19" t="s">
-        <v>2897</v>
+        <v>2838</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2920</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -42899,22 +43024,22 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>2645</v>
+      <c r="A20" t="s">
+        <v>2885</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--definição</v>
+        <v>energia-de-maré--listar-contras</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F20" t="s">
-        <v>2962</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2888</v>
+        <v>2838</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2840</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -42926,23 +43051,23 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2606</v>
+        <v>2978</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--maior-empresa</v>
+        <v>energia-de-maré--listar-prós</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F21" t="s">
         <v>2838</v>
       </c>
       <c r="G21" t="s">
-        <v>2848</v>
-      </c>
-      <c r="L21">
+        <v>2916</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
       <c r="AE21">
@@ -42952,26 +43077,20 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--efeito-derramamento-ambiente</v>
+        <v>energia-de-maré--localização</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F22" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2920</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2843</v>
-      </c>
-      <c r="L22">
+        <v>2895</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
       <c r="AE22">
@@ -42980,27 +43099,24 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2608</v>
+      <c r="A23" s="5" t="s">
+        <v>2886</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--efeito-derramamento-economia</v>
+        <v>energia-de-maré--definição</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>energia-de-maré</v>
       </c>
       <c r="F23" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2920</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2844</v>
-      </c>
-      <c r="L23">
+        <v>2959</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2886</v>
+      </c>
+      <c r="K23">
         <v>1</v>
       </c>
       <c r="AE23">
@@ -43009,48 +43125,38 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2039</v>
+      <c r="A24" s="5" t="s">
+        <v>2645</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--definição-plataforma</v>
+        <v>oceano</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2921</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="2"/>
+        <v>oceano</v>
+      </c>
+      <c r="P24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2754</v>
+        <v>2606</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--quantidade-consumo</v>
+        <v>petróleo--maior-empresa</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F25" t="s">
-        <v>2852</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2842</v>
+        <v>2837</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2847</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -43062,24 +43168,24 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--detalhar-extração-custo</v>
+        <v>petróleo--efeito-derramamento-ambiente</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F26" t="s">
-        <v>2878</v>
+        <v>2835</v>
       </c>
       <c r="G26" t="s">
-        <v>2925</v>
+        <v>2917</v>
       </c>
       <c r="H26" t="s">
-        <v>2924</v>
+        <v>2842</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -43091,27 +43197,24 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2610</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2743</v>
+        <v>2608</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--maiores-reserva</v>
+        <v>petróleo--efeito-derramamento-economia</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F27" t="s">
-        <v>2849</v>
+        <v>2835</v>
       </c>
       <c r="G27" t="s">
-        <v>2850</v>
+        <v>2917</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2843</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -43123,21 +43226,21 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2853</v>
+        <v>2039</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--maior-reserva</v>
+        <v>petróleo--definição-plataforma</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2838</v>
+        <v>2959</v>
       </c>
       <c r="G28" t="s">
-        <v>2850</v>
+        <v>2918</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -43148,33 +43251,24 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>2748</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2743</v>
+      <c r="A29" t="s">
+        <v>2754</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(AND(ISBLANK(F29),ISBLANK(G29),ISBLANK(H29)), E29, _xlfn.CONCAT(E29,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F29),"",_xlfn.CONCAT(F29,"-")),IF(ISBLANK(G29),"",_xlfn.CONCAT(G29,"-")),IF(ISBLANK(H29),"",_xlfn.CONCAT(H29,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>gás--maiores-estado-produção</v>
+        <f t="shared" si="0"/>
+        <v>petróleo--quantidade-consumo</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
-        <v>gás</v>
+        <v>petróleo</v>
       </c>
       <c r="F29" t="s">
-        <v>2849</v>
-      </c>
-      <c r="G29" t="s">
         <v>2851</v>
       </c>
       <c r="H29" t="s">
-        <v>2898</v>
-      </c>
-      <c r="M29">
+        <v>2841</v>
+      </c>
+      <c r="L29">
         <v>1</v>
       </c>
       <c r="AE29">
@@ -43183,31 +43277,25 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2743</v>
+      <c r="A30" t="s">
+        <v>2609</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--maiores-estado-produção</v>
+        <v>petróleo--detalhar-extração-custo</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2849</v>
+        <v>2877</v>
       </c>
       <c r="G30" t="s">
-        <v>2851</v>
+        <v>2922</v>
       </c>
       <c r="H30" t="s">
-        <v>2898</v>
+        <v>2921</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -43219,24 +43307,27 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>2746</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2747</v>
+        <v>2610</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2743</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--quantidade</v>
+        <v>petróleo--maiores-reserva</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F31" t="s">
-        <v>2852</v>
+        <v>2848</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2849</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -43248,26 +43339,23 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2751</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>2752</v>
+        <v>2852</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>gás--detalhar-consumo</v>
+        <v>petróleo--maior-reserva</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
-        <v>gás</v>
+        <v>petróleo</v>
       </c>
       <c r="F32" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2842</v>
-      </c>
-      <c r="M32">
+        <v>2837</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2849</v>
+      </c>
+      <c r="L32">
         <v>1</v>
       </c>
       <c r="AE32">
@@ -43276,24 +43364,33 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2611</v>
+      <c r="A33" s="10" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2743</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>petróleo--definição-derramamento</v>
+        <f>IF(AND(ISBLANK(F33),ISBLANK(G33),ISBLANK(H33)), E33, _xlfn.CONCAT(E33,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F33),"",_xlfn.CONCAT(F33,"-")),IF(ISBLANK(G33),"",_xlfn.CONCAT(G33,"-")),IF(ISBLANK(H33),"",_xlfn.CONCAT(H33,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>gás--maiores-estado-produção</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>gás</v>
       </c>
       <c r="F33" t="s">
-        <v>2962</v>
+        <v>2848</v>
       </c>
       <c r="G33" t="s">
-        <v>2920</v>
-      </c>
-      <c r="L33">
+        <v>2850</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2896</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
       <c r="AE33">
@@ -43302,22 +43399,31 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>2612</v>
+      <c r="A34" s="10" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2743</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--maiores-derramamento</v>
+        <v>petróleo--maiores-estado-produção</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F34" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="G34" t="s">
-        <v>2920</v>
+        <v>2850</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2896</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -43329,21 +43435,24 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2613</v>
+        <v>2745</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>2747</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(AND(ISBLANK(F35),ISBLANK(G35),ISBLANK(H35)), E35, _xlfn.CONCAT(E35,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F35),"",_xlfn.CONCAT(F35,"-")),IF(ISBLANK(G35),"",_xlfn.CONCAT(G35,"-")),IF(ISBLANK(H35),"",_xlfn.CONCAT(H35,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>petróleo--pertence-recurso-renovável</v>
+        <f t="shared" si="0"/>
+        <v>petróleo--quantidade</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F35" t="s">
-        <v>2857</v>
-      </c>
-      <c r="H35" t="s">
-        <v>2926</v>
+        <v>2851</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -43355,23 +43464,26 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1626</v>
+        <v>2751</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>2752</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--detalhar-preço</v>
+        <v>gás--detalhar-consumo</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>gás</v>
       </c>
       <c r="F36" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H36" t="s">
-        <v>2931</v>
-      </c>
-      <c r="L36">
+        <v>2841</v>
+      </c>
+      <c r="M36">
         <v>1</v>
       </c>
       <c r="AE36">
@@ -43381,24 +43493,21 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--listar-tipo-brasil</v>
+        <v>petróleo--definição-derramamento</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F37" t="s">
-        <v>2839</v>
+        <v>2959</v>
       </c>
       <c r="G37" t="s">
-        <v>2932</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2933</v>
+        <v>2917</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -43410,50 +43519,47 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo-gás--motivo-junto</v>
+        <v>petróleo--maiores-derramamento</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo-gás</v>
+        <v>petróleo</v>
       </c>
       <c r="F38" t="s">
-        <v>2858</v>
+        <v>2848</v>
       </c>
       <c r="G38" t="s">
-        <v>2936</v>
+        <v>2917</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
       <c r="AE38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2791</v>
+        <v>2613</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>petróleo--localização</v>
+        <f>IF(AND(ISBLANK(F39),ISBLANK(G39),ISBLANK(H39)), E39, _xlfn.CONCAT(E39,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F39),"",_xlfn.CONCAT(F39,"-")),IF(ISBLANK(G39),"",_xlfn.CONCAT(G39,"-")),IF(ISBLANK(H39),"",_xlfn.CONCAT(H39,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>petróleo--pertence-recurso-renovável</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F39" t="s">
-        <v>2897</v>
+        <v>2856</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2923</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -43465,24 +43571,21 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2616</v>
+        <v>1626</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--listar-empresa-brasil</v>
+        <v>petróleo--detalhar-preço</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F40" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G40" t="s">
-        <v>2848</v>
+        <v>2877</v>
       </c>
       <c r="H40" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -43494,73 +43597,79 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo-engenharia--detalhar-engenheiro</v>
+        <v>petróleo--listar-tipo-brasil</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo-engenharia</v>
+        <v>petróleo</v>
       </c>
       <c r="F41" t="s">
-        <v>2878</v>
+        <v>2838</v>
       </c>
       <c r="G41" t="s">
-        <v>2934</v>
+        <v>2929</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2930</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
       <c r="AE41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--localização-profundidade</v>
+        <v>petróleo-gás--motivo-junto</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>petróleo-gás</v>
       </c>
       <c r="F42" t="s">
-        <v>2897</v>
+        <v>2857</v>
       </c>
       <c r="G42" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
       <c r="AE42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2619</v>
+        <v>1559</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2791</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--composição</v>
+        <v>petróleo--localização</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F43" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -43571,19 +43680,25 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>2620</v>
+      <c r="A44" t="s">
+        <v>2616</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--definição</v>
+        <v>petróleo--listar-empresa-brasil</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F44" t="s">
-        <v>2962</v>
+        <v>2838</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2847</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2930</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -43594,54 +43709,51 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>2697</v>
+      <c r="A45" t="s">
+        <v>2617</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--listar-uso</v>
+        <v>petróleo-engenharia--detalhar-engenheiro</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
-        <v>petróleo</v>
+        <v>petróleo-engenharia</v>
       </c>
       <c r="F45" t="s">
-        <v>2839</v>
+        <v>2877</v>
       </c>
       <c r="G45" t="s">
-        <v>2938</v>
+        <v>2931</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
       <c r="AE45">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2741</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2743</v>
+      <c r="A46" t="s">
+        <v>2618</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>petróleo--detalhar-produção</v>
+        <v>petróleo--localização-profundidade</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
         <v>petróleo</v>
       </c>
       <c r="F46" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H46" t="s">
-        <v>2898</v>
+        <v>2895</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2932</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -43653,29 +43765,20 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2701</v>
+        <v>2619</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--detalhar-dieta</v>
+        <v>petróleo--composição</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
-        <v>tartarugas</v>
+        <v>petróleo</v>
       </c>
       <c r="F47" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H47" t="s">
-        <v>2856</v>
-      </c>
-      <c r="N47">
+        <v>2898</v>
+      </c>
+      <c r="L47">
         <v>1</v>
       </c>
       <c r="AE47">
@@ -43684,24 +43787,21 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>2575</v>
+      <c r="A48" s="9" t="s">
+        <v>2620</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--detalhar-símbolo</v>
+        <v>petróleo--definição</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
-        <v>tartarugas</v>
+        <v>petróleo</v>
       </c>
       <c r="F48" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H48" t="s">
-        <v>2914</v>
-      </c>
-      <c r="N48">
+        <v>2959</v>
+      </c>
+      <c r="L48">
         <v>1</v>
       </c>
       <c r="AE48">
@@ -43710,27 +43810,24 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>2576</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2825</v>
+      <c r="A49" s="5" t="s">
+        <v>2697</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--listar-espécie</v>
+        <v>petróleo--listar-uso</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
-        <v>tartarugas</v>
+        <v>petróleo</v>
       </c>
       <c r="F49" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="G49" t="s">
-        <v>2927</v>
-      </c>
-      <c r="N49">
+        <v>2935</v>
+      </c>
+      <c r="L49">
         <v>1</v>
       </c>
       <c r="AE49">
@@ -43739,30 +43836,30 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>2577</v>
+      <c r="A50" s="5" t="s">
+        <v>2740</v>
       </c>
       <c r="B50" t="s">
-        <v>2823</v>
+        <v>2741</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2743</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--diferença-jabuti-tartaruga</v>
+        <v>petróleo--detalhar-produção</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
-        <v>tartarugas</v>
+        <v>petróleo</v>
       </c>
       <c r="F50" t="s">
-        <v>2907</v>
-      </c>
-      <c r="G50" t="s">
-        <v>2855</v>
+        <v>2877</v>
       </c>
       <c r="H50" t="s">
-        <v>2929</v>
-      </c>
-      <c r="N50">
+        <v>2896</v>
+      </c>
+      <c r="L50">
         <v>1</v>
       </c>
       <c r="AE50">
@@ -43772,27 +43869,27 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2787</v>
+        <v>2574</v>
       </c>
       <c r="B51" t="s">
-        <v>2788</v>
+        <v>2786</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2701</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--pertence-jabuti-tartaruga</v>
+        <v>tartarugas--detalhar-dieta</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F51" t="s">
-        <v>2857</v>
-      </c>
-      <c r="G51" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H51" t="s">
         <v>2855</v>
-      </c>
-      <c r="H51" t="s">
-        <v>2929</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -43804,24 +43901,21 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2790</v>
+        <v>2575</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--definição-quelônio</v>
+        <v>tartarugas--detalhar-símbolo</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F52" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G52" t="s">
-        <v>2916</v>
+        <v>2877</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2911</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -43833,24 +43927,24 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B53" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--definição-jabuti</v>
+        <v>tartarugas--listar-espécie</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F53" t="s">
-        <v>2962</v>
+        <v>2838</v>
       </c>
       <c r="G53" t="s">
-        <v>2855</v>
+        <v>2924</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -43862,24 +43956,27 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B54" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--definição-cágado</v>
+        <v>tartarugas--diferença-jabuti-tartaruga</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F54" t="s">
-        <v>2962</v>
+        <v>2904</v>
       </c>
       <c r="G54" t="s">
-        <v>2917</v>
+        <v>2854</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2926</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -43891,21 +43988,27 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2580</v>
+        <v>2787</v>
       </c>
       <c r="B55" t="s">
-        <v>2906</v>
+        <v>2788</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--definição</v>
+        <v>tartarugas--pertence-jabuti-tartaruga</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F55" t="s">
-        <v>2962</v>
+        <v>2856</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2854</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2926</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -43917,21 +44020,24 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2581</v>
+        <v>2789</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2790</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--quantidade-viva</v>
+        <v>tartarugas--definição-quelônio</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F56" t="s">
-        <v>2852</v>
+        <v>2959</v>
       </c>
       <c r="G56" t="s">
-        <v>2937</v>
+        <v>2913</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -43943,30 +44049,24 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="B57" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2826</v>
+        <v>2821</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--listar-espécie-extinção</v>
+        <v>tartarugas--definição-jabuti</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F57" t="s">
-        <v>2839</v>
+        <v>2959</v>
       </c>
       <c r="G57" t="s">
-        <v>2927</v>
-      </c>
-      <c r="H57" t="s">
-        <v>2899</v>
+        <v>2854</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -43978,27 +44078,24 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2832</v>
+        <v>2579</v>
       </c>
       <c r="B58" t="s">
-        <v>2833</v>
+        <v>2822</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--motivo-extinção</v>
+        <v>tartarugas--definição-cágado</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F58" t="s">
-        <v>2858</v>
-      </c>
-      <c r="H58" t="s">
-        <v>2899</v>
-      </c>
-      <c r="I58" t="s">
-        <v>2834</v>
+        <v>2959</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2914</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -44010,21 +44107,21 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2583</v>
+        <v>2580</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2963</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(AND(ISBLANK(F59),ISBLANK(G59),ISBLANK(H59)), E59, _xlfn.CONCAT(E59,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F59),"",_xlfn.CONCAT(F59,"-")),IF(ISBLANK(G59),"",_xlfn.CONCAT(G59,"-")),IF(ISBLANK(H59),"",_xlfn.CONCAT(H59,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>tartarugas--detalhar-origem</v>
+        <f t="shared" si="0"/>
+        <v>tartarugas--definição</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F59" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H59" t="s">
-        <v>2930</v>
+        <v>2959</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -44036,21 +44133,21 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--listar-predador</v>
+        <v>tartarugas--quantidade-viva</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F60" t="s">
-        <v>2839</v>
+        <v>2851</v>
       </c>
       <c r="G60" t="s">
-        <v>2942</v>
+        <v>2934</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -44062,21 +44159,30 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2585</v>
+        <v>2582</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2826</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--detalhar-reprodução</v>
+        <v>tartarugas--listar-espécie-extinção</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F61" t="s">
-        <v>2878</v>
+        <v>2838</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2924</v>
       </c>
       <c r="H61" t="s">
-        <v>2943</v>
+        <v>2897</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -44088,21 +44194,27 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2586</v>
+        <v>2831</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2832</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--quantidade-anos-de-vida</v>
+        <v>tartarugas--motivo-extinção</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F62" t="s">
-        <v>2852</v>
+        <v>2857</v>
       </c>
       <c r="H62" t="s">
-        <v>2945</v>
+        <v>2897</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2833</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -44114,24 +44226,21 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2830</v>
+        <v>2583</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>tartarugas--explicar-ciclo-de-vida</v>
+        <f>IF(AND(ISBLANK(F63),ISBLANK(G63),ISBLANK(H63)), E63, _xlfn.CONCAT(E63,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F63),"",_xlfn.CONCAT(F63,"-")),IF(ISBLANK(G63),"",_xlfn.CONCAT(G63,"-")),IF(ISBLANK(H63),"",_xlfn.CONCAT(H63,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>tartarugas--detalhar-origem</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F63" t="s">
-        <v>2954</v>
+        <v>2877</v>
       </c>
       <c r="H63" t="s">
-        <v>2859</v>
+        <v>2927</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -44143,21 +44252,21 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--detalhar-classe</v>
+        <v>tartarugas--listar-predador</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F64" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H64" t="s">
-        <v>2946</v>
+        <v>2838</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2939</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -44169,21 +44278,21 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>tartarugas--detalhar-cor</v>
+        <v>tartarugas--detalhar-reprodução</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F65" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H65" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -44195,1718 +44304,1712 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D126" si="3">IF(AND(ISBLANK(F66),ISBLANK(G66),ISBLANK(H66)), E66, _xlfn.CONCAT(E66,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F66),"",_xlfn.CONCAT(F66,"-")),IF(ISBLANK(G66),"",_xlfn.CONCAT(G66,"-")),IF(ISBLANK(H66),"",_xlfn.CONCAT(H66,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>tartarugas--detalhar-tamanho</v>
+        <f t="shared" si="0"/>
+        <v>tartarugas--quantidade-anos-de-vida</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E126" si="4">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J66=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K66=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L66=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M66=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N66=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O66=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P66=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q66=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R66=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S66=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T66=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U66=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V66=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W66=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X66=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y66=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z66=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA66=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB66=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC66=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD66=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F66" t="s">
-        <v>2878</v>
+        <v>2851</v>
       </c>
       <c r="H66" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="AE66">
-        <f t="shared" ref="AE66:AE129" si="5">IF(SUM(J66:AD66)=0,"",SUM(J66:AD66))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B67" t="s">
-        <v>2824</v>
+        <v>2830</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="3"/>
-        <v>tartarugas--localização</v>
+        <f t="shared" si="0"/>
+        <v>tartarugas--explicar-ciclo-de-vida</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F67" t="s">
-        <v>2897</v>
+        <v>2951</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2858</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
       <c r="AE67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="3"/>
-        <v>tartarugas--detalhar-idade-reprodutiva</v>
+        <f t="shared" si="0"/>
+        <v>tartarugas--detalhar-classe</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F68" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H68" t="s">
-        <v>2950</v>
+        <v>2943</v>
       </c>
       <c r="N68">
         <v>1</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>2699</v>
+      <c r="A69" t="s">
+        <v>2589</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="3"/>
-        <v>tartarugas--detalhar-habitat</v>
+        <f t="shared" si="0"/>
+        <v>tartarugas--detalhar-cor</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>tartarugas</v>
       </c>
       <c r="F69" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H69" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="N69">
         <v>1</v>
       </c>
       <c r="AE69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2701</v>
+      <c r="A70" t="s">
+        <v>2590</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="3"/>
-        <v>tartarugas--detalhar-peso</v>
+        <f t="shared" ref="D70:D130" si="6">IF(AND(ISBLANK(F70),ISBLANK(G70),ISBLANK(H70)), E70, _xlfn.CONCAT(E70,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F70),"",_xlfn.CONCAT(F70,"-")),IF(ISBLANK(G70),"",_xlfn.CONCAT(G70,"-")),IF(ISBLANK(H70),"",_xlfn.CONCAT(H70,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>tartarugas--detalhar-tamanho</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E70:E130" si="7">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J70=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K70=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L70=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M70=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N70=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O70=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P70=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q70=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R70=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S70=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T70=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U70=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V70=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W70=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X70=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y70=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z70=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA70=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB70=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC70=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD70=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>tartarugas</v>
       </c>
       <c r="F70" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H70" t="s">
-        <v>2854</v>
+        <v>2936</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="AE70">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AE70:AE133" si="8">IF(SUM(J70:AD70)=0,"",SUM(J70:AD70))</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="6"/>
+        <v>tartarugas--localização</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="7"/>
+        <v>tartarugas</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2895</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="6"/>
+        <v>tartarugas--detalhar-idade-reprodutiva</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="7"/>
+        <v>tartarugas</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2947</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v>tartarugas--detalhar-habitat</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="7"/>
+        <v>tartarugas</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H73" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="6"/>
+        <v>tartarugas--detalhar-peso</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="7"/>
+        <v>tartarugas</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2853</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="3"/>
+      <c r="D75" t="str">
+        <f t="shared" si="6"/>
         <v>corrente--efeito-tartarugas</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="4"/>
+      <c r="E75" t="str">
+        <f t="shared" si="7"/>
         <v>corrente</v>
       </c>
-      <c r="F71" t="s">
-        <v>2836</v>
-      </c>
-      <c r="H71" t="s">
-        <v>2922</v>
-      </c>
-      <c r="S71">
+      <c r="F75" t="s">
+        <v>2835</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2919</v>
+      </c>
+      <c r="S75">
         <v>1</v>
       </c>
-      <c r="AE71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>2624</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--detalhar-pressão-do-ar</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
-      </c>
-      <c r="F72" t="s">
-        <v>2878</v>
-      </c>
-      <c r="G72" t="s">
-        <v>2951</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="AE72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>2622</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--detalhar-densidade</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H73" t="s">
-        <v>2947</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="AE73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>2623</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--detalhar-produção-de-oxigênio</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
-      </c>
-      <c r="F74" t="s">
-        <v>2878</v>
-      </c>
-      <c r="G74" t="s">
-        <v>2956</v>
-      </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="AE74">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--definição-nível-do-mar</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
-      </c>
-      <c r="F75" t="s">
-        <v>2962</v>
-      </c>
-      <c r="H75" t="s">
-        <v>2955</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
       <c r="AE75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="3"/>
-        <v>petróleo--detalhar-densidade</v>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-pressão-do-ar</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
-        <v>petróleo</v>
+        <f t="shared" si="7"/>
+        <v>oceano</v>
       </c>
       <c r="F76" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H76" t="s">
-        <v>2947</v>
-      </c>
-      <c r="L76">
+        <v>2877</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2948</v>
+      </c>
+      <c r="P76">
         <v>1</v>
       </c>
       <c r="AE76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>2627</v>
+        <v>2622</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--efeito-temperatura</v>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-densidade</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F77" t="s">
-        <v>2836</v>
+        <v>2877</v>
       </c>
       <c r="H77" t="s">
-        <v>2949</v>
+        <v>2944</v>
       </c>
       <c r="P77">
         <v>1</v>
       </c>
       <c r="AE77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>2629</v>
+        <v>2623</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--detalhar-salinidade</v>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-produção-de-oxigênio</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F78" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="G78" t="s">
-        <v>2948</v>
+        <v>2953</v>
       </c>
       <c r="P78">
         <v>1</v>
       </c>
       <c r="AE78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--explicar-salinidade</v>
+        <f t="shared" si="6"/>
+        <v>oceano--definição-nível-do-mar</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F79" t="s">
-        <v>2954</v>
-      </c>
-      <c r="G79" t="s">
-        <v>2948</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1431</v>
+        <v>2959</v>
+      </c>
+      <c r="H79" t="s">
+        <v>2952</v>
       </c>
       <c r="P79">
         <v>1</v>
       </c>
       <c r="AE79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--detalhar-temperatura</v>
+        <f t="shared" si="6"/>
+        <v>petróleo--detalhar-densidade</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+        <f t="shared" si="7"/>
+        <v>petróleo</v>
       </c>
       <c r="F80" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H80" t="s">
-        <v>2949</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P80">
+        <v>2944</v>
+      </c>
+      <c r="L80">
         <v>1</v>
       </c>
       <c r="AE80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>1329</v>
+        <v>2627</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--efeito-temperatura-nível-do-mar</v>
+        <f t="shared" si="6"/>
+        <v>oceano--efeito-temperatura</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F81" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G81" t="s">
-        <v>2949</v>
+        <v>2835</v>
       </c>
       <c r="H81" t="s">
-        <v>2955</v>
+        <v>2946</v>
       </c>
       <c r="P81">
         <v>1</v>
       </c>
       <c r="AE81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>1385</v>
+        <v>2629</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--efeito-temperatura-oceano</v>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-salinidade</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F82" t="s">
-        <v>2836</v>
+        <v>2877</v>
       </c>
       <c r="G82" t="s">
-        <v>2949</v>
-      </c>
-      <c r="H82" t="s">
-        <v>2708</v>
+        <v>2945</v>
       </c>
       <c r="P82">
         <v>1</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>1389</v>
+        <v>2628</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--explicar</v>
+        <f t="shared" si="6"/>
+        <v>oceano--explicar-salinidade</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F83" t="s">
-        <v>2954</v>
+        <v>2951</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2945</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1431</v>
       </c>
       <c r="P83">
         <v>1</v>
       </c>
       <c r="AE83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--definição-acidificação</v>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-temperatura</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F84" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G84" t="s">
-        <v>2902</v>
+        <v>2877</v>
+      </c>
+      <c r="H84" t="s">
+        <v>2946</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>1325</v>
+        <v>1446</v>
       </c>
       <c r="P84">
         <v>1</v>
       </c>
       <c r="AE84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano--efeito-temperatura-nível-do-mar</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2946</v>
+      </c>
+      <c r="H85" t="s">
         <v>2952</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="3"/>
-        <v>petróleo--explicar-densidade</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>petróleo</v>
-      </c>
-      <c r="F85" t="s">
-        <v>2954</v>
-      </c>
-      <c r="H85" t="s">
-        <v>2947</v>
-      </c>
-      <c r="L85">
+      <c r="P85">
         <v>1</v>
       </c>
       <c r="AE85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>1582</v>
+        <v>1385</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--responsável-acidificação</v>
+        <f t="shared" si="6"/>
+        <v>oceano--efeito-temperatura-oceano</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F86" t="s">
-        <v>2958</v>
+        <v>2835</v>
       </c>
       <c r="G86" t="s">
-        <v>2902</v>
+        <v>2946</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2708</v>
       </c>
       <c r="P86">
         <v>1</v>
       </c>
       <c r="AE86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>2959</v>
+        <v>1389</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87" si="6">IF(AND(ISBLANK(F87),ISBLANK(G87),ISBLANK(H87)), E87, _xlfn.CONCAT(E87,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F87),"",_xlfn.CONCAT(F87,"-")),IF(ISBLANK(G87),"",_xlfn.CONCAT(G87,"-")),IF(ISBLANK(H87),"",_xlfn.CONCAT(H87,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>oceano--efeito-acidificação</v>
+        <f t="shared" si="6"/>
+        <v>oceano--explicar</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" ref="E87" si="7">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J87=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K87=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L87=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M87=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N87=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O87=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P87=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q87=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R87=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S87=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T87=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U87=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V87=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W87=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X87=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y87=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z87=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA87=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB87=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC87=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD87=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F87" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G87" t="s">
-        <v>2902</v>
+        <v>2951</v>
       </c>
       <c r="P87">
         <v>1</v>
       </c>
       <c r="AE87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
-        <v>2632</v>
+    <row r="88" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>2631</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--definição-acidificação</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F88" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2900</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>1325</v>
       </c>
       <c r="P88">
         <v>1</v>
       </c>
       <c r="AE88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>2633</v>
+        <v>2949</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--efeito-ciclo-hidrológico</v>
+        <f t="shared" si="6"/>
+        <v>petróleo--explicar-densidade</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+        <f t="shared" si="7"/>
+        <v>petróleo</v>
       </c>
       <c r="F89" t="s">
-        <v>2836</v>
+        <v>2951</v>
       </c>
       <c r="H89" t="s">
-        <v>2960</v>
-      </c>
-      <c r="I89" t="s">
-        <v>2953</v>
-      </c>
-      <c r="P89">
+        <v>2944</v>
+      </c>
+      <c r="L89">
         <v>1</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>2634</v>
+        <v>1582</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--detalhar-símbolo</v>
+        <f t="shared" si="6"/>
+        <v>oceano--responsável-acidificação</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F90" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H90" t="s">
-        <v>2914</v>
+        <v>2955</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2900</v>
       </c>
       <c r="P90">
         <v>1</v>
       </c>
       <c r="AE90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>2635</v>
+        <v>2956</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--definição-trincheira-profunda</v>
+        <f t="shared" ref="D91" si="9">IF(AND(ISBLANK(F91),ISBLANK(G91),ISBLANK(H91)), E91, _xlfn.CONCAT(E91,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F91),"",_xlfn.CONCAT(F91,"-")),IF(ISBLANK(G91),"",_xlfn.CONCAT(G91,"-")),IF(ISBLANK(H91),"",_xlfn.CONCAT(H91,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>oceano--efeito-acidificação</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E91" si="10">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J91=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K91=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L91=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M91=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N91=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O91=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P91=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q91=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R91=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S91=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T91=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U91=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V91=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W91=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X91=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y91=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z91=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA91=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB91=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC91=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD91=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>oceano</v>
       </c>
       <c r="F91" t="s">
-        <v>2962</v>
+        <v>2835</v>
       </c>
       <c r="G91" t="s">
-        <v>2895</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>1245</v>
+        <v>2900</v>
       </c>
       <c r="P91">
         <v>1</v>
       </c>
       <c r="AE91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
-        <v>2041</v>
+      <c r="A92" s="11" t="s">
+        <v>2632</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--efeito</v>
+        <f t="shared" si="6"/>
+        <v>oceano</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
-      </c>
-      <c r="F92" t="s">
-        <v>2836</v>
       </c>
       <c r="P92">
         <v>1</v>
       </c>
       <c r="AE92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>1095</v>
+        <v>2633</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--efeito-ciclo-hidrológico</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F93" t="s">
+        <v>2835</v>
+      </c>
+      <c r="H93" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2950</v>
       </c>
       <c r="P93">
         <v>1</v>
       </c>
       <c r="AE93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>1802</v>
+        <v>2634</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-símbolo</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F94" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H94" t="s">
+        <v>2911</v>
       </c>
       <c r="P94">
         <v>1</v>
       </c>
       <c r="AE94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>1171</v>
+        <v>2635</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--definição-trincheira-profunda</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F95" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2893</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>1245</v>
       </c>
       <c r="P95">
         <v>1</v>
       </c>
       <c r="AE95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>1177</v>
+        <v>2041</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--efeito</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F96" t="s">
+        <v>2835</v>
       </c>
       <c r="P96">
         <v>1</v>
       </c>
       <c r="AE96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>2896</v>
+        <v>1095</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--detalhar-cor</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F97" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H97" t="s">
+        <v>2938</v>
       </c>
       <c r="P97">
         <v>1</v>
       </c>
       <c r="AE97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>1228</v>
+        <v>1802</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="3"/>
-        <v>oceano--motivo-circulação</v>
+        <f t="shared" si="6"/>
+        <v>oceano--definição-espalhamento-do-piso</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="F98" t="s">
-        <v>2858</v>
+        <v>2959</v>
       </c>
       <c r="G98" t="s">
-        <v>2901</v>
+        <v>2962</v>
       </c>
       <c r="P98">
         <v>1</v>
       </c>
       <c r="AE98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>1252</v>
+        <v>1171</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P99">
         <v>1</v>
       </c>
       <c r="AE99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>1335</v>
+        <v>1177</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P100">
         <v>1</v>
       </c>
       <c r="AE100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>1341</v>
+        <v>2894</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P101">
         <v>1</v>
       </c>
       <c r="AE101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>1431</v>
+        <v>1228</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>oceano--motivo-circulação</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>oceano</v>
+      <c r="F102" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2899</v>
       </c>
       <c r="P102">
         <v>1</v>
       </c>
       <c r="AE102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>1438</v>
+        <v>1252</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P103">
         <v>1</v>
       </c>
       <c r="AE103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>1446</v>
+        <v>1335</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P104">
         <v>1</v>
       </c>
       <c r="AE104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>1461</v>
+        <v>1341</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P105">
         <v>1</v>
       </c>
       <c r="AE105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>1480</v>
+        <v>1431</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P106">
         <v>1</v>
       </c>
       <c r="AE106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>1561</v>
+        <v>1438</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P107">
         <v>1</v>
       </c>
       <c r="AE107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>1580</v>
+        <v>1446</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P108">
         <v>1</v>
       </c>
       <c r="AE108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>1597</v>
+        <v>1461</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P109">
         <v>1</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>1667</v>
+        <v>1480</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P110">
         <v>1</v>
       </c>
       <c r="AE110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>1861</v>
+        <v>1561</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P111">
         <v>1</v>
       </c>
       <c r="AE111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>1903</v>
+        <v>1580</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>oceano</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>oceano</v>
       </c>
       <c r="P112">
         <v>1</v>
       </c>
       <c r="AE112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="AE114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="AE115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="6"/>
+        <v>oceano</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="7"/>
+        <v>oceano</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="AE116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
         <v>2667</v>
       </c>
-      <c r="D113" t="str">
-        <f t="shared" si="3"/>
+      <c r="D117" t="str">
+        <f t="shared" si="6"/>
         <v>onda</v>
       </c>
-      <c r="E113" t="str">
-        <f t="shared" si="4"/>
-        <v>onda</v>
-      </c>
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="AE113">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>2668</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="3"/>
-        <v>onda-maré</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="4"/>
-        <v>onda-maré</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <v>1</v>
-      </c>
-      <c r="AE114">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>2669</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="3"/>
-        <v>onda</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="4"/>
-        <v>onda</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="AE115">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="3"/>
-        <v>onda</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="4"/>
-        <v>onda</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="AE116">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>2670</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="3"/>
-        <v>onda</v>
-      </c>
       <c r="E117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>onda</v>
       </c>
       <c r="Q117">
         <v>1</v>
       </c>
       <c r="AE117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>1253</v>
+        <v>2668</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="3"/>
-        <v>onda-litoral</v>
+        <f t="shared" si="6"/>
+        <v>onda-maré</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="4"/>
-        <v>onda-litoral</v>
+        <f t="shared" si="7"/>
+        <v>onda-maré</v>
       </c>
       <c r="Q118">
         <v>1</v>
       </c>
-      <c r="AA118">
+      <c r="R118">
         <v>1</v>
       </c>
       <c r="AE118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>1054</v>
+        <v>2669</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="3"/>
-        <v>maré--motivo</v>
+        <f t="shared" si="6"/>
+        <v>onda</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="4"/>
-        <v>maré</v>
-      </c>
-      <c r="F119" t="s">
-        <v>2858</v>
-      </c>
-      <c r="R119">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="Q119">
         <v>1</v>
       </c>
       <c r="AE119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>2671</v>
+        <v>1314</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="3"/>
-        <v>outras--definição-maremoto</v>
+        <f t="shared" si="6"/>
+        <v>onda</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="4"/>
-        <v>outras</v>
-      </c>
-      <c r="F120" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G120" t="s">
-        <v>2893</v>
-      </c>
-      <c r="AD120">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="Q120">
         <v>1</v>
       </c>
       <c r="AE120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>1833</v>
+        <v>2670</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="3"/>
-        <v>maré</v>
+        <f t="shared" si="6"/>
+        <v>onda</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="4"/>
-        <v>maré</v>
-      </c>
-      <c r="R121">
+        <f t="shared" si="7"/>
+        <v>onda</v>
+      </c>
+      <c r="Q121">
         <v>1</v>
       </c>
       <c r="AE121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>1140</v>
+        <v>1253</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>onda-litoral</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="7"/>
+        <v>onda-litoral</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="AA122">
+        <v>1</v>
+      </c>
+      <c r="AE122">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="6"/>
+        <v>maré--motivo</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="7"/>
         <v>maré</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="4"/>
-        <v>maré</v>
-      </c>
-      <c r="R122">
-        <v>1</v>
-      </c>
-      <c r="AE122">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D123" t="str">
-        <f t="shared" si="3"/>
-        <v>maré</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="4"/>
-        <v>maré</v>
+      <c r="F123" t="s">
+        <v>2857</v>
       </c>
       <c r="R123">
         <v>1</v>
       </c>
       <c r="AE123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
-        <v>2672</v>
+      <c r="A124" s="5" t="s">
+        <v>2671</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>outras--definição-maremoto</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="7"/>
+        <v>outras</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="6"/>
         <v>maré</v>
       </c>
-      <c r="E124" t="str">
-        <f t="shared" si="4"/>
-        <v>maré</v>
-      </c>
-      <c r="R124">
-        <v>1</v>
-      </c>
-      <c r="AE124">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D125" t="str">
-        <f t="shared" si="3"/>
-        <v>maré</v>
-      </c>
       <c r="E125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>maré</v>
       </c>
       <c r="R125">
         <v>1</v>
       </c>
       <c r="AE125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
-        <v>1552</v>
+      <c r="A126" s="5" t="s">
+        <v>1140</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>maré</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>maré</v>
       </c>
       <c r="R126">
         <v>1</v>
       </c>
       <c r="AE126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>2636</v>
+        <v>1279</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" ref="D127:D190" si="8">IF(AND(ISBLANK(F127),ISBLANK(G127),ISBLANK(H127)), E127, _xlfn.CONCAT(E127,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F127),"",_xlfn.CONCAT(F127,"-")),IF(ISBLANK(G127),"",_xlfn.CONCAT(G127,"-")),IF(ISBLANK(H127),"",_xlfn.CONCAT(H127,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>corrente</v>
+        <f t="shared" si="6"/>
+        <v>maré</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" ref="E127:E190" si="9">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J127=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K127=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L127=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M127=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N127=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O127=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P127=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q127=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R127=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S127=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T127=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U127=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V127=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W127=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X127=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y127=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z127=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA127=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB127=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC127=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD127=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>corrente</v>
-      </c>
-      <c r="S127">
+        <f t="shared" si="7"/>
+        <v>maré</v>
+      </c>
+      <c r="R127">
         <v>1</v>
       </c>
       <c r="AE127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>1189</v>
+        <v>2672</v>
       </c>
       <c r="D128" t="str">
+        <f t="shared" si="6"/>
+        <v>maré</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="7"/>
+        <v>maré</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="AE128">
         <f t="shared" si="8"/>
-        <v>corrente</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="9"/>
-        <v>corrente</v>
-      </c>
-      <c r="S128">
-        <v>1</v>
-      </c>
-      <c r="AE128">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>2621</v>
+        <v>1488</v>
       </c>
       <c r="D129" t="str">
+        <f t="shared" si="6"/>
+        <v>maré</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="7"/>
+        <v>maré</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="AE129">
         <f t="shared" si="8"/>
-        <v>corrente</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="9"/>
-        <v>corrente</v>
-      </c>
-      <c r="S129">
         <v>1</v>
       </c>
-      <c r="AE129">
-        <f t="shared" si="5"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="6"/>
+        <v>maré</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="7"/>
+        <v>maré</v>
+      </c>
+      <c r="R130">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D130" t="str">
+      <c r="AE130">
         <f t="shared" si="8"/>
-        <v>corrente</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="9"/>
-        <v>corrente</v>
-      </c>
-      <c r="S130">
-        <v>1</v>
-      </c>
-      <c r="AE130">
-        <f t="shared" ref="AE130:AE193" si="10">IF(SUM(J130:AD130)=0,"",SUM(J130:AD130))</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>2674</v>
+        <v>2636</v>
       </c>
       <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="11">IF(AND(ISBLANK(F131),ISBLANK(G131),ISBLANK(H131)), E131, _xlfn.CONCAT(E131,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F131),"",_xlfn.CONCAT(F131,"-")),IF(ISBLANK(G131),"",_xlfn.CONCAT(G131,"-")),IF(ISBLANK(H131),"",_xlfn.CONCAT(H131,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>corrente</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E194" si="12">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J131=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K131=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L131=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M131=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N131=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O131=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P131=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q131=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R131=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S131=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T131=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U131=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V131=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W131=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X131=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y131=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z131=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA131=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB131=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC131=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD131=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>corrente</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="AE131">
         <f t="shared" si="8"/>
-        <v>outras</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" si="9"/>
-        <v>outras</v>
-      </c>
-      <c r="AD131">
-        <v>1</v>
-      </c>
-      <c r="AE131">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>2675</v>
+        <v>1189</v>
       </c>
       <c r="D132" t="str">
+        <f t="shared" si="11"/>
+        <v>corrente</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="12"/>
+        <v>corrente</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="AE132">
         <f t="shared" si="8"/>
-        <v>outras</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="9"/>
-        <v>outras</v>
-      </c>
-      <c r="AD132">
-        <v>1</v>
-      </c>
-      <c r="AE132">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>2676</v>
+        <v>2621</v>
       </c>
       <c r="D133" t="str">
+        <f t="shared" si="11"/>
+        <v>corrente</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="12"/>
+        <v>corrente</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="AE133">
         <f t="shared" si="8"/>
-        <v>flora</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="9"/>
-        <v>flora</v>
-      </c>
-      <c r="U133">
         <v>1</v>
       </c>
-      <c r="AE133">
-        <f t="shared" si="10"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="11"/>
+        <v>corrente</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="12"/>
+        <v>corrente</v>
+      </c>
+      <c r="S134">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="8"/>
-        <v>flora</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="9"/>
-        <v>flora</v>
-      </c>
-      <c r="U134">
-        <v>1</v>
-      </c>
       <c r="AE134">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AE134:AE197" si="13">IF(SUM(J134:AD134)=0,"",SUM(J134:AD134))</f>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="8"/>
-        <v>flora-fauna</v>
+        <f t="shared" si="11"/>
+        <v>outras</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="9"/>
-        <v>flora-fauna</v>
-      </c>
-      <c r="U135">
+        <f t="shared" si="12"/>
+        <v>outras</v>
+      </c>
+      <c r="AD135">
         <v>1</v>
       </c>
-      <c r="V135">
+      <c r="AE135">
+        <f t="shared" si="13"/>
         <v>1</v>
-      </c>
-      <c r="AE135">
-        <f t="shared" si="10"/>
-        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>1561</v>
+        <v>2675</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="8"/>
-        <v>flora-fauna</v>
+        <f t="shared" si="11"/>
+        <v>outras</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="9"/>
-        <v>flora-fauna</v>
-      </c>
-      <c r="U136">
+        <f t="shared" si="12"/>
+        <v>outras</v>
+      </c>
+      <c r="AD136">
         <v>1</v>
       </c>
-      <c r="V136">
+      <c r="AE136">
+        <f t="shared" si="13"/>
         <v>1</v>
-      </c>
-      <c r="AE136">
-        <f t="shared" si="10"/>
-        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>2706</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2820</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2817</v>
+        <v>2676</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="8"/>
-        <v>flora--definição-alga</v>
+        <f t="shared" si="11"/>
+        <v>flora</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>flora</v>
-      </c>
-      <c r="F137" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G137" t="s">
-        <v>2861</v>
       </c>
       <c r="U137">
         <v>1</v>
       </c>
       <c r="AE137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2818</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2819</v>
+        <v>2677</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="8"/>
-        <v>flora-fauna--definição-líquen</v>
+        <f t="shared" si="11"/>
+        <v>flora</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="9"/>
-        <v>flora-fauna</v>
-      </c>
-      <c r="F138" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G138" t="s">
-        <v>2913</v>
+        <f t="shared" si="12"/>
+        <v>flora</v>
       </c>
       <c r="U138">
         <v>1</v>
       </c>
-      <c r="V138">
+      <c r="AE138">
+        <f t="shared" si="13"/>
         <v>1</v>
-      </c>
-      <c r="AE138">
-        <f t="shared" si="10"/>
-        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2815</v>
+        <v>2678</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="8"/>
-        <v>flora-fauna--definição-polifilético</v>
+        <f t="shared" si="11"/>
+        <v>flora-fauna</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>flora-fauna</v>
-      </c>
-      <c r="F139" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G139" t="s">
-        <v>2912</v>
       </c>
       <c r="U139">
         <v>1</v>
@@ -45915,1435 +46018,1480 @@
         <v>1</v>
       </c>
       <c r="AE139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
-        <v>2774</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2775</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2776</v>
+      <c r="A140" s="7" t="s">
+        <v>1561</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-pólipo</v>
+        <f t="shared" si="11"/>
+        <v>flora-fauna</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
-      </c>
-      <c r="F140" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G140" t="s">
-        <v>2928</v>
+        <f t="shared" si="12"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
       </c>
       <c r="V140">
         <v>1</v>
       </c>
       <c r="AE140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="11"/>
+        <v>flora--definição-alga</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="12"/>
+        <v>flora</v>
+      </c>
+      <c r="F141" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G141" t="s">
+        <v>2860</v>
+      </c>
+      <c r="U141">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
-        <v>2765</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2766</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2767</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="8"/>
-        <v>coral--detalhar-dieta</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="9"/>
-        <v>coral</v>
-      </c>
-      <c r="F141" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H141" t="s">
-        <v>2856</v>
-      </c>
-      <c r="J141">
+      <c r="AE141">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AE141">
-        <f t="shared" si="10"/>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="11"/>
+        <v>flora-fauna--definição-líquen</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="12"/>
+        <v>flora-fauna</v>
+      </c>
+      <c r="F142" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G142" t="s">
+        <v>2910</v>
+      </c>
+      <c r="U142">
         <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2783</v>
-      </c>
-      <c r="D142" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-medusa</v>
-      </c>
-      <c r="E142" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
-      </c>
-      <c r="F142" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G142" t="s">
-        <v>2863</v>
       </c>
       <c r="V142">
         <v>1</v>
       </c>
       <c r="AE142">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>2794</v>
+        <v>2814</v>
       </c>
       <c r="B143" t="s">
-        <v>2792</v>
+        <v>2816</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2815</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-animal-marinho</v>
+        <f t="shared" si="11"/>
+        <v>flora-fauna--definição-polifilético</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+        <f t="shared" si="12"/>
+        <v>flora-fauna</v>
       </c>
       <c r="F143" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G143" t="s">
-        <v>2963</v>
+        <v>2909</v>
+      </c>
+      <c r="U143">
+        <v>1</v>
       </c>
       <c r="V143">
         <v>1</v>
       </c>
       <c r="AE143">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
-        <v>2793</v>
+      <c r="A144" s="8" t="s">
+        <v>2774</v>
       </c>
       <c r="B144" t="s">
-        <v>2795</v>
+        <v>2775</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2776</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--listar-animal-marinho</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-pólipo</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
-        <v>2839</v>
+        <v>2959</v>
       </c>
       <c r="G144" t="s">
-        <v>2867</v>
-      </c>
-      <c r="H144" t="s">
-        <v>2862</v>
+        <v>2925</v>
       </c>
       <c r="V144">
         <v>1</v>
       </c>
       <c r="AE144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
-        <v>2796</v>
+      <c r="A145" s="8" t="s">
+        <v>2765</v>
       </c>
       <c r="B145" t="s">
-        <v>2804</v>
+        <v>2766</v>
       </c>
       <c r="C145" t="s">
-        <v>2803</v>
+        <v>2767</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-peixe</v>
+        <f t="shared" si="11"/>
+        <v>coral--detalhar-dieta</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>coral</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H145" t="s">
+        <v>2855</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="AE145">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="11"/>
+        <v>fauna--definição-medusa</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
-      <c r="F145" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G145" t="s">
-        <v>2864</v>
-      </c>
-      <c r="V145">
-        <v>1</v>
-      </c>
-      <c r="AE145">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2798</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2802</v>
-      </c>
-      <c r="D146" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-actinoperígeo</v>
-      </c>
-      <c r="E146" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
-      </c>
       <c r="F146" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G146" t="s">
-        <v>2908</v>
+        <v>2862</v>
       </c>
       <c r="V146">
         <v>1</v>
       </c>
       <c r="AE146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="B147" t="s">
-        <v>2805</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2801</v>
+        <v>2792</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-tubarão</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-animal-marinho</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G147" t="s">
-        <v>2909</v>
+        <v>2960</v>
       </c>
       <c r="V147">
         <v>1</v>
       </c>
       <c r="AE147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>2883</v>
+      <c r="A148" s="7" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2795</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--pertence-tubarão-peixe</v>
+        <f t="shared" si="11"/>
+        <v>fauna--listar-animal-marinho</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
-        <v>2857</v>
+        <v>2838</v>
       </c>
       <c r="G148" t="s">
-        <v>2909</v>
+        <v>2866</v>
       </c>
       <c r="H148" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="V148">
         <v>1</v>
       </c>
       <c r="AE148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>2679</v>
+      <c r="A149" s="7" t="s">
+        <v>2796</v>
       </c>
       <c r="B149" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="C149" t="s">
-        <v>2808</v>
+        <v>2803</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--maior-animal-marinho</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-peixe</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
-        <v>2838</v>
+        <v>2959</v>
       </c>
       <c r="G149" t="s">
-        <v>2867</v>
-      </c>
-      <c r="H149" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="V149">
         <v>1</v>
       </c>
       <c r="AE149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>2807</v>
+      <c r="A150" s="7" t="s">
+        <v>2797</v>
       </c>
       <c r="B150" t="s">
-        <v>2809</v>
+        <v>2798</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2802</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--existe-baleia</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-actinoperígeo</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
-        <v>2870</v>
+        <v>2959</v>
       </c>
       <c r="G150" t="s">
-        <v>2871</v>
+        <v>2905</v>
       </c>
       <c r="V150">
         <v>1</v>
       </c>
       <c r="AE150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>2810</v>
+      <c r="A151" s="7" t="s">
+        <v>2799</v>
       </c>
       <c r="B151" t="s">
-        <v>2812</v>
+        <v>2805</v>
       </c>
       <c r="C151" t="s">
-        <v>2811</v>
+        <v>2801</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna-turismo--localização-baleia</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-tubarão</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna-turismo</v>
+        <f t="shared" si="12"/>
+        <v>fauna</v>
       </c>
       <c r="F151" t="s">
-        <v>2897</v>
+        <v>2959</v>
       </c>
       <c r="G151" t="s">
-        <v>2871</v>
+        <v>2906</v>
       </c>
       <c r="V151">
         <v>1</v>
       </c>
-      <c r="X151">
+      <c r="AE151">
+        <f t="shared" si="13"/>
         <v>1</v>
-      </c>
-      <c r="AE151">
-        <f t="shared" si="10"/>
-        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>2680</v>
+        <v>2882</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>fauna--pertence-tubarão-peixe</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
-      <c r="E152" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+      <c r="F152" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G152" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H152" t="s">
+        <v>2863</v>
       </c>
       <c r="V152">
         <v>1</v>
       </c>
       <c r="AE152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
-        <v>2681</v>
+      <c r="A153" s="5" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2808</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>fauna--maior-animal-marinho</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
-      <c r="E153" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+      <c r="F153" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G153" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H153" t="s">
+        <v>2861</v>
       </c>
       <c r="V153">
         <v>1</v>
       </c>
       <c r="AE153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
-        <v>2682</v>
+      <c r="A154" s="5" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2809</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>fauna--existe-baleia</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+      <c r="F154" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G154" t="s">
+        <v>2870</v>
       </c>
       <c r="V154">
         <v>1</v>
       </c>
       <c r="AE154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
-        <v>2683</v>
+      <c r="A155" s="5" t="s">
+        <v>2810</v>
       </c>
       <c r="B155" t="s">
-        <v>2827</v>
+        <v>2812</v>
       </c>
       <c r="C155" t="s">
-        <v>2755</v>
+        <v>2811</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-plancton</v>
+        <f t="shared" si="11"/>
+        <v>fauna-turismo--localização-baleia</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+        <f t="shared" si="12"/>
+        <v>fauna-turismo</v>
       </c>
       <c r="F155" t="s">
-        <v>2962</v>
+        <v>2895</v>
       </c>
       <c r="G155" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="V155">
         <v>1</v>
       </c>
+      <c r="X155">
+        <v>1</v>
+      </c>
       <c r="AE155">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2770</v>
+      <c r="A156" s="5" t="s">
+        <v>2680</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-fitoplancton</v>
+        <f t="shared" si="11"/>
+        <v>fauna</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
-      </c>
-      <c r="F156" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G156" t="s">
-        <v>2873</v>
       </c>
       <c r="V156">
         <v>1</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2773</v>
+        <v>2681</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-salpa</v>
+        <f t="shared" si="11"/>
+        <v>fauna</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
-      </c>
-      <c r="F157" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G157" t="s">
-        <v>2865</v>
       </c>
       <c r="V157">
         <v>1</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>2769</v>
-      </c>
-      <c r="B158" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2771</v>
+        <v>2682</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-zooplancton</v>
+        <f t="shared" si="11"/>
+        <v>fauna</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
-      </c>
-      <c r="F158" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G158" t="s">
-        <v>2874</v>
       </c>
       <c r="V158">
         <v>1</v>
       </c>
       <c r="AE158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B159" t="s">
-        <v>2756</v>
+        <v>2827</v>
       </c>
       <c r="C159" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-anemona</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-plancton</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G159" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="V159">
         <v>1</v>
       </c>
       <c r="AE159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>2781</v>
+      <c r="A160" s="7" t="s">
+        <v>2768</v>
       </c>
       <c r="B160" t="s">
-        <v>2782</v>
+        <v>2828</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2770</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-hidra</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-fitoplancton</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G160" t="s">
-        <v>2866</v>
+        <v>2872</v>
       </c>
       <c r="V160">
         <v>1</v>
       </c>
       <c r="AE160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>2685</v>
+      <c r="A161" s="7" t="s">
+        <v>2772</v>
       </c>
       <c r="B161" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2801</v>
+        <v>2773</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna-turismo--existe-tubarão</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-salpa</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna-turismo</v>
+        <f t="shared" si="12"/>
+        <v>fauna</v>
       </c>
       <c r="F161" t="s">
-        <v>2870</v>
+        <v>2959</v>
       </c>
       <c r="G161" t="s">
-        <v>2909</v>
+        <v>2864</v>
       </c>
       <c r="V161">
         <v>1</v>
       </c>
-      <c r="X161">
+      <c r="AE161">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AE161">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
-        <v>2700</v>
+      <c r="A162" s="7" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2771</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="8"/>
-        <v>outras</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-zooplancton</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="9"/>
-        <v>outras</v>
-      </c>
-      <c r="AD162">
+        <f t="shared" si="12"/>
+        <v>fauna</v>
+      </c>
+      <c r="F162" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G162" t="s">
+        <v>2873</v>
+      </c>
+      <c r="V162">
         <v>1</v>
       </c>
       <c r="AE162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
-        <v>2703</v>
+      <c r="A163" s="7" t="s">
+        <v>2684</v>
       </c>
       <c r="B163" t="s">
-        <v>2729</v>
+        <v>2756</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2758</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--listar-crustáceo</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-anemona</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
-        <v>2839</v>
+        <v>2959</v>
       </c>
       <c r="G163" t="s">
-        <v>2910</v>
+        <v>2874</v>
       </c>
       <c r="V163">
         <v>1</v>
       </c>
       <c r="AE163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>2704</v>
+        <v>2781</v>
       </c>
       <c r="B164" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2736</v>
+        <v>2782</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-tunicado</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-hidra</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F164" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G164" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="V164">
         <v>1</v>
       </c>
       <c r="AE164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>2705</v>
+        <v>2685</v>
       </c>
       <c r="B165" t="s">
-        <v>2779</v>
+        <v>2800</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2801</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-molusco</v>
+        <f t="shared" si="11"/>
+        <v>fauna-turismo--existe-tubarão</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+        <f t="shared" si="12"/>
+        <v>fauna-turismo</v>
       </c>
       <c r="F165" t="s">
-        <v>2962</v>
+        <v>2869</v>
       </c>
       <c r="G165" t="s">
-        <v>2869</v>
+        <v>2906</v>
       </c>
       <c r="V165">
         <v>1</v>
       </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
       <c r="AE165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="11"/>
+        <v>outras</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="12"/>
+        <v>outras</v>
+      </c>
+      <c r="AD166">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2780</v>
-      </c>
-      <c r="D166" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--listar-molusco</v>
-      </c>
-      <c r="E166" t="str">
-        <f t="shared" si="9"/>
+      <c r="AE166">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="11"/>
+        <v>fauna--listar-crustáceo</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
-      <c r="F166" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G166" t="s">
-        <v>2869</v>
-      </c>
-      <c r="V166">
-        <v>1</v>
-      </c>
-      <c r="AE166">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>2722</v>
-      </c>
-      <c r="D167" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="9"/>
-        <v>fauna</v>
+      <c r="F167" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G167" t="s">
+        <v>2907</v>
       </c>
       <c r="V167">
         <v>1</v>
       </c>
       <c r="AE167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
-        <v>2702</v>
+      <c r="A168" s="5" t="s">
+        <v>2704</v>
       </c>
       <c r="B168" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="C168" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-crustáceo</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-tunicado</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G168" t="s">
-        <v>2910</v>
+        <v>2867</v>
       </c>
       <c r="V168">
         <v>1</v>
       </c>
       <c r="AE168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
-        <v>2727</v>
+      <c r="A169" s="5" t="s">
+        <v>2705</v>
       </c>
       <c r="B169" t="s">
-        <v>2728</v>
+        <v>2779</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--detalhar-crustáceo</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-molusco</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
-        <v>2878</v>
+        <v>2959</v>
       </c>
       <c r="G169" t="s">
-        <v>2910</v>
+        <v>2868</v>
       </c>
       <c r="V169">
         <v>1</v>
       </c>
       <c r="AE169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>2731</v>
+      <c r="A170" s="7" t="s">
+        <v>2707</v>
       </c>
       <c r="B170" t="s">
-        <v>2734</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2738</v>
+        <v>2780</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-filo</v>
+        <f t="shared" si="11"/>
+        <v>fauna--listar-molusco</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F170" t="s">
-        <v>2962</v>
+        <v>2838</v>
       </c>
       <c r="G170" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="V170">
         <v>1</v>
       </c>
       <c r="AE170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>2732</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2737</v>
+      <c r="A171" s="7" t="s">
+        <v>2722</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-cordado</v>
+        <f t="shared" si="11"/>
+        <v>fauna</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
-      </c>
-      <c r="F171" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G171" t="s">
-        <v>2879</v>
-      </c>
-      <c r="I171" t="s">
-        <v>2880</v>
       </c>
       <c r="V171">
         <v>1</v>
       </c>
       <c r="AE171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>2757</v>
+      <c r="A172" s="7" t="s">
+        <v>2702</v>
       </c>
       <c r="B172" t="s">
-        <v>2777</v>
+        <v>2726</v>
       </c>
       <c r="C172" t="s">
-        <v>2761</v>
+        <v>2739</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-cnidário</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-crustáceo</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="G172" t="s">
-        <v>2964</v>
+        <v>2907</v>
       </c>
       <c r="V172">
         <v>1</v>
       </c>
       <c r="AE172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>2759</v>
+        <v>2727</v>
       </c>
       <c r="B173" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2760</v>
+        <v>2728</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--definição-cnida</v>
+        <f t="shared" si="11"/>
+        <v>fauna--detalhar-crustáceo</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
-        <v>2962</v>
+        <v>2877</v>
       </c>
       <c r="G173" t="s">
-        <v>2877</v>
-      </c>
-      <c r="I173" t="s">
-        <v>2881</v>
+        <v>2907</v>
       </c>
       <c r="V173">
         <v>1</v>
       </c>
       <c r="AE173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
-        <v>2762</v>
+      <c r="A174" s="5" t="s">
+        <v>2731</v>
       </c>
       <c r="B174" t="s">
-        <v>2784</v>
+        <v>2734</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2738</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="8"/>
-        <v>fauna--listar-cnidário</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-filo</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
-        <v>2839</v>
+        <v>2959</v>
       </c>
       <c r="G174" t="s">
-        <v>2964</v>
+        <v>2875</v>
       </c>
       <c r="V174">
         <v>1</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
-        <v>1192</v>
+      <c r="A175" s="5" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2737</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="8"/>
-        <v>oceanografia</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-cordado</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="9"/>
-        <v>oceanografia</v>
-      </c>
-      <c r="W175">
+        <f t="shared" si="12"/>
+        <v>fauna</v>
+      </c>
+      <c r="F175" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G175" t="s">
+        <v>2878</v>
+      </c>
+      <c r="I175" t="s">
+        <v>2879</v>
+      </c>
+      <c r="V175">
         <v>1</v>
       </c>
       <c r="AE175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A176" s="7" t="s">
-        <v>2686</v>
+      <c r="A176" s="5" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2761</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="8"/>
-        <v>oceanografia</v>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-cnidário</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="9"/>
-        <v>oceanografia</v>
-      </c>
-      <c r="W176">
+        <f t="shared" si="12"/>
+        <v>fauna</v>
+      </c>
+      <c r="F176" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G176" t="s">
+        <v>2961</v>
+      </c>
+      <c r="V176">
         <v>1</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>2785</v>
+        <v>2759</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2760</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>fauna--definição-cnida</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="12"/>
+        <v>fauna</v>
+      </c>
+      <c r="F177" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G177" t="s">
+        <v>2876</v>
+      </c>
+      <c r="I177" t="s">
+        <v>2880</v>
+      </c>
+      <c r="V177">
+        <v>1</v>
+      </c>
+      <c r="AE177">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="11"/>
+        <v>fauna--listar-cnidário</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="12"/>
+        <v>fauna</v>
+      </c>
+      <c r="F178" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G178" t="s">
+        <v>2961</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+      <c r="AE178">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="11"/>
         <v>oceanografia</v>
       </c>
-      <c r="E177" t="str">
-        <f t="shared" si="9"/>
-        <v>oceanografia</v>
-      </c>
-      <c r="W177">
-        <v>1</v>
-      </c>
-      <c r="AE177">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="8"/>
-        <v>oceanografia</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="9"/>
-        <v>oceanografia</v>
-      </c>
-      <c r="W178">
-        <v>1</v>
-      </c>
-      <c r="AE178">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D179" t="str">
-        <f t="shared" si="8"/>
-        <v>oceanografia</v>
-      </c>
       <c r="E179" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>oceanografia</v>
       </c>
       <c r="W179">
         <v>1</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="8"/>
-        <v>turismo</v>
+        <f t="shared" si="11"/>
+        <v>oceanografia</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="9"/>
-        <v>turismo</v>
-      </c>
-      <c r="X180">
+        <f t="shared" si="12"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W180">
         <v>1</v>
       </c>
       <c r="AE180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>2688</v>
+      <c r="A181" s="7" t="s">
+        <v>2785</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="8"/>
-        <v>turismo</v>
+        <f t="shared" si="11"/>
+        <v>oceanografia</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="9"/>
-        <v>turismo</v>
-      </c>
-      <c r="X181">
+        <f t="shared" si="12"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W181">
         <v>1</v>
       </c>
       <c r="AE181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A182" s="7" t="s">
-        <v>2689</v>
+      <c r="A182" s="5" t="s">
+        <v>1505</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="8"/>
-        <v>turismo</v>
+        <f t="shared" si="11"/>
+        <v>oceanografia</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="9"/>
-        <v>turismo</v>
-      </c>
-      <c r="X182">
+        <f t="shared" si="12"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W182">
         <v>1</v>
       </c>
       <c r="AE182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A183" s="7" t="s">
-        <v>2690</v>
+      <c r="A183" s="5" t="s">
+        <v>1783</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="8"/>
-        <v>engenharia</v>
+        <f t="shared" si="11"/>
+        <v>oceanografia</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="9"/>
-        <v>engenharia</v>
-      </c>
-      <c r="Y183">
+        <f t="shared" si="12"/>
+        <v>oceanografia</v>
+      </c>
+      <c r="W183">
         <v>1</v>
       </c>
       <c r="AE183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="8"/>
-        <v>engenharia</v>
+        <f t="shared" si="11"/>
+        <v>turismo</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="9"/>
-        <v>engenharia</v>
-      </c>
-      <c r="Y184">
+        <f t="shared" si="12"/>
+        <v>turismo</v>
+      </c>
+      <c r="X184">
         <v>1</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>2692</v>
+        <v>2688</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="8"/>
-        <v>engenharia</v>
+        <f t="shared" si="11"/>
+        <v>turismo</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="9"/>
-        <v>engenharia</v>
-      </c>
-      <c r="Y185">
+        <f t="shared" si="12"/>
+        <v>turismo</v>
+      </c>
+      <c r="X185">
         <v>1</v>
       </c>
       <c r="AE185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>1387</v>
+        <v>2689</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="8"/>
-        <v>saude</v>
+        <f t="shared" si="11"/>
+        <v>turismo</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="9"/>
-        <v>saude</v>
-      </c>
-      <c r="Z186">
+        <f t="shared" si="12"/>
+        <v>turismo</v>
+      </c>
+      <c r="X186">
         <v>1</v>
       </c>
       <c r="AE186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>1619</v>
+      <c r="A187" s="7" t="s">
+        <v>2690</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="8"/>
-        <v>saude</v>
+        <f t="shared" si="11"/>
+        <v>engenharia</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="9"/>
-        <v>saude</v>
-      </c>
-      <c r="Z187">
+        <f t="shared" si="12"/>
+        <v>engenharia</v>
+      </c>
+      <c r="Y187">
         <v>1</v>
       </c>
       <c r="AE187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
-        <v>2693</v>
+      <c r="A188" s="7" t="s">
+        <v>2691</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="8"/>
-        <v>saude</v>
+        <f t="shared" si="11"/>
+        <v>engenharia</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="9"/>
-        <v>saude</v>
-      </c>
-      <c r="Z188">
+        <f t="shared" si="12"/>
+        <v>engenharia</v>
+      </c>
+      <c r="Y188">
         <v>1</v>
       </c>
       <c r="AE188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>1427</v>
+        <v>2692</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="8"/>
-        <v>litoral</v>
+        <f t="shared" si="11"/>
+        <v>engenharia</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="9"/>
-        <v>litoral</v>
-      </c>
-      <c r="AA189">
+        <f t="shared" si="12"/>
+        <v>engenharia</v>
+      </c>
+      <c r="Y189">
         <v>1</v>
       </c>
       <c r="AE189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>2694</v>
+      <c r="A190" s="7" t="s">
+        <v>1387</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="8"/>
-        <v>proteção-ambiental</v>
+        <f t="shared" si="11"/>
+        <v>saude</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="9"/>
-        <v>proteção-ambiental</v>
-      </c>
-      <c r="AB190">
+        <f t="shared" si="12"/>
+        <v>saude</v>
+      </c>
+      <c r="Z190">
         <v>1</v>
       </c>
       <c r="AE190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>1571</v>
+        <v>1619</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" ref="D191:D206" si="11">IF(AND(ISBLANK(F191),ISBLANK(G191),ISBLANK(H191)), E191, _xlfn.CONCAT(E191,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F191),"",_xlfn.CONCAT(F191,"-")),IF(ISBLANK(G191),"",_xlfn.CONCAT(G191,"-")),IF(ISBLANK(H191),"",_xlfn.CONCAT(H191,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>proteção-ambiental</v>
+        <f t="shared" si="11"/>
+        <v>saude</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" ref="E191:E206" si="12">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J191=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K191=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L191=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M191=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N191=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O191=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P191=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q191=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R191=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S191=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T191=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U191=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V191=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W191=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X191=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y191=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z191=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA191=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB191=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC191=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD191=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
-        <v>proteção-ambiental</v>
-      </c>
-      <c r="AB191">
+        <f t="shared" si="12"/>
+        <v>saude</v>
+      </c>
+      <c r="Z191">
         <v>1</v>
       </c>
       <c r="AE191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="11"/>
-        <v>proteção-ambiental</v>
+        <v>saude</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="12"/>
-        <v>proteção-ambiental</v>
-      </c>
-      <c r="AB192">
+        <v>saude</v>
+      </c>
+      <c r="Z192">
         <v>1</v>
       </c>
       <c r="AE192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>1669</v>
+        <v>1427</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="11"/>
-        <v>proteção-ambiental</v>
+        <v>litoral</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="12"/>
-        <v>proteção-ambiental</v>
-      </c>
-      <c r="AB193">
+        <v>litoral</v>
+      </c>
+      <c r="AA193">
         <v>1</v>
       </c>
       <c r="AE193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="11"/>
@@ -47357,23 +47505,23 @@
         <v>1</v>
       </c>
       <c r="AE194">
-        <f t="shared" ref="AE194:AE257" si="13">IF(SUM(J194:AD194)=0,"",SUM(J194:AD194))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>1846</v>
+        <v>1571</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="11"/>
-        <v>geologia</v>
+        <f t="shared" ref="D195:D210" si="14">IF(AND(ISBLANK(F195),ISBLANK(G195),ISBLANK(H195)), E195, _xlfn.CONCAT(E195,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F195),"",_xlfn.CONCAT(F195,"-")),IF(ISBLANK(G195),"",_xlfn.CONCAT(G195,"-")),IF(ISBLANK(H195),"",_xlfn.CONCAT(H195,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>proteção-ambiental</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="12"/>
-        <v>geologia</v>
-      </c>
-      <c r="AC195">
+        <f t="shared" ref="E195:E210" si="15">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J195=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K195=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L195=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M195=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N195=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O195=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P195=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q195=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R195=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S195=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T195=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U195=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V195=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W195=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X195=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y195=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z195=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA195=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB195=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC195=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD195=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <v>proteção-ambiental</v>
+      </c>
+      <c r="AB195">
         <v>1</v>
       </c>
       <c r="AE195">
@@ -47383,17 +47531,17 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>2637</v>
+        <v>2695</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="11"/>
-        <v>outras</v>
+        <f t="shared" si="14"/>
+        <v>proteção-ambiental</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="12"/>
-        <v>outras</v>
-      </c>
-      <c r="AD196">
+        <f t="shared" si="15"/>
+        <v>proteção-ambiental</v>
+      </c>
+      <c r="AB196">
         <v>1</v>
       </c>
       <c r="AE196">
@@ -47403,17 +47551,17 @@
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>2638</v>
+        <v>1669</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="11"/>
-        <v>outras</v>
+        <f t="shared" si="14"/>
+        <v>proteção-ambiental</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="12"/>
-        <v>outras</v>
-      </c>
-      <c r="AD197">
+        <f t="shared" si="15"/>
+        <v>proteção-ambiental</v>
+      </c>
+      <c r="AB197">
         <v>1</v>
       </c>
       <c r="AE197">
@@ -47423,2001 +47571,2086 @@
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>2639</v>
+        <v>2696</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="11"/>
-        <v>outras</v>
+        <f t="shared" si="14"/>
+        <v>proteção-ambiental</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="12"/>
-        <v>outras</v>
-      </c>
-      <c r="AD198">
+        <f t="shared" si="15"/>
+        <v>proteção-ambiental</v>
+      </c>
+      <c r="AB198">
         <v>1</v>
       </c>
       <c r="AE198">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AE198:AE261" si="16">IF(SUM(J198:AD198)=0,"",SUM(J198:AD198))</f>
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>2640</v>
+        <v>1846</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="11"/>
-        <v>outras</v>
+        <f t="shared" si="14"/>
+        <v>geologia</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="12"/>
-        <v>outras</v>
-      </c>
-      <c r="AD199">
+        <f t="shared" si="15"/>
+        <v>geologia</v>
+      </c>
+      <c r="AC199">
         <v>1</v>
       </c>
       <c r="AE199">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>outras</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>outras</v>
       </c>
       <c r="AD200">
         <v>1</v>
       </c>
       <c r="AE200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>2644</v>
+        <v>2638</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>outras</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>outras</v>
       </c>
       <c r="AD201">
         <v>1</v>
       </c>
       <c r="AE201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>outras</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>outras</v>
       </c>
       <c r="AD202">
         <v>1</v>
       </c>
       <c r="AE202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B203" t="s">
-        <v>2753</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>2743</v>
+        <v>2640</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="11"/>
-        <v>gás--detalhar-produção</v>
+        <f t="shared" si="14"/>
+        <v>outras</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="12"/>
-        <v>gás</v>
-      </c>
-      <c r="F203" t="s">
-        <v>2878</v>
-      </c>
-      <c r="H203" t="s">
-        <v>2898</v>
-      </c>
-      <c r="M203">
+        <f t="shared" si="15"/>
+        <v>outras</v>
+      </c>
+      <c r="AD203">
         <v>1</v>
       </c>
       <c r="AE203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="11"/>
-        <v>outras--listar-programas-de-proteção-aaz</v>
+        <f t="shared" si="14"/>
+        <v>outras</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>outras</v>
-      </c>
-      <c r="F204" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G204" t="s">
-        <v>2903</v>
-      </c>
-      <c r="H204" t="s">
-        <v>2884</v>
       </c>
       <c r="AD204">
         <v>1</v>
       </c>
       <c r="AE204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B205" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C205" t="s">
-        <v>2725</v>
+        <v>2644</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="11"/>
-        <v>outras--motivo-importância-aaz</v>
+        <f t="shared" si="14"/>
+        <v>outras</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>outras</v>
-      </c>
-      <c r="F205" t="s">
-        <v>2858</v>
-      </c>
-      <c r="G205" t="s">
-        <v>2911</v>
-      </c>
-      <c r="H205" t="s">
-        <v>2884</v>
       </c>
       <c r="AD205">
         <v>1</v>
       </c>
       <c r="AE205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B206" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C206" t="s">
-        <v>2723</v>
+        <v>2641</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="11"/>
-        <v>outras--motivo-nome-aaz</v>
+        <f t="shared" si="14"/>
+        <v>outras</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>outras</v>
-      </c>
-      <c r="F206" t="s">
-        <v>2858</v>
-      </c>
-      <c r="G206" t="s">
-        <v>2860</v>
-      </c>
-      <c r="H206" t="s">
-        <v>2884</v>
       </c>
       <c r="AD206">
         <v>1</v>
       </c>
       <c r="AE206">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE207" t="str">
-        <f t="shared" si="13"/>
+      <c r="A207" s="5" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="14"/>
+        <v>gás--detalhar-produção</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="15"/>
+        <v>gás</v>
+      </c>
+      <c r="F207" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H207" t="s">
+        <v>2896</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="AE207">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="14"/>
+        <v>outras--listar-programas-de-proteção-aaz</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="15"/>
+        <v>outras</v>
+      </c>
+      <c r="F208" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G208" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H208" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AD208">
+        <v>1</v>
+      </c>
+      <c r="AE208">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="14"/>
+        <v>outras--motivo-importância-aaz</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="15"/>
+        <v>outras</v>
+      </c>
+      <c r="F209" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G209" t="s">
+        <v>2908</v>
+      </c>
+      <c r="H209" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AD209">
+        <v>1</v>
+      </c>
+      <c r="AE209">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="14"/>
+        <v>outras--motivo-nome-aaz</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="15"/>
+        <v>outras</v>
+      </c>
+      <c r="F210" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G210" t="s">
+        <v>2859</v>
+      </c>
+      <c r="H210" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AD210">
+        <v>1</v>
+      </c>
+      <c r="AE210">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE211" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AE208" t="str">
-        <f t="shared" si="13"/>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE212" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE209" t="str">
-        <f t="shared" si="13"/>
+    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE213" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE210" t="str">
-        <f t="shared" si="13"/>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE214" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE211" t="str">
-        <f t="shared" si="13"/>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE215" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE212" t="str">
-        <f t="shared" si="13"/>
+    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE216" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE213" t="str">
-        <f t="shared" si="13"/>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE217" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE214" t="str">
-        <f t="shared" si="13"/>
+    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE218" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE215" t="str">
-        <f t="shared" si="13"/>
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE219" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE216" t="str">
-        <f t="shared" si="13"/>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE220" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE217" t="str">
-        <f t="shared" si="13"/>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE221" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE218" t="str">
-        <f t="shared" si="13"/>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE222" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE219" t="str">
-        <f t="shared" si="13"/>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE223" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE220" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE221" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE222" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="31:31" x14ac:dyDescent="0.3">
-      <c r="AE223" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE224" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE225" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE226" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE227" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE228" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE229" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE230" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE231" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE232" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE233" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE234" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE235" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE236" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE237" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE238" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE239" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE240" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE241" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE242" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE243" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE244" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE245" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE246" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE247" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE248" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE249" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE250" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE251" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE252" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE253" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE254" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE255" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE256" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE257" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE258" t="str">
-        <f t="shared" ref="AE258:AE321" si="14">IF(SUM(J258:AD258)=0,"",SUM(J258:AD258))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE259" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE260" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE261" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE262" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AE262:AE325" si="17">IF(SUM(J262:AD262)=0,"",SUM(J262:AD262))</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE263" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE264" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE265" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE266" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE267" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE268" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE269" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE270" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE271" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE272" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE273" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE274" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE275" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE276" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE277" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE278" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE279" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE280" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE281" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE282" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE283" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE284" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE285" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE286" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE287" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE288" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE289" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE290" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE291" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE292" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE293" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE294" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE295" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE296" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE297" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE298" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE299" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE300" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE301" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE302" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE303" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE304" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE305" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE306" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE307" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE308" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE309" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE310" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE311" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE312" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE313" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE314" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE315" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE316" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE317" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE318" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE319" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE320" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE321" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE322" t="str">
-        <f t="shared" ref="AE322:AE385" si="15">IF(SUM(J322:AD322)=0,"",SUM(J322:AD322))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE323" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE324" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE325" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE326" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AE326:AE389" si="18">IF(SUM(J326:AD326)=0,"",SUM(J326:AD326))</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE327" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE328" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE329" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE330" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE331" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE332" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE333" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE334" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE335" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE336" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE337" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE338" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE339" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE341" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE342" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE343" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE344" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE345" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE346" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE347" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE348" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE349" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE350" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE351" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE352" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE353" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE354" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE355" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE356" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE357" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE358" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE359" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE360" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE361" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE362" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE363" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE364" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE365" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE366" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE367" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE368" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE369" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE370" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE371" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE372" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE373" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE374" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE375" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE376" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE377" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE378" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE379" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE380" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE381" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE382" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE383" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE384" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE385" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE386" t="str">
-        <f t="shared" ref="AE386:AE449" si="16">IF(SUM(J386:AD386)=0,"",SUM(J386:AD386))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE387" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE388" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE389" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE390" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AE390:AE453" si="19">IF(SUM(J390:AD390)=0,"",SUM(J390:AD390))</f>
         <v/>
       </c>
     </row>
     <row r="391" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE391" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE392" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE393" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE394" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE395" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE396" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE397" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE398" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE399" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE400" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE401" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE402" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE403" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE404" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE405" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE406" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE407" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE408" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE409" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE410" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE411" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE412" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE413" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE414" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE415" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE416" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE417" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE418" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE419" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE420" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE421" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE422" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE423" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE424" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE425" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE426" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE427" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE428" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE429" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE430" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE431" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE432" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE433" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE434" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE435" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE436" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE437" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE438" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE439" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE440" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE441" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE442" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE443" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE444" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE445" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE446" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE447" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE448" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE449" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE450" t="str">
-        <f t="shared" ref="AE450:AE499" si="17">IF(SUM(J450:AD450)=0,"",SUM(J450:AD450))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE451" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE452" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE453" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE454" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AE454:AE503" si="20">IF(SUM(J454:AD454)=0,"",SUM(J454:AD454))</f>
         <v/>
       </c>
     </row>
     <row r="455" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE455" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE456" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE457" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE458" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE459" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE460" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE461" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE462" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE463" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE464" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE465" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE466" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE467" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE468" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE469" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE470" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE471" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE472" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE473" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE474" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE475" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE476" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE477" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE478" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE479" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE480" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE481" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE482" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE483" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE484" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE485" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE486" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE487" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE488" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE489" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE490" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE491" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE492" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE493" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE494" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE495" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE496" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE497" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE498" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE499" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
+    <row r="500" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE500" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE501" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE502" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE503" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE499" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A186:AD206">
-    <sortCondition descending="1" ref="Z186:Z206"/>
+  <autoFilter ref="A1:AE503" xr:uid="{17344D9D-8D84-42DD-9996-E6496156E107}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A190:AD210">
+    <sortCondition descending="1" ref="Z190:Z210"/>
   </sortState>
-  <conditionalFormatting sqref="J2:AD516">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="J2:AD7 J9:AD520">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(OR($AE2="", $AE2=0), NOT(ISBLANK($A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:AD8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(OR($AE8="", $AE8=0), NOT(ISBLANK($A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49427,6 +49660,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16073544-1E06-452F-B66A-4E8CA4FFD654}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E7C6FC-676E-405E-83E4-23EB6F870C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB57494B-2FE6-495F-900E-4F0534985F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="60" windowWidth="14784" windowHeight="11964" tabRatio="565" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="2987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9073" uniqueCount="3000">
   <si>
     <t>query</t>
   </si>
@@ -9001,6 +9001,45 @@
   </si>
   <si>
     <t>https://whatismyspiritanimal.com/spirit-totem-power-animal-meanings/fish/coral-symbolism-meaning/</t>
+  </si>
+  <si>
+    <t>energia</t>
+  </si>
+  <si>
+    <t>geração</t>
+  </si>
+  <si>
+    <t>métodos-de-geração</t>
+  </si>
+  <si>
+    <t>A energia de maré é produzida pelos movimentos da água que surgem com o encher e esvaziar da maré. Ela é uma fonte de energia renovável, ainda em estudo e há poucas instalações operando no mundo.</t>
+  </si>
+  <si>
+    <t>Como é gerada a energia de maré?</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.org/encyclopedia/tidal-energy/</t>
+  </si>
+  <si>
+    <t>Atualmente existem 3 maneiras de se extrair energia das marés: correntes de maré, barragens e lagoas de maré. A maioria dos geradores é do primeiro tipo, que consiste de turbinas posicionadas no mar em locais onde passam correntes geradas pela mudança da maré. O segundo tipo, de barragem, tem o mesmo funcionamento que usinas hidrelétricas. Durante a alta, a barragem enche, durante o resto do tempo ela canaliza a água através de turbinas. As lagoas de maré funcionariam como barragens, exceto que construídas ao longo do litoral e com materiais naturais como pedras, reduzindo o impacto ambiental. No entanto, não há ainda no mundo construções desse tipo em funcionamento.</t>
+  </si>
+  <si>
+    <t>Depende do método de geração. Mais comumente, ela é colhida no oceano próximo ao litoral, onde correntes se formam pela mudança da maré.</t>
+  </si>
+  <si>
+    <t>A energia de maré, por ser renovável, apresenta um baixo impacto no ambiente global. Porém, numa escala local, ela pode afetar a vida marinha ao redor, devido ao tamanho das turbinas, onde animais e outros seres podem colidir ou ficar presos. No caso de barragens, o alagamento de uma região de terra traz diversos impactos negativos, problema comum da geração de energia hidrelétrica.</t>
+  </si>
+  <si>
+    <t>As principais vantagens da energia de maré são o baixo impacto ambiental e o fato de ser uma fonte renovável.</t>
+  </si>
+  <si>
+    <t>As principais vantagens da energia de maré são o baixo impacto ambiental e o fato de ser uma fonte renovável. O principal contra é o preço elevado, que muitas vezes não justifica sua construção.</t>
+  </si>
+  <si>
+    <t>O principal contra da energia de maré é o preço elevado, que muitas vezes não justifica sua construção.</t>
+  </si>
+  <si>
+    <t>Impactos ambientais da energia de maré?</t>
   </si>
 </sst>
 </file>
@@ -42387,9 +42426,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AE503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42944,7 +42983,10 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>997</v>
+        <v>2999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2995</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -42970,24 +43012,27 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1048</v>
+        <v>2884</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2992</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--efeito-energia-de-maré-economia</v>
+        <v>energia-de-maré--listar-prós-e-contras</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F18" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="G18" t="s">
-        <v>2915</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2843</v>
+        <v>2920</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -42999,11 +43044,17 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2884</v>
+        <v>2885</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2992</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--listar-prós-e-contras</v>
+        <v>energia-de-maré--listar-contras</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
@@ -43013,7 +43064,7 @@
         <v>2838</v>
       </c>
       <c r="G19" t="s">
-        <v>2920</v>
+        <v>2840</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -43025,11 +43076,17 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2885</v>
+        <v>2978</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2992</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--listar-contras</v>
+        <v>energia-de-maré--listar-prós</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -43039,7 +43096,7 @@
         <v>2838</v>
       </c>
       <c r="G20" t="s">
-        <v>2840</v>
+        <v>2916</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -43051,21 +43108,24 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2978</v>
+        <v>2605</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2992</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>energia-de-maré--listar-prós</v>
+        <v>energia-de-maré--localização</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F21" t="s">
-        <v>2838</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2916</v>
+        <v>2895</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -43077,18 +43137,27 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2605</v>
+        <v>2991</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2992</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>energia-de-maré--localização</v>
+        <f t="shared" ref="D22:D23" si="6">IF(AND(ISBLANK(F22),ISBLANK(G22),ISBLANK(H22)), E22, _xlfn.CONCAT(E22,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F22),"",_xlfn.CONCAT(F22,"-")),IF(ISBLANK(G22),"",_xlfn.CONCAT(G22,"-")),IF(ISBLANK(H22),"",_xlfn.CONCAT(H22,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <v>energia-de-maré--explicar-geração</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E22:E23" si="7">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J22=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K22=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L22=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M22=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N22=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O22=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P22=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q22=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R22=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S22=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T22=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U22=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V22=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W22=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X22=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y22=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z22=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA22=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB22=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC22=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD22=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>energia-de-maré</v>
       </c>
       <c r="F22" t="s">
-        <v>2895</v>
+        <v>2951</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2988</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -43102,19 +43171,22 @@
       <c r="A23" s="5" t="s">
         <v>2886</v>
       </c>
+      <c r="B23" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2992</v>
+      </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>energia-de-maré--definição</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>energia-de-maré</v>
       </c>
       <c r="F23" t="s">
         <v>2959</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2886</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -43130,13 +43202,26 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>oceano</v>
+        <v>oceano--listar-métodos-de-geração-energia</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
         <v>oceano</v>
       </c>
+      <c r="F24" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2989</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2987</v>
+      </c>
       <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -44414,11 +44499,11 @@
         <v>2590</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D130" si="6">IF(AND(ISBLANK(F70),ISBLANK(G70),ISBLANK(H70)), E70, _xlfn.CONCAT(E70,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F70),"",_xlfn.CONCAT(F70,"-")),IF(ISBLANK(G70),"",_xlfn.CONCAT(G70,"-")),IF(ISBLANK(H70),"",_xlfn.CONCAT(H70,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D70:D130" si="8">IF(AND(ISBLANK(F70),ISBLANK(G70),ISBLANK(H70)), E70, _xlfn.CONCAT(E70,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F70),"",_xlfn.CONCAT(F70,"-")),IF(ISBLANK(G70),"",_xlfn.CONCAT(G70,"-")),IF(ISBLANK(H70),"",_xlfn.CONCAT(H70,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
         <v>tartarugas--detalhar-tamanho</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ref="E70:E130" si="7">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J70=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K70=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L70=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M70=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N70=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O70=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P70=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q70=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R70=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S70=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T70=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U70=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V70=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W70=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X70=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y70=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z70=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA70=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB70=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC70=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD70=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E70:E130" si="9">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J70=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K70=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L70=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M70=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N70=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O70=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P70=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q70=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R70=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S70=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T70=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U70=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V70=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W70=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X70=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y70=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z70=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA70=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB70=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC70=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD70=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>tartarugas</v>
       </c>
       <c r="F70" t="s">
@@ -44431,7 +44516,7 @@
         <v>1</v>
       </c>
       <c r="AE70">
-        <f t="shared" ref="AE70:AE133" si="8">IF(SUM(J70:AD70)=0,"",SUM(J70:AD70))</f>
+        <f t="shared" ref="AE70:AE133" si="10">IF(SUM(J70:AD70)=0,"",SUM(J70:AD70))</f>
         <v>1</v>
       </c>
     </row>
@@ -44443,11 +44528,11 @@
         <v>2824</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>tartarugas--localização</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>tartarugas</v>
       </c>
       <c r="F71" t="s">
@@ -44457,7 +44542,7 @@
         <v>1</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44466,11 +44551,11 @@
         <v>2592</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>tartarugas--detalhar-idade-reprodutiva</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>tartarugas</v>
       </c>
       <c r="F72" t="s">
@@ -44483,7 +44568,7 @@
         <v>1</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44492,11 +44577,11 @@
         <v>2699</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>tartarugas--detalhar-habitat</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>tartarugas</v>
       </c>
       <c r="F73" t="s">
@@ -44509,7 +44594,7 @@
         <v>1</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44524,11 +44609,11 @@
         <v>2701</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>tartarugas--detalhar-peso</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>tartarugas</v>
       </c>
       <c r="F74" t="s">
@@ -44541,7 +44626,7 @@
         <v>1</v>
       </c>
       <c r="AE74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44550,11 +44635,11 @@
         <v>1404</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>corrente--efeito-tartarugas</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>corrente</v>
       </c>
       <c r="F75" t="s">
@@ -44567,7 +44652,7 @@
         <v>1</v>
       </c>
       <c r="AE75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44576,11 +44661,11 @@
         <v>2624</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-pressão-do-ar</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F76" t="s">
@@ -44593,7 +44678,7 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44602,11 +44687,11 @@
         <v>2622</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-densidade</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F77" t="s">
@@ -44619,7 +44704,7 @@
         <v>1</v>
       </c>
       <c r="AE77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44628,11 +44713,11 @@
         <v>2623</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-produção-de-oxigênio</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F78" t="s">
@@ -44645,7 +44730,7 @@
         <v>1</v>
       </c>
       <c r="AE78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44654,11 +44739,11 @@
         <v>2625</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--definição-nível-do-mar</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F79" t="s">
@@ -44671,7 +44756,7 @@
         <v>1</v>
       </c>
       <c r="AE79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44680,11 +44765,11 @@
         <v>2626</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>petróleo--detalhar-densidade</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>petróleo</v>
       </c>
       <c r="F80" t="s">
@@ -44697,7 +44782,7 @@
         <v>1</v>
       </c>
       <c r="AE80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44706,11 +44791,11 @@
         <v>2627</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--efeito-temperatura</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F81" t="s">
@@ -44723,7 +44808,7 @@
         <v>1</v>
       </c>
       <c r="AE81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44732,11 +44817,11 @@
         <v>2629</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-salinidade</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F82" t="s">
@@ -44749,7 +44834,7 @@
         <v>1</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44758,11 +44843,11 @@
         <v>2628</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--explicar-salinidade</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F83" t="s">
@@ -44778,7 +44863,7 @@
         <v>1</v>
       </c>
       <c r="AE83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44787,11 +44872,11 @@
         <v>2630</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-temperatura</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F84" t="s">
@@ -44807,7 +44892,7 @@
         <v>1</v>
       </c>
       <c r="AE84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44816,11 +44901,11 @@
         <v>1329</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--efeito-temperatura-nível-do-mar</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F85" t="s">
@@ -44836,7 +44921,7 @@
         <v>1</v>
       </c>
       <c r="AE85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44845,11 +44930,11 @@
         <v>1385</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--efeito-temperatura-oceano</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F86" t="s">
@@ -44865,7 +44950,7 @@
         <v>1</v>
       </c>
       <c r="AE86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44874,11 +44959,11 @@
         <v>1389</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--explicar</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F87" t="s">
@@ -44888,7 +44973,7 @@
         <v>1</v>
       </c>
       <c r="AE87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44897,11 +44982,11 @@
         <v>2631</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--definição-acidificação</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F88" t="s">
@@ -44917,7 +45002,7 @@
         <v>1</v>
       </c>
       <c r="AE88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44926,11 +45011,11 @@
         <v>2949</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>petróleo--explicar-densidade</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>petróleo</v>
       </c>
       <c r="F89" t="s">
@@ -44943,7 +45028,7 @@
         <v>1</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44952,11 +45037,11 @@
         <v>1582</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--responsável-acidificação</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F90" t="s">
@@ -44969,7 +45054,7 @@
         <v>1</v>
       </c>
       <c r="AE90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -44978,11 +45063,11 @@
         <v>2956</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91" si="9">IF(AND(ISBLANK(F91),ISBLANK(G91),ISBLANK(H91)), E91, _xlfn.CONCAT(E91,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F91),"",_xlfn.CONCAT(F91,"-")),IF(ISBLANK(G91),"",_xlfn.CONCAT(G91,"-")),IF(ISBLANK(H91),"",_xlfn.CONCAT(H91,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D91" si="11">IF(AND(ISBLANK(F91),ISBLANK(G91),ISBLANK(H91)), E91, _xlfn.CONCAT(E91,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F91),"",_xlfn.CONCAT(F91,"-")),IF(ISBLANK(G91),"",_xlfn.CONCAT(G91,"-")),IF(ISBLANK(H91),"",_xlfn.CONCAT(H91,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
         <v>oceano--efeito-acidificação</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" ref="E91" si="10">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J91=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K91=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L91=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M91=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N91=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O91=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P91=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q91=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R91=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S91=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T91=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U91=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V91=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W91=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X91=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y91=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z91=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA91=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB91=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC91=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD91=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E91" si="12">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J91=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K91=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L91=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M91=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N91=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O91=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P91=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q91=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R91=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S91=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T91=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U91=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V91=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W91=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X91=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y91=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z91=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA91=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB91=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC91=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD91=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>oceano</v>
       </c>
       <c r="F91" t="s">
@@ -44995,7 +45080,7 @@
         <v>1</v>
       </c>
       <c r="AE91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45004,18 +45089,18 @@
         <v>2632</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P92">
         <v>1</v>
       </c>
       <c r="AE92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45024,11 +45109,11 @@
         <v>2633</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--efeito-ciclo-hidrológico</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F93" t="s">
@@ -45044,7 +45129,7 @@
         <v>1</v>
       </c>
       <c r="AE93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45053,11 +45138,11 @@
         <v>2634</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-símbolo</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F94" t="s">
@@ -45070,7 +45155,7 @@
         <v>1</v>
       </c>
       <c r="AE94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45079,11 +45164,11 @@
         <v>2635</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--definição-trincheira-profunda</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F95" t="s">
@@ -45099,7 +45184,7 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45108,11 +45193,11 @@
         <v>2041</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--efeito</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F96" t="s">
@@ -45122,7 +45207,7 @@
         <v>1</v>
       </c>
       <c r="AE96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45131,11 +45216,11 @@
         <v>1095</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--detalhar-cor</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F97" t="s">
@@ -45148,7 +45233,7 @@
         <v>1</v>
       </c>
       <c r="AE97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45157,11 +45242,11 @@
         <v>1802</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--definição-espalhamento-do-piso</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F98" t="s">
@@ -45174,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AE98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45183,18 +45268,18 @@
         <v>1171</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P99">
         <v>1</v>
       </c>
       <c r="AE99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45203,18 +45288,18 @@
         <v>1177</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P100">
         <v>1</v>
       </c>
       <c r="AE100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45223,18 +45308,18 @@
         <v>2894</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P101">
         <v>1</v>
       </c>
       <c r="AE101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45243,11 +45328,11 @@
         <v>1228</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano--motivo-circulação</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="F102" t="s">
@@ -45260,7 +45345,7 @@
         <v>1</v>
       </c>
       <c r="AE102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45269,18 +45354,18 @@
         <v>1252</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P103">
         <v>1</v>
       </c>
       <c r="AE103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45289,18 +45374,18 @@
         <v>1335</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P104">
         <v>1</v>
       </c>
       <c r="AE104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45309,18 +45394,18 @@
         <v>1341</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P105">
         <v>1</v>
       </c>
       <c r="AE105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45329,18 +45414,18 @@
         <v>1431</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P106">
         <v>1</v>
       </c>
       <c r="AE106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45349,18 +45434,18 @@
         <v>1438</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P107">
         <v>1</v>
       </c>
       <c r="AE107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45369,18 +45454,18 @@
         <v>1446</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P108">
         <v>1</v>
       </c>
       <c r="AE108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45389,18 +45474,18 @@
         <v>1461</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P109">
         <v>1</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45409,18 +45494,18 @@
         <v>1480</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P110">
         <v>1</v>
       </c>
       <c r="AE110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45429,18 +45514,18 @@
         <v>1561</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P111">
         <v>1</v>
       </c>
       <c r="AE111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45449,18 +45534,18 @@
         <v>1580</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P112">
         <v>1</v>
       </c>
       <c r="AE112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45469,18 +45554,18 @@
         <v>1597</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P113">
         <v>1</v>
       </c>
       <c r="AE113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45489,18 +45574,18 @@
         <v>1667</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P114">
         <v>1</v>
       </c>
       <c r="AE114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45509,18 +45594,18 @@
         <v>1861</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P115">
         <v>1</v>
       </c>
       <c r="AE115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45529,18 +45614,18 @@
         <v>1903</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>oceano</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>oceano</v>
       </c>
       <c r="P116">
         <v>1</v>
       </c>
       <c r="AE116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45549,18 +45634,18 @@
         <v>2667</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>onda</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>onda</v>
       </c>
       <c r="Q117">
         <v>1</v>
       </c>
       <c r="AE117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45569,11 +45654,11 @@
         <v>2668</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>onda-maré</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>onda-maré</v>
       </c>
       <c r="Q118">
@@ -45583,7 +45668,7 @@
         <v>1</v>
       </c>
       <c r="AE118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -45592,18 +45677,18 @@
         <v>2669</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>onda</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>onda</v>
       </c>
       <c r="Q119">
         <v>1</v>
       </c>
       <c r="AE119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45612,18 +45697,18 @@
         <v>1314</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>onda</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>onda</v>
       </c>
       <c r="Q120">
         <v>1</v>
       </c>
       <c r="AE120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45632,18 +45717,18 @@
         <v>2670</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>onda</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>onda</v>
       </c>
       <c r="Q121">
         <v>1</v>
       </c>
       <c r="AE121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45652,11 +45737,11 @@
         <v>1253</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>onda-litoral</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>onda-litoral</v>
       </c>
       <c r="Q122">
@@ -45666,7 +45751,7 @@
         <v>1</v>
       </c>
       <c r="AE122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -45675,11 +45760,11 @@
         <v>1054</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré--motivo</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="F123" t="s">
@@ -45689,7 +45774,7 @@
         <v>1</v>
       </c>
       <c r="AE123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45698,11 +45783,11 @@
         <v>2671</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>outras--definição-maremoto</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>outras</v>
       </c>
       <c r="F124" t="s">
@@ -45715,7 +45800,7 @@
         <v>1</v>
       </c>
       <c r="AE124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45724,18 +45809,18 @@
         <v>1833</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="R125">
         <v>1</v>
       </c>
       <c r="AE125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45744,18 +45829,18 @@
         <v>1140</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="R126">
         <v>1</v>
       </c>
       <c r="AE126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45764,18 +45849,18 @@
         <v>1279</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="R127">
         <v>1</v>
       </c>
       <c r="AE127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45784,18 +45869,18 @@
         <v>2672</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="R128">
         <v>1</v>
       </c>
       <c r="AE128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45804,18 +45889,18 @@
         <v>1488</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="R129">
         <v>1</v>
       </c>
       <c r="AE129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45824,18 +45909,18 @@
         <v>1552</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>maré</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>maré</v>
       </c>
       <c r="R130">
         <v>1</v>
       </c>
       <c r="AE130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45844,18 +45929,18 @@
         <v>2636</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="11">IF(AND(ISBLANK(F131),ISBLANK(G131),ISBLANK(H131)), E131, _xlfn.CONCAT(E131,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F131),"",_xlfn.CONCAT(F131,"-")),IF(ISBLANK(G131),"",_xlfn.CONCAT(G131,"-")),IF(ISBLANK(H131),"",_xlfn.CONCAT(H131,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D131:D194" si="13">IF(AND(ISBLANK(F131),ISBLANK(G131),ISBLANK(H131)), E131, _xlfn.CONCAT(E131,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F131),"",_xlfn.CONCAT(F131,"-")),IF(ISBLANK(G131),"",_xlfn.CONCAT(G131,"-")),IF(ISBLANK(H131),"",_xlfn.CONCAT(H131,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
         <v>corrente</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="12">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J131=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K131=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L131=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M131=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N131=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O131=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P131=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q131=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R131=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S131=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T131=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U131=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V131=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W131=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X131=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y131=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z131=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA131=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB131=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC131=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD131=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E131:E194" si="14">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J131=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K131=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L131=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M131=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N131=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O131=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P131=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q131=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R131=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S131=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T131=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U131=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V131=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W131=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X131=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y131=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z131=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA131=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB131=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC131=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD131=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>corrente</v>
       </c>
       <c r="S131">
         <v>1</v>
       </c>
       <c r="AE131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45864,18 +45949,18 @@
         <v>1189</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>corrente</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>corrente</v>
       </c>
       <c r="S132">
         <v>1</v>
       </c>
       <c r="AE132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45884,18 +45969,18 @@
         <v>2621</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>corrente</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>corrente</v>
       </c>
       <c r="S133">
         <v>1</v>
       </c>
       <c r="AE133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -45904,18 +45989,18 @@
         <v>2673</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>corrente</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>corrente</v>
       </c>
       <c r="S134">
         <v>1</v>
       </c>
       <c r="AE134">
-        <f t="shared" ref="AE134:AE197" si="13">IF(SUM(J134:AD134)=0,"",SUM(J134:AD134))</f>
+        <f t="shared" ref="AE134:AE197" si="15">IF(SUM(J134:AD134)=0,"",SUM(J134:AD134))</f>
         <v>1</v>
       </c>
     </row>
@@ -45924,18 +46009,18 @@
         <v>2674</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>outras</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>outras</v>
       </c>
       <c r="AD135">
         <v>1</v>
       </c>
       <c r="AE135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45944,18 +46029,18 @@
         <v>2675</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>outras</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>outras</v>
       </c>
       <c r="AD136">
         <v>1</v>
       </c>
       <c r="AE136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45964,18 +46049,18 @@
         <v>2676</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora</v>
       </c>
       <c r="U137">
         <v>1</v>
       </c>
       <c r="AE137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45984,18 +46069,18 @@
         <v>2677</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora</v>
       </c>
       <c r="U138">
         <v>1</v>
       </c>
       <c r="AE138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46004,11 +46089,11 @@
         <v>2678</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora-fauna</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora-fauna</v>
       </c>
       <c r="U139">
@@ -46018,7 +46103,7 @@
         <v>1</v>
       </c>
       <c r="AE139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -46027,11 +46112,11 @@
         <v>1561</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora-fauna</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora-fauna</v>
       </c>
       <c r="U140">
@@ -46041,7 +46126,7 @@
         <v>1</v>
       </c>
       <c r="AE140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -46056,11 +46141,11 @@
         <v>2817</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora--definição-alga</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora</v>
       </c>
       <c r="F141" t="s">
@@ -46073,7 +46158,7 @@
         <v>1</v>
       </c>
       <c r="AE141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46088,11 +46173,11 @@
         <v>2819</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora-fauna--definição-líquen</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
@@ -46108,7 +46193,7 @@
         <v>1</v>
       </c>
       <c r="AE142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -46123,11 +46208,11 @@
         <v>2815</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>flora-fauna--definição-polifilético</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>flora-fauna</v>
       </c>
       <c r="F143" t="s">
@@ -46143,7 +46228,7 @@
         <v>1</v>
       </c>
       <c r="AE143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -46158,11 +46243,11 @@
         <v>2776</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-pólipo</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
@@ -46175,7 +46260,7 @@
         <v>1</v>
       </c>
       <c r="AE144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46190,11 +46275,11 @@
         <v>2767</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>coral--detalhar-dieta</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>coral</v>
       </c>
       <c r="F145" t="s">
@@ -46207,7 +46292,7 @@
         <v>1</v>
       </c>
       <c r="AE145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46219,11 +46304,11 @@
         <v>2783</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-medusa</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
@@ -46236,7 +46321,7 @@
         <v>1</v>
       </c>
       <c r="AE146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46248,11 +46333,11 @@
         <v>2792</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-animal-marinho</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
@@ -46265,7 +46350,7 @@
         <v>1</v>
       </c>
       <c r="AE147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46277,11 +46362,11 @@
         <v>2795</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--listar-animal-marinho</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
@@ -46297,7 +46382,7 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46312,11 +46397,11 @@
         <v>2803</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-peixe</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
@@ -46329,7 +46414,7 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46344,11 +46429,11 @@
         <v>2802</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-actinoperígeo</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
@@ -46361,7 +46446,7 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46376,11 +46461,11 @@
         <v>2801</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-tubarão</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
@@ -46393,7 +46478,7 @@
         <v>1</v>
       </c>
       <c r="AE151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46402,11 +46487,11 @@
         <v>2882</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--pertence-tubarão-peixe</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
@@ -46422,7 +46507,7 @@
         <v>1</v>
       </c>
       <c r="AE152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46437,11 +46522,11 @@
         <v>2808</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--maior-animal-marinho</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
@@ -46457,7 +46542,7 @@
         <v>1</v>
       </c>
       <c r="AE153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46469,11 +46554,11 @@
         <v>2809</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--existe-baleia</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F154" t="s">
@@ -46486,7 +46571,7 @@
         <v>1</v>
       </c>
       <c r="AE154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46501,11 +46586,11 @@
         <v>2811</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna-turismo--localização-baleia</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F155" t="s">
@@ -46521,7 +46606,7 @@
         <v>1</v>
       </c>
       <c r="AE155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -46530,18 +46615,18 @@
         <v>2680</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="V156">
         <v>1</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46550,18 +46635,18 @@
         <v>2681</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="V157">
         <v>1</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46570,18 +46655,18 @@
         <v>2682</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="V158">
         <v>1</v>
       </c>
       <c r="AE158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46596,11 +46681,11 @@
         <v>2755</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-plancton</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
@@ -46613,7 +46698,7 @@
         <v>1</v>
       </c>
       <c r="AE159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46628,11 +46713,11 @@
         <v>2770</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-fitoplancton</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
@@ -46645,7 +46730,7 @@
         <v>1</v>
       </c>
       <c r="AE160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46657,11 +46742,11 @@
         <v>2773</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-salpa</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
@@ -46674,7 +46759,7 @@
         <v>1</v>
       </c>
       <c r="AE161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46689,11 +46774,11 @@
         <v>2771</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-zooplancton</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
@@ -46706,7 +46791,7 @@
         <v>1</v>
       </c>
       <c r="AE162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46721,11 +46806,11 @@
         <v>2758</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-anemona</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
@@ -46738,7 +46823,7 @@
         <v>1</v>
       </c>
       <c r="AE163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46750,11 +46835,11 @@
         <v>2782</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-hidra</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F164" t="s">
@@ -46767,7 +46852,7 @@
         <v>1</v>
       </c>
       <c r="AE164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46782,11 +46867,11 @@
         <v>2801</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna-turismo--existe-tubarão</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna-turismo</v>
       </c>
       <c r="F165" t="s">
@@ -46802,7 +46887,7 @@
         <v>1</v>
       </c>
       <c r="AE165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -46811,18 +46896,18 @@
         <v>2700</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>outras</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>outras</v>
       </c>
       <c r="AD166">
         <v>1</v>
       </c>
       <c r="AE166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46834,11 +46919,11 @@
         <v>2729</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--listar-crustáceo</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
@@ -46851,7 +46936,7 @@
         <v>1</v>
       </c>
       <c r="AE167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46866,11 +46951,11 @@
         <v>2736</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-tunicado</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
@@ -46883,7 +46968,7 @@
         <v>1</v>
       </c>
       <c r="AE168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46895,11 +46980,11 @@
         <v>2779</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-molusco</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
@@ -46912,7 +46997,7 @@
         <v>1</v>
       </c>
       <c r="AE169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46924,11 +47009,11 @@
         <v>2780</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--listar-molusco</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F170" t="s">
@@ -46941,7 +47026,7 @@
         <v>1</v>
       </c>
       <c r="AE170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46950,18 +47035,18 @@
         <v>2722</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="V171">
         <v>1</v>
       </c>
       <c r="AE171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -46976,11 +47061,11 @@
         <v>2739</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-crustáceo</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
@@ -46993,7 +47078,7 @@
         <v>1</v>
       </c>
       <c r="AE172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47005,11 +47090,11 @@
         <v>2728</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--detalhar-crustáceo</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
@@ -47022,7 +47107,7 @@
         <v>1</v>
       </c>
       <c r="AE173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47037,11 +47122,11 @@
         <v>2738</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-filo</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
@@ -47054,7 +47139,7 @@
         <v>1</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47069,11 +47154,11 @@
         <v>2737</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-cordado</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
@@ -47089,7 +47174,7 @@
         <v>1</v>
       </c>
       <c r="AE175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47104,11 +47189,11 @@
         <v>2761</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-cnidário</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
@@ -47121,7 +47206,7 @@
         <v>1</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47136,11 +47221,11 @@
         <v>2760</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--definição-cnida</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
@@ -47156,7 +47241,7 @@
         <v>1</v>
       </c>
       <c r="AE177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47168,11 +47253,11 @@
         <v>2784</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>fauna--listar-cnidário</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>fauna</v>
       </c>
       <c r="F178" t="s">
@@ -47185,7 +47270,7 @@
         <v>1</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47194,18 +47279,18 @@
         <v>1192</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>oceanografia</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>oceanografia</v>
       </c>
       <c r="W179">
         <v>1</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47214,18 +47299,18 @@
         <v>2686</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>oceanografia</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>oceanografia</v>
       </c>
       <c r="W180">
         <v>1</v>
       </c>
       <c r="AE180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47234,18 +47319,18 @@
         <v>2785</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>oceanografia</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>oceanografia</v>
       </c>
       <c r="W181">
         <v>1</v>
       </c>
       <c r="AE181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47254,18 +47339,18 @@
         <v>1505</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>oceanografia</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>oceanografia</v>
       </c>
       <c r="W182">
         <v>1</v>
       </c>
       <c r="AE182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47274,18 +47359,18 @@
         <v>1783</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>oceanografia</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>oceanografia</v>
       </c>
       <c r="W183">
         <v>1</v>
       </c>
       <c r="AE183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47294,18 +47379,18 @@
         <v>2687</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>turismo</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>turismo</v>
       </c>
       <c r="X184">
         <v>1</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47314,18 +47399,18 @@
         <v>2688</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>turismo</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>turismo</v>
       </c>
       <c r="X185">
         <v>1</v>
       </c>
       <c r="AE185">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47334,18 +47419,18 @@
         <v>2689</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>turismo</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>turismo</v>
       </c>
       <c r="X186">
         <v>1</v>
       </c>
       <c r="AE186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47354,18 +47439,18 @@
         <v>2690</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>engenharia</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>engenharia</v>
       </c>
       <c r="Y187">
         <v>1</v>
       </c>
       <c r="AE187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47374,18 +47459,18 @@
         <v>2691</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>engenharia</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>engenharia</v>
       </c>
       <c r="Y188">
         <v>1</v>
       </c>
       <c r="AE188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47394,18 +47479,18 @@
         <v>2692</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>engenharia</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>engenharia</v>
       </c>
       <c r="Y189">
         <v>1</v>
       </c>
       <c r="AE189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47414,18 +47499,18 @@
         <v>1387</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>saude</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>saude</v>
       </c>
       <c r="Z190">
         <v>1</v>
       </c>
       <c r="AE190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47434,18 +47519,18 @@
         <v>1619</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>saude</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>saude</v>
       </c>
       <c r="Z191">
         <v>1</v>
       </c>
       <c r="AE191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47454,18 +47539,18 @@
         <v>2693</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>saude</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>saude</v>
       </c>
       <c r="Z192">
         <v>1</v>
       </c>
       <c r="AE192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47474,18 +47559,18 @@
         <v>1427</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>litoral</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>litoral</v>
       </c>
       <c r="AA193">
         <v>1</v>
       </c>
       <c r="AE193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47494,18 +47579,18 @@
         <v>2694</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AE194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47514,18 +47599,18 @@
         <v>1571</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D210" si="14">IF(AND(ISBLANK(F195),ISBLANK(G195),ISBLANK(H195)), E195, _xlfn.CONCAT(E195,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F195),"",_xlfn.CONCAT(F195,"-")),IF(ISBLANK(G195),"",_xlfn.CONCAT(G195,"-")),IF(ISBLANK(H195),"",_xlfn.CONCAT(H195,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D195:D210" si="16">IF(AND(ISBLANK(F195),ISBLANK(G195),ISBLANK(H195)), E195, _xlfn.CONCAT(E195,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F195),"",_xlfn.CONCAT(F195,"-")),IF(ISBLANK(G195),"",_xlfn.CONCAT(G195,"-")),IF(ISBLANK(H195),"",_xlfn.CONCAT(H195,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
         <v>proteção-ambiental</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E210" si="15">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J195=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K195=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L195=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M195=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N195=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O195=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P195=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q195=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R195=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S195=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T195=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U195=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V195=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W195=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X195=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y195=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z195=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA195=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB195=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC195=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD195=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E195:E210" si="17">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J195=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K195=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L195=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M195=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N195=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O195=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P195=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q195=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R195=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S195=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T195=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U195=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V195=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W195=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X195=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y195=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z195=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA195=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB195=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC195=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD195=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>proteção-ambiental</v>
       </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AE195">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47534,18 +47619,18 @@
         <v>2695</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AE196">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47554,18 +47639,18 @@
         <v>1669</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AE197">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -47574,18 +47659,18 @@
         <v>2696</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>proteção-ambiental</v>
       </c>
       <c r="AB198">
         <v>1</v>
       </c>
       <c r="AE198">
-        <f t="shared" ref="AE198:AE261" si="16">IF(SUM(J198:AD198)=0,"",SUM(J198:AD198))</f>
+        <f t="shared" ref="AE198:AE261" si="18">IF(SUM(J198:AD198)=0,"",SUM(J198:AD198))</f>
         <v>1</v>
       </c>
     </row>
@@ -47594,18 +47679,18 @@
         <v>1846</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>geologia</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>geologia</v>
       </c>
       <c r="AC199">
         <v>1</v>
       </c>
       <c r="AE199">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47614,18 +47699,18 @@
         <v>2637</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD200">
         <v>1</v>
       </c>
       <c r="AE200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47634,18 +47719,18 @@
         <v>2638</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD201">
         <v>1</v>
       </c>
       <c r="AE201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47654,18 +47739,18 @@
         <v>2639</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD202">
         <v>1</v>
       </c>
       <c r="AE202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47674,18 +47759,18 @@
         <v>2640</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD203">
         <v>1</v>
       </c>
       <c r="AE203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47694,18 +47779,18 @@
         <v>2643</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD204">
         <v>1</v>
       </c>
       <c r="AE204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47714,18 +47799,18 @@
         <v>2644</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD205">
         <v>1</v>
       </c>
       <c r="AE205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47734,18 +47819,18 @@
         <v>2641</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="AD206">
         <v>1</v>
       </c>
       <c r="AE206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47760,11 +47845,11 @@
         <v>2743</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>gás--detalhar-produção</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>gás</v>
       </c>
       <c r="F207" t="s">
@@ -47777,7 +47862,7 @@
         <v>1</v>
       </c>
       <c r="AE207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47786,11 +47871,11 @@
         <v>2646</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras--listar-programas-de-proteção-aaz</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="F208" t="s">
@@ -47806,7 +47891,7 @@
         <v>1</v>
       </c>
       <c r="AE208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47821,11 +47906,11 @@
         <v>2725</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras--motivo-importância-aaz</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="F209" t="s">
@@ -47841,7 +47926,7 @@
         <v>1</v>
       </c>
       <c r="AE209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -47856,11 +47941,11 @@
         <v>2723</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>outras--motivo-nome-aaz</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>outras</v>
       </c>
       <c r="F210" t="s">
@@ -47876,1765 +47961,1765 @@
         <v>1</v>
       </c>
       <c r="AE210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE211" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE212" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE213" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE214" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE215" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE216" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE217" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE218" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE219" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE220" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE221" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE222" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE223" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE224" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE225" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE226" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE227" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE228" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE229" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE230" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE231" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE232" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE233" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE234" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE235" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE236" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE237" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE238" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE239" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE240" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE241" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE242" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE243" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE244" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE245" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE246" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE247" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE248" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE249" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE250" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE251" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE252" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE253" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE254" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE255" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE256" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE257" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE258" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE259" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE260" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE261" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE262" t="str">
-        <f t="shared" ref="AE262:AE325" si="17">IF(SUM(J262:AD262)=0,"",SUM(J262:AD262))</f>
+        <f t="shared" ref="AE262:AE325" si="19">IF(SUM(J262:AD262)=0,"",SUM(J262:AD262))</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE263" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE264" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE265" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE266" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE267" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE268" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE269" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE270" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE271" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE272" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE273" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE274" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE275" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE276" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE277" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE278" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE279" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE280" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE281" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE282" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE283" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE284" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE285" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE286" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE287" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE288" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE289" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE290" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE291" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE292" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE293" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE294" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE295" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE297" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE298" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE299" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE300" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE301" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE302" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE303" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE304" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE305" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE306" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE307" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE308" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE309" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE310" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE311" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE312" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE313" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE314" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE315" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE316" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE317" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE318" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE319" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE320" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE321" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE322" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE323" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE324" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE325" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE326" t="str">
-        <f t="shared" ref="AE326:AE389" si="18">IF(SUM(J326:AD326)=0,"",SUM(J326:AD326))</f>
+        <f t="shared" ref="AE326:AE389" si="20">IF(SUM(J326:AD326)=0,"",SUM(J326:AD326))</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE327" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE328" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE329" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE330" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE331" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE332" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE333" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE334" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE335" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE336" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE337" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE338" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE339" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE342" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE343" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE344" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE345" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE346" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE347" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE348" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE349" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE350" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE351" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE352" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE353" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE354" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE355" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE356" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE357" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE358" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE359" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE360" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE361" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE362" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE363" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE364" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE365" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE366" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE367" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE368" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE369" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE370" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE371" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE372" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE373" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE374" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE375" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE376" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE377" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE378" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE379" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE380" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE381" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE382" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE383" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE384" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE385" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE386" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE387" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE388" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE389" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE390" t="str">
-        <f t="shared" ref="AE390:AE453" si="19">IF(SUM(J390:AD390)=0,"",SUM(J390:AD390))</f>
+        <f t="shared" ref="AE390:AE453" si="21">IF(SUM(J390:AD390)=0,"",SUM(J390:AD390))</f>
         <v/>
       </c>
     </row>
     <row r="391" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE391" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE392" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE393" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE394" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE395" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE396" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE397" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE398" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE399" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE400" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE401" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE402" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE403" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE404" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE405" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE406" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE407" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE408" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE409" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE410" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE411" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE412" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE413" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE414" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE415" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE416" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE417" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE418" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE419" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE420" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE421" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE422" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE423" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE424" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE425" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE426" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE427" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE428" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE429" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE430" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE431" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE432" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE433" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE434" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE435" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE436" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE437" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE438" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE439" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE440" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE441" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE442" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE443" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE444" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE445" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE446" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE447" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE448" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE449" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE450" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE451" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE452" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE453" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE454" t="str">
-        <f t="shared" ref="AE454:AE503" si="20">IF(SUM(J454:AD454)=0,"",SUM(J454:AD454))</f>
+        <f t="shared" ref="AE454:AE503" si="22">IF(SUM(J454:AD454)=0,"",SUM(J454:AD454))</f>
         <v/>
       </c>
     </row>
     <row r="455" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE455" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE456" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE457" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE458" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE459" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE460" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE461" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE462" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE463" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE464" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE465" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE466" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE467" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE468" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE469" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE470" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE471" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE472" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE473" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE474" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE475" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE476" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE477" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE478" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE479" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE480" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE481" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE482" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE483" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE484" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE485" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE486" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE487" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE488" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE489" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE490" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE491" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE492" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE493" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE494" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE495" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE496" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE497" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE498" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE499" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE500" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE501" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE502" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="31:31" x14ac:dyDescent="0.3">
       <c r="AE503" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB57494B-2FE6-495F-900E-4F0534985F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441517B5-8BE1-43BD-95B6-F99ED389E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="60" windowWidth="14784" windowHeight="11964" tabRatio="565" firstSheet="2" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="565" firstSheet="3" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9073" uniqueCount="3000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9097" uniqueCount="3017">
   <si>
     <t>query</t>
   </si>
@@ -8457,9 +8457,6 @@
     <t>Peixes são animais aquáticos que possuem crânio, brânquias (guelras) e membros transformados em barbatanas ou nadadeiras. Essa definição inclui muitos seres vivos. Normalmente, quando falamos de peixes estamos nos referindo aos actinoperígeos, grupo ao qual pertencem cerca de 99% dos peixes vivos hoje.</t>
   </si>
   <si>
-    <t>Tubarões são peixes de esqueleto cartilaginoso, corpo hidrodinâmico (salvo exceções), com 5 a 7 fendas branquiais, que geralmente vivem em água salgada. Eles são conhecidos por serem exímios caçadores, capazes de farejar e detectar presas através de impulsos elétricos.</t>
-  </si>
-  <si>
     <t>Considerando o volume ocupado, a baleia-azul ganha de longe a competição, alcançando até 35 metros de comprimento e 160 toneladas de peso. Ela habita a maioria dos oceanos do planeta, sendo raras vezes avistada no Brasil, longe da costa.</t>
   </si>
   <si>
@@ -9040,6 +9037,60 @@
   </si>
   <si>
     <t>Impactos ambientais da energia de maré?</t>
+  </si>
+  <si>
+    <t>Tubarões são peixes de esqueleto cartilaginoso, corpo hidrodinâmico, com 5 a 7 fendas branquiais e que geralmente vivem em água salgada. Eles são conhecidos por serem exímios caçadores, capazes de farejar presas a longas distâncias e detectá-las através de impulsos elétricos.</t>
+  </si>
+  <si>
+    <t>Sim! Tubarões são um tipo de peixe.</t>
+  </si>
+  <si>
+    <t>frequência</t>
+  </si>
+  <si>
+    <t>Isso depende do local. No regime mais comum, o semi-diurno, a média é de 12 horas e 24 minutos.</t>
+  </si>
+  <si>
+    <t>Depende do local, mas o mais comum é 2 ciclos completos por dia (a maré enche e esvazia duas vezes).</t>
+  </si>
+  <si>
+    <t>A diferença do nível do mar entre as marés, conhecido como a amplitude da maré, varia muito de local a local. Em um mesmo local, também é possível que a primeira alta do dia seja maior que a segunda alta, por exemplo.</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Mar%C3%A9#Caracter%C3%ADsticas</t>
+  </si>
+  <si>
+    <t>O mais comum é um regime semi-diurno, em que ocorrem 2 ciclos de maré ao longo do dia (ou seja, a maré sobe e desce duas vezes no dia). O segundo tipo mais comum é o diurno, em que o ciclo ocorre uma vez ao dia. O terceiro tipo, chamado de misto, é bem menos comum e apresenta um ou dois ciclos por dia, mas com grande diferença de altura entre uma maré alta e outra, assim como entre as baixas.</t>
+  </si>
+  <si>
+    <t>Qual é a periodicidade das marés?--Quais são os regimes de marés?</t>
+  </si>
+  <si>
+    <t>Um dia de maré é o tempo que normalmente passa entre duas marés altas em um regime semi-diurno. Ele vale, na média, 24 horas e 51 minutos.</t>
+  </si>
+  <si>
+    <t>A maré é controlada, principalmente, pela atração gravitacional da Lua e do Sol.</t>
+  </si>
+  <si>
+    <t>As marés são causadas pelo efeito combinado das forças gravitacionais exercidas pela Lua e pelo Sol na terra.</t>
+  </si>
+  <si>
+    <t>Correntes oceânicas são o movimento contínuo, previsível e direcional de água nos oceanos.</t>
+  </si>
+  <si>
+    <t>O que causa as correntes oceânicas?</t>
+  </si>
+  <si>
+    <t>Isso depende, principalmente, do tamanho da tartaruga adulta de cada espécie. Para as tartarugas bem pequenas (menos que 10 cm de comprimento), pode ser 2 a 3 anos, enquanto as maiores podem levar até 50 anos para atingir a maturidade sexual.</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/animal/turtle-reptile/Reproduction#:~:text=The%20age%20at%20which%20turtles,and%20become%20sexually%20mature%20at</t>
+  </si>
+  <si>
+    <t>Assim como muitas outras espécies do reino animal, as tartarugas acasalam em um ritual que envolve o macho montar nas costas da fêmea. Devido à posição da cauda, que atrapalha, é necessária a cooperação da fêmea, que os machos obtêm através de mordidas e comportamento agressivo até a submissão, ou através de excitação, vibrando as patas dianteiras nos ombros e cabeça da fêmea.</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/animal/turtle-reptile/Reproduction</t>
   </si>
 </sst>
 </file>
@@ -42427,8 +42478,8 @@
   <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42459,37 +42510,37 @@
         <v>2572</v>
       </c>
       <c r="E1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F1" t="s">
         <v>2887</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2888</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2889</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2890</v>
       </c>
       <c r="I1" t="s">
         <v>2573</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>2903</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>2708</v>
@@ -42498,7 +42549,7 @@
         <v>2709</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>2710</v>
@@ -42528,13 +42579,13 @@
         <v>2718</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>2719</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -42542,10 +42593,10 @@
         <v>2594</v>
       </c>
       <c r="B2" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C2" t="s">
         <v>2968</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2969</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D69" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
@@ -42556,7 +42607,7 @@
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G2" t="s">
         <v>2715</v>
@@ -42577,10 +42628,10 @@
         <v>2595</v>
       </c>
       <c r="B3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C3" t="s">
         <v>2970</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2971</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -42591,10 +42642,10 @@
         <v>coral</v>
       </c>
       <c r="F3" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G3" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -42620,7 +42671,7 @@
         <v>coral</v>
       </c>
       <c r="F4" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -42646,7 +42697,7 @@
         <v>coral</v>
       </c>
       <c r="F5" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -42661,7 +42712,7 @@
         <v>2598</v>
       </c>
       <c r="B6" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -42672,10 +42723,10 @@
         <v>coral</v>
       </c>
       <c r="F6" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G6" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -42687,10 +42738,10 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B7" t="s">
         <v>2966</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2967</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D8" si="3">IF(AND(ISBLANK(F7),ISBLANK(G7),ISBLANK(H7)), E7, _xlfn.CONCAT(E7,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F7),"",_xlfn.CONCAT(F7,"-")),IF(ISBLANK(G7),"",_xlfn.CONCAT(G7,"-")),IF(ISBLANK(H7),"",_xlfn.CONCAT(H7,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
@@ -42701,10 +42752,10 @@
         <v>coral</v>
       </c>
       <c r="F7" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="G7" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -42719,10 +42770,10 @@
         <v>2599</v>
       </c>
       <c r="B8" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="C8" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="3"/>
@@ -42733,13 +42784,13 @@
         <v>coral</v>
       </c>
       <c r="F8" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="G8" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="H8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -42751,13 +42802,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B9" t="s">
         <v>2974</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>2975</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2976</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -42768,13 +42819,13 @@
         <v>coral</v>
       </c>
       <c r="F9" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="G9" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="H9" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -42797,13 +42848,13 @@
         <v>coral</v>
       </c>
       <c r="F10" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2845</v>
+      </c>
+      <c r="H10" t="s">
         <v>2838</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2846</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2839</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -42818,10 +42869,10 @@
         <v>2601</v>
       </c>
       <c r="B11" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="C11" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -42832,10 +42883,10 @@
         <v>coral</v>
       </c>
       <c r="F11" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="G11" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -42850,10 +42901,10 @@
         <v>2602</v>
       </c>
       <c r="B12" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="C12" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -42864,10 +42915,10 @@
         <v>coral</v>
       </c>
       <c r="F12" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="H12" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -42882,10 +42933,10 @@
         <v>2603</v>
       </c>
       <c r="B13" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="C13" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -42896,10 +42947,10 @@
         <v>coral</v>
       </c>
       <c r="F13" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G13" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -42914,7 +42965,7 @@
         <v>2604</v>
       </c>
       <c r="B14" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -42925,13 +42976,13 @@
         <v>coral</v>
       </c>
       <c r="F14" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G14" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="H14" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -42943,10 +42994,10 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B15" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -42954,10 +43005,10 @@
         <v>1027</v>
       </c>
       <c r="B16" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C16" t="s">
         <v>2985</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2986</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -42968,10 +43019,10 @@
         <v>coral</v>
       </c>
       <c r="F16" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H16" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -42983,10 +43034,10 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B17" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -42997,10 +43048,10 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F17" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H17" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -43012,13 +43063,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B18" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C18" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -43029,10 +43080,10 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F18" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G18" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -43044,13 +43095,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B19" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C19" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -43061,10 +43112,10 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F19" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G19" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -43076,13 +43127,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B20" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="C20" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -43093,10 +43144,10 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F20" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G20" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -43111,10 +43162,10 @@
         <v>2605</v>
       </c>
       <c r="B21" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="C21" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -43125,7 +43176,7 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F21" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -43137,13 +43188,13 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C22" t="s">
         <v>2991</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2992</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D23" si="6">IF(AND(ISBLANK(F22),ISBLANK(G22),ISBLANK(H22)), E22, _xlfn.CONCAT(E22,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F22),"",_xlfn.CONCAT(F22,"-")),IF(ISBLANK(G22),"",_xlfn.CONCAT(G22,"-")),IF(ISBLANK(H22),"",_xlfn.CONCAT(H22,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
@@ -43154,10 +43205,10 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F22" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="G22" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -43169,13 +43220,13 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B23" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="C23" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="6"/>
@@ -43186,7 +43237,7 @@
         <v>energia-de-maré</v>
       </c>
       <c r="F23" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -43209,13 +43260,13 @@
         <v>oceano</v>
       </c>
       <c r="F24" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G24" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="H24" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -43238,10 +43289,10 @@
         <v>petróleo</v>
       </c>
       <c r="F25" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="G25" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -43264,13 +43315,13 @@
         <v>petróleo</v>
       </c>
       <c r="F26" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G26" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="H26" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -43293,13 +43344,13 @@
         <v>petróleo</v>
       </c>
       <c r="F27" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G27" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="H27" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -43322,10 +43373,10 @@
         <v>petróleo</v>
       </c>
       <c r="F28" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G28" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -43348,10 +43399,10 @@
         <v>petróleo</v>
       </c>
       <c r="F29" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="H29" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -43374,13 +43425,13 @@
         <v>petróleo</v>
       </c>
       <c r="F30" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G30" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="H30" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -43409,10 +43460,10 @@
         <v>petróleo</v>
       </c>
       <c r="F31" t="s">
+        <v>2847</v>
+      </c>
+      <c r="G31" t="s">
         <v>2848</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2849</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -43424,7 +43475,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -43435,10 +43486,10 @@
         <v>petróleo</v>
       </c>
       <c r="F32" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="G32" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -43467,13 +43518,13 @@
         <v>gás</v>
       </c>
       <c r="F33" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="G33" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="H33" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -43502,13 +43553,13 @@
         <v>petróleo</v>
       </c>
       <c r="F34" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="G34" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="H34" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -43537,7 +43588,7 @@
         <v>petróleo</v>
       </c>
       <c r="F35" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -43563,10 +43614,10 @@
         <v>gás</v>
       </c>
       <c r="F36" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H36" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -43589,10 +43640,10 @@
         <v>petróleo</v>
       </c>
       <c r="F37" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G37" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -43615,10 +43666,10 @@
         <v>petróleo</v>
       </c>
       <c r="F38" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="G38" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -43641,10 +43692,10 @@
         <v>petróleo</v>
       </c>
       <c r="F39" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="H39" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -43667,10 +43718,10 @@
         <v>petróleo</v>
       </c>
       <c r="F40" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H40" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -43693,13 +43744,13 @@
         <v>petróleo</v>
       </c>
       <c r="F41" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G41" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H41" t="s">
         <v>2929</v>
-      </c>
-      <c r="H41" t="s">
-        <v>2930</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -43722,10 +43773,10 @@
         <v>petróleo-gás</v>
       </c>
       <c r="F42" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="G42" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -43754,7 +43805,7 @@
         <v>petróleo</v>
       </c>
       <c r="F43" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -43777,13 +43828,13 @@
         <v>petróleo</v>
       </c>
       <c r="F44" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G44" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="H44" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -43806,10 +43857,10 @@
         <v>petróleo-engenharia</v>
       </c>
       <c r="F45" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G45" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -43835,10 +43886,10 @@
         <v>petróleo</v>
       </c>
       <c r="F46" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="G46" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -43861,7 +43912,7 @@
         <v>petróleo</v>
       </c>
       <c r="F47" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -43884,7 +43935,7 @@
         <v>petróleo</v>
       </c>
       <c r="F48" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -43907,10 +43958,10 @@
         <v>petróleo</v>
       </c>
       <c r="F49" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G49" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -43939,10 +43990,10 @@
         <v>petróleo</v>
       </c>
       <c r="F50" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H50" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -43971,10 +44022,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F51" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H51" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -43997,10 +44048,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F52" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H52" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -44015,7 +44066,7 @@
         <v>2576</v>
       </c>
       <c r="B53" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -44026,10 +44077,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F53" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G53" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -44044,7 +44095,7 @@
         <v>2577</v>
       </c>
       <c r="B54" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -44055,13 +44106,13 @@
         <v>tartarugas</v>
       </c>
       <c r="F54" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G54" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="H54" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -44087,13 +44138,13 @@
         <v>tartarugas</v>
       </c>
       <c r="F55" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="G55" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="H55" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -44119,10 +44170,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F56" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G56" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -44137,7 +44188,7 @@
         <v>2578</v>
       </c>
       <c r="B57" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -44148,10 +44199,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F57" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G57" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -44166,7 +44217,7 @@
         <v>2579</v>
       </c>
       <c r="B58" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -44177,10 +44228,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F58" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G58" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -44195,7 +44246,7 @@
         <v>2580</v>
       </c>
       <c r="B59" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -44206,7 +44257,7 @@
         <v>tartarugas</v>
       </c>
       <c r="F59" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -44229,10 +44280,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F60" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="G60" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -44247,10 +44298,10 @@
         <v>2582</v>
       </c>
       <c r="B61" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="C61" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -44261,13 +44312,13 @@
         <v>tartarugas</v>
       </c>
       <c r="F61" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G61" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="H61" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -44279,10 +44330,10 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B62" t="s">
         <v>2831</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2832</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -44293,13 +44344,13 @@
         <v>tartarugas</v>
       </c>
       <c r="F62" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="H62" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="I62" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -44322,10 +44373,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F63" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H63" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -44348,10 +44399,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F64" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G64" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -44365,6 +44416,12 @@
       <c r="A65" t="s">
         <v>2585</v>
       </c>
+      <c r="B65" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3016</v>
+      </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
         <v>tartarugas--detalhar-reprodução</v>
@@ -44374,10 +44431,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F65" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H65" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -44400,10 +44457,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F66" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="H66" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -44418,7 +44475,7 @@
         <v>2587</v>
       </c>
       <c r="B67" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="0"/>
@@ -44429,10 +44486,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F67" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="H67" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -44455,10 +44512,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F68" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H68" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -44481,10 +44538,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F69" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H69" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -44507,10 +44564,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F70" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H70" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -44525,7 +44582,7 @@
         <v>2591</v>
       </c>
       <c r="B71" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="8"/>
@@ -44536,7 +44593,7 @@
         <v>tartarugas</v>
       </c>
       <c r="F71" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -44550,6 +44607,12 @@
       <c r="A72" t="s">
         <v>2592</v>
       </c>
+      <c r="B72" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3014</v>
+      </c>
       <c r="D72" t="str">
         <f t="shared" si="8"/>
         <v>tartarugas--detalhar-idade-reprodutiva</v>
@@ -44559,10 +44622,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F72" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H72" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -44585,10 +44648,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F73" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H73" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -44617,10 +44680,10 @@
         <v>tartarugas</v>
       </c>
       <c r="F74" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H74" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -44643,10 +44706,10 @@
         <v>corrente</v>
       </c>
       <c r="F75" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H75" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -44669,10 +44732,10 @@
         <v>oceano</v>
       </c>
       <c r="F76" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G76" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -44695,10 +44758,10 @@
         <v>oceano</v>
       </c>
       <c r="F77" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H77" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -44721,10 +44784,10 @@
         <v>oceano</v>
       </c>
       <c r="F78" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G78" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -44747,10 +44810,10 @@
         <v>oceano</v>
       </c>
       <c r="F79" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="H79" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -44773,10 +44836,10 @@
         <v>petróleo</v>
       </c>
       <c r="F80" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H80" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -44799,10 +44862,10 @@
         <v>oceano</v>
       </c>
       <c r="F81" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H81" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -44825,10 +44888,10 @@
         <v>oceano</v>
       </c>
       <c r="F82" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G82" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -44851,10 +44914,10 @@
         <v>oceano</v>
       </c>
       <c r="F83" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="G83" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="I83" t="s">
         <v>1431</v>
@@ -44880,10 +44943,10 @@
         <v>oceano</v>
       </c>
       <c r="F84" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H84" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>1446</v>
@@ -44909,13 +44972,13 @@
         <v>oceano</v>
       </c>
       <c r="F85" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G85" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="H85" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -44938,10 +45001,10 @@
         <v>oceano</v>
       </c>
       <c r="F86" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G86" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="H86" t="s">
         <v>2708</v>
@@ -44967,7 +45030,7 @@
         <v>oceano</v>
       </c>
       <c r="F87" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -44990,10 +45053,10 @@
         <v>oceano</v>
       </c>
       <c r="F88" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G88" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>1325</v>
@@ -45008,7 +45071,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="8"/>
@@ -45019,10 +45082,10 @@
         <v>petróleo</v>
       </c>
       <c r="F89" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="H89" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -45045,10 +45108,10 @@
         <v>oceano</v>
       </c>
       <c r="F90" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="G90" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -45060,7 +45123,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ref="D91" si="11">IF(AND(ISBLANK(F91),ISBLANK(G91),ISBLANK(H91)), E91, _xlfn.CONCAT(E91,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F91),"",_xlfn.CONCAT(F91,"-")),IF(ISBLANK(G91),"",_xlfn.CONCAT(G91,"-")),IF(ISBLANK(H91),"",_xlfn.CONCAT(H91,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
@@ -45071,10 +45134,10 @@
         <v>oceano</v>
       </c>
       <c r="F91" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G91" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="P91">
         <v>1</v>
@@ -45117,13 +45180,13 @@
         <v>oceano</v>
       </c>
       <c r="F93" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H93" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="I93" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -45146,10 +45209,10 @@
         <v>oceano</v>
       </c>
       <c r="F94" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H94" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -45172,10 +45235,10 @@
         <v>oceano</v>
       </c>
       <c r="F95" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G95" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>1245</v>
@@ -45201,7 +45264,7 @@
         <v>oceano</v>
       </c>
       <c r="F96" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -45224,10 +45287,10 @@
         <v>oceano</v>
       </c>
       <c r="F97" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H97" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -45250,10 +45313,10 @@
         <v>oceano</v>
       </c>
       <c r="F98" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G98" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="P98">
         <v>1</v>
@@ -45305,7 +45368,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="8"/>
@@ -45336,10 +45399,10 @@
         <v>oceano</v>
       </c>
       <c r="F102" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="G102" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -45759,6 +45822,9 @@
       <c r="A123" s="5" t="s">
         <v>1054</v>
       </c>
+      <c r="B123" t="s">
+        <v>3010</v>
+      </c>
       <c r="D123" t="str">
         <f t="shared" si="8"/>
         <v>maré--motivo</v>
@@ -45768,7 +45834,7 @@
         <v>maré</v>
       </c>
       <c r="F123" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="R123">
         <v>1</v>
@@ -45791,10 +45857,10 @@
         <v>outras</v>
       </c>
       <c r="F124" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G124" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="AD124">
         <v>1</v>
@@ -45808,6 +45874,9 @@
       <c r="A125" s="5" t="s">
         <v>1833</v>
       </c>
+      <c r="B125" t="s">
+        <v>3008</v>
+      </c>
       <c r="D125" t="str">
         <f t="shared" si="8"/>
         <v>maré</v>
@@ -45828,6 +45897,9 @@
       <c r="A126" s="5" t="s">
         <v>1140</v>
       </c>
+      <c r="B126" t="s">
+        <v>3009</v>
+      </c>
       <c r="D126" t="str">
         <f t="shared" si="8"/>
         <v>maré</v>
@@ -45848,14 +45920,29 @@
       <c r="A127" s="7" t="s">
         <v>1279</v>
       </c>
+      <c r="B127" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3005</v>
+      </c>
       <c r="D127" t="str">
         <f t="shared" si="8"/>
-        <v>maré</v>
+        <v>maré--detalhar-frequência</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="9"/>
         <v>maré</v>
       </c>
+      <c r="F127" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G127" t="s">
+        <v>3001</v>
+      </c>
+      <c r="I127" t="s">
+        <v>3007</v>
+      </c>
       <c r="R127">
         <v>1</v>
       </c>
@@ -45868,6 +45955,12 @@
       <c r="A128" s="7" t="s">
         <v>2672</v>
       </c>
+      <c r="B128" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3005</v>
+      </c>
       <c r="D128" t="str">
         <f t="shared" si="8"/>
         <v>maré</v>
@@ -45888,6 +45981,12 @@
       <c r="A129" s="7" t="s">
         <v>1488</v>
       </c>
+      <c r="B129" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3005</v>
+      </c>
       <c r="D129" t="str">
         <f t="shared" si="8"/>
         <v>maré</v>
@@ -45908,6 +46007,12 @@
       <c r="A130" s="7" t="s">
         <v>1552</v>
       </c>
+      <c r="B130" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3005</v>
+      </c>
       <c r="D130" t="str">
         <f t="shared" si="8"/>
         <v>maré</v>
@@ -45930,12 +46035,15 @@
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:D194" si="13">IF(AND(ISBLANK(F131),ISBLANK(G131),ISBLANK(H131)), E131, _xlfn.CONCAT(E131,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F131),"",_xlfn.CONCAT(F131,"-")),IF(ISBLANK(G131),"",_xlfn.CONCAT(G131,"-")),IF(ISBLANK(H131),"",_xlfn.CONCAT(H131,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
-        <v>corrente</v>
+        <v>corrente--listar</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ref="E131:E194" si="14">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J131=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K131=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L131=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M131=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N131=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O131=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P131=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q131=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R131=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S131=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T131=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U131=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V131=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W131=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X131=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y131=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z131=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA131=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB131=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC131=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD131=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>corrente</v>
       </c>
+      <c r="F131" t="s">
+        <v>2837</v>
+      </c>
       <c r="S131">
         <v>1</v>
       </c>
@@ -45968,14 +46076,20 @@
       <c r="A133" s="7" t="s">
         <v>2621</v>
       </c>
+      <c r="B133" t="s">
+        <v>3011</v>
+      </c>
       <c r="D133" t="str">
         <f t="shared" si="13"/>
-        <v>corrente</v>
+        <v>corrente--definição</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="14"/>
         <v>corrente</v>
       </c>
+      <c r="F133" t="s">
+        <v>2958</v>
+      </c>
       <c r="S133">
         <v>1</v>
       </c>
@@ -45990,12 +46104,18 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="13"/>
-        <v>corrente</v>
+        <v>corrente--motivo</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="14"/>
         <v>corrente</v>
       </c>
+      <c r="F134" t="s">
+        <v>2856</v>
+      </c>
+      <c r="I134" t="s">
+        <v>3012</v>
+      </c>
       <c r="S134">
         <v>1</v>
       </c>
@@ -46135,10 +46255,10 @@
         <v>2706</v>
       </c>
       <c r="B141" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="C141" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="13"/>
@@ -46149,10 +46269,10 @@
         <v>flora</v>
       </c>
       <c r="F141" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G141" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="U141">
         <v>1</v>
@@ -46164,13 +46284,13 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B142" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C142" t="s">
         <v>2818</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2819</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="13"/>
@@ -46181,10 +46301,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F142" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G142" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="U142">
         <v>1</v>
@@ -46199,13 +46319,13 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C143" t="s">
         <v>2814</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2815</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="13"/>
@@ -46216,10 +46336,10 @@
         <v>flora-fauna</v>
       </c>
       <c r="F143" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G143" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="U143">
         <v>1</v>
@@ -46251,10 +46371,10 @@
         <v>fauna</v>
       </c>
       <c r="F144" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G144" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="V144">
         <v>1</v>
@@ -46283,10 +46403,10 @@
         <v>coral</v>
       </c>
       <c r="F145" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H145" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -46312,10 +46432,10 @@
         <v>fauna</v>
       </c>
       <c r="F146" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G146" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="V146">
         <v>1</v>
@@ -46341,10 +46461,10 @@
         <v>fauna</v>
       </c>
       <c r="F147" t="s">
+        <v>2958</v>
+      </c>
+      <c r="G147" t="s">
         <v>2959</v>
-      </c>
-      <c r="G147" t="s">
-        <v>2960</v>
       </c>
       <c r="V147">
         <v>1</v>
@@ -46370,13 +46490,13 @@
         <v>fauna</v>
       </c>
       <c r="F148" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G148" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="H148" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="V148">
         <v>1</v>
@@ -46405,10 +46525,10 @@
         <v>fauna</v>
       </c>
       <c r="F149" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G149" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="V149">
         <v>1</v>
@@ -46437,10 +46557,10 @@
         <v>fauna</v>
       </c>
       <c r="F150" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G150" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="V150">
         <v>1</v>
@@ -46455,7 +46575,7 @@
         <v>2799</v>
       </c>
       <c r="B151" t="s">
-        <v>2805</v>
+        <v>2999</v>
       </c>
       <c r="C151" t="s">
         <v>2801</v>
@@ -46469,10 +46589,10 @@
         <v>fauna</v>
       </c>
       <c r="F151" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G151" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="V151">
         <v>1</v>
@@ -46484,7 +46604,10 @@
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>2882</v>
+        <v>2881</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3000</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="13"/>
@@ -46495,13 +46618,13 @@
         <v>fauna</v>
       </c>
       <c r="F152" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="G152" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="H152" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="V152">
         <v>1</v>
@@ -46516,10 +46639,10 @@
         <v>2679</v>
       </c>
       <c r="B153" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="C153" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="13"/>
@@ -46530,13 +46653,13 @@
         <v>fauna</v>
       </c>
       <c r="F153" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="G153" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="H153" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="V153">
         <v>1</v>
@@ -46548,10 +46671,10 @@
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B154" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="13"/>
@@ -46562,10 +46685,10 @@
         <v>fauna</v>
       </c>
       <c r="F154" t="s">
+        <v>2868</v>
+      </c>
+      <c r="G154" t="s">
         <v>2869</v>
-      </c>
-      <c r="G154" t="s">
-        <v>2870</v>
       </c>
       <c r="V154">
         <v>1</v>
@@ -46577,13 +46700,13 @@
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C155" t="s">
         <v>2810</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2812</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2811</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="13"/>
@@ -46594,10 +46717,10 @@
         <v>fauna-turismo</v>
       </c>
       <c r="F155" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="G155" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="V155">
         <v>1</v>
@@ -46675,7 +46798,7 @@
         <v>2683</v>
       </c>
       <c r="B159" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C159" t="s">
         <v>2755</v>
@@ -46689,10 +46812,10 @@
         <v>fauna</v>
       </c>
       <c r="F159" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G159" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="V159">
         <v>1</v>
@@ -46707,7 +46830,7 @@
         <v>2768</v>
       </c>
       <c r="B160" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C160" t="s">
         <v>2770</v>
@@ -46721,10 +46844,10 @@
         <v>fauna</v>
       </c>
       <c r="F160" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G160" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="V160">
         <v>1</v>
@@ -46750,10 +46873,10 @@
         <v>fauna</v>
       </c>
       <c r="F161" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G161" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="V161">
         <v>1</v>
@@ -46768,7 +46891,7 @@
         <v>2769</v>
       </c>
       <c r="B162" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C162" t="s">
         <v>2771</v>
@@ -46782,10 +46905,10 @@
         <v>fauna</v>
       </c>
       <c r="F162" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G162" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="V162">
         <v>1</v>
@@ -46814,10 +46937,10 @@
         <v>fauna</v>
       </c>
       <c r="F163" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G163" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="V163">
         <v>1</v>
@@ -46843,10 +46966,10 @@
         <v>fauna</v>
       </c>
       <c r="F164" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G164" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="V164">
         <v>1</v>
@@ -46875,10 +46998,10 @@
         <v>fauna-turismo</v>
       </c>
       <c r="F165" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="G165" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="V165">
         <v>1</v>
@@ -46927,10 +47050,10 @@
         <v>fauna</v>
       </c>
       <c r="F167" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G167" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="V167">
         <v>1</v>
@@ -46959,10 +47082,10 @@
         <v>fauna</v>
       </c>
       <c r="F168" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G168" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="V168">
         <v>1</v>
@@ -46988,10 +47111,10 @@
         <v>fauna</v>
       </c>
       <c r="F169" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G169" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="V169">
         <v>1</v>
@@ -47017,10 +47140,10 @@
         <v>fauna</v>
       </c>
       <c r="F170" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G170" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="V170">
         <v>1</v>
@@ -47069,10 +47192,10 @@
         <v>fauna</v>
       </c>
       <c r="F172" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G172" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="V172">
         <v>1</v>
@@ -47098,10 +47221,10 @@
         <v>fauna</v>
       </c>
       <c r="F173" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="G173" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="V173">
         <v>1</v>
@@ -47130,10 +47253,10 @@
         <v>fauna</v>
       </c>
       <c r="F174" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G174" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="V174">
         <v>1</v>
@@ -47162,13 +47285,13 @@
         <v>fauna</v>
       </c>
       <c r="F175" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G175" t="s">
+        <v>2877</v>
+      </c>
+      <c r="I175" t="s">
         <v>2878</v>
-      </c>
-      <c r="I175" t="s">
-        <v>2879</v>
       </c>
       <c r="V175">
         <v>1</v>
@@ -47197,10 +47320,10 @@
         <v>fauna</v>
       </c>
       <c r="F176" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G176" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="V176">
         <v>1</v>
@@ -47215,7 +47338,7 @@
         <v>2759</v>
       </c>
       <c r="B177" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C177" t="s">
         <v>2760</v>
@@ -47229,13 +47352,13 @@
         <v>fauna</v>
       </c>
       <c r="F177" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="G177" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="I177" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="V177">
         <v>1</v>
@@ -47261,10 +47384,10 @@
         <v>fauna</v>
       </c>
       <c r="F178" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G178" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="V178">
         <v>1</v>
@@ -47853,10 +47976,10 @@
         <v>gás</v>
       </c>
       <c r="F207" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="H207" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="M207">
         <v>1</v>
@@ -47879,13 +48002,13 @@
         <v>outras</v>
       </c>
       <c r="F208" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="G208" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="H208" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="AD208">
         <v>1</v>
@@ -47914,13 +48037,13 @@
         <v>outras</v>
       </c>
       <c r="F209" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="G209" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="H209" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="AD209">
         <v>1</v>
@@ -47949,13 +48072,13 @@
         <v>outras</v>
       </c>
       <c r="F210" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="G210" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="H210" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="AD210">
         <v>1</v>

--- a/results/Perguntas.xlsx
+++ b/results/Perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Python\Filter-MSMARCO\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F5FDC-B48B-41C3-BA50-81BFC86DF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7868159-36CF-4CD6-B166-CC6BC928889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" firstSheet="3" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
+    <workbookView xWindow="11520" yWindow="1224" windowWidth="8748" windowHeight="9876" tabRatio="565" firstSheet="3" activeTab="3" xr2:uid="{90144E09-7748-454D-AFCB-3F2406963FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_qna_manual_sorted" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9097" uniqueCount="3017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9101" uniqueCount="3021">
   <si>
     <t>query</t>
   </si>
@@ -9081,9 +9081,6 @@
     <t>O que causa as correntes oceânicas?</t>
   </si>
   <si>
-    <t>Isso depende, principalmente, do tamanho da tartaruga adulta de cada espécie. Para as tartarugas bem pequenas (menos que 10 cm de comprimento), pode ser 2 a 3 anos, enquanto as maiores podem levar até 50 anos para atingir a maturidade sexual.</t>
-  </si>
-  <si>
     <t>https://www.britannica.com/animal/turtle-reptile/Reproduction#:~:text=The%20age%20at%20which%20turtles,and%20become%20sexually%20mature%20at</t>
   </si>
   <si>
@@ -9091,6 +9088,21 @@
   </si>
   <si>
     <t>https://www.britannica.com/animal/turtle-reptile/Reproduction</t>
+  </si>
+  <si>
+    <t>Isso depende, principalmente, do tamanho da tartaruga adulta de cada espécie. Para as tartarugas bem pequenas (menos que 10 cm de comprimento), pode ser 2 a 3 anos, enquanto as maiores podem levar até 50 anos para atingir a maturidade sexual. No caso de tartarugas marinhas, costuma variar entre 15 e 30 anos.</t>
+  </si>
+  <si>
+    <t>Apesar das histórias que costumamos ouvir, há poucos relatos de tartarugas que alcançaram mais de 100 anos de idade. No geral, depende muito da espécie, assim como a idade reprodutiva, podendo chegar a 70 anos. Em ambientes especialmente bem cuidados, como zoológicos, elas podem ir mais longe. O exemplo mais fascinante é o caso de Jonathan, um jabuti que está sob cuidado humano desde 1882 e é o animal terrestre mais velho que ainda vive. Estima-se que ele tenha nascido, no máximo, em 1832, ou seja, ele possui quase 190 anos!</t>
+  </si>
+  <si>
+    <t>As primeiras tartarugas conhecidas são do Período Permiano, entre 290 e 248 milhões de anos atrás! Elas eram da espécie Eunotosaurus africanus, que tinha dentes (as de hoje não têm) e a estrutura óssea precursora da carapaça.</t>
+  </si>
+  <si>
+    <t>Quando adultas, tartarugas possuem poucos predadores naturais, como as orcas e tubarões. O maior risco é assim que nascem, ou até mesmo antes: diversos animais se alimentam dos ovos e das recém-nascidas, dentre eles siris, aves, polvos e peixes. A consequência é que menos de 1 a cada mil filhotes atinge a idade adulta!</t>
+  </si>
+  <si>
+    <t>https://www.seaturtlecamp.com/sea-turtle-predators/--http://tamar.org.br/interna.php?cod=97</t>
   </si>
 </sst>
 </file>
@@ -9207,7 +9219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9230,11 +9242,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF96F6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9311,7 +9345,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}" name="Table1" displayName="Table1" ref="A1:AB571" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:AB571" xr:uid="{B1E19D45-D2D6-4AF6-8892-84F72BA5E43C}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{8C3B9576-1382-4D59-B98B-98BDB5F95A2F}" name="id"/>
@@ -42478,13 +42512,13 @@
   <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="77.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
@@ -42599,11 +42633,11 @@
         <v>2968</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" ref="D2:D65" si="0">IF(AND(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2)), E2, _xlfn.CONCAT(E2,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F2),"",_xlfn.CONCAT(F2,"-")),IF(ISBLANK(G2),"",_xlfn.CONCAT(G2,"-")),IF(ISBLANK(H2),"",_xlfn.CONCAT(H2,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
         <v>coral-turismo--efeito-turismo</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" ref="E2:E65" si="1">_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J2=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K2=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L2=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M2=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N2=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O2=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P2=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q2=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R2=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S2=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T2=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U2=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V2=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W2=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X2=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y2=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z2=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA2=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB2=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC2=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD2=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
         <v>coral-turismo</v>
       </c>
       <c r="F2" t="s">
@@ -42619,7 +42653,7 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <f t="shared" ref="AE2:AE69" si="0">IF(SUM(J2:AD2)=0,"",SUM(J2:AD2))</f>
+        <f t="shared" ref="AE2:AE69" si="2">IF(SUM(J2:AD2)=0,"",SUM(J2:AD2))</f>
         <v>2</v>
       </c>
     </row>
@@ -42634,11 +42668,11 @@
         <v>2970</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(AND(ISBLANK(F3),ISBLANK(G3),ISBLANK(H3)), E3, _xlfn.CONCAT(E3,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F3),"",_xlfn.CONCAT(F3,"-")),IF(ISBLANK(G3),"",_xlfn.CONCAT(G3,"-")),IF(ISBLANK(H3),"",_xlfn.CONCAT(H3,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--definição-recife</v>
       </c>
       <c r="E3" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J3=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K3=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L3=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M3=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N3=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O3=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P3=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q3=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R3=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S3=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T3=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U3=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V3=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W3=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X3=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y3=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z3=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA3=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB3=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC3=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD3=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F3" t="s">
@@ -42651,7 +42685,7 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42663,11 +42697,11 @@
         <v>2763</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(AND(ISBLANK(F4),ISBLANK(G4),ISBLANK(H4)), E4, _xlfn.CONCAT(E4,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F4),"",_xlfn.CONCAT(F4,"-")),IF(ISBLANK(G4),"",_xlfn.CONCAT(G4,"-")),IF(ISBLANK(H4),"",_xlfn.CONCAT(H4,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--definição</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J4=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K4=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L4=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M4=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N4=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O4=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P4=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q4=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R4=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S4=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T4=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U4=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V4=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W4=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X4=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y4=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z4=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA4=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB4=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC4=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD4=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F4" t="s">
@@ -42677,7 +42711,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42689,11 +42723,11 @@
         <v>2764</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(AND(ISBLANK(F5),ISBLANK(G5),ISBLANK(H5)), E5, _xlfn.CONCAT(E5,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F5),"",_xlfn.CONCAT(F5,"-")),IF(ISBLANK(G5),"",_xlfn.CONCAT(G5,"-")),IF(ISBLANK(H5),"",_xlfn.CONCAT(H5,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--composição</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J5=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K5=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L5=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M5=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N5=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O5=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P5=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q5=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R5=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S5=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T5=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U5=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V5=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W5=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X5=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y5=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z5=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA5=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB5=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC5=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD5=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F5" t="s">
@@ -42703,7 +42737,7 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42715,11 +42749,11 @@
         <v>2964</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(AND(ISBLANK(F6),ISBLANK(G6),ISBLANK(H6)), E6, _xlfn.CONCAT(E6,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F6),"",_xlfn.CONCAT(F6,"-")),IF(ISBLANK(G6),"",_xlfn.CONCAT(G6,"-")),IF(ISBLANK(H6),"",_xlfn.CONCAT(H6,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--definição-branqueamento</v>
       </c>
       <c r="E6" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J6=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K6=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L6=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M6=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N6=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O6=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P6=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q6=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R6=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S6=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T6=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U6=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V6=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W6=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X6=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y6=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z6=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA6=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB6=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC6=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD6=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F6" t="s">
@@ -42732,7 +42766,7 @@
         <v>1</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42744,11 +42778,11 @@
         <v>2966</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(AND(ISBLANK(F7),ISBLANK(G7),ISBLANK(H7)), E7, _xlfn.CONCAT(E7,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F7),"",_xlfn.CONCAT(F7,"-")),IF(ISBLANK(G7),"",_xlfn.CONCAT(G7,"-")),IF(ISBLANK(H7),"",_xlfn.CONCAT(H7,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--motivo-branqueamento</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J7=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K7=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L7=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M7=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N7=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O7=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P7=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q7=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R7=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S7=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T7=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U7=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V7=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W7=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X7=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y7=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z7=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA7=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB7=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC7=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD7=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F7" t="s">
@@ -42761,7 +42795,7 @@
         <v>1</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42776,11 +42810,11 @@
         <v>2975</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(AND(ISBLANK(F8),ISBLANK(G8),ISBLANK(H8)), E8, _xlfn.CONCAT(E8,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F8),"",_xlfn.CONCAT(F8,"-")),IF(ISBLANK(G8),"",_xlfn.CONCAT(G8,"-")),IF(ISBLANK(H8),"",_xlfn.CONCAT(H8,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--maior-recife-mundo</v>
       </c>
       <c r="E8" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J8=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K8=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L8=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M8=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N8=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O8=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P8=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q8=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R8=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S8=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T8=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U8=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V8=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W8=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X8=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y8=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z8=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA8=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB8=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC8=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD8=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F8" t="s">
@@ -42796,7 +42830,7 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <f t="shared" ref="AE8" si="1">IF(SUM(J8:AD8)=0,"",SUM(J8:AD8))</f>
+        <f t="shared" ref="AE8" si="3">IF(SUM(J8:AD8)=0,"",SUM(J8:AD8))</f>
         <v>1</v>
       </c>
     </row>
@@ -42811,11 +42845,11 @@
         <v>2975</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(AND(ISBLANK(F9),ISBLANK(G9),ISBLANK(H9)), E9, _xlfn.CONCAT(E9,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F9),"",_xlfn.CONCAT(F9,"-")),IF(ISBLANK(G9),"",_xlfn.CONCAT(G9,"-")),IF(ISBLANK(H9),"",_xlfn.CONCAT(H9,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--maior-recife-brasil</v>
       </c>
       <c r="E9" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J9=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K9=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L9=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M9=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N9=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O9=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P9=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q9=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R9=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S9=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T9=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U9=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V9=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W9=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X9=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y9=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z9=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA9=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB9=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC9=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD9=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F9" t="s">
@@ -42831,7 +42865,7 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42840,11 +42874,11 @@
         <v>2600</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(AND(ISBLANK(F10),ISBLANK(G10),ISBLANK(H10)), E10, _xlfn.CONCAT(E10,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F10),"",_xlfn.CONCAT(F10,"-")),IF(ISBLANK(G10),"",_xlfn.CONCAT(G10,"-")),IF(ISBLANK(H10),"",_xlfn.CONCAT(H10,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--listar-iniciativas-governo</v>
       </c>
       <c r="E10" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J10=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K10=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L10=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M10=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N10=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O10=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P10=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q10=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R10=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S10=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T10=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U10=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V10=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W10=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X10=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y10=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z10=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA10=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB10=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC10=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD10=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F10" t="s">
@@ -42860,7 +42894,7 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42875,11 +42909,11 @@
         <v>2970</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(AND(ISBLANK(F11),ISBLANK(G11),ISBLANK(H11)), E11, _xlfn.CONCAT(E11,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F11),"",_xlfn.CONCAT(F11,"-")),IF(ISBLANK(G11),"",_xlfn.CONCAT(G11,"-")),IF(ISBLANK(H11),"",_xlfn.CONCAT(H11,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--localização-recife</v>
       </c>
       <c r="E11" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J11=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K11=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L11=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M11=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N11=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O11=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P11=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q11=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R11=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S11=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T11=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U11=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V11=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W11=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X11=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y11=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z11=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA11=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB11=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC11=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD11=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F11" t="s">
@@ -42892,7 +42926,7 @@
         <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42907,11 +42941,11 @@
         <v>2970</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(AND(ISBLANK(F12),ISBLANK(G12),ISBLANK(H12)), E12, _xlfn.CONCAT(E12,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F12),"",_xlfn.CONCAT(F12,"-")),IF(ISBLANK(G12),"",_xlfn.CONCAT(G12,"-")),IF(ISBLANK(H12),"",_xlfn.CONCAT(H12,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--listar-tipos</v>
       </c>
       <c r="E12" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J12=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K12=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L12=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M12=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N12=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O12=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P12=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q12=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R12=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S12=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T12=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U12=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V12=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W12=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X12=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y12=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z12=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA12=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB12=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC12=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD12=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F12" t="s">
@@ -42924,7 +42958,7 @@
         <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42939,11 +42973,11 @@
         <v>2979</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(AND(ISBLANK(F13),ISBLANK(G13),ISBLANK(H13)), E13, _xlfn.CONCAT(E13,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F13),"",_xlfn.CONCAT(F13,"-")),IF(ISBLANK(G13),"",_xlfn.CONCAT(G13,"-")),IF(ISBLANK(H13),"",_xlfn.CONCAT(H13,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--definição-recife-artificial</v>
       </c>
       <c r="E13" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J13=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K13=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L13=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M13=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N13=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O13=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P13=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q13=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R13=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S13=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T13=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U13=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V13=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W13=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X13=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y13=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z13=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA13=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB13=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC13=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD13=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F13" t="s">
@@ -42956,7 +42990,7 @@
         <v>1</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -42968,11 +43002,11 @@
         <v>2982</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(AND(ISBLANK(F14),ISBLANK(G14),ISBLANK(H14)), E14, _xlfn.CONCAT(E14,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F14),"",_xlfn.CONCAT(F14,"-")),IF(ISBLANK(G14),"",_xlfn.CONCAT(G14,"-")),IF(ISBLANK(H14),"",_xlfn.CONCAT(H14,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--efeito-branqueamento-ambiente</v>
       </c>
       <c r="E14" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J14=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K14=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L14=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M14=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N14=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O14=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P14=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q14=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R14=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S14=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T14=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U14=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V14=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W14=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X14=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y14=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z14=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA14=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB14=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC14=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD14=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F14" t="s">
@@ -42988,7 +43022,7 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43000,18 +43034,18 @@
         <v>2983</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(AND(ISBLANK(F15),ISBLANK(G15),ISBLANK(H15)), E15, _xlfn.CONCAT(E15,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F15),"",_xlfn.CONCAT(F15,"-")),IF(ISBLANK(G15),"",_xlfn.CONCAT(G15,"-")),IF(ISBLANK(H15),"",_xlfn.CONCAT(H15,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral</v>
       </c>
       <c r="E15" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J15=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K15=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L15=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M15=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N15=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O15=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P15=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q15=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R15=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S15=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T15=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U15=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V15=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W15=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X15=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y15=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z15=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA15=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB15=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC15=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD15=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43026,11 +43060,11 @@
         <v>2985</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(AND(ISBLANK(F16),ISBLANK(G16),ISBLANK(H16)), E16, _xlfn.CONCAT(E16,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F16),"",_xlfn.CONCAT(F16,"-")),IF(ISBLANK(G16),"",_xlfn.CONCAT(G16,"-")),IF(ISBLANK(H16),"",_xlfn.CONCAT(H16,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--detalhar-símbolo</v>
       </c>
       <c r="E16" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J16=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K16=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L16=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M16=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N16=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O16=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P16=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q16=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R16=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S16=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T16=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U16=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V16=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W16=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X16=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y16=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z16=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA16=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB16=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC16=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD16=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F16" t="s">
@@ -43043,7 +43077,7 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43058,11 +43092,11 @@
         <v>2767</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(AND(ISBLANK(F17),ISBLANK(G17),ISBLANK(H17)), E17, _xlfn.CONCAT(E17,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F17),"",_xlfn.CONCAT(F17,"-")),IF(ISBLANK(G17),"",_xlfn.CONCAT(G17,"-")),IF(ISBLANK(H17),"",_xlfn.CONCAT(H17,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>coral--detalhar-dieta</v>
       </c>
       <c r="E17" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J17=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K17=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L17=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M17=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N17=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O17=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P17=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q17=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R17=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S17=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T17=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U17=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V17=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W17=1, _xlfn.CONCAT(W$1,"-"), ""),IF(X17=1, _xlfn.CONCAT(X$1,"-"), ""),IF(Y17=1, _xlfn.CONCAT(Y$1,"-"), ""),IF(Z17=1, _xlfn.CONCAT(Z$1,"-"), ""),IF(AA17=1, _xlfn.CONCAT(AA$1,"-"), ""),IF(AB17=1, _xlfn.CONCAT(AB$1,"-"), ""),IF(AC17=1, _xlfn.CONCAT(AC$1,"-"), ""),IF(AD17=1, _xlfn.CONCAT(AD$1,"-"), "")),LEFT(_xlpm.X,LEN(_xlpm.X)-1))</f>
+        <f t="shared" si="1"/>
         <v>coral</v>
       </c>
       <c r="F17" t="s">
@@ -43075,7 +43109,7 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -43087,11 +43121,11 @@
         <v>2994</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(AND(ISBLANK(F18),ISBLANK(G18),ISBLANK(H18)), E18, _xlfn.CONCAT(E18,"--",_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(ISBLANK(F18),"",_xlfn.CONCAT(F18,"-")),IF(ISBLANK(G18),"",_xlfn.CONCAT(G18,"-")),IF(ISBLANK(H18),"",_xlfn.CONCAT(H18,"-"))),IF(_xlpm.X="","",LEFT(_xlpm.X,LEN(_xlpm.X)-1)))))</f>
+        <f t="shared" si="0"/>
         <v>energia-de-maré--efeito-ambiente</v>
       </c>
       <c r="E18" t="str">
-        <f>_xlfn.LET(_xlpm.X,_xlfn.CONCAT(IF(J18=1, _xlfn.CONCAT(J$1,"-"), ""), IF(K18=1, _xlfn.CONCAT(K$1,"-"), ""),IF(L18=1, _xlfn.CONCAT(L$1,"-"), ""),IF(M18=1, _xlfn.CONCAT(M$1,"-"), ""),IF(N18=1, _xlfn.CONCAT(N$1,"-"), ""),IF(O18=1, _xlfn.CONCAT(O$1,"-"), ""),IF(P18=1, _xlfn.CONCAT(P$1,"-"), ""),IF(Q18=1, _xlfn.CONCAT(Q$1,"-"), ""),IF(R18=1, _xlfn.CONCAT(R$1,"-"), ""),IF(S18=1, _xlfn.CONCAT(S$1,"-"), ""),IF(T18=1, _xlfn.CONCAT(T$1,"-"), ""),IF(U18=1, _xlfn.CONCAT(U$1,"-"), ""),IF(V18=1, _xlfn.CONCAT(V$1,"-"), ""),IF(W18=1, _xlf